--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckeecal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/matthew_mazer_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD3B8F50-4B8D-4278-9DF5-429E982FD36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{FD3B8F50-4B8D-4278-9DF5-429E982FD36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04352DC8-E7EF-486E-B186-861F97C6596B}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="22200" yWindow="3825" windowWidth="26370" windowHeight="14055" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="404">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -1221,6 +1221,33 @@
   </si>
   <si>
     <t>Flower Mound</t>
+  </si>
+  <si>
+    <t>ABM Industries, Inc. Flowers Baking Company</t>
+  </si>
+  <si>
+    <t>Tom Thumb Store #3854</t>
+  </si>
+  <si>
+    <t>Masonite Corporation (Greenville)</t>
+  </si>
+  <si>
+    <t>Packers Sanitation Services, Inc. (PSSI) Friona</t>
+  </si>
+  <si>
+    <t>Parmer</t>
+  </si>
+  <si>
+    <t>Friona</t>
+  </si>
+  <si>
+    <t>Genpact US Services LLC</t>
+  </si>
+  <si>
+    <t>Technica Corporation</t>
+  </si>
+  <si>
+    <t>Randalls #2490</t>
   </si>
 </sst>
 </file>
@@ -1660,26 +1687,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89BCF3A-B17F-44A2-A200-ED80B6FEE65F}">
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="3"/>
+    <col min="8" max="8" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1705,69 +1732,69 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>45278</v>
+        <v>45300</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" s="12">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="F2" s="11">
-        <v>45275</v>
+        <v>45353</v>
       </c>
       <c r="G2" s="11">
-        <v>45278</v>
+        <v>45300</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>45271</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>153</v>
+        <v>45300</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="12">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F3" s="11">
-        <v>45328</v>
+        <v>45339</v>
       </c>
       <c r="G3" s="11">
-        <v>45271</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>45300</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>45267</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>45299</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="12">
@@ -1777,330 +1804,330 @@
         <v>45266</v>
       </c>
       <c r="G4" s="11">
+        <v>45299</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>45299</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="12">
+        <v>103</v>
+      </c>
+      <c r="F5" s="11">
+        <v>45302</v>
+      </c>
+      <c r="G5" s="11">
+        <v>45299</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>45296</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="12">
+        <v>365</v>
+      </c>
+      <c r="F6" s="11">
+        <v>45350</v>
+      </c>
+      <c r="G6" s="11">
+        <v>45296</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>45296</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12">
+        <v>60</v>
+      </c>
+      <c r="F7" s="11">
+        <v>45337</v>
+      </c>
+      <c r="G7" s="11">
+        <v>45296</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>45295</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12">
+        <v>76</v>
+      </c>
+      <c r="F8" s="11">
+        <v>45332</v>
+      </c>
+      <c r="G8" s="11">
+        <v>45295</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>45278</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="12">
+        <v>256</v>
+      </c>
+      <c r="F9" s="11">
+        <v>45275</v>
+      </c>
+      <c r="G9" s="11">
+        <v>45278</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>45271</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="12">
+        <v>12</v>
+      </c>
+      <c r="F10" s="11">
+        <v>45328</v>
+      </c>
+      <c r="G10" s="11">
+        <v>45271</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>45267</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="12">
+        <v>75</v>
+      </c>
+      <c r="F11" s="11">
+        <v>45266</v>
+      </c>
+      <c r="G11" s="11">
+        <v>45267</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>45264</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E12" s="5">
         <v>89</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F12" s="4">
         <v>45324</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G12" s="4">
         <v>45264</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>45264</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E13" s="5">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F13" s="4">
         <v>45322</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G13" s="4">
         <v>45264</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="4">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>45264</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E14" s="5">
         <v>50</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F14" s="4">
         <v>45264</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G14" s="4">
         <v>45264</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="4">
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>45264</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E15" s="5">
         <v>92</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F15" s="4">
         <v>45322</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G15" s="4">
         <v>45264</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="4">
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>45261</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E16" s="5">
         <v>577</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F16" s="4">
         <v>45317</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G16" s="4">
         <v>45261</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="4">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>45257</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4">
-        <v>45252</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45257</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A11" s="4">
-        <v>45257</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5">
-        <v>64</v>
-      </c>
-      <c r="F11" s="4">
-        <v>45266</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45257</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A12" s="4">
-        <v>45257</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4">
-        <v>45266</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45257</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="4">
-        <v>45257</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="5">
-        <v>65</v>
-      </c>
-      <c r="F13" s="4">
-        <v>45268</v>
-      </c>
-      <c r="G13" s="4">
-        <v>45257</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="4">
-        <v>45257</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45252</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45257</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
-        <v>45243</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5">
-        <v>53</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45240</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45243</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="4">
-        <v>45240</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="5">
-        <v>150</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45238</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45240</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>26</v>
@@ -2109,479 +2136,479 @@
         <v>27</v>
       </c>
       <c r="E17" s="5">
+        <v>9</v>
+      </c>
+      <c r="F17" s="4">
+        <v>45252</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5">
+        <v>64</v>
+      </c>
+      <c r="F18" s="4">
+        <v>45266</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4">
+        <v>45266</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="5">
+        <v>65</v>
+      </c>
+      <c r="F20" s="4">
+        <v>45268</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5">
+        <v>9</v>
+      </c>
+      <c r="F21" s="4">
+        <v>45252</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45243</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5">
+        <v>53</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45240</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45243</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45240</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="5">
+        <v>150</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45238</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45240</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45238</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F24" s="4">
         <v>45291</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G24" s="4">
         <v>45238</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="6">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <v>45238</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E25" s="7">
         <v>2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F25" s="6">
         <v>45290</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G25" s="6">
         <v>45238</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="6">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>45238</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E26" s="7">
         <v>64</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F26" s="6">
         <v>45272</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G26" s="6">
         <v>45238</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="6">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>45238</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E27" s="7">
         <v>66</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F27" s="6">
         <v>45215</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G27" s="6">
         <v>45238</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="6">
+    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>45238</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="7">
-        <v>110</v>
-      </c>
-      <c r="F21" s="6">
-        <v>45265</v>
-      </c>
-      <c r="G21" s="6">
-        <v>45238</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="6">
-        <v>45236</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="7">
-        <v>363</v>
-      </c>
-      <c r="F22" s="6">
-        <v>44966</v>
-      </c>
-      <c r="G22" s="6">
-        <v>45236</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="6">
-        <v>45236</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="7">
-        <v>34</v>
-      </c>
-      <c r="F23" s="6">
-        <v>44931</v>
-      </c>
-      <c r="G23" s="6">
-        <v>45236</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="6">
-        <v>45230</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="7">
-        <v>20</v>
-      </c>
-      <c r="F24" s="6">
-        <v>45264</v>
-      </c>
-      <c r="G24" s="6">
-        <v>45230</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="6">
-        <v>45230</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="7">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6">
-        <v>45264</v>
-      </c>
-      <c r="G25" s="6">
-        <v>45230</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="6">
-        <v>45230</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="7">
-        <v>76</v>
-      </c>
-      <c r="F26" s="6">
-        <v>45290</v>
-      </c>
-      <c r="G26" s="6">
-        <v>45230</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="7">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G27" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="7">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="F28" s="6">
-        <v>45275</v>
+        <v>45265</v>
       </c>
       <c r="G28" s="6">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="7">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="F29" s="6">
-        <v>45275</v>
+        <v>44966</v>
       </c>
       <c r="G29" s="6">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E30" s="7">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F30" s="6">
-        <v>45275</v>
+        <v>44931</v>
       </c>
       <c r="G30" s="6">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E31" s="7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F31" s="6">
-        <v>45275</v>
+        <v>45264</v>
       </c>
       <c r="G31" s="6">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E32" s="7">
         <v>10</v>
       </c>
       <c r="F32" s="6">
-        <v>45275</v>
+        <v>45264</v>
       </c>
       <c r="G32" s="6">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E33" s="7">
         <v>76</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="7">
-        <v>8</v>
-      </c>
       <c r="F33" s="6">
-        <v>45275</v>
+        <v>45290</v>
       </c>
       <c r="G33" s="6">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>45225</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E34" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F34" s="6">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G34" s="6">
         <v>45225</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>45225</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="E35" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" s="6">
         <v>45275</v>
@@ -2590,50 +2617,50 @@
         <v>45225</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>45225</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E36" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="6">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G36" s="6">
         <v>45225</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>45225</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E37" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F37" s="6">
         <v>45275</v>
@@ -2642,24 +2669,24 @@
         <v>45225</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45225</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E38" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F38" s="6">
         <v>45275</v>
@@ -2668,24 +2695,24 @@
         <v>45225</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45225</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E39" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F39" s="6">
         <v>45275</v>
@@ -2694,24 +2721,24 @@
         <v>45225</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45225</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E40" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F40" s="6">
         <v>45275</v>
@@ -2720,977 +2747,977 @@
         <v>45225</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E41" s="7">
-        <v>400</v>
+        <v>8</v>
       </c>
       <c r="F41" s="6">
-        <v>45291</v>
+        <v>45225</v>
       </c>
       <c r="G41" s="6">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E42" s="7">
-        <v>778</v>
+        <v>7</v>
       </c>
       <c r="F42" s="6">
-        <v>45291</v>
+        <v>45275</v>
       </c>
       <c r="G42" s="6">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E43" s="7">
+        <v>11</v>
+      </c>
+      <c r="F43" s="6">
+        <v>45225</v>
+      </c>
+      <c r="G43" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="7">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G44" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="7">
         <v>6</v>
       </c>
-      <c r="F43" s="6">
-        <v>45296</v>
-      </c>
-      <c r="G43" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
-        <v>45280</v>
-      </c>
-      <c r="G44" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E45" s="7">
-        <v>9</v>
-      </c>
       <c r="F45" s="6">
-        <v>45280</v>
+        <v>45275</v>
       </c>
       <c r="G45" s="6">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E46" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F46" s="6">
-        <v>45280</v>
+        <v>45275</v>
       </c>
       <c r="G46" s="6">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D47" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E47" s="7">
+        <v>6</v>
+      </c>
+      <c r="F47" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G47" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>45224</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="7">
+        <v>400</v>
+      </c>
+      <c r="F48" s="6">
+        <v>45291</v>
+      </c>
+      <c r="G48" s="6">
+        <v>45224</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>45224</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="7">
+        <v>778</v>
+      </c>
+      <c r="F49" s="6">
+        <v>45291</v>
+      </c>
+      <c r="G49" s="6">
+        <v>45224</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>45222</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="7">
+        <v>6</v>
+      </c>
+      <c r="F50" s="6">
+        <v>45296</v>
+      </c>
+      <c r="G50" s="6">
+        <v>45222</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>45222</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" s="7">
+        <v>1</v>
+      </c>
+      <c r="F51" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G51" s="6">
+        <v>45222</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>45222</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="7">
+        <v>9</v>
+      </c>
+      <c r="F52" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G52" s="6">
+        <v>45222</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>45222</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="7">
+        <v>11</v>
+      </c>
+      <c r="F53" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G53" s="6">
+        <v>45222</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>45222</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="7">
         <v>46</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F54" s="6">
         <v>45280</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G54" s="6">
         <v>45222</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H54" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="6">
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
         <v>45219</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C55" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D55" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E55" s="7">
         <v>15</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F55" s="6">
         <v>45280</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G55" s="6">
         <v>45219</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H55" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="6">
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
         <v>45219</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B56" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E56" s="7">
         <v>18</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F56" s="6">
         <v>45280</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G56" s="6">
         <v>45219</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H56" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="6">
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
         <v>45219</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E57" s="7">
         <v>20</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F57" s="6">
         <v>45280</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G57" s="6">
         <v>45219</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H57" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="6">
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
         <v>45218</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E58" s="7">
         <v>6</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F58" s="6">
         <v>45231</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G58" s="6">
         <v>45218</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="6">
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
         <v>45218</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E59" s="7">
         <v>18</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F59" s="6">
         <v>45231</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G59" s="6">
         <v>45218</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="6">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
         <v>45218</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E60" s="7">
         <v>15</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F60" s="6">
         <v>45231</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G60" s="6">
         <v>45218</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="6">
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
         <v>45218</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E61" s="7">
         <v>7</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F61" s="6">
         <v>45231</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G61" s="6">
         <v>45218</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="6">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
         <v>45217</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E62" s="7">
         <v>288</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F62" s="6">
         <v>45291</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G62" s="6">
         <v>45217</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="6">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
         <v>45211</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E63" s="7">
         <v>122</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F63" s="6">
         <v>45275</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G63" s="6">
         <v>45211</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H63" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="6">
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
         <v>45209</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B64" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E64" s="7">
         <v>136</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F64" s="6">
         <v>45269</v>
       </c>
-      <c r="G57" s="6">
+      <c r="G64" s="6">
         <v>45209</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="6">
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
         <v>45209</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B65" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E65" s="7">
         <v>351</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F65" s="6">
         <v>45268</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G65" s="6">
         <v>45209</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H65" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A59" s="6">
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <v>45208</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E66" s="7">
         <v>113</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F66" s="6">
         <v>45257</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G66" s="6">
         <v>45208</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="6">
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
         <v>45208</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E67" s="7">
         <v>268</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F67" s="6">
         <v>45260</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G67" s="6">
         <v>45208</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="6">
+    <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
         <v>45208</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B68" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C68" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E68" s="7">
         <v>66</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F68" s="6">
         <v>45197</v>
       </c>
-      <c r="G61" s="6">
+      <c r="G68" s="6">
         <v>45208</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H68" s="7" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A62" s="6">
+    <row r="69" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
         <v>45208</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B69" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D69" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E69" s="7">
         <v>156</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F69" s="6">
         <v>45172</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G69" s="6">
         <v>45208</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="6">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
         <v>45208</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E70" s="7">
         <v>38</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F70" s="6">
         <v>45268</v>
       </c>
-      <c r="G63" s="6">
+      <c r="G70" s="6">
         <v>45208</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H70" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A64" s="6">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
         <v>45205</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B71" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E71" s="7">
         <v>239</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F71" s="6">
         <v>45226</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G71" s="6">
         <v>45205</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H71" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="6">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
         <v>45203</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B72" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C72" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E72" s="7">
         <v>76</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F72" s="6">
         <v>45262</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G72" s="6">
         <v>45203</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="6">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
         <v>45201</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B73" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C73" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D73" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E73" s="7">
         <v>558</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F73" s="6">
         <v>45261</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G73" s="6">
         <v>45201</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H73" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A67" s="6">
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
         <v>45190</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B74" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C74" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D74" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E74" s="7">
         <v>300</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F74" s="6">
         <v>45215</v>
       </c>
-      <c r="G67" s="6">
+      <c r="G74" s="6">
         <v>45190</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H74" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="6">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
         <v>45188</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E75" s="7">
         <v>103</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F75" s="6">
         <v>45176</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G75" s="6">
         <v>45188</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="6">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
         <v>45188</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B76" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C76" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D76" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E76" s="7">
         <v>104</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F76" s="6">
         <v>45228</v>
       </c>
-      <c r="G69" s="6">
+      <c r="G76" s="6">
         <v>45188</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H76" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A70" s="6">
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
         <v>45187</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B77" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C77" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D77" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E77" s="7">
         <v>163</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F77" s="6">
         <v>45230</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G77" s="6">
         <v>45187</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H77" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="6">
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
         <v>45187</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B78" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E71" s="7">
-        <v>71</v>
-      </c>
-      <c r="F71" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G71" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A72" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="7">
-        <v>73</v>
-      </c>
-      <c r="F72" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G72" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A73" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E73" s="7">
-        <v>87</v>
-      </c>
-      <c r="F73" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G73" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A74" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E74" s="7">
-        <v>87</v>
-      </c>
-      <c r="F74" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G74" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E75" s="7">
-        <v>116</v>
-      </c>
-      <c r="F75" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G75" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A76" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="7">
-        <v>97</v>
-      </c>
-      <c r="F76" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G76" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="6">
-        <v>45181</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="7">
-        <v>27</v>
-      </c>
-      <c r="F77" s="6">
-        <v>45180</v>
-      </c>
-      <c r="G77" s="6">
-        <v>45181</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A78" s="6">
-        <v>45177</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>49</v>
@@ -3699,362 +3726,362 @@
         <v>50</v>
       </c>
       <c r="E78" s="7">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F78" s="6">
-        <v>45236</v>
+        <v>45230</v>
       </c>
       <c r="G78" s="6">
-        <v>45177</v>
+        <v>45187</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>45176</v>
+        <v>45187</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E79" s="7">
+        <v>73</v>
+      </c>
+      <c r="F79" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F79" s="6">
-        <v>45229</v>
-      </c>
-      <c r="G79" s="6">
-        <v>45176</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A80" s="6">
-        <v>45169</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="C80" s="7" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E80" s="7">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F80" s="6">
         <v>45230</v>
       </c>
       <c r="G80" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="7">
+        <v>87</v>
+      </c>
+      <c r="F81" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G81" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82" s="7">
+        <v>116</v>
+      </c>
+      <c r="F82" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G82" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" s="7">
+        <v>97</v>
+      </c>
+      <c r="F83" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G83" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>45181</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="7">
+        <v>27</v>
+      </c>
+      <c r="F84" s="6">
+        <v>45180</v>
+      </c>
+      <c r="G84" s="6">
+        <v>45181</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>45177</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="7">
+        <v>31</v>
+      </c>
+      <c r="F85" s="6">
+        <v>45236</v>
+      </c>
+      <c r="G85" s="6">
+        <v>45177</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>45176</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="7">
+        <v>165</v>
+      </c>
+      <c r="F86" s="6">
+        <v>45229</v>
+      </c>
+      <c r="G86" s="6">
+        <v>45176</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
         <v>45169</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="B87" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="7">
+        <v>92</v>
+      </c>
+      <c r="F87" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G87" s="6">
+        <v>45169</v>
+      </c>
+      <c r="H87" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A81" s="6">
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
         <v>45167</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E88" s="7">
         <v>59</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F88" s="6">
         <v>45247</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G88" s="6">
         <v>45167</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A82" s="6">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
         <v>45167</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B89" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D89" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E89" s="7">
         <v>56</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F89" s="6">
         <v>45226</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G89" s="6">
         <v>45167</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="6">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
         <v>45163</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E90" s="7">
         <v>83</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F90" s="6">
         <v>45233</v>
       </c>
-      <c r="G83" s="6">
+      <c r="G90" s="6">
         <v>45163</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="6">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
         <v>45162</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E91" s="7">
         <v>15</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F91" s="6">
         <v>45225</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G91" s="6">
         <v>45162</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A85" s="6">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
         <v>45161</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="7">
-        <v>130</v>
-      </c>
-      <c r="F85" s="6">
-        <v>45261</v>
-      </c>
-      <c r="G85" s="6">
-        <v>45161</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A86" s="6">
-        <v>45161</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" s="7">
-        <v>167</v>
-      </c>
-      <c r="F86" s="6">
-        <v>45220</v>
-      </c>
-      <c r="G86" s="6">
-        <v>45161</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A87" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E87" s="7">
-        <v>163</v>
-      </c>
-      <c r="F87" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G87" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A88" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E88" s="7">
-        <v>32</v>
-      </c>
-      <c r="F88" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G88" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A89" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E89" s="7">
-        <v>3</v>
-      </c>
-      <c r="F89" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G89" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A90" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="7">
-        <v>38</v>
-      </c>
-      <c r="F90" s="6">
-        <v>45245</v>
-      </c>
-      <c r="G90" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="7">
-        <v>10</v>
-      </c>
-      <c r="F91" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G91" s="6">
-        <v>45155</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>18</v>
@@ -4063,466 +4090,466 @@
         <v>19</v>
       </c>
       <c r="E92" s="7">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F92" s="6">
-        <v>45156</v>
+        <v>45261</v>
       </c>
       <c r="G92" s="6">
-        <v>45155</v>
+        <v>45161</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
+        <v>45161</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E93" s="7">
+        <v>167</v>
+      </c>
+      <c r="F93" s="6">
+        <v>45220</v>
+      </c>
+      <c r="G93" s="6">
+        <v>45161</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="7">
+        <v>163</v>
+      </c>
+      <c r="F94" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G94" s="6">
+        <v>45156</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="7">
+        <v>32</v>
+      </c>
+      <c r="F95" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G95" s="6">
+        <v>45156</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="7">
+        <v>3</v>
+      </c>
+      <c r="F96" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G96" s="6">
+        <v>45156</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" s="7">
+        <v>38</v>
+      </c>
+      <c r="F97" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G97" s="6">
+        <v>45156</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
         <v>45155</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B98" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="7">
+        <v>10</v>
+      </c>
+      <c r="F98" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G98" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E99" s="7">
+        <v>15</v>
+      </c>
+      <c r="F99" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G99" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="7">
-        <v>16</v>
-      </c>
-      <c r="F93" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G93" s="6">
-        <v>45155</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A94" s="6">
-        <v>45121</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E94" s="7">
-        <v>94</v>
-      </c>
-      <c r="F94" s="6">
-        <v>45177</v>
-      </c>
-      <c r="G94" s="6">
-        <v>45121</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="7">
-        <v>80</v>
-      </c>
-      <c r="F95" s="6">
-        <v>45226</v>
-      </c>
-      <c r="G95" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A96" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E96" s="7">
-        <v>94</v>
-      </c>
-      <c r="F96" s="6">
-        <v>45145</v>
-      </c>
-      <c r="G96" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97" s="7">
-        <v>85</v>
-      </c>
-      <c r="F97" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G97" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H97" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A98" s="6">
-        <v>45142</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E98" s="7">
-        <v>87</v>
-      </c>
-      <c r="F98" s="6">
-        <v>45138</v>
-      </c>
-      <c r="G98" s="6">
-        <v>45142</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A99" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E99" s="7">
-        <v>78</v>
-      </c>
-      <c r="F99" s="6">
-        <v>45199</v>
-      </c>
-      <c r="G99" s="6">
-        <v>45141</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E100" s="7">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="F100" s="6">
-        <v>45139</v>
+        <v>45156</v>
       </c>
       <c r="G100" s="6">
-        <v>45141</v>
+        <v>45155</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>45139</v>
+        <v>45121</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E101" s="7">
-        <v>530</v>
+        <v>94</v>
       </c>
       <c r="F101" s="6">
-        <v>45135</v>
+        <v>45177</v>
       </c>
       <c r="G101" s="6">
-        <v>45139</v>
+        <v>45121</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E102" s="7">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F102" s="6">
-        <v>45135</v>
+        <v>45226</v>
       </c>
       <c r="G102" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E103" s="7">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F103" s="6">
-        <v>45135</v>
+        <v>45145</v>
       </c>
       <c r="G103" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="E104" s="7">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F104" s="6">
-        <v>45135</v>
+        <v>45201</v>
       </c>
       <c r="G104" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="E105" s="7">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F105" s="6">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="G105" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>45141</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="E106" s="7">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F106" s="6">
-        <v>45135</v>
+        <v>45199</v>
       </c>
       <c r="G106" s="6">
         <v>45141</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E107" s="7">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="F107" s="6">
-        <v>45192</v>
+        <v>45139</v>
       </c>
       <c r="G107" s="6">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>45139</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E108" s="7">
-        <v>64</v>
+        <v>530</v>
       </c>
       <c r="F108" s="6">
-        <v>45198</v>
+        <v>45135</v>
       </c>
       <c r="G108" s="6">
         <v>45139</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E109" s="7">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F109" s="6">
-        <v>45198</v>
+        <v>45135</v>
       </c>
       <c r="G109" s="6">
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>45126</v>
+        <v>45141</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>18</v>
@@ -4531,180 +4558,180 @@
         <v>19</v>
       </c>
       <c r="E110" s="7">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F110" s="6">
-        <v>45208</v>
+        <v>45135</v>
       </c>
       <c r="G110" s="6">
-        <v>45126</v>
+        <v>45141</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C111" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" s="7">
+        <v>45</v>
+      </c>
+      <c r="F111" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G111" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="7">
+        <v>25</v>
+      </c>
+      <c r="F112" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G112" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E113" s="7">
+        <v>17</v>
+      </c>
+      <c r="F113" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G113" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>45140</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114" s="7">
+        <v>280</v>
+      </c>
+      <c r="F114" s="6">
+        <v>45192</v>
+      </c>
+      <c r="G114" s="6">
+        <v>45140</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>45139</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D115" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E111" s="7">
-        <v>53</v>
-      </c>
-      <c r="F111" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G111" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A112" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E112" s="7">
+      <c r="E115" s="7">
+        <v>64</v>
+      </c>
+      <c r="F115" s="6">
+        <v>45198</v>
+      </c>
+      <c r="G115" s="6">
+        <v>45139</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>45134</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F112" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G112" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A113" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="7">
-        <v>35</v>
-      </c>
-      <c r="F113" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G113" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A114" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E114" s="7">
-        <v>39</v>
-      </c>
-      <c r="F114" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G114" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A115" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E115" s="7">
-        <v>38</v>
-      </c>
-      <c r="F115" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G115" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A116" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E116" s="7">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F116" s="6">
-        <v>45124</v>
+        <v>45198</v>
       </c>
       <c r="G116" s="6">
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>18</v>
@@ -4713,33 +4740,33 @@
         <v>19</v>
       </c>
       <c r="E117" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F117" s="6">
-        <v>45124</v>
+        <v>45208</v>
       </c>
       <c r="G117" s="6">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45124</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E118" s="7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F118" s="6">
         <v>45124</v>
@@ -4748,21 +4775,21 @@
         <v>45124</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>45124</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E119" s="7">
         <v>27</v>
@@ -4774,24 +4801,24 @@
         <v>45124</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>45124</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E120" s="7">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F120" s="6">
         <v>45124</v>
@@ -4800,24 +4827,24 @@
         <v>45124</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>45124</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E121" s="7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F121" s="6">
         <v>45124</v>
@@ -4826,24 +4853,24 @@
         <v>45124</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>45124</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E122" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F122" s="6">
         <v>45124</v>
@@ -4852,24 +4879,24 @@
         <v>45124</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>45124</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="E123" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F123" s="6">
         <v>45124</v>
@@ -4878,24 +4905,24 @@
         <v>45124</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>45124</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E124" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F124" s="6">
         <v>45124</v>
@@ -4904,24 +4931,24 @@
         <v>45124</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>45124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E125" s="7">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F125" s="6">
         <v>45124</v>
@@ -4930,24 +4957,24 @@
         <v>45124</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>45124</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E126" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F126" s="6">
         <v>45124</v>
@@ -4956,21 +4983,21 @@
         <v>45124</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>45124</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E127" s="7">
         <v>21</v>
@@ -4982,24 +5009,24 @@
         <v>45124</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>45124</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E128" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F128" s="6">
         <v>45124</v>
@@ -5008,24 +5035,24 @@
         <v>45124</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>45124</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E129" s="7">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F129" s="6">
         <v>45124</v>
@@ -5034,24 +5061,24 @@
         <v>45124</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>45124</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="E130" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F130" s="6">
         <v>45124</v>
@@ -5060,24 +5087,24 @@
         <v>45124</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>45124</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E131" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F131" s="6">
         <v>45124</v>
@@ -5086,24 +5113,24 @@
         <v>45124</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>45124</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="E132" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F132" s="6">
         <v>45124</v>
@@ -5112,24 +5139,24 @@
         <v>45124</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>45124</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E133" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F133" s="6">
         <v>45124</v>
@@ -5138,24 +5165,24 @@
         <v>45124</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>45124</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E134" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F134" s="6">
         <v>45124</v>
@@ -5164,15 +5191,15 @@
         <v>45124</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>18</v>
@@ -5181,856 +5208,856 @@
         <v>19</v>
       </c>
       <c r="E135" s="7">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="F135" s="6">
-        <v>45128</v>
+        <v>45124</v>
       </c>
       <c r="G135" s="6">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E136" s="7">
+        <v>19</v>
+      </c>
+      <c r="F136" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G136" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E137" s="7">
+        <v>25</v>
+      </c>
+      <c r="F137" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G137" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E138" s="7">
+        <v>14</v>
+      </c>
+      <c r="F138" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G138" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E139" s="7">
+        <v>26</v>
+      </c>
+      <c r="F139" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G139" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" s="7">
+        <v>26</v>
+      </c>
+      <c r="F140" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G140" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E141" s="7">
+        <v>31</v>
+      </c>
+      <c r="F141" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G141" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>45112</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142" s="7">
+        <v>115</v>
+      </c>
+      <c r="F142" s="6">
+        <v>45128</v>
+      </c>
+      <c r="G142" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
         <v>45106</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B143" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C143" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D143" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E143" s="7">
         <v>188</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F143" s="6">
         <v>45154</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G143" s="6">
         <v>45106</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H143" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A137" s="6">
+    <row r="144" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
         <v>45106</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B144" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C137" s="7" t="s">
+      <c r="C144" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D144" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E137" s="7">
+      <c r="E144" s="7">
         <v>120</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F144" s="6">
         <v>45169</v>
       </c>
-      <c r="G137" s="6">
+      <c r="G144" s="6">
         <v>45106</v>
       </c>
-      <c r="H137" s="7" t="s">
+      <c r="H144" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A138" s="6">
+    <row r="145" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
         <v>45106</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B145" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C138" s="7" t="s">
+      <c r="C145" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D145" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E145" s="7">
         <v>59</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F145" s="6">
         <v>45107</v>
       </c>
-      <c r="G138" s="6">
+      <c r="G145" s="6">
         <v>45106</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="H145" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A139" s="6">
+    <row r="146" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
         <v>45104</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B146" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C139" s="7" t="s">
+      <c r="C146" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D146" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E146" s="7">
         <v>93</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F146" s="6">
         <v>45086</v>
       </c>
-      <c r="G139" s="6">
+      <c r="G146" s="6">
         <v>45104</v>
       </c>
-      <c r="H139" s="7" t="s">
+      <c r="H146" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A140" s="6">
+    <row r="147" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
         <v>45104</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B147" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C147" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D147" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E147" s="7">
         <v>107</v>
       </c>
-      <c r="F140" s="9">
+      <c r="F147" s="9">
         <v>45169</v>
       </c>
-      <c r="G140" s="6">
+      <c r="G147" s="6">
         <v>45104</v>
       </c>
-      <c r="H140" s="7" t="s">
+      <c r="H147" s="7" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A141" s="6">
+    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
         <v>45104</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C148" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D148" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E148" s="7">
         <v>47</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F148" s="6">
         <v>45170</v>
       </c>
-      <c r="G141" s="6">
+      <c r="G148" s="6">
         <v>45104</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H148" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A142" s="6">
+    <row r="149" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
         <v>45104</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B149" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C149" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D149" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E149" s="7">
         <v>101</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F149" s="6">
         <v>45169</v>
       </c>
-      <c r="G142" s="6">
+      <c r="G149" s="6">
         <v>45104</v>
       </c>
-      <c r="H142" s="7" t="s">
+      <c r="H149" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A143" s="6">
+    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
         <v>45100</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B150" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D150" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E150" s="7">
         <v>56</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F150" s="6">
         <v>45158</v>
       </c>
-      <c r="G143" s="6">
+      <c r="G150" s="6">
         <v>45100</v>
       </c>
-      <c r="H143" s="7" t="s">
+      <c r="H150" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A144" s="6">
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
         <v>45092</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B151" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C151" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D151" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E151" s="7">
         <v>218</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F151" s="6">
         <v>45152</v>
       </c>
-      <c r="G144" s="6">
+      <c r="G151" s="6">
         <v>45092</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H151" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A145" s="6">
+    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
         <v>45092</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B152" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C145" s="7" t="s">
+      <c r="C152" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D152" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E152" s="7">
         <v>116</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F152" s="6">
         <v>45069</v>
       </c>
-      <c r="G145" s="6">
+      <c r="G152" s="6">
         <v>45092</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A146" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E146" s="7">
-        <v>91</v>
-      </c>
-      <c r="F146" s="6">
-        <v>45143</v>
-      </c>
-      <c r="G146" s="6">
-        <v>45092</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A147" s="6">
-        <v>45091</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E147" s="7">
-        <v>173</v>
-      </c>
-      <c r="F147" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G147" s="6">
-        <v>45091</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A148" s="6">
-        <v>45085</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E148" s="7">
-        <v>58</v>
-      </c>
-      <c r="F148" s="6">
-        <v>45173</v>
-      </c>
-      <c r="G148" s="6">
-        <v>45085</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A149" s="6">
-        <v>45084</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E149" s="7">
-        <v>74</v>
-      </c>
-      <c r="F149" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G149" s="6">
-        <v>45084</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A150" s="6">
-        <v>45078</v>
-      </c>
-      <c r="B150" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D150" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E150" s="7">
-        <v>126</v>
-      </c>
-      <c r="F150" s="6">
-        <v>45072</v>
-      </c>
-      <c r="G150" s="6">
-        <v>45078</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A151" s="6">
-        <v>45076</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E151" s="7">
-        <v>137</v>
-      </c>
-      <c r="F151" s="6">
-        <v>45138</v>
-      </c>
-      <c r="G151" s="6">
-        <v>45076</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A152" s="6">
-        <v>45071</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E152" s="7">
-        <v>90</v>
-      </c>
-      <c r="F152" s="6">
-        <v>45070</v>
-      </c>
-      <c r="G152" s="6">
-        <v>45071</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>45068</v>
+        <v>45092</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D153" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E153" s="7">
+        <v>91</v>
+      </c>
+      <c r="F153" s="6">
+        <v>45143</v>
+      </c>
+      <c r="G153" s="6">
+        <v>45092</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>45091</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D154" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E153" s="7">
-        <v>80</v>
-      </c>
-      <c r="F153" s="6">
-        <v>45104</v>
-      </c>
-      <c r="G153" s="6">
-        <v>45068</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A154" s="6">
-        <v>45064</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="E154" s="7">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="F154" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G154" s="6">
+        <v>45091</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>45085</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E155" s="7">
+        <v>58</v>
+      </c>
+      <c r="F155" s="6">
+        <v>45173</v>
+      </c>
+      <c r="G155" s="6">
+        <v>45085</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>45084</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="7">
+        <v>74</v>
+      </c>
+      <c r="F156" s="6">
         <v>45107</v>
       </c>
-      <c r="G154" s="6">
-        <v>45064</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A155" s="6">
-        <v>45063</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E155" s="7">
-        <v>69</v>
-      </c>
-      <c r="F155" s="6">
-        <v>45114</v>
-      </c>
-      <c r="G155" s="6">
-        <v>45063</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A156" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C156" s="7" t="s">
+      <c r="G156" s="6">
+        <v>45084</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>45078</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E157" s="7">
+        <v>126</v>
+      </c>
+      <c r="F157" s="6">
+        <v>45072</v>
+      </c>
+      <c r="G157" s="6">
+        <v>45078</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>45076</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C158" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D158" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E156" s="7">
-        <v>235</v>
-      </c>
-      <c r="F156" s="6">
-        <v>45121</v>
-      </c>
-      <c r="G156" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A157" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D157" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E157" s="7">
-        <v>549</v>
-      </c>
-      <c r="F157" s="6">
-        <v>45104</v>
-      </c>
-      <c r="G157" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A158" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E158" s="7">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="F158" s="6">
         <v>45138</v>
       </c>
       <c r="G158" s="6">
-        <v>45062</v>
+        <v>45076</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>45061</v>
+        <v>45071</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E159" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F159" s="6">
-        <v>45016</v>
+        <v>45070</v>
       </c>
       <c r="G159" s="6">
-        <v>45061</v>
+        <v>45071</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>45056</v>
+        <v>45068</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E160" s="7">
+        <v>80</v>
+      </c>
+      <c r="F160" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G160" s="6">
+        <v>45068</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>45064</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F160" s="6">
-        <v>45072</v>
-      </c>
-      <c r="G160" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A161" s="6">
-        <v>45056</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="E161" s="7">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F161" s="6">
         <v>45107</v>
       </c>
       <c r="G161" s="6">
+        <v>45064</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>45063</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" s="7">
+        <v>69</v>
+      </c>
+      <c r="F162" s="6">
+        <v>45114</v>
+      </c>
+      <c r="G162" s="6">
+        <v>45063</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E163" s="7">
+        <v>235</v>
+      </c>
+      <c r="F163" s="6">
+        <v>45121</v>
+      </c>
+      <c r="G163" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E164" s="7">
+        <v>549</v>
+      </c>
+      <c r="F164" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G164" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E165" s="7">
+        <v>81</v>
+      </c>
+      <c r="F165" s="6">
+        <v>45138</v>
+      </c>
+      <c r="G165" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>45061</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E166" s="7">
+        <v>86</v>
+      </c>
+      <c r="F166" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G166" s="6">
+        <v>45061</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
         <v>45056</v>
       </c>
-      <c r="H161" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A162" s="6">
+      <c r="B167" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E167" s="7">
+        <v>23</v>
+      </c>
+      <c r="F167" s="6">
+        <v>45072</v>
+      </c>
+      <c r="G167" s="6">
         <v>45056</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="7">
-        <v>27</v>
-      </c>
-      <c r="F162" s="6">
-        <v>45139</v>
-      </c>
-      <c r="G162" s="6">
+      <c r="H167" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
         <v>45056</v>
       </c>
-      <c r="H162" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A163" s="6">
-        <v>45054</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E163" s="7">
-        <v>272</v>
-      </c>
-      <c r="F163" s="6">
-        <v>45058</v>
-      </c>
-      <c r="G163" s="6">
-        <v>45054</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A164" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E164" s="7">
-        <v>123</v>
-      </c>
-      <c r="F164" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G164" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A165" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E165" s="7">
-        <v>29</v>
-      </c>
-      <c r="F165" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G165" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A166" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B166" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E166" s="7">
-        <v>4</v>
-      </c>
-      <c r="F166" s="6">
-        <v>45105</v>
-      </c>
-      <c r="G166" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A167" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E167" s="7">
-        <v>7</v>
-      </c>
-      <c r="F167" s="6">
-        <v>45105</v>
-      </c>
-      <c r="G167" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A168" s="6">
-        <v>45041</v>
-      </c>
       <c r="B168" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C168" s="7" t="s">
         <v>18</v>
@@ -6039,414 +6066,414 @@
         <v>19</v>
       </c>
       <c r="E168" s="7">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="F168" s="6">
-        <v>45065</v>
+        <v>45107</v>
       </c>
       <c r="G168" s="6">
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E169" s="7">
+        <v>27</v>
+      </c>
+      <c r="F169" s="6">
+        <v>45139</v>
+      </c>
+      <c r="G169" s="6">
+        <v>45056</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>45054</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E170" s="7">
+        <v>272</v>
+      </c>
+      <c r="F170" s="6">
+        <v>45058</v>
+      </c>
+      <c r="G170" s="6">
+        <v>45054</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" s="7">
+        <v>123</v>
+      </c>
+      <c r="F171" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G171" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="7">
+        <v>29</v>
+      </c>
+      <c r="F172" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G172" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" s="7">
+        <v>4</v>
+      </c>
+      <c r="F173" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G173" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="7">
+        <v>7</v>
+      </c>
+      <c r="F174" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G174" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>45041</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E175" s="7">
+        <v>175</v>
+      </c>
+      <c r="F175" s="6">
+        <v>45065</v>
+      </c>
+      <c r="G175" s="6">
+        <v>45041</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
         <v>45036</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C176" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D176" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E176" s="7">
         <v>133</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F176" s="6">
         <v>45120</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G176" s="6">
         <v>45036</v>
       </c>
-      <c r="H169" s="7" t="s">
+      <c r="H176" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A170" s="6">
+    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
         <v>45035</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C177" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D177" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E177" s="7">
         <v>62</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F177" s="6">
         <v>45095</v>
       </c>
-      <c r="G170" s="6">
+      <c r="G177" s="6">
         <v>45035</v>
       </c>
-      <c r="H170" s="7" t="s">
+      <c r="H177" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A171" s="6">
+    <row r="178" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
         <v>45034</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B178" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C178" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D178" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E178" s="7">
         <v>113</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F178" s="6">
         <v>45076</v>
       </c>
-      <c r="G171" s="6">
+      <c r="G178" s="6">
         <v>45034</v>
       </c>
-      <c r="H171" s="7" t="s">
+      <c r="H178" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A172" s="6">
+    <row r="179" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
         <v>45021</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B179" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C179" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D179" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E179" s="7">
         <v>120</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F179" s="6">
         <v>45077</v>
       </c>
-      <c r="G172" s="6">
+      <c r="G179" s="6">
         <v>45021</v>
       </c>
-      <c r="H172" s="7" t="s">
+      <c r="H179" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A173" s="6">
+    <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
         <v>45022</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D180" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E180" s="7">
         <v>12</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F180" s="6">
         <v>45079</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G180" s="6">
         <v>45022</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A174" s="6">
+    <row r="181" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
         <v>45021</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B181" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E181" s="7">
         <v>98</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F181" s="6">
         <v>45077</v>
       </c>
-      <c r="G174" s="6">
+      <c r="G181" s="6">
         <v>45021</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H181" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A175" s="6">
+    <row r="182" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
         <v>45021</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B182" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C182" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D182" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E182" s="7">
         <v>100</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F182" s="6">
         <v>45086</v>
       </c>
-      <c r="G175" s="6">
+      <c r="G182" s="6">
         <v>45021</v>
       </c>
-      <c r="H175" s="7" t="s">
+      <c r="H182" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A176" s="6">
+    <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
         <v>45020</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B183" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C183" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D183" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E183" s="7">
         <v>84</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F183" s="6">
         <v>45075</v>
       </c>
-      <c r="G176" s="6">
+      <c r="G183" s="6">
         <v>45020</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A177" s="6">
-        <v>45019</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E177" s="7">
-        <v>227</v>
-      </c>
-      <c r="F177" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G177" s="6">
-        <v>45019</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A178" s="6">
-        <v>45016</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C178" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D178" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E178" s="7">
-        <v>1047</v>
-      </c>
-      <c r="F178" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G178" s="6">
-        <v>45016</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A179" s="6">
-        <v>45007</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="7">
-        <v>54</v>
-      </c>
-      <c r="F179" s="6">
-        <v>45059</v>
-      </c>
-      <c r="G179" s="6">
-        <v>45007</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A180" s="6">
-        <v>45000</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E180" s="7">
-        <v>81</v>
-      </c>
-      <c r="F180" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G180" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A181" s="6">
-        <v>44999</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E181" s="7">
-        <v>105</v>
-      </c>
-      <c r="F181" s="6">
-        <v>45020</v>
-      </c>
-      <c r="G181" s="6">
-        <v>44999</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A182" s="6">
-        <v>45005</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E182" s="7">
-        <v>152</v>
-      </c>
-      <c r="F182" s="6">
-        <v>45066</v>
-      </c>
-      <c r="G182" s="6">
-        <v>45005</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A183" s="6">
-        <v>44993</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E183" s="7">
-        <v>240</v>
-      </c>
-      <c r="F183" s="6">
-        <v>45044</v>
-      </c>
-      <c r="G183" s="6">
-        <v>44993</v>
       </c>
       <c r="H183" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>44988</v>
+        <v>45019</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>49</v>
@@ -6455,336 +6482,336 @@
         <v>50</v>
       </c>
       <c r="E184" s="7">
-        <v>827</v>
+        <v>227</v>
       </c>
       <c r="F184" s="6">
-        <v>45047</v>
+        <v>45079</v>
       </c>
       <c r="G184" s="6">
-        <v>44988</v>
+        <v>45019</v>
       </c>
       <c r="H184" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>44987</v>
+        <v>45016</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>334</v>
+        <v>46</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E185" s="7">
-        <v>53</v>
+        <v>1047</v>
       </c>
       <c r="F185" s="6">
-        <v>45048</v>
+        <v>45079</v>
       </c>
       <c r="G185" s="6">
-        <v>44987</v>
+        <v>45016</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>44985</v>
+        <v>45007</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E186" s="7">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F186" s="6">
-        <v>45169</v>
+        <v>45059</v>
       </c>
       <c r="G186" s="6">
-        <v>44985</v>
+        <v>45007</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>44985</v>
+        <v>45000</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E187" s="7">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="F187" s="6">
         <v>45077</v>
       </c>
       <c r="G187" s="6">
+        <v>45000</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>44999</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E188" s="7">
+        <v>105</v>
+      </c>
+      <c r="F188" s="6">
+        <v>45020</v>
+      </c>
+      <c r="G188" s="6">
+        <v>44999</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>45005</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E189" s="7">
+        <v>152</v>
+      </c>
+      <c r="F189" s="6">
+        <v>45066</v>
+      </c>
+      <c r="G189" s="6">
+        <v>45005</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>44993</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E190" s="7">
+        <v>240</v>
+      </c>
+      <c r="F190" s="6">
+        <v>45044</v>
+      </c>
+      <c r="G190" s="6">
+        <v>44993</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>44988</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E191" s="7">
+        <v>827</v>
+      </c>
+      <c r="F191" s="6">
+        <v>45047</v>
+      </c>
+      <c r="G191" s="6">
+        <v>44988</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>44987</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E192" s="7">
+        <v>53</v>
+      </c>
+      <c r="F192" s="6">
+        <v>45048</v>
+      </c>
+      <c r="G192" s="6">
+        <v>44987</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
         <v>44985</v>
       </c>
-      <c r="H187" s="7" t="s">
+      <c r="B193" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E193" s="7">
+        <v>17</v>
+      </c>
+      <c r="F193" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G193" s="6">
+        <v>44985</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>44985</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E194" s="7">
+        <v>12</v>
+      </c>
+      <c r="F194" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G194" s="6">
+        <v>44985</v>
+      </c>
+      <c r="H194" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A188" s="6">
+    <row r="195" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
         <v>44985</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B195" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C195" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D195" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E195" s="7">
         <v>161</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F195" s="6">
         <v>44979</v>
       </c>
-      <c r="G188" s="6">
+      <c r="G195" s="6">
         <v>44985</v>
       </c>
-      <c r="H188" s="7" t="s">
+      <c r="H195" s="7" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A189" s="6">
+    <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
         <v>44985</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C196" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D196" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E196" s="7">
         <v>15</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F196" s="6">
         <v>45169</v>
       </c>
-      <c r="G189" s="6">
+      <c r="G196" s="6">
         <v>44985</v>
       </c>
-      <c r="H189" s="7" t="s">
+      <c r="H196" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A190" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E190" s="7">
-        <v>118</v>
-      </c>
-      <c r="F190" s="6">
-        <v>45016</v>
-      </c>
-      <c r="G190" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A191" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E191" s="7">
-        <v>35</v>
-      </c>
-      <c r="F191" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G191" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A192" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E192" s="7">
-        <v>7</v>
-      </c>
-      <c r="F192" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G192" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A193" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E193" s="7">
-        <v>4</v>
-      </c>
-      <c r="F193" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G193" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A194" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E194" s="7">
-        <v>19</v>
-      </c>
-      <c r="F194" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G194" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H194" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A195" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E195" s="7">
-        <v>60</v>
-      </c>
-      <c r="F195" s="6">
-        <v>45016</v>
-      </c>
-      <c r="G195" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A196" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E196" s="7">
-        <v>10</v>
-      </c>
-      <c r="F196" s="6">
-        <v>44974</v>
-      </c>
-      <c r="G196" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>44984</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C197" s="7" t="s">
         <v>26</v>
@@ -6793,24 +6820,24 @@
         <v>55</v>
       </c>
       <c r="E197" s="7">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F197" s="6">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G197" s="6">
         <v>44984</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>29</v>
@@ -6819,24 +6846,24 @@
         <v>13</v>
       </c>
       <c r="E198" s="7">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F198" s="6">
-        <v>45039</v>
+        <v>45169</v>
       </c>
       <c r="G198" s="6">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H198" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C199" s="7" t="s">
         <v>29</v>
@@ -6845,362 +6872,362 @@
         <v>13</v>
       </c>
       <c r="E199" s="7">
+        <v>7</v>
+      </c>
+      <c r="F199" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G199" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E200" s="7">
+        <v>4</v>
+      </c>
+      <c r="F200" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G200" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E201" s="7">
+        <v>19</v>
+      </c>
+      <c r="F201" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G201" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E202" s="7">
+        <v>60</v>
+      </c>
+      <c r="F202" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G202" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E203" s="7">
+        <v>10</v>
+      </c>
+      <c r="F203" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G203" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E204" s="7">
+        <v>10</v>
+      </c>
+      <c r="F204" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G204" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>44980</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" s="7">
+        <v>120</v>
+      </c>
+      <c r="F205" s="6">
+        <v>45039</v>
+      </c>
+      <c r="G205" s="6">
+        <v>44980</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>44973</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="7">
         <v>40</v>
       </c>
-      <c r="F199" s="9">
+      <c r="F206" s="9">
         <v>44965</v>
       </c>
-      <c r="G199" s="6">
+      <c r="G206" s="6">
         <v>44973</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="H206" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A200" s="6">
+    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
         <v>44973</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B207" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C207" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D207" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E200" s="7">
+      <c r="E207" s="7">
         <v>186</v>
       </c>
-      <c r="F200" s="6">
+      <c r="F207" s="6">
         <v>44981</v>
       </c>
-      <c r="G200" s="6">
+      <c r="G207" s="6">
         <v>44973</v>
       </c>
-      <c r="H200" s="7" t="s">
+      <c r="H207" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A201" s="6">
+    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
         <v>44978</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B208" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C208" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D208" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E208" s="7">
         <v>100</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F208" s="6">
         <v>45032</v>
       </c>
-      <c r="G201" s="6">
+      <c r="G208" s="6">
         <v>44978</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="H208" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A202" s="6">
+    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
         <v>44972</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E209" s="7">
         <v>64</v>
       </c>
-      <c r="F202" s="6">
+      <c r="F209" s="6">
         <v>44974</v>
       </c>
-      <c r="G202" s="6">
+      <c r="G209" s="6">
         <v>44972</v>
       </c>
-      <c r="H202" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A203" s="6">
+    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
         <v>44965</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B210" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C210" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E203" s="7">
+      <c r="E210" s="7">
         <v>92</v>
       </c>
-      <c r="F203" s="6">
+      <c r="F210" s="6">
         <v>45065</v>
       </c>
-      <c r="G203" s="6">
+      <c r="G210" s="6">
         <v>44966</v>
       </c>
-      <c r="H203" s="7" t="s">
+      <c r="H210" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A204" s="6">
+    <row r="211" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
         <v>44964</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B211" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C211" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E211" s="7">
         <v>121</v>
       </c>
-      <c r="F204" s="6">
+      <c r="F211" s="6">
         <v>45024</v>
       </c>
-      <c r="G204" s="6">
+      <c r="G211" s="6">
         <v>44964</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="H211" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A205" s="6">
+    <row r="212" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
         <v>44964</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B212" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C212" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D212" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E212" s="7">
         <v>60</v>
       </c>
-      <c r="F205" s="6">
+      <c r="F212" s="6">
         <v>45017</v>
       </c>
-      <c r="G205" s="6">
+      <c r="G212" s="6">
         <v>44964</v>
       </c>
-      <c r="H205" s="7" t="s">
+      <c r="H212" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A206" s="6">
+    <row r="213" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
         <v>44964</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B213" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E206" s="7">
-        <v>65</v>
-      </c>
-      <c r="F206" s="6">
-        <v>45013</v>
-      </c>
-      <c r="G206" s="6">
-        <v>44964</v>
-      </c>
-      <c r="H206" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A207" s="6">
-        <v>44964</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E207" s="7">
-        <v>200</v>
-      </c>
-      <c r="F207" s="6">
-        <v>45020</v>
-      </c>
-      <c r="G207" s="6">
-        <v>44964</v>
-      </c>
-      <c r="H207" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A208" s="6">
-        <v>44957</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E208" s="7">
-        <v>83</v>
-      </c>
-      <c r="F208" s="6">
-        <v>44956</v>
-      </c>
-      <c r="G208" s="6">
-        <v>44957</v>
-      </c>
-      <c r="H208" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A209" s="6">
-        <v>44957</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E209" s="7">
-        <v>74</v>
-      </c>
-      <c r="F209" s="6">
-        <v>45016</v>
-      </c>
-      <c r="G209" s="6">
-        <v>44957</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A210" s="6">
-        <v>44959</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E210" s="7">
-        <v>158</v>
-      </c>
-      <c r="F210" s="6">
-        <v>45017</v>
-      </c>
-      <c r="G210" s="6">
-        <v>44959</v>
-      </c>
-      <c r="H210" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A211" s="6">
-        <v>44959</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E211" s="7">
-        <v>9</v>
-      </c>
-      <c r="F211" s="6">
-        <v>45019</v>
-      </c>
-      <c r="G211" s="6">
-        <v>44959</v>
-      </c>
-      <c r="H211" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A212" s="6">
-        <v>44959</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="E212" s="7">
-        <v>140</v>
-      </c>
-      <c r="F212" s="6">
-        <v>44972</v>
-      </c>
-      <c r="G212" s="6">
-        <v>44959</v>
-      </c>
-      <c r="H212" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A213" s="6">
-        <v>44957</v>
-      </c>
-      <c r="B213" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>98</v>
@@ -7209,76 +7236,76 @@
         <v>99</v>
       </c>
       <c r="E213" s="7">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F213" s="6">
+        <v>45013</v>
+      </c>
+      <c r="G213" s="6">
+        <v>44964</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>44964</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E214" s="7">
+        <v>200</v>
+      </c>
+      <c r="F214" s="6">
+        <v>45020</v>
+      </c>
+      <c r="G214" s="6">
+        <v>44964</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
         <v>44957</v>
       </c>
-      <c r="G213" s="6">
-        <v>44960</v>
-      </c>
-      <c r="H213" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A214" s="6">
-        <v>44953</v>
-      </c>
-      <c r="B214" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E214" s="7">
-        <v>255</v>
-      </c>
-      <c r="F214" s="6">
-        <v>44942</v>
-      </c>
-      <c r="G214" s="6">
-        <v>44953</v>
-      </c>
-      <c r="H214" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A215" s="6">
-        <v>44946</v>
-      </c>
       <c r="B215" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="E215" s="7">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F215" s="6">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G215" s="6">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>26</v>
@@ -7287,128 +7314,128 @@
         <v>27</v>
       </c>
       <c r="E216" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F216" s="6">
-        <v>44995</v>
+        <v>45016</v>
       </c>
       <c r="G216" s="6">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E217" s="7">
+        <v>158</v>
+      </c>
+      <c r="F217" s="6">
+        <v>45017</v>
+      </c>
+      <c r="G217" s="6">
+        <v>44959</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>44959</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E218" s="7">
+        <v>9</v>
+      </c>
+      <c r="F218" s="6">
+        <v>45019</v>
+      </c>
+      <c r="G218" s="6">
+        <v>44959</v>
+      </c>
+      <c r="H218" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <v>44959</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D219" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F217" s="6">
-        <v>45011</v>
-      </c>
-      <c r="G217" s="6">
-        <v>44951</v>
-      </c>
-      <c r="H217" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A218" s="6">
-        <v>44950</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E218" s="7">
-        <v>125</v>
-      </c>
-      <c r="F218" s="6">
-        <v>45016</v>
-      </c>
-      <c r="G218" s="6">
-        <v>44950</v>
-      </c>
-      <c r="H218" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A219" s="6">
-        <v>44945</v>
-      </c>
-      <c r="B219" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E219" s="7">
-        <v>964</v>
+        <v>140</v>
       </c>
       <c r="F219" s="6">
-        <v>45016</v>
+        <v>44972</v>
       </c>
       <c r="G219" s="6">
-        <v>44945</v>
+        <v>44959</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>382</v>
+        <v>158</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E220" s="7">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F220" s="6">
-        <v>45002</v>
+        <v>44957</v>
       </c>
       <c r="G220" s="6">
-        <v>44942</v>
+        <v>44960</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>44938</v>
+        <v>44953</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>22</v>
@@ -7417,50 +7444,50 @@
         <v>23</v>
       </c>
       <c r="E221" s="7">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="F221" s="6">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G221" s="6">
-        <v>44938</v>
+        <v>44953</v>
       </c>
       <c r="H221" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>44937</v>
+        <v>44946</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E222" s="7">
-        <v>801</v>
+        <v>110</v>
       </c>
       <c r="F222" s="6">
-        <v>45003</v>
+        <v>45016</v>
       </c>
       <c r="G222" s="6">
-        <v>44937</v>
+        <v>44946</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>26</v>
@@ -7472,90 +7499,272 @@
         <v>76</v>
       </c>
       <c r="F223" s="6">
+        <v>44995</v>
+      </c>
+      <c r="G223" s="6">
+        <v>44951</v>
+      </c>
+      <c r="H223" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>44951</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E224" s="7">
+        <v>374</v>
+      </c>
+      <c r="F224" s="6">
+        <v>45011</v>
+      </c>
+      <c r="G224" s="6">
+        <v>44951</v>
+      </c>
+      <c r="H224" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <v>44950</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E225" s="7">
+        <v>125</v>
+      </c>
+      <c r="F225" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G225" s="6">
+        <v>44950</v>
+      </c>
+      <c r="H225" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>44945</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E226" s="7">
+        <v>964</v>
+      </c>
+      <c r="F226" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G226" s="6">
+        <v>44945</v>
+      </c>
+      <c r="H226" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>44942</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E227" s="7">
+        <v>77</v>
+      </c>
+      <c r="F227" s="6">
+        <v>45002</v>
+      </c>
+      <c r="G227" s="6">
+        <v>44942</v>
+      </c>
+      <c r="H227" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>44938</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E228" s="7">
+        <v>139</v>
+      </c>
+      <c r="F228" s="6">
+        <v>44937</v>
+      </c>
+      <c r="G228" s="6">
+        <v>44938</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D229" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E229" s="7">
+        <v>801</v>
+      </c>
+      <c r="F229" s="6">
+        <v>45003</v>
+      </c>
+      <c r="G229" s="6">
+        <v>44937</v>
+      </c>
+      <c r="H229" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>44936</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D230" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E230" s="7">
+        <v>76</v>
+      </c>
+      <c r="F230" s="6">
         <v>45281</v>
       </c>
-      <c r="G223" s="6">
+      <c r="G230" s="6">
         <v>44936</v>
       </c>
-      <c r="H223" s="7" t="s">
+      <c r="H230" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A224" s="6">
+    <row r="231" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
         <v>44935</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B231" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C231" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="D231" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E224" s="7">
+      <c r="E231" s="7">
         <v>85</v>
       </c>
-      <c r="F224" s="6">
+      <c r="F231" s="6">
         <v>44971</v>
       </c>
-      <c r="G224" s="6">
+      <c r="G231" s="6">
         <v>44935</v>
       </c>
-      <c r="H224" s="7" t="s">
+      <c r="H231" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A225" s="6">
+    <row r="232" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
         <v>44931</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B232" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C232" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D225" s="7" t="s">
+      <c r="D232" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E225" s="7">
+      <c r="E232" s="7">
         <v>370</v>
       </c>
-      <c r="F225" s="6">
+      <c r="F232" s="6">
         <v>44957</v>
       </c>
-      <c r="G225" s="6">
+      <c r="G232" s="6">
         <v>44931</v>
       </c>
-      <c r="H225" s="7" t="s">
+      <c r="H232" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A226" s="6">
+    <row r="233" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
         <v>44932</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B233" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C233" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D233" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E233" s="7">
         <v>20</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F233" s="6">
         <v>44988</v>
       </c>
-      <c r="G226" s="6">
+      <c r="G233" s="6">
         <v>44932</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H233" s="7" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/matthew_mazer_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{FD3B8F50-4B8D-4278-9DF5-429E982FD36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04352DC8-E7EF-486E-B186-861F97C6596B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{FD3B8F50-4B8D-4278-9DF5-429E982FD36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F32CEE7-C6B5-4BC0-A980-CE16E0FBD96F}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="3825" windowWidth="26370" windowHeight="14055" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="24180" yWindow="2715" windowWidth="24855" windowHeight="15345" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="409">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -1248,6 +1248,21 @@
   </si>
   <si>
     <t>Randalls #2490</t>
+  </si>
+  <si>
+    <t>WWL Vehicle Services Americas, Inc.</t>
+  </si>
+  <si>
+    <t>GDI Services - Coppell</t>
+  </si>
+  <si>
+    <t>Coppell</t>
+  </si>
+  <si>
+    <t>GDI Services Dallas</t>
+  </si>
+  <si>
+    <t>Unity Technologies-Austin</t>
   </si>
 </sst>
 </file>
@@ -1687,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89BCF3A-B17F-44A2-A200-ED80B6FEE65F}">
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,7 +1721,7 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,480 +1747,484 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
+        <v>45307</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="12">
+        <v>63</v>
+      </c>
+      <c r="F2" s="11">
+        <v>45369</v>
+      </c>
+      <c r="G2" s="11">
+        <v>45307</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>45303</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="12">
+        <v>44</v>
+      </c>
+      <c r="F3" s="11">
+        <v>45295</v>
+      </c>
+      <c r="G3" s="11">
+        <v>45303</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>45303</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="12">
+        <v>44</v>
+      </c>
+      <c r="F4" s="11">
+        <v>45295</v>
+      </c>
+      <c r="G4" s="11">
+        <v>45303</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>45303</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12">
+        <v>92</v>
+      </c>
+      <c r="F5" s="11">
         <v>45300</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="G5" s="11">
+        <v>45303</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>45300</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E6" s="12">
         <v>176</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F6" s="11">
         <v>45353</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G6" s="11">
         <v>45300</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="7" spans="1:9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>45300</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E7" s="12">
         <v>71</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F7" s="11">
         <v>45339</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G7" s="11">
         <v>45300</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="8" spans="1:9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>45299</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E8" s="12">
         <v>75</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F8" s="11">
         <v>45266</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G8" s="11">
         <v>45299</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>45299</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B9" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E9" s="12">
         <v>103</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F9" s="11">
         <v>45302</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G9" s="11">
         <v>45299</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>45296</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E10" s="12">
         <v>365</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F10" s="11">
         <v>45350</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G10" s="11">
         <v>45296</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>45296</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B11" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E11" s="12">
         <v>60</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F11" s="11">
         <v>45337</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G11" s="11">
         <v>45296</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>45295</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B12" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E12" s="12">
         <v>76</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F12" s="11">
         <v>45332</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G12" s="11">
         <v>45295</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H12" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>45278</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C13" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E13" s="12">
         <v>256</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F13" s="11">
         <v>45275</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G13" s="11">
         <v>45278</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+    <row r="14" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>45271</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E14" s="12">
         <v>12</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F14" s="11">
         <v>45328</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G14" s="11">
         <v>45271</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>45267</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E15" s="12">
         <v>75</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F15" s="11">
         <v>45266</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G15" s="11">
         <v>45267</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>45264</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E16" s="5">
         <v>89</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F16" s="4">
         <v>45324</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G16" s="4">
         <v>45264</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+    <row r="17" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>45264</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F17" s="4">
         <v>45322</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G17" s="4">
         <v>45264</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>45264</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5">
-        <v>50</v>
-      </c>
-      <c r="F14" s="4">
-        <v>45264</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45264</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>45264</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="5">
-        <v>92</v>
-      </c>
-      <c r="F15" s="4">
-        <v>45322</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45264</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>45261</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5">
-        <v>577</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45317</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45261</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>45257</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="5">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4">
-        <v>45252</v>
-      </c>
-      <c r="G17" s="4">
-        <v>45257</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>45257</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F18" s="4">
-        <v>45266</v>
+        <v>45264</v>
       </c>
       <c r="G18" s="4">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E19" s="5">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F19" s="4">
-        <v>45266</v>
+        <v>45322</v>
       </c>
       <c r="G19" s="4">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>45257</v>
+        <v>45261</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>22</v>
@@ -2214,13 +2233,13 @@
         <v>23</v>
       </c>
       <c r="E20" s="5">
-        <v>65</v>
+        <v>577</v>
       </c>
       <c r="F20" s="4">
-        <v>45268</v>
+        <v>45317</v>
       </c>
       <c r="G20" s="4">
-        <v>45257</v>
+        <v>45261</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>24</v>
@@ -2252,239 +2271,235 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5">
+        <v>64</v>
+      </c>
+      <c r="F22" s="4">
+        <v>45266</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5">
+        <v>39</v>
+      </c>
+      <c r="F23" s="4">
+        <v>45266</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="5">
+        <v>65</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45268</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45257</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4">
+        <v>45252</v>
+      </c>
+      <c r="G25" s="4">
+        <v>45257</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>45243</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E26" s="5">
         <v>53</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F26" s="4">
         <v>45240</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G26" s="4">
         <v>45243</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>45240</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E27" s="5">
         <v>150</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F27" s="4">
         <v>45238</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G27" s="4">
         <v>45240</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>45238</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E28" s="5">
         <v>2</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F28" s="4">
         <v>45291</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G28" s="4">
         <v>45238</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>45238</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>45290</v>
-      </c>
-      <c r="G25" s="6">
-        <v>45238</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>45238</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="7">
-        <v>64</v>
-      </c>
-      <c r="F26" s="6">
-        <v>45272</v>
-      </c>
-      <c r="G26" s="6">
-        <v>45238</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>45238</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="7">
-        <v>66</v>
-      </c>
-      <c r="F27" s="6">
-        <v>45215</v>
-      </c>
-      <c r="G27" s="6">
-        <v>45238</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>45238</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="7">
-        <v>110</v>
-      </c>
-      <c r="F28" s="6">
-        <v>45265</v>
-      </c>
-      <c r="G28" s="6">
-        <v>45238</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E29" s="7">
-        <v>363</v>
+        <v>2</v>
       </c>
       <c r="F29" s="6">
-        <v>44966</v>
+        <v>45290</v>
       </c>
       <c r="G29" s="6">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E30" s="7">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="F30" s="6">
-        <v>44931</v>
+        <v>45272</v>
       </c>
       <c r="G30" s="6">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>26</v>
@@ -2492,201 +2507,205 @@
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
+        <v>45238</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7">
+        <v>66</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45215</v>
+      </c>
+      <c r="G31" s="6">
+        <v>45238</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>45238</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="7">
+        <v>110</v>
+      </c>
+      <c r="F32" s="6">
+        <v>45265</v>
+      </c>
+      <c r="G32" s="6">
+        <v>45238</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>45236</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="7">
+        <v>363</v>
+      </c>
+      <c r="F33" s="6">
+        <v>44966</v>
+      </c>
+      <c r="G33" s="6">
+        <v>45236</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>45236</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="7">
+        <v>34</v>
+      </c>
+      <c r="F34" s="6">
+        <v>44931</v>
+      </c>
+      <c r="G34" s="6">
+        <v>45236</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>45230</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E35" s="7">
         <v>20</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F35" s="6">
         <v>45264</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G35" s="6">
         <v>45230</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>45230</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E36" s="7">
         <v>10</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F36" s="6">
         <v>45264</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G36" s="6">
         <v>45230</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H36" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="37" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>45230</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B37" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E37" s="7">
         <v>76</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F37" s="6">
         <v>45290</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G37" s="6">
         <v>45230</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H37" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="7">
-        <v>5</v>
-      </c>
-      <c r="F34" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G34" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="7">
-        <v>6</v>
-      </c>
-      <c r="F35" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G35" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="7">
-        <v>9</v>
-      </c>
-      <c r="F36" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G36" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="7">
-        <v>13</v>
-      </c>
-      <c r="F37" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G37" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>45225</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E38" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F38" s="6">
         <v>45275</v>
@@ -2695,24 +2714,24 @@
         <v>45225</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>45225</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E39" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F39" s="6">
         <v>45275</v>
@@ -2721,24 +2740,24 @@
         <v>45225</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>45225</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E40" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" s="6">
         <v>45275</v>
@@ -2747,50 +2766,50 @@
         <v>45225</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>45225</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F41" s="6">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G41" s="6">
         <v>45225</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>45225</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E42" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F42" s="6">
         <v>45275</v>
@@ -2799,50 +2818,50 @@
         <v>45225</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
         <v>45225</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="E43" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F43" s="6">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G43" s="6">
         <v>45225</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>45225</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="E44" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F44" s="6">
         <v>45275</v>
@@ -2851,47 +2870,47 @@
         <v>45225</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>45225</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="E45" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F45" s="6">
-        <v>45275</v>
+        <v>45225</v>
       </c>
       <c r="G45" s="6">
         <v>45225</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45225</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E46" s="7">
         <v>7</v>
@@ -2903,249 +2922,249 @@
         <v>45225</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>45225</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E47" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F47" s="6">
-        <v>45275</v>
+        <v>45225</v>
       </c>
       <c r="G47" s="6">
         <v>45225</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E48" s="7">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="F48" s="6">
-        <v>45291</v>
+        <v>45275</v>
       </c>
       <c r="G48" s="6">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E49" s="7">
-        <v>778</v>
+        <v>6</v>
       </c>
       <c r="F49" s="6">
-        <v>45291</v>
+        <v>45275</v>
       </c>
       <c r="G49" s="6">
-        <v>45224</v>
+        <v>45225</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="E50" s="7">
+        <v>7</v>
+      </c>
+      <c r="F50" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G50" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="7">
         <v>6</v>
       </c>
-      <c r="F50" s="6">
-        <v>45296</v>
-      </c>
-      <c r="G50" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="7">
-        <v>1</v>
-      </c>
       <c r="F51" s="6">
-        <v>45280</v>
+        <v>45275</v>
       </c>
       <c r="G51" s="6">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E52" s="7">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="F52" s="6">
-        <v>45280</v>
+        <v>45291</v>
       </c>
       <c r="G52" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E53" s="7">
-        <v>11</v>
+        <v>778</v>
       </c>
       <c r="F53" s="6">
-        <v>45280</v>
+        <v>45291</v>
       </c>
       <c r="G53" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>45222</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E54" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F54" s="6">
-        <v>45280</v>
+        <v>45296</v>
       </c>
       <c r="G54" s="6">
         <v>45222</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E55" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F55" s="6">
         <v>45280</v>
       </c>
       <c r="G55" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>111</v>
@@ -3154,13 +3173,13 @@
         <v>112</v>
       </c>
       <c r="E56" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F56" s="6">
         <v>45280</v>
       </c>
       <c r="G56" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>113</v>
@@ -3168,10 +3187,10 @@
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>115</v>
@@ -3180,631 +3199,631 @@
         <v>99</v>
       </c>
       <c r="E57" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F57" s="6">
         <v>45280</v>
       </c>
       <c r="G57" s="6">
+        <v>45222</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>45222</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="7">
+        <v>46</v>
+      </c>
+      <c r="F58" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G58" s="6">
+        <v>45222</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
         <v>45219</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
-        <v>45218</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="7">
-        <v>6</v>
-      </c>
-      <c r="F58" s="6">
-        <v>45231</v>
-      </c>
-      <c r="G58" s="6">
-        <v>45218</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>45218</v>
-      </c>
       <c r="B59" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E59" s="7">
+        <v>15</v>
+      </c>
+      <c r="F59" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G59" s="6">
+        <v>45219</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>45219</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="7">
         <v>18</v>
       </c>
-      <c r="F59" s="6">
-        <v>45231</v>
-      </c>
-      <c r="G59" s="6">
-        <v>45218</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>45218</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E60" s="7">
-        <v>15</v>
-      </c>
       <c r="F60" s="6">
-        <v>45231</v>
+        <v>45280</v>
       </c>
       <c r="G60" s="6">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E61" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F61" s="6">
-        <v>45231</v>
+        <v>45280</v>
       </c>
       <c r="G61" s="6">
-        <v>45218</v>
+        <v>45219</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E62" s="7">
-        <v>288</v>
+        <v>6</v>
       </c>
       <c r="F62" s="6">
-        <v>45291</v>
+        <v>45231</v>
       </c>
       <c r="G62" s="6">
-        <v>45217</v>
+        <v>45218</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>45211</v>
+        <v>45218</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="E63" s="7">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F63" s="6">
-        <v>45275</v>
+        <v>45231</v>
       </c>
       <c r="G63" s="6">
-        <v>45211</v>
+        <v>45218</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>45209</v>
+        <v>45218</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E64" s="7">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="F64" s="6">
-        <v>45269</v>
+        <v>45231</v>
       </c>
       <c r="G64" s="6">
-        <v>45209</v>
+        <v>45218</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>45209</v>
+        <v>45218</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="E65" s="7">
-        <v>351</v>
+        <v>7</v>
       </c>
       <c r="F65" s="6">
-        <v>45268</v>
+        <v>45231</v>
       </c>
       <c r="G65" s="6">
-        <v>45209</v>
+        <v>45218</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>45208</v>
+        <v>45217</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E66" s="7">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="F66" s="6">
-        <v>45257</v>
+        <v>45291</v>
       </c>
       <c r="G66" s="6">
-        <v>45208</v>
+        <v>45217</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>45208</v>
+        <v>45211</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E67" s="7">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="F67" s="6">
-        <v>45260</v>
+        <v>45275</v>
       </c>
       <c r="G67" s="6">
-        <v>45208</v>
+        <v>45211</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>148</v>
+        <v>27</v>
       </c>
       <c r="E68" s="7">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="F68" s="6">
-        <v>45197</v>
+        <v>45269</v>
       </c>
       <c r="G68" s="6">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E69" s="7">
-        <v>156</v>
+        <v>351</v>
       </c>
       <c r="F69" s="6">
-        <v>45172</v>
+        <v>45268</v>
       </c>
       <c r="G69" s="6">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45208</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E70" s="7">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="F70" s="6">
-        <v>45268</v>
+        <v>45257</v>
       </c>
       <c r="G70" s="6">
         <v>45208</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="7">
+        <v>268</v>
+      </c>
+      <c r="F71" s="6">
+        <v>45260</v>
+      </c>
+      <c r="G71" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E72" s="7">
+        <v>66</v>
+      </c>
+      <c r="F72" s="6">
+        <v>45197</v>
+      </c>
+      <c r="G72" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E73" s="7">
+        <v>156</v>
+      </c>
+      <c r="F73" s="6">
+        <v>45172</v>
+      </c>
+      <c r="G73" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="7">
+        <v>38</v>
+      </c>
+      <c r="F74" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G74" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
         <v>45205</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B75" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D75" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E75" s="7">
         <v>239</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F75" s="6">
         <v>45226</v>
       </c>
-      <c r="G71" s="6">
+      <c r="G75" s="6">
         <v>45205</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H75" s="7" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>45203</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="7">
-        <v>76</v>
-      </c>
-      <c r="F72" s="6">
-        <v>45262</v>
-      </c>
-      <c r="G72" s="6">
-        <v>45203</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>45201</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E73" s="7">
-        <v>558</v>
-      </c>
-      <c r="F73" s="6">
-        <v>45261</v>
-      </c>
-      <c r="G73" s="6">
-        <v>45201</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="6">
-        <v>45190</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E74" s="7">
-        <v>300</v>
-      </c>
-      <c r="F74" s="6">
-        <v>45215</v>
-      </c>
-      <c r="G74" s="6">
-        <v>45190</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="6">
-        <v>45188</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="7">
-        <v>103</v>
-      </c>
-      <c r="F75" s="6">
-        <v>45176</v>
-      </c>
-      <c r="G75" s="6">
-        <v>45188</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
+        <v>45203</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="7">
+        <v>76</v>
+      </c>
+      <c r="F76" s="6">
+        <v>45262</v>
+      </c>
+      <c r="G76" s="6">
+        <v>45203</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>45201</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="7">
+        <v>558</v>
+      </c>
+      <c r="F77" s="6">
+        <v>45261</v>
+      </c>
+      <c r="G77" s="6">
+        <v>45201</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>45190</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="7">
+        <v>300</v>
+      </c>
+      <c r="F78" s="6">
+        <v>45215</v>
+      </c>
+      <c r="G78" s="6">
+        <v>45190</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
         <v>45188</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B79" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="7">
+        <v>103</v>
+      </c>
+      <c r="F79" s="6">
+        <v>45176</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45188</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C80" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E80" s="7">
         <v>104</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F80" s="6">
         <v>45228</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G80" s="6">
         <v>45188</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E77" s="7">
-        <v>163</v>
-      </c>
-      <c r="F77" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G77" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E78" s="7">
-        <v>71</v>
-      </c>
-      <c r="F78" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G78" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E79" s="7">
-        <v>73</v>
-      </c>
-      <c r="F79" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G79" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E80" s="7">
-        <v>87</v>
-      </c>
-      <c r="F80" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G80" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>45187</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="E81" s="7">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="F81" s="6">
         <v>45230</v>
@@ -3813,24 +3832,24 @@
         <v>45187</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>45187</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="E82" s="7">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F82" s="6">
         <v>45230</v>
@@ -3839,7 +3858,7 @@
         <v>45187</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>171</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3847,16 +3866,16 @@
         <v>45187</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E83" s="7">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F83" s="6">
         <v>45230</v>
@@ -3865,119 +3884,119 @@
         <v>45187</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>45181</v>
+        <v>45187</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>47</v>
+        <v>165</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E84" s="7">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="F84" s="6">
-        <v>45180</v>
+        <v>45230</v>
       </c>
       <c r="G84" s="6">
-        <v>45181</v>
+        <v>45187</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>45177</v>
+        <v>45187</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E85" s="7">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="F85" s="6">
-        <v>45236</v>
+        <v>45230</v>
       </c>
       <c r="G85" s="6">
-        <v>45177</v>
+        <v>45187</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>45176</v>
+        <v>45187</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E86" s="7">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="F86" s="6">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="G86" s="6">
-        <v>45176</v>
+        <v>45187</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>45169</v>
+        <v>45187</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>26</v>
+        <v>173</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E87" s="7">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F87" s="6">
         <v>45230</v>
       </c>
       <c r="G87" s="6">
-        <v>45169</v>
+        <v>45187</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>45167</v>
+        <v>45181</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>26</v>
@@ -3986,232 +4005,232 @@
         <v>27</v>
       </c>
       <c r="E88" s="7">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F88" s="6">
-        <v>45247</v>
+        <v>45180</v>
       </c>
       <c r="G88" s="6">
-        <v>45167</v>
+        <v>45181</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>45167</v>
+        <v>45177</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E89" s="7">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F89" s="6">
-        <v>45226</v>
+        <v>45236</v>
       </c>
       <c r="G89" s="6">
-        <v>45167</v>
+        <v>45177</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>183</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>45163</v>
+        <v>45176</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="E90" s="7">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="F90" s="6">
-        <v>45233</v>
+        <v>45229</v>
       </c>
       <c r="G90" s="6">
-        <v>45163</v>
+        <v>45176</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>45162</v>
+        <v>45169</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E91" s="7">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="F91" s="6">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="G91" s="6">
-        <v>45162</v>
+        <v>45169</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>45161</v>
+        <v>45167</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C92" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="7">
+        <v>59</v>
+      </c>
+      <c r="F92" s="6">
+        <v>45247</v>
+      </c>
+      <c r="G92" s="6">
+        <v>45167</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>45167</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E92" s="7">
-        <v>130</v>
-      </c>
-      <c r="F92" s="6">
-        <v>45261</v>
-      </c>
-      <c r="G92" s="6">
-        <v>45161</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
-        <v>45161</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="E93" s="7">
-        <v>167</v>
+        <v>56</v>
       </c>
       <c r="F93" s="6">
-        <v>45220</v>
+        <v>45226</v>
       </c>
       <c r="G93" s="6">
-        <v>45161</v>
+        <v>45167</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>29</v>
+        <v>185</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="E94" s="7">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="F94" s="6">
-        <v>45201</v>
+        <v>45233</v>
       </c>
       <c r="G94" s="6">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>45156</v>
+        <v>45162</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E95" s="7">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="F95" s="6">
-        <v>45201</v>
+        <v>45225</v>
       </c>
       <c r="G95" s="6">
-        <v>45156</v>
+        <v>45162</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E96" s="7">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="F96" s="6">
-        <v>45201</v>
+        <v>45261</v>
       </c>
       <c r="G96" s="6">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>197</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>198</v>
+        <v>38</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>26</v>
@@ -4220,76 +4239,76 @@
         <v>27</v>
       </c>
       <c r="E97" s="7">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="F97" s="6">
-        <v>45245</v>
+        <v>45220</v>
       </c>
       <c r="G97" s="6">
-        <v>45156</v>
+        <v>45161</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E98" s="7">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="F98" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G98" s="6">
         <v>45156</v>
       </c>
-      <c r="G98" s="6">
-        <v>45155</v>
-      </c>
       <c r="H98" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E99" s="7">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F99" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G99" s="6">
         <v>45156</v>
       </c>
-      <c r="G99" s="6">
-        <v>45155</v>
-      </c>
       <c r="H99" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>29</v>
@@ -4298,276 +4317,276 @@
         <v>13</v>
       </c>
       <c r="E100" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F100" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G100" s="6">
         <v>45156</v>
       </c>
-      <c r="G100" s="6">
-        <v>45155</v>
-      </c>
       <c r="H100" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>45121</v>
+        <v>45156</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>203</v>
+        <v>26</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="E101" s="7">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="F101" s="6">
-        <v>45177</v>
+        <v>45245</v>
       </c>
       <c r="G101" s="6">
-        <v>45121</v>
+        <v>45156</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>45146</v>
+        <v>45155</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E102" s="7">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="F102" s="6">
-        <v>45226</v>
+        <v>45156</v>
       </c>
       <c r="G102" s="6">
-        <v>45146</v>
+        <v>45155</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" s="7">
+        <v>15</v>
+      </c>
+      <c r="F103" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G103" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" s="7">
+        <v>16</v>
+      </c>
+      <c r="F104" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G104" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>45121</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E105" s="7">
+        <v>94</v>
+      </c>
+      <c r="F105" s="6">
+        <v>45177</v>
+      </c>
+      <c r="G105" s="6">
+        <v>45121</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
         <v>45146</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E103" s="7">
-        <v>94</v>
-      </c>
-      <c r="F103" s="6">
-        <v>45145</v>
-      </c>
-      <c r="G103" s="6">
+      <c r="B106" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="7">
+        <v>80</v>
+      </c>
+      <c r="F106" s="6">
+        <v>45226</v>
+      </c>
+      <c r="G106" s="6">
         <v>45146</v>
       </c>
-      <c r="H103" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E104" s="7">
-        <v>85</v>
-      </c>
-      <c r="F104" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G104" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
-        <v>45142</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E105" s="7">
-        <v>87</v>
-      </c>
-      <c r="F105" s="6">
-        <v>45138</v>
-      </c>
-      <c r="G105" s="6">
-        <v>45142</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E106" s="7">
-        <v>78</v>
-      </c>
-      <c r="F106" s="6">
-        <v>45199</v>
-      </c>
-      <c r="G106" s="6">
-        <v>45141</v>
-      </c>
       <c r="H106" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E107" s="7">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="F107" s="6">
-        <v>45139</v>
+        <v>45145</v>
       </c>
       <c r="G107" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E108" s="7">
-        <v>530</v>
+        <v>85</v>
       </c>
       <c r="F108" s="6">
-        <v>45135</v>
+        <v>45201</v>
       </c>
       <c r="G108" s="6">
-        <v>45139</v>
+        <v>45146</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E109" s="7">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F109" s="6">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="G109" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>45141</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="E110" s="7">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F110" s="6">
-        <v>45135</v>
+        <v>45199</v>
       </c>
       <c r="G110" s="6">
         <v>45141</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4575,68 +4594,68 @@
         <v>45141</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>220</v>
+        <v>13</v>
       </c>
       <c r="E111" s="7">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="F111" s="6">
-        <v>45135</v>
+        <v>45139</v>
       </c>
       <c r="G111" s="6">
         <v>45141</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E112" s="7">
-        <v>25</v>
+        <v>530</v>
       </c>
       <c r="F112" s="6">
         <v>45135</v>
       </c>
       <c r="G112" s="6">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>45141</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="E113" s="7">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F113" s="6">
         <v>45135</v>
@@ -4645,15 +4664,15 @@
         <v>45141</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>18</v>
@@ -4662,198 +4681,198 @@
         <v>19</v>
       </c>
       <c r="E114" s="7">
-        <v>280</v>
+        <v>84</v>
       </c>
       <c r="F114" s="6">
-        <v>45192</v>
+        <v>45135</v>
       </c>
       <c r="G114" s="6">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>45139</v>
+        <v>45141</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="E115" s="7">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F115" s="6">
-        <v>45198</v>
+        <v>45135</v>
       </c>
       <c r="G115" s="6">
-        <v>45139</v>
+        <v>45141</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E116" s="7">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="F116" s="6">
-        <v>45198</v>
+        <v>45135</v>
       </c>
       <c r="G116" s="6">
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E117" s="7">
+        <v>17</v>
+      </c>
+      <c r="F117" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G117" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>45140</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="7">
+        <v>280</v>
+      </c>
+      <c r="F118" s="6">
+        <v>45192</v>
+      </c>
+      <c r="G118" s="6">
+        <v>45140</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>45139</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E119" s="7">
+        <v>64</v>
+      </c>
+      <c r="F119" s="6">
+        <v>45198</v>
+      </c>
+      <c r="G119" s="6">
+        <v>45139</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>45134</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" s="7">
+        <v>76</v>
+      </c>
+      <c r="F120" s="6">
+        <v>45198</v>
+      </c>
+      <c r="G120" s="6">
+        <v>45134</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
         <v>45126</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D121" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E121" s="7">
         <v>64</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F121" s="6">
         <v>45208</v>
       </c>
-      <c r="G117" s="6">
+      <c r="G121" s="6">
         <v>45126</v>
       </c>
-      <c r="H117" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A118" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E118" s="7">
-        <v>53</v>
-      </c>
-      <c r="F118" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G118" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E119" s="7">
-        <v>27</v>
-      </c>
-      <c r="F119" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G119" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E120" s="7">
-        <v>35</v>
-      </c>
-      <c r="F120" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G120" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E121" s="7">
-        <v>39</v>
-      </c>
-      <c r="F121" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G121" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4861,16 +4880,16 @@
         <v>45124</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E122" s="7">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F122" s="6">
         <v>45124</v>
@@ -4879,24 +4898,24 @@
         <v>45124</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>45124</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E123" s="7">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F123" s="6">
         <v>45124</v>
@@ -4905,24 +4924,24 @@
         <v>45124</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>45124</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E124" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F124" s="6">
         <v>45124</v>
@@ -4931,24 +4950,24 @@
         <v>45124</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>45124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E125" s="7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F125" s="6">
         <v>45124</v>
@@ -4957,24 +4976,24 @@
         <v>45124</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>45124</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E126" s="7">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F126" s="6">
         <v>45124</v>
@@ -4983,24 +5002,24 @@
         <v>45124</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>45124</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E127" s="7">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="F127" s="6">
         <v>45124</v>
@@ -5009,24 +5028,24 @@
         <v>45124</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>45124</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E128" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F128" s="6">
         <v>45124</v>
@@ -5035,24 +5054,24 @@
         <v>45124</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>45124</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E129" s="7">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F129" s="6">
         <v>45124</v>
@@ -5061,24 +5080,24 @@
         <v>45124</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>45124</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="E130" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F130" s="6">
         <v>45124</v>
@@ -5087,7 +5106,7 @@
         <v>45124</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5095,16 +5114,16 @@
         <v>45124</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="E131" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="F131" s="6">
         <v>45124</v>
@@ -5113,7 +5132,7 @@
         <v>45124</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5121,16 +5140,16 @@
         <v>45124</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E132" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F132" s="6">
         <v>45124</v>
@@ -5139,7 +5158,7 @@
         <v>45124</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5147,16 +5166,16 @@
         <v>45124</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E133" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F133" s="6">
         <v>45124</v>
@@ -5165,7 +5184,7 @@
         <v>45124</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5173,16 +5192,16 @@
         <v>45124</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="E134" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F134" s="6">
         <v>45124</v>
@@ -5191,7 +5210,7 @@
         <v>45124</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5199,16 +5218,16 @@
         <v>45124</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E135" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F135" s="6">
         <v>45124</v>
@@ -5217,7 +5236,7 @@
         <v>45124</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5225,16 +5244,16 @@
         <v>45124</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E136" s="7">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F136" s="6">
         <v>45124</v>
@@ -5243,24 +5262,24 @@
         <v>45124</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>45124</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E137" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F137" s="6">
         <v>45124</v>
@@ -5269,7 +5288,7 @@
         <v>45124</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5277,16 +5296,16 @@
         <v>45124</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E138" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F138" s="6">
         <v>45124</v>
@@ -5295,7 +5314,7 @@
         <v>45124</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>254</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5303,16 +5322,16 @@
         <v>45124</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E139" s="7">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F139" s="6">
         <v>45124</v>
@@ -5321,7 +5340,7 @@
         <v>45124</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5329,16 +5348,16 @@
         <v>45124</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E140" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F140" s="6">
         <v>45124</v>
@@ -5347,24 +5366,24 @@
         <v>45124</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>45124</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E141" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F141" s="6">
         <v>45124</v>
@@ -5373,1185 +5392,1185 @@
         <v>45124</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>18</v>
+        <v>253</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="E142" s="7">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="F142" s="6">
-        <v>45128</v>
+        <v>45124</v>
       </c>
       <c r="G142" s="6">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E143" s="7">
+        <v>26</v>
+      </c>
+      <c r="F143" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G143" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E144" s="7">
+        <v>26</v>
+      </c>
+      <c r="F144" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G144" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" s="7">
+        <v>31</v>
+      </c>
+      <c r="F145" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G145" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>45112</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146" s="7">
+        <v>115</v>
+      </c>
+      <c r="F146" s="6">
+        <v>45128</v>
+      </c>
+      <c r="G146" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
         <v>45106</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B147" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C147" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D147" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E147" s="7">
         <v>188</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F147" s="6">
         <v>45154</v>
       </c>
-      <c r="G143" s="6">
+      <c r="G147" s="6">
         <v>45106</v>
       </c>
-      <c r="H143" s="7" t="s">
+      <c r="H147" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
+    <row r="148" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
         <v>45106</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B148" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C148" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D148" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E148" s="7">
         <v>120</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F148" s="6">
         <v>45169</v>
       </c>
-      <c r="G144" s="6">
+      <c r="G148" s="6">
         <v>45106</v>
       </c>
-      <c r="H144" s="7" t="s">
+      <c r="H148" s="7" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A145" s="6">
-        <v>45106</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E145" s="7">
-        <v>59</v>
-      </c>
-      <c r="F145" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G145" s="6">
-        <v>45106</v>
-      </c>
-      <c r="H145" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A146" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D146" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E146" s="7">
-        <v>93</v>
-      </c>
-      <c r="F146" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G146" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H146" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" s="7">
-        <v>107</v>
-      </c>
-      <c r="F147" s="9">
-        <v>45169</v>
-      </c>
-      <c r="G147" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H147" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B148" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E148" s="7">
-        <v>47</v>
-      </c>
-      <c r="F148" s="6">
-        <v>45170</v>
-      </c>
-      <c r="G148" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E149" s="7">
+        <v>59</v>
+      </c>
+      <c r="F149" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G149" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
         <v>45104</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B150" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150" s="7">
+        <v>93</v>
+      </c>
+      <c r="F150" s="6">
+        <v>45086</v>
+      </c>
+      <c r="G150" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="7">
+        <v>107</v>
+      </c>
+      <c r="F151" s="9">
+        <v>45169</v>
+      </c>
+      <c r="G151" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152" s="7">
+        <v>47</v>
+      </c>
+      <c r="F152" s="6">
+        <v>45170</v>
+      </c>
+      <c r="G152" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C153" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D153" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E153" s="7">
         <v>101</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F153" s="6">
         <v>45169</v>
       </c>
-      <c r="G149" s="6">
+      <c r="G153" s="6">
         <v>45104</v>
       </c>
-      <c r="H149" s="7" t="s">
+      <c r="H153" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="6">
+    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
         <v>45100</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B154" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D154" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E154" s="7">
         <v>56</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F154" s="6">
         <v>45158</v>
       </c>
-      <c r="G150" s="6">
+      <c r="G154" s="6">
         <v>45100</v>
       </c>
-      <c r="H150" s="7" t="s">
+      <c r="H154" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="6">
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
         <v>45092</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B155" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C155" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D155" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E155" s="7">
         <v>218</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F155" s="6">
         <v>45152</v>
       </c>
-      <c r="G151" s="6">
+      <c r="G155" s="6">
         <v>45092</v>
       </c>
-      <c r="H151" s="7" t="s">
+      <c r="H155" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E152" s="7">
-        <v>116</v>
-      </c>
-      <c r="F152" s="6">
-        <v>45069</v>
-      </c>
-      <c r="G152" s="6">
-        <v>45092</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A153" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E153" s="7">
-        <v>91</v>
-      </c>
-      <c r="F153" s="6">
-        <v>45143</v>
-      </c>
-      <c r="G153" s="6">
-        <v>45092</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="6">
-        <v>45091</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E154" s="7">
-        <v>173</v>
-      </c>
-      <c r="F154" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G154" s="6">
-        <v>45091</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="6">
-        <v>45085</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E155" s="7">
-        <v>58</v>
-      </c>
-      <c r="F155" s="6">
-        <v>45173</v>
-      </c>
-      <c r="G155" s="6">
-        <v>45085</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E156" s="7">
+        <v>116</v>
+      </c>
+      <c r="F156" s="6">
+        <v>45069</v>
+      </c>
+      <c r="G156" s="6">
+        <v>45092</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E157" s="7">
+        <v>91</v>
+      </c>
+      <c r="F157" s="6">
+        <v>45143</v>
+      </c>
+      <c r="G157" s="6">
+        <v>45092</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>45091</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E158" s="7">
+        <v>173</v>
+      </c>
+      <c r="F158" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G158" s="6">
+        <v>45091</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>45085</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E159" s="7">
+        <v>58</v>
+      </c>
+      <c r="F159" s="6">
+        <v>45173</v>
+      </c>
+      <c r="G159" s="6">
+        <v>45085</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
         <v>45084</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C156" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E160" s="7">
         <v>74</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F160" s="6">
         <v>45107</v>
       </c>
-      <c r="G156" s="6">
+      <c r="G160" s="6">
         <v>45084</v>
       </c>
-      <c r="H156" s="7" t="s">
+      <c r="H160" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A157" s="6">
+    <row r="161" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
         <v>45078</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B161" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D161" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E161" s="7">
         <v>126</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F161" s="6">
         <v>45072</v>
       </c>
-      <c r="G157" s="6">
+      <c r="G161" s="6">
         <v>45078</v>
       </c>
-      <c r="H157" s="7" t="s">
+      <c r="H161" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A158" s="6">
+    <row r="162" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
         <v>45076</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E162" s="7">
         <v>137</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F162" s="6">
         <v>45138</v>
       </c>
-      <c r="G158" s="6">
+      <c r="G162" s="6">
         <v>45076</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H162" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="6">
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
         <v>45071</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C159" s="7" t="s">
+      <c r="C163" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D163" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E163" s="7">
         <v>90</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F163" s="6">
         <v>45070</v>
       </c>
-      <c r="G159" s="6">
+      <c r="G163" s="6">
         <v>45071</v>
       </c>
-      <c r="H159" s="7" t="s">
+      <c r="H163" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A160" s="6">
+    <row r="164" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
         <v>45068</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B164" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C164" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D164" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E164" s="7">
         <v>80</v>
-      </c>
-      <c r="F160" s="6">
-        <v>45104</v>
-      </c>
-      <c r="G160" s="6">
-        <v>45068</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="6">
-        <v>45064</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E161" s="7">
-        <v>64</v>
-      </c>
-      <c r="F161" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G161" s="6">
-        <v>45064</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A162" s="6">
-        <v>45063</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E162" s="7">
-        <v>69</v>
-      </c>
-      <c r="F162" s="6">
-        <v>45114</v>
-      </c>
-      <c r="G162" s="6">
-        <v>45063</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A163" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E163" s="7">
-        <v>235</v>
-      </c>
-      <c r="F163" s="6">
-        <v>45121</v>
-      </c>
-      <c r="G163" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E164" s="7">
-        <v>549</v>
       </c>
       <c r="F164" s="6">
         <v>45104</v>
       </c>
       <c r="G164" s="6">
-        <v>45062</v>
+        <v>45068</v>
       </c>
       <c r="H164" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>45064</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E165" s="7">
+        <v>64</v>
+      </c>
+      <c r="F165" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G165" s="6">
+        <v>45064</v>
+      </c>
+      <c r="H165" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E165" s="7">
-        <v>81</v>
-      </c>
-      <c r="F165" s="6">
-        <v>45138</v>
-      </c>
-      <c r="G165" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E166" s="7">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F166" s="6">
-        <v>45016</v>
+        <v>45114</v>
       </c>
       <c r="G166" s="6">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E167" s="7">
+        <v>235</v>
+      </c>
+      <c r="F167" s="6">
+        <v>45121</v>
+      </c>
+      <c r="G167" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E168" s="7">
+        <v>549</v>
+      </c>
+      <c r="F168" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G168" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E169" s="7">
+        <v>81</v>
+      </c>
+      <c r="F169" s="6">
+        <v>45138</v>
+      </c>
+      <c r="G169" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>45061</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E170" s="7">
+        <v>86</v>
+      </c>
+      <c r="F170" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G170" s="6">
+        <v>45061</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
         <v>45056</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B171" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C171" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D171" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E171" s="7">
         <v>23</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F171" s="6">
         <v>45072</v>
       </c>
-      <c r="G167" s="6">
+      <c r="G171" s="6">
         <v>45056</v>
       </c>
-      <c r="H167" s="7" t="s">
+      <c r="H171" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A168" s="6">
+    <row r="172" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
         <v>45056</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B172" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E172" s="7">
         <v>105</v>
-      </c>
-      <c r="F168" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G168" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="6">
-        <v>45056</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E169" s="7">
-        <v>27</v>
-      </c>
-      <c r="F169" s="6">
-        <v>45139</v>
-      </c>
-      <c r="G169" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="6">
-        <v>45054</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E170" s="7">
-        <v>272</v>
-      </c>
-      <c r="F170" s="6">
-        <v>45058</v>
-      </c>
-      <c r="G170" s="6">
-        <v>45054</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E171" s="7">
-        <v>123</v>
-      </c>
-      <c r="F171" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G171" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E172" s="7">
-        <v>29</v>
       </c>
       <c r="F172" s="6">
         <v>45107</v>
       </c>
       <c r="G172" s="6">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="D173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" s="7">
         <v>27</v>
       </c>
-      <c r="E173" s="7">
-        <v>4</v>
-      </c>
       <c r="F173" s="6">
-        <v>45105</v>
+        <v>45139</v>
       </c>
       <c r="G173" s="6">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>179</v>
+        <v>306</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>29</v>
+        <v>189</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E174" s="7">
-        <v>7</v>
+        <v>272</v>
       </c>
       <c r="F174" s="6">
-        <v>45105</v>
+        <v>45058</v>
       </c>
       <c r="G174" s="6">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" s="7">
+        <v>123</v>
+      </c>
+      <c r="F175" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G175" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" s="7">
+        <v>29</v>
+      </c>
+      <c r="F176" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G176" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" s="7">
+        <v>4</v>
+      </c>
+      <c r="F177" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G177" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" s="7">
+        <v>7</v>
+      </c>
+      <c r="F178" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G178" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
         <v>45041</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B179" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C179" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D179" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E179" s="7">
         <v>175</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F179" s="6">
         <v>45065</v>
       </c>
-      <c r="G175" s="6">
+      <c r="G179" s="6">
         <v>45041</v>
       </c>
-      <c r="H175" s="7" t="s">
+      <c r="H179" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="6">
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
         <v>45036</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D180" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E180" s="7">
         <v>133</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F180" s="6">
         <v>45120</v>
       </c>
-      <c r="G176" s="6">
+      <c r="G180" s="6">
         <v>45036</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="6">
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
         <v>45035</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B181" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E181" s="7">
         <v>62</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F181" s="6">
         <v>45095</v>
       </c>
-      <c r="G177" s="6">
+      <c r="G181" s="6">
         <v>45035</v>
       </c>
-      <c r="H177" s="7" t="s">
+      <c r="H181" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A178" s="6">
+    <row r="182" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
         <v>45034</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B182" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C182" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D182" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E182" s="7">
         <v>113</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F182" s="6">
         <v>45076</v>
       </c>
-      <c r="G178" s="6">
+      <c r="G182" s="6">
         <v>45034</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H182" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A179" s="6">
+    <row r="183" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
         <v>45021</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B183" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C183" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D183" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E183" s="7">
         <v>120</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F183" s="6">
         <v>45077</v>
       </c>
-      <c r="G179" s="6">
+      <c r="G183" s="6">
         <v>45021</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H183" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A180" s="6">
-        <v>45022</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E180" s="7">
-        <v>12</v>
-      </c>
-      <c r="F180" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G180" s="6">
-        <v>45022</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A181" s="6">
-        <v>45021</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E181" s="7">
-        <v>98</v>
-      </c>
-      <c r="F181" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G181" s="6">
-        <v>45021</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A182" s="6">
-        <v>45021</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E182" s="7">
-        <v>100</v>
-      </c>
-      <c r="F182" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G182" s="6">
-        <v>45021</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="6">
-        <v>45020</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E183" s="7">
-        <v>84</v>
-      </c>
-      <c r="F183" s="6">
-        <v>45075</v>
-      </c>
-      <c r="G183" s="6">
-        <v>45020</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="E184" s="7">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="F184" s="6">
         <v>45079</v>
       </c>
       <c r="G184" s="6">
-        <v>45019</v>
+        <v>45022</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>46</v>
+        <v>320</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>18</v>
+        <v>321</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E185" s="7">
-        <v>1047</v>
+        <v>98</v>
       </c>
       <c r="F185" s="6">
-        <v>45079</v>
+        <v>45077</v>
       </c>
       <c r="G185" s="6">
-        <v>45016</v>
+        <v>45021</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E186" s="7">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F186" s="6">
-        <v>45059</v>
+        <v>45086</v>
       </c>
       <c r="G186" s="6">
-        <v>45007</v>
+        <v>45021</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>35</v>
@@ -6560,50 +6579,50 @@
         <v>36</v>
       </c>
       <c r="E187" s="7">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F187" s="6">
-        <v>45077</v>
+        <v>45075</v>
       </c>
       <c r="G187" s="6">
-        <v>45000</v>
+        <v>45020</v>
       </c>
       <c r="H187" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>44999</v>
+        <v>45019</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E188" s="7">
-        <v>105</v>
+        <v>227</v>
       </c>
       <c r="F188" s="6">
-        <v>45020</v>
+        <v>45079</v>
       </c>
       <c r="G188" s="6">
-        <v>44999</v>
+        <v>45019</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="C189" s="7" t="s">
         <v>18</v>
@@ -6612,354 +6631,354 @@
         <v>19</v>
       </c>
       <c r="E189" s="7">
-        <v>152</v>
+        <v>1047</v>
       </c>
       <c r="F189" s="6">
-        <v>45066</v>
+        <v>45079</v>
       </c>
       <c r="G189" s="6">
-        <v>45005</v>
+        <v>45016</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E190" s="7">
-        <v>240</v>
+        <v>54</v>
       </c>
       <c r="F190" s="6">
-        <v>45044</v>
+        <v>45059</v>
       </c>
       <c r="G190" s="6">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E191" s="7">
-        <v>827</v>
+        <v>81</v>
       </c>
       <c r="F191" s="6">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="G191" s="6">
-        <v>44988</v>
+        <v>45000</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>44987</v>
+        <v>44999</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="E192" s="7">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="F192" s="6">
-        <v>45048</v>
+        <v>45020</v>
       </c>
       <c r="G192" s="6">
-        <v>44987</v>
+        <v>44999</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>219</v>
+        <v>86</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E193" s="7">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="F193" s="6">
-        <v>45169</v>
+        <v>45066</v>
       </c>
       <c r="G193" s="6">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E194" s="7">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="F194" s="6">
-        <v>45077</v>
+        <v>45044</v>
       </c>
       <c r="G194" s="6">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
+        <v>44988</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E195" s="7">
+        <v>827</v>
+      </c>
+      <c r="F195" s="6">
+        <v>45047</v>
+      </c>
+      <c r="G195" s="6">
+        <v>44988</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>44987</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E196" s="7">
+        <v>53</v>
+      </c>
+      <c r="F196" s="6">
+        <v>45048</v>
+      </c>
+      <c r="G196" s="6">
+        <v>44987</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
         <v>44985</v>
       </c>
-      <c r="B195" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E195" s="7">
-        <v>161</v>
-      </c>
-      <c r="F195" s="6">
-        <v>44979</v>
-      </c>
-      <c r="G195" s="6">
+      <c r="B197" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197" s="7">
+        <v>17</v>
+      </c>
+      <c r="F197" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G197" s="6">
         <v>44985</v>
       </c>
-      <c r="H195" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
+      <c r="H197" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
         <v>44985</v>
       </c>
-      <c r="B196" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E196" s="7">
-        <v>15</v>
-      </c>
-      <c r="F196" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G196" s="6">
+      <c r="B198" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" s="7">
+        <v>12</v>
+      </c>
+      <c r="F198" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G198" s="6">
         <v>44985</v>
       </c>
-      <c r="H196" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A197" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E197" s="7">
-        <v>118</v>
-      </c>
-      <c r="F197" s="6">
-        <v>45016</v>
-      </c>
-      <c r="G197" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H197" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A198" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E198" s="7">
-        <v>35</v>
-      </c>
-      <c r="F198" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G198" s="6">
-        <v>44984</v>
-      </c>
       <c r="H198" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E199" s="7">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="F199" s="6">
-        <v>45077</v>
+        <v>44979</v>
       </c>
       <c r="G199" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E200" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F200" s="6">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G200" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>44984</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E201" s="7">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="F201" s="6">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G201" s="6">
         <v>44984</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>44984</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E202" s="7">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F202" s="6">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G202" s="6">
         <v>44984</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6967,25 +6986,25 @@
         <v>44984</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E203" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F203" s="6">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G203" s="6">
         <v>44984</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6993,215 +7012,215 @@
         <v>44984</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D204" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E204" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F204" s="6">
-        <v>44974</v>
+        <v>45077</v>
       </c>
       <c r="G204" s="6">
         <v>44984</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>349</v>
+        <v>105</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E205" s="7">
+        <v>19</v>
+      </c>
+      <c r="F205" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G205" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E206" s="7">
+        <v>60</v>
+      </c>
+      <c r="F206" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G206" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E207" s="7">
+        <v>10</v>
+      </c>
+      <c r="F207" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G207" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E208" s="7">
+        <v>10</v>
+      </c>
+      <c r="F208" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G208" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
         <v>44980</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E209" s="7">
         <v>120</v>
       </c>
-      <c r="F205" s="6">
+      <c r="F209" s="6">
         <v>45039</v>
       </c>
-      <c r="G205" s="6">
+      <c r="G209" s="6">
         <v>44980</v>
       </c>
-      <c r="H205" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A206" s="6">
+    <row r="210" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
         <v>44973</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B210" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C210" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E206" s="7">
-        <v>40</v>
-      </c>
-      <c r="F206" s="9">
-        <v>44965</v>
-      </c>
-      <c r="G206" s="6">
-        <v>44973</v>
-      </c>
-      <c r="H206" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="6">
-        <v>44973</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="C207" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D207" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E207" s="7">
-        <v>186</v>
-      </c>
-      <c r="F207" s="6">
-        <v>44981</v>
-      </c>
-      <c r="G207" s="6">
-        <v>44973</v>
-      </c>
-      <c r="H207" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="6">
-        <v>44978</v>
-      </c>
-      <c r="B208" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E208" s="7">
-        <v>100</v>
-      </c>
-      <c r="F208" s="6">
-        <v>45032</v>
-      </c>
-      <c r="G208" s="6">
-        <v>44978</v>
-      </c>
-      <c r="H208" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="6">
-        <v>44972</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E209" s="7">
-        <v>64</v>
-      </c>
-      <c r="F209" s="6">
-        <v>44974</v>
-      </c>
-      <c r="G209" s="6">
-        <v>44972</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="6">
-        <v>44965</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="D210" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E210" s="7">
-        <v>92</v>
-      </c>
-      <c r="F210" s="6">
-        <v>45065</v>
+        <v>40</v>
+      </c>
+      <c r="F210" s="9">
+        <v>44965</v>
       </c>
       <c r="G210" s="6">
-        <v>44966</v>
+        <v>44973</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E211" s="7">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="F211" s="6">
-        <v>45024</v>
+        <v>44981</v>
       </c>
       <c r="G211" s="6">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>22</v>
@@ -7210,492 +7229,492 @@
         <v>23</v>
       </c>
       <c r="E212" s="7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F212" s="6">
-        <v>45017</v>
+        <v>45032</v>
       </c>
       <c r="G212" s="6">
-        <v>44964</v>
+        <v>44978</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>98</v>
+        <v>355</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E213" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F213" s="6">
-        <v>45013</v>
+        <v>44974</v>
       </c>
       <c r="G213" s="6">
-        <v>44964</v>
+        <v>44972</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
+        <v>44965</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" s="7">
+        <v>92</v>
+      </c>
+      <c r="F214" s="6">
+        <v>45065</v>
+      </c>
+      <c r="G214" s="6">
+        <v>44966</v>
+      </c>
+      <c r="H214" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
         <v>44964</v>
       </c>
-      <c r="B214" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E214" s="7">
-        <v>200</v>
-      </c>
-      <c r="F214" s="6">
-        <v>45020</v>
-      </c>
-      <c r="G214" s="6">
+      <c r="B215" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E215" s="7">
+        <v>121</v>
+      </c>
+      <c r="F215" s="6">
+        <v>45024</v>
+      </c>
+      <c r="G215" s="6">
         <v>44964</v>
       </c>
-      <c r="H214" s="7" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="6">
-        <v>44957</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E215" s="7">
-        <v>83</v>
-      </c>
-      <c r="F215" s="6">
-        <v>44956</v>
-      </c>
-      <c r="G215" s="6">
-        <v>44957</v>
-      </c>
       <c r="H215" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E216" s="7">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F216" s="6">
-        <v>45016</v>
+        <v>45017</v>
       </c>
       <c r="G216" s="6">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>369</v>
+        <v>98</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E217" s="7">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="F217" s="6">
-        <v>45017</v>
+        <v>45013</v>
       </c>
       <c r="G217" s="6">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E218" s="7">
-        <v>9</v>
+        <v>200</v>
       </c>
       <c r="F218" s="6">
-        <v>45019</v>
+        <v>45020</v>
       </c>
       <c r="G218" s="6">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>373</v>
+        <v>26</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>374</v>
+        <v>27</v>
       </c>
       <c r="E219" s="7">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="F219" s="6">
-        <v>44972</v>
+        <v>44956</v>
       </c>
       <c r="G219" s="6">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>44957</v>
       </c>
       <c r="B220" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E220" s="7">
+        <v>74</v>
+      </c>
+      <c r="F220" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G220" s="6">
+        <v>44957</v>
+      </c>
+      <c r="H220" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>44959</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E221" s="7">
         <v>158</v>
       </c>
-      <c r="C220" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E220" s="7">
-        <v>90</v>
-      </c>
-      <c r="F220" s="6">
-        <v>44957</v>
-      </c>
-      <c r="G220" s="6">
-        <v>44960</v>
-      </c>
-      <c r="H220" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A221" s="6">
-        <v>44953</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E221" s="7">
-        <v>255</v>
-      </c>
       <c r="F221" s="6">
-        <v>44942</v>
+        <v>45017</v>
       </c>
       <c r="G221" s="6">
-        <v>44953</v>
+        <v>44959</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="E222" s="7">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="F222" s="6">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="G222" s="6">
-        <v>44946</v>
+        <v>44959</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>26</v>
+        <v>373</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>27</v>
+        <v>374</v>
       </c>
       <c r="E223" s="7">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="F223" s="6">
-        <v>44995</v>
+        <v>44972</v>
       </c>
       <c r="G223" s="6">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>39</v>
+        <v>375</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>379</v>
+        <v>158</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="E224" s="7">
-        <v>374</v>
+        <v>90</v>
       </c>
       <c r="F224" s="6">
-        <v>45011</v>
+        <v>44957</v>
       </c>
       <c r="G224" s="6">
-        <v>44951</v>
+        <v>44960</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E225" s="7">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="F225" s="6">
-        <v>45016</v>
+        <v>44942</v>
       </c>
       <c r="G225" s="6">
-        <v>44950</v>
+        <v>44953</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="E226" s="7">
-        <v>964</v>
+        <v>110</v>
       </c>
       <c r="F226" s="6">
         <v>45016</v>
       </c>
       <c r="G226" s="6">
-        <v>44945</v>
+        <v>44946</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>44942</v>
+        <v>44951</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E227" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F227" s="6">
-        <v>45002</v>
+        <v>44995</v>
       </c>
       <c r="G227" s="6">
-        <v>44942</v>
+        <v>44951</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>44938</v>
+        <v>44951</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E228" s="7">
-        <v>139</v>
+        <v>374</v>
       </c>
       <c r="F228" s="6">
-        <v>44937</v>
+        <v>45011</v>
       </c>
       <c r="G228" s="6">
-        <v>44938</v>
+        <v>44951</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>44937</v>
+        <v>44950</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E229" s="7">
-        <v>801</v>
+        <v>125</v>
       </c>
       <c r="F229" s="6">
-        <v>45003</v>
+        <v>45016</v>
       </c>
       <c r="G229" s="6">
-        <v>44937</v>
+        <v>44950</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>44936</v>
+        <v>44945</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E230" s="7">
-        <v>76</v>
+        <v>964</v>
       </c>
       <c r="F230" s="6">
-        <v>45281</v>
+        <v>45016</v>
       </c>
       <c r="G230" s="6">
-        <v>44936</v>
+        <v>44945</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>49</v>
@@ -7704,67 +7723,171 @@
         <v>50</v>
       </c>
       <c r="E231" s="7">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F231" s="6">
-        <v>44971</v>
+        <v>45002</v>
       </c>
       <c r="G231" s="6">
-        <v>44935</v>
+        <v>44942</v>
       </c>
       <c r="H231" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
+        <v>44938</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E232" s="7">
+        <v>139</v>
+      </c>
+      <c r="F232" s="6">
+        <v>44937</v>
+      </c>
+      <c r="G232" s="6">
+        <v>44938</v>
+      </c>
+      <c r="H232" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E233" s="7">
+        <v>801</v>
+      </c>
+      <c r="F233" s="6">
+        <v>45003</v>
+      </c>
+      <c r="G233" s="6">
+        <v>44937</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>44936</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E234" s="7">
+        <v>76</v>
+      </c>
+      <c r="F234" s="6">
+        <v>45281</v>
+      </c>
+      <c r="G234" s="6">
+        <v>44936</v>
+      </c>
+      <c r="H234" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>44935</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E235" s="7">
+        <v>85</v>
+      </c>
+      <c r="F235" s="6">
+        <v>44971</v>
+      </c>
+      <c r="G235" s="6">
+        <v>44935</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
         <v>44931</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B236" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C236" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D236" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E236" s="7">
         <v>370</v>
       </c>
-      <c r="F232" s="6">
+      <c r="F236" s="6">
         <v>44957</v>
       </c>
-      <c r="G232" s="6">
+      <c r="G236" s="6">
         <v>44931</v>
       </c>
-      <c r="H232" s="7" t="s">
+      <c r="H236" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A233" s="6">
+    <row r="237" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
         <v>44932</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B237" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C237" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D237" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E233" s="7">
+      <c r="E237" s="7">
         <v>20</v>
       </c>
-      <c r="F233" s="6">
+      <c r="F237" s="6">
         <v>44988</v>
       </c>
-      <c r="G233" s="6">
+      <c r="G237" s="6">
         <v>44932</v>
       </c>
-      <c r="H233" s="7" t="s">
+      <c r="H237" s="7" t="s">
         <v>26</v>
       </c>
     </row>

--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/catherine_mckee_twc_texas_gov/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16261BBE-7FBC-4162-AC94-2B9412F1918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{194A6850-9937-42C7-B8EB-46F975970888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5685" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="421">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -1275,6 +1275,30 @@
   </si>
   <si>
     <t>Horton Automatics</t>
+  </si>
+  <si>
+    <t>American Airlines-SRO</t>
+  </si>
+  <si>
+    <t>Hollingsworth LLC</t>
+  </si>
+  <si>
+    <t>Vroom-Meadows Place #2</t>
+  </si>
+  <si>
+    <t>Stafford</t>
+  </si>
+  <si>
+    <t>Vroom-Stafford</t>
+  </si>
+  <si>
+    <t>Panera, LLC Fresh Dough Facility</t>
+  </si>
+  <si>
+    <t>Longwood Elastomers</t>
+  </si>
+  <si>
+    <t>Vroom-Sam Houston Parkway</t>
   </si>
 </sst>
 </file>
@@ -1705,10 +1729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89BCF3A-B17F-44A2-A200-ED80B6FEE65F}">
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1752,36 +1776,36 @@
     </row>
     <row r="2" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
-        <v>45313</v>
+        <v>45321</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="E2" s="10">
-        <v>63</v>
+        <v>321</v>
       </c>
       <c r="F2" s="9">
-        <v>45369</v>
+        <v>45381</v>
       </c>
       <c r="G2" s="9">
-        <v>45313</v>
+        <v>45321</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="9">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>18</v>
@@ -1790,76 +1814,76 @@
         <v>19</v>
       </c>
       <c r="E3" s="10">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="F3" s="9">
-        <v>45305</v>
+        <v>45382</v>
       </c>
       <c r="G3" s="9">
-        <v>45310</v>
+        <v>45316</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
-        <v>45309</v>
+        <v>45316</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E4" s="10">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F4" s="9">
-        <v>45324</v>
+        <v>45374</v>
       </c>
       <c r="G4" s="9">
-        <v>45309</v>
+        <v>45316</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>24</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
-        <v>45308</v>
+        <v>45316</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" s="10">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="F5" s="9">
-        <v>45351</v>
+        <v>45374</v>
       </c>
       <c r="G5" s="9">
-        <v>45308</v>
+        <v>45316</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>20</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>29</v>
@@ -1868,13 +1892,13 @@
         <v>13</v>
       </c>
       <c r="E6" s="10">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F6" s="9">
-        <v>45369</v>
+        <v>45375</v>
       </c>
       <c r="G6" s="9">
-        <v>45307</v>
+        <v>45315</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>30</v>
@@ -1882,140 +1906,140 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
-        <v>45303</v>
+        <v>45315</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>299</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E7" s="10">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F7" s="9">
-        <v>45295</v>
+        <v>45383</v>
       </c>
       <c r="G7" s="9">
-        <v>45303</v>
+        <v>45315</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
-        <v>45303</v>
+        <v>45314</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E8" s="10">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="F8" s="9">
-        <v>45295</v>
+        <v>45374</v>
       </c>
       <c r="G8" s="9">
-        <v>45303</v>
+        <v>45314</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
-        <v>45303</v>
+        <v>45313</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="E9" s="10">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="F9" s="9">
-        <v>45300</v>
+        <v>45369</v>
       </c>
       <c r="G9" s="9">
-        <v>45303</v>
+        <v>45313</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>24</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="9">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E10" s="10">
-        <v>63</v>
+        <v>334</v>
       </c>
       <c r="F10" s="9">
-        <v>45369</v>
+        <v>45305</v>
       </c>
       <c r="G10" s="9">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
-        <v>45300</v>
+        <v>45309</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E11" s="10">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="F11" s="9">
-        <v>45353</v>
+        <v>45324</v>
       </c>
       <c r="G11" s="9">
-        <v>45300</v>
+        <v>45309</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
-        <v>45300</v>
+        <v>45308</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>18</v>
@@ -2024,13 +2048,13 @@
         <v>19</v>
       </c>
       <c r="E12" s="10">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="F12" s="9">
-        <v>45339</v>
+        <v>45351</v>
       </c>
       <c r="G12" s="9">
-        <v>45300</v>
+        <v>45308</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>20</v>
@@ -2038,192 +2062,192 @@
     </row>
     <row r="13" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
-        <v>45299</v>
+        <v>45307</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>390</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E13" s="10">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F13" s="9">
-        <v>45266</v>
+        <v>45369</v>
       </c>
       <c r="G13" s="9">
-        <v>45299</v>
+        <v>45307</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>391</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
-        <v>45299</v>
+        <v>45303</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>399</v>
+        <v>26</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="E14" s="10">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="F14" s="9">
-        <v>45302</v>
+        <v>45295</v>
       </c>
       <c r="G14" s="9">
-        <v>45299</v>
+        <v>45303</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
-        <v>45296</v>
+        <v>45303</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E15" s="10">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="F15" s="9">
-        <v>45350</v>
+        <v>45295</v>
       </c>
       <c r="G15" s="9">
-        <v>45296</v>
+        <v>45303</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
-        <v>45296</v>
+        <v>45303</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10">
+        <v>92</v>
+      </c>
+      <c r="F16" s="9">
+        <v>45300</v>
+      </c>
+      <c r="G16" s="9">
+        <v>45303</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="9">
+        <v>45307</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="10">
+        <v>63</v>
+      </c>
+      <c r="F17" s="9">
+        <v>45369</v>
+      </c>
+      <c r="G17" s="9">
+        <v>45307</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="9">
+        <v>45300</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="10">
-        <v>60</v>
-      </c>
-      <c r="F16" s="9">
-        <v>45337</v>
-      </c>
-      <c r="G16" s="9">
-        <v>45296</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="E18" s="10">
+        <v>176</v>
+      </c>
+      <c r="F18" s="9">
+        <v>45353</v>
+      </c>
+      <c r="G18" s="9">
+        <v>45300</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
-        <v>45295</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="10">
-        <v>76</v>
-      </c>
-      <c r="F17" s="9">
-        <v>45332</v>
-      </c>
-      <c r="G17" s="9">
-        <v>45295</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
-        <v>45278</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="10">
-        <v>256</v>
-      </c>
-      <c r="F18" s="9">
-        <v>45275</v>
-      </c>
-      <c r="G18" s="9">
-        <v>45278</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="9">
-        <v>45271</v>
+        <v>45300</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="E19" s="10">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F19" s="9">
-        <v>45328</v>
+        <v>45339</v>
       </c>
       <c r="G19" s="9">
-        <v>45271</v>
+        <v>45300</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="9">
-        <v>45267</v>
+        <v>45299</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>390</v>
@@ -2238,1916 +2262,1916 @@
         <v>45266</v>
       </c>
       <c r="G20" s="9">
-        <v>45267</v>
+        <v>45299</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="21" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
-        <v>45264</v>
+        <v>45299</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>8</v>
+        <v>398</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>9</v>
+        <v>399</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E21" s="10">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F21" s="9">
-        <v>45324</v>
+        <v>45302</v>
       </c>
       <c r="G21" s="9">
-        <v>45264</v>
+        <v>45299</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>9</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="9">
-        <v>45264</v>
+        <v>45296</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E22" s="10">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="F22" s="9">
-        <v>45322</v>
+        <v>45350</v>
       </c>
       <c r="G22" s="9">
-        <v>45264</v>
+        <v>45296</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
-        <v>45264</v>
+        <v>45296</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>15</v>
+        <v>402</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E23" s="10">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F23" s="9">
-        <v>45264</v>
+        <v>45337</v>
       </c>
       <c r="G23" s="9">
-        <v>45264</v>
+        <v>45296</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="9">
-        <v>45264</v>
+        <v>45295</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E24" s="10">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F24" s="9">
-        <v>45322</v>
+        <v>45332</v>
       </c>
       <c r="G24" s="9">
-        <v>45264</v>
+        <v>45295</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>21</v>
+        <v>393</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E25" s="10">
-        <v>577</v>
+        <v>256</v>
       </c>
       <c r="F25" s="9">
-        <v>45317</v>
+        <v>45275</v>
       </c>
       <c r="G25" s="9">
-        <v>45261</v>
+        <v>45278</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="9">
-        <v>45257</v>
+        <v>45271</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>25</v>
+        <v>392</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E26" s="10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F26" s="9">
-        <v>45252</v>
+        <v>45328</v>
       </c>
       <c r="G26" s="9">
-        <v>45257</v>
+        <v>45271</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>26</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
-        <v>45257</v>
+        <v>45267</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>28</v>
+        <v>389</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E27" s="10">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F27" s="9">
         <v>45266</v>
       </c>
       <c r="G27" s="9">
-        <v>45257</v>
+        <v>45267</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>30</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="10">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F28" s="9">
-        <v>45266</v>
+        <v>45324</v>
       </c>
       <c r="G28" s="9">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E29" s="10">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="F29" s="9">
-        <v>45268</v>
+        <v>45322</v>
       </c>
       <c r="G29" s="9">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E30" s="10">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="F30" s="9">
-        <v>45252</v>
+        <v>45264</v>
       </c>
       <c r="G30" s="9">
-        <v>45257</v>
+        <v>45264</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
-        <v>45243</v>
+        <v>45264</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E31" s="10">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="F31" s="9">
-        <v>45240</v>
+        <v>45322</v>
       </c>
       <c r="G31" s="9">
-        <v>45243</v>
+        <v>45264</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
+        <v>45261</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="10">
+        <v>577</v>
+      </c>
+      <c r="F32" s="9">
+        <v>45317</v>
+      </c>
+      <c r="G32" s="9">
+        <v>45261</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="9">
+        <v>45257</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="10">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9">
+        <v>45252</v>
+      </c>
+      <c r="G33" s="9">
+        <v>45257</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A34" s="9">
+        <v>45257</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="10">
+        <v>64</v>
+      </c>
+      <c r="F34" s="9">
+        <v>45266</v>
+      </c>
+      <c r="G34" s="9">
+        <v>45257</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A35" s="9">
+        <v>45257</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="10">
+        <v>39</v>
+      </c>
+      <c r="F35" s="9">
+        <v>45266</v>
+      </c>
+      <c r="G35" s="9">
+        <v>45257</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="9">
+        <v>45257</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="10">
+        <v>65</v>
+      </c>
+      <c r="F36" s="9">
+        <v>45268</v>
+      </c>
+      <c r="G36" s="9">
+        <v>45257</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="9">
+        <v>45257</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10">
+        <v>9</v>
+      </c>
+      <c r="F37" s="9">
+        <v>45252</v>
+      </c>
+      <c r="G37" s="9">
+        <v>45257</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="9">
+        <v>45243</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="10">
+        <v>53</v>
+      </c>
+      <c r="F38" s="9">
         <v>45240</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="G38" s="9">
+        <v>45243</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="9">
+        <v>45240</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E39" s="10">
         <v>150</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F39" s="9">
         <v>45238</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G39" s="9">
         <v>45240</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="5">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>45291</v>
-      </c>
-      <c r="G33" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="5">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4">
-        <v>45290</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="5">
-        <v>64</v>
-      </c>
-      <c r="F35" s="4">
-        <v>45272</v>
-      </c>
-      <c r="G35" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="5">
-        <v>66</v>
-      </c>
-      <c r="F36" s="4">
-        <v>45215</v>
-      </c>
-      <c r="G36" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="5">
-        <v>110</v>
-      </c>
-      <c r="F37" s="4">
-        <v>45265</v>
-      </c>
-      <c r="G37" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="4">
-        <v>45236</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="5">
-        <v>363</v>
-      </c>
-      <c r="F38" s="4">
-        <v>44966</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45236</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="4">
-        <v>45236</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="5">
-        <v>34</v>
-      </c>
-      <c r="F39" s="4">
-        <v>44931</v>
-      </c>
-      <c r="G39" s="4">
-        <v>45236</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E40" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F40" s="4">
-        <v>45264</v>
+        <v>45291</v>
       </c>
       <c r="G40" s="4">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E41" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F41" s="4">
-        <v>45264</v>
+        <v>45290</v>
       </c>
       <c r="G41" s="4">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="E42" s="5">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F42" s="4">
-        <v>45290</v>
+        <v>45272</v>
       </c>
       <c r="G42" s="4">
-        <v>45230</v>
+        <v>45238</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E43" s="5">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4">
-        <v>45275</v>
+        <v>45215</v>
       </c>
       <c r="G43" s="4">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="5">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="F44" s="4">
-        <v>45275</v>
+        <v>45265</v>
       </c>
       <c r="G44" s="4">
-        <v>45225</v>
+        <v>45238</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E45" s="5">
-        <v>9</v>
+        <v>363</v>
       </c>
       <c r="F45" s="4">
-        <v>45275</v>
+        <v>44966</v>
       </c>
       <c r="G45" s="4">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E46" s="5">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F46" s="4">
-        <v>45275</v>
+        <v>44931</v>
       </c>
       <c r="G46" s="4">
-        <v>45225</v>
+        <v>45236</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E47" s="5">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F47" s="4">
-        <v>45275</v>
+        <v>45264</v>
       </c>
       <c r="G47" s="4">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E48" s="5">
         <v>10</v>
       </c>
       <c r="F48" s="4">
-        <v>45275</v>
+        <v>45264</v>
       </c>
       <c r="G48" s="4">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49" s="5">
         <v>76</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="5">
-        <v>8</v>
-      </c>
       <c r="F49" s="4">
-        <v>45275</v>
+        <v>45290</v>
       </c>
       <c r="G49" s="4">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>45225</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E50" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F50" s="4">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G50" s="4">
         <v>45225</v>
       </c>
       <c r="H50" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="5">
+        <v>6</v>
+      </c>
+      <c r="F51" s="4">
+        <v>45275</v>
+      </c>
+      <c r="G51" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A52" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="5">
+        <v>9</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45275</v>
+      </c>
+      <c r="G52" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A53" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="5">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4">
+        <v>45275</v>
+      </c>
+      <c r="G53" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A54" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="5">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4">
+        <v>45275</v>
+      </c>
+      <c r="G54" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A55" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="5">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4">
+        <v>45275</v>
+      </c>
+      <c r="G55" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A56" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="5">
+        <v>8</v>
+      </c>
+      <c r="F56" s="4">
+        <v>45275</v>
+      </c>
+      <c r="G56" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A57" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="5">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4">
+        <v>45225</v>
+      </c>
+      <c r="G57" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H57" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A51" s="6">
+    <row r="58" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A58" s="6">
         <v>45225</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C58" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E58" s="7">
         <v>7</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F58" s="6">
         <v>45275</v>
       </c>
-      <c r="G51" s="6">
+      <c r="G58" s="6">
         <v>45225</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H58" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A52" s="6">
+    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A59" s="6">
         <v>45225</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E59" s="7">
         <v>11</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F59" s="6">
         <v>45225</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G59" s="6">
         <v>45225</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A53" s="6">
+    <row r="60" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A60" s="6">
         <v>45225</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E60" s="7">
         <v>5</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F60" s="6">
         <v>45275</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G60" s="6">
         <v>45225</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H60" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A54" s="6">
+    <row r="61" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A61" s="6">
         <v>45225</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B61" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C61" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E61" s="7">
         <v>6</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F61" s="6">
         <v>45275</v>
       </c>
-      <c r="G54" s="6">
+      <c r="G61" s="6">
         <v>45225</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H61" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A55" s="6">
+    <row r="62" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="6">
         <v>45225</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B62" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E62" s="7">
         <v>7</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F62" s="6">
         <v>45275</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G62" s="6">
         <v>45225</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H62" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A56" s="6">
+    <row r="63" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A63" s="6">
         <v>45225</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B63" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="7">
-        <v>6</v>
-      </c>
-      <c r="F56" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G56" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A57" s="6">
-        <v>45224</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E57" s="7">
-        <v>400</v>
-      </c>
-      <c r="F57" s="6">
-        <v>45291</v>
-      </c>
-      <c r="G57" s="6">
-        <v>45224</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A58" s="6">
-        <v>45224</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="7">
-        <v>778</v>
-      </c>
-      <c r="F58" s="6">
-        <v>45291</v>
-      </c>
-      <c r="G58" s="6">
-        <v>45224</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="7">
-        <v>6</v>
-      </c>
-      <c r="F59" s="6">
-        <v>45296</v>
-      </c>
-      <c r="G59" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E60" s="7">
-        <v>1</v>
-      </c>
-      <c r="F60" s="6">
-        <v>45280</v>
-      </c>
-      <c r="G60" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E61" s="7">
-        <v>9</v>
-      </c>
-      <c r="F61" s="6">
-        <v>45280</v>
-      </c>
-      <c r="G61" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E62" s="7">
-        <v>11</v>
-      </c>
-      <c r="F62" s="6">
-        <v>45280</v>
-      </c>
-      <c r="G62" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="D63" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E63" s="7">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="F63" s="6">
-        <v>45280</v>
+        <v>45275</v>
       </c>
       <c r="G63" s="6">
-        <v>45222</v>
+        <v>45225</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E64" s="7">
-        <v>15</v>
+        <v>400</v>
       </c>
       <c r="F64" s="6">
-        <v>45280</v>
+        <v>45291</v>
       </c>
       <c r="G64" s="6">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E65" s="7">
-        <v>18</v>
+        <v>778</v>
       </c>
       <c r="F65" s="6">
-        <v>45280</v>
+        <v>45291</v>
       </c>
       <c r="G65" s="6">
-        <v>45219</v>
+        <v>45224</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="E66" s="7">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F66" s="6">
-        <v>45280</v>
+        <v>45296</v>
       </c>
       <c r="G66" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="E67" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F67" s="6">
-        <v>45231</v>
+        <v>45280</v>
       </c>
       <c r="G67" s="6">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E68" s="7">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F68" s="6">
-        <v>45231</v>
+        <v>45280</v>
       </c>
       <c r="G68" s="6">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="E69" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F69" s="6">
-        <v>45231</v>
+        <v>45280</v>
       </c>
       <c r="G69" s="6">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E70" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="F70" s="6">
-        <v>45231</v>
+        <v>45280</v>
       </c>
       <c r="G70" s="6">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="E71" s="7">
-        <v>288</v>
+        <v>15</v>
       </c>
       <c r="F71" s="6">
-        <v>45291</v>
+        <v>45280</v>
       </c>
       <c r="G71" s="6">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
-        <v>45211</v>
+        <v>45219</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="E72" s="7">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="F72" s="6">
-        <v>45275</v>
+        <v>45280</v>
       </c>
       <c r="G72" s="6">
-        <v>45211</v>
+        <v>45219</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
-        <v>45209</v>
+        <v>45219</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="E73" s="7">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="F73" s="6">
-        <v>45269</v>
+        <v>45280</v>
       </c>
       <c r="G73" s="6">
-        <v>45209</v>
+        <v>45219</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
-        <v>45209</v>
+        <v>45218</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E74" s="7">
-        <v>351</v>
+        <v>6</v>
       </c>
       <c r="F74" s="6">
-        <v>45268</v>
+        <v>45231</v>
       </c>
       <c r="G74" s="6">
-        <v>45209</v>
+        <v>45218</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
-        <v>45208</v>
+        <v>45218</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E75" s="7">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="F75" s="6">
-        <v>45257</v>
+        <v>45231</v>
       </c>
       <c r="G75" s="6">
-        <v>45208</v>
+        <v>45218</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A76" s="6">
-        <v>45208</v>
+        <v>45218</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E76" s="7">
-        <v>268</v>
+        <v>15</v>
       </c>
       <c r="F76" s="6">
-        <v>45260</v>
+        <v>45231</v>
       </c>
       <c r="G76" s="6">
-        <v>45208</v>
+        <v>45218</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
-        <v>45208</v>
+        <v>45218</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="E77" s="7">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="F77" s="6">
-        <v>45197</v>
+        <v>45231</v>
       </c>
       <c r="G77" s="6">
-        <v>45208</v>
+        <v>45218</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
-        <v>45208</v>
+        <v>45217</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E78" s="7">
-        <v>156</v>
+        <v>288</v>
       </c>
       <c r="F78" s="6">
-        <v>45172</v>
+        <v>45291</v>
       </c>
       <c r="G78" s="6">
-        <v>45208</v>
+        <v>45217</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
-        <v>45208</v>
+        <v>45211</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="C79" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="7">
+        <v>122</v>
+      </c>
+      <c r="F79" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45211</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
+        <v>45209</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="7">
-        <v>38</v>
-      </c>
-      <c r="F79" s="6">
-        <v>45268</v>
-      </c>
-      <c r="G79" s="6">
-        <v>45208</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A80" s="6">
-        <v>45205</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="E80" s="7">
-        <v>239</v>
+        <v>136</v>
       </c>
       <c r="F80" s="6">
-        <v>45226</v>
+        <v>45269</v>
       </c>
       <c r="G80" s="6">
-        <v>45205</v>
+        <v>45209</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81" s="6">
+        <v>45209</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="7">
+        <v>351</v>
+      </c>
+      <c r="F81" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G81" s="6">
+        <v>45209</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="7">
+        <v>113</v>
+      </c>
+      <c r="F82" s="6">
+        <v>45257</v>
+      </c>
+      <c r="G82" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" s="7">
+        <v>268</v>
+      </c>
+      <c r="F83" s="6">
+        <v>45260</v>
+      </c>
+      <c r="G83" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E84" s="7">
+        <v>66</v>
+      </c>
+      <c r="F84" s="6">
+        <v>45197</v>
+      </c>
+      <c r="G84" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A85" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="7">
+        <v>156</v>
+      </c>
+      <c r="F85" s="6">
+        <v>45172</v>
+      </c>
+      <c r="G85" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A86" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="7">
+        <v>38</v>
+      </c>
+      <c r="F86" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G86" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A87" s="6">
+        <v>45205</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="7">
+        <v>239</v>
+      </c>
+      <c r="F87" s="6">
+        <v>45226</v>
+      </c>
+      <c r="G87" s="6">
+        <v>45205</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A88" s="6">
         <v>45203</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B88" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C88" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D88" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E88" s="7">
         <v>76</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F88" s="6">
         <v>45262</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G88" s="6">
         <v>45203</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H88" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="6">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="6">
         <v>45201</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B89" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C89" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D89" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E89" s="7">
         <v>558</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F89" s="6">
         <v>45261</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G89" s="6">
         <v>45201</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H89" s="7" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A83" s="6">
-        <v>45190</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E83" s="7">
-        <v>300</v>
-      </c>
-      <c r="F83" s="6">
-        <v>45215</v>
-      </c>
-      <c r="G83" s="6">
-        <v>45190</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="6">
-        <v>45188</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E84" s="7">
-        <v>103</v>
-      </c>
-      <c r="F84" s="6">
-        <v>45176</v>
-      </c>
-      <c r="G84" s="6">
-        <v>45188</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="6">
-        <v>45188</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E85" s="7">
-        <v>104</v>
-      </c>
-      <c r="F85" s="6">
-        <v>45228</v>
-      </c>
-      <c r="G85" s="6">
-        <v>45188</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A86" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E86" s="7">
-        <v>163</v>
-      </c>
-      <c r="F86" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G86" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E87" s="7">
-        <v>71</v>
-      </c>
-      <c r="F87" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G87" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A88" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="7">
-        <v>73</v>
-      </c>
-      <c r="F88" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G88" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A89" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E89" s="7">
-        <v>87</v>
-      </c>
-      <c r="F89" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G89" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A90" s="6">
-        <v>45187</v>
+        <v>45190</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E90" s="7">
-        <v>87</v>
+        <v>300</v>
       </c>
       <c r="F90" s="6">
-        <v>45230</v>
+        <v>45215</v>
       </c>
       <c r="G90" s="6">
-        <v>45187</v>
+        <v>45190</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="7">
+        <v>103</v>
+      </c>
+      <c r="F91" s="6">
+        <v>45176</v>
+      </c>
+      <c r="G91" s="6">
+        <v>45188</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E92" s="7">
+        <v>104</v>
+      </c>
+      <c r="F92" s="6">
+        <v>45228</v>
+      </c>
+      <c r="G92" s="6">
+        <v>45188</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A93" s="6">
         <v>45187</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E91" s="7">
-        <v>116</v>
-      </c>
-      <c r="F91" s="6">
+      <c r="B93" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="7">
+        <v>163</v>
+      </c>
+      <c r="F93" s="6">
         <v>45230</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G93" s="6">
         <v>45187</v>
       </c>
-      <c r="H91" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A92" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E92" s="7">
-        <v>97</v>
-      </c>
-      <c r="F92" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G92" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="6">
-        <v>45181</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E93" s="7">
-        <v>27</v>
-      </c>
-      <c r="F93" s="6">
-        <v>45180</v>
-      </c>
-      <c r="G93" s="6">
-        <v>45181</v>
-      </c>
       <c r="H93" s="7" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
-        <v>45177</v>
+        <v>45187</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>49</v>
@@ -4156,362 +4180,362 @@
         <v>50</v>
       </c>
       <c r="E94" s="7">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="F94" s="6">
-        <v>45236</v>
+        <v>45230</v>
       </c>
       <c r="G94" s="6">
-        <v>45177</v>
+        <v>45187</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A95" s="6">
-        <v>45176</v>
+        <v>45187</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E95" s="7">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="F95" s="6">
-        <v>45229</v>
+        <v>45230</v>
       </c>
       <c r="G95" s="6">
-        <v>45176</v>
+        <v>45187</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
-        <v>45169</v>
+        <v>45187</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="E96" s="7">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F96" s="6">
         <v>45230</v>
       </c>
       <c r="G96" s="6">
-        <v>45169</v>
+        <v>45187</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
-        <v>45167</v>
+        <v>45187</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E97" s="7">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="F97" s="6">
-        <v>45247</v>
+        <v>45230</v>
       </c>
       <c r="G97" s="6">
-        <v>45167</v>
+        <v>45187</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
-        <v>45167</v>
+        <v>45187</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E98" s="7">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F98" s="6">
-        <v>45226</v>
+        <v>45230</v>
       </c>
       <c r="G98" s="6">
-        <v>45167</v>
+        <v>45187</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
-        <v>45163</v>
+        <v>45187</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="E99" s="7">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F99" s="6">
-        <v>45233</v>
+        <v>45230</v>
       </c>
       <c r="G99" s="6">
-        <v>45163</v>
+        <v>45187</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E100" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F100" s="6">
-        <v>45225</v>
+        <v>45180</v>
       </c>
       <c r="G100" s="6">
-        <v>45162</v>
+        <v>45181</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
-        <v>45161</v>
+        <v>45177</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E101" s="7">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="F101" s="6">
-        <v>45261</v>
+        <v>45236</v>
       </c>
       <c r="G101" s="6">
-        <v>45161</v>
+        <v>45177</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="6">
-        <v>45161</v>
+        <v>45176</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E102" s="7">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F102" s="6">
-        <v>45220</v>
+        <v>45229</v>
       </c>
       <c r="G102" s="6">
-        <v>45161</v>
+        <v>45176</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A103" s="6">
-        <v>45156</v>
+        <v>45169</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E103" s="7">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="F103" s="6">
-        <v>45201</v>
+        <v>45230</v>
       </c>
       <c r="G103" s="6">
-        <v>45156</v>
+        <v>45169</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="6">
-        <v>45156</v>
+        <v>45167</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E104" s="7">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="F104" s="6">
-        <v>45201</v>
+        <v>45247</v>
       </c>
       <c r="G104" s="6">
-        <v>45156</v>
+        <v>45167</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A105" s="6">
-        <v>45156</v>
+        <v>45167</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E105" s="7">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F105" s="6">
-        <v>45201</v>
+        <v>45226</v>
       </c>
       <c r="G105" s="6">
-        <v>45156</v>
+        <v>45167</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A106" s="6">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="E106" s="7">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="F106" s="6">
-        <v>45245</v>
+        <v>45233</v>
       </c>
       <c r="G106" s="6">
-        <v>45156</v>
+        <v>45163</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
-        <v>45155</v>
+        <v>45162</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E107" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F107" s="6">
-        <v>45156</v>
+        <v>45225</v>
       </c>
       <c r="G107" s="6">
-        <v>45155</v>
+        <v>45162</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A108" s="6">
-        <v>45155</v>
+        <v>45161</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>18</v>
@@ -4520,13 +4544,13 @@
         <v>19</v>
       </c>
       <c r="E108" s="7">
-        <v>15</v>
+        <v>130</v>
       </c>
       <c r="F108" s="6">
-        <v>45156</v>
+        <v>45261</v>
       </c>
       <c r="G108" s="6">
-        <v>45155</v>
+        <v>45161</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>20</v>
@@ -4534,392 +4558,392 @@
     </row>
     <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="6">
-        <v>45155</v>
+        <v>45161</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="C109" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" s="7">
+        <v>167</v>
+      </c>
+      <c r="F109" s="6">
+        <v>45220</v>
+      </c>
+      <c r="G109" s="6">
+        <v>45161</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A110" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E109" s="7">
-        <v>16</v>
-      </c>
-      <c r="F109" s="6">
+      <c r="E110" s="7">
+        <v>163</v>
+      </c>
+      <c r="F110" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G110" s="6">
         <v>45156</v>
       </c>
-      <c r="G109" s="6">
-        <v>45155</v>
-      </c>
-      <c r="H109" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A110" s="6">
-        <v>45121</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E110" s="7">
-        <v>94</v>
-      </c>
-      <c r="F110" s="6">
-        <v>45177</v>
-      </c>
-      <c r="G110" s="6">
-        <v>45121</v>
-      </c>
       <c r="H110" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
-        <v>45146</v>
+        <v>45156</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E111" s="7">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="F111" s="6">
-        <v>45226</v>
+        <v>45201</v>
       </c>
       <c r="G111" s="6">
-        <v>45146</v>
+        <v>45156</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A112" s="6">
-        <v>45146</v>
+        <v>45156</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E112" s="7">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="F112" s="6">
-        <v>45145</v>
+        <v>45201</v>
       </c>
       <c r="G112" s="6">
-        <v>45146</v>
+        <v>45156</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
-        <v>45146</v>
+        <v>45156</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E113" s="7">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="F113" s="6">
-        <v>45201</v>
+        <v>45245</v>
       </c>
       <c r="G113" s="6">
-        <v>45146</v>
+        <v>45156</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
-        <v>45142</v>
+        <v>45155</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E114" s="7">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="F114" s="6">
-        <v>45138</v>
+        <v>45156</v>
       </c>
       <c r="G114" s="6">
-        <v>45142</v>
+        <v>45155</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
-        <v>45141</v>
+        <v>45155</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="E115" s="7">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="F115" s="6">
-        <v>45199</v>
+        <v>45156</v>
       </c>
       <c r="G115" s="6">
-        <v>45141</v>
+        <v>45155</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A116" s="6">
-        <v>45141</v>
+        <v>45155</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D116" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E116" s="7">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="F116" s="6">
-        <v>45139</v>
+        <v>45156</v>
       </c>
       <c r="G116" s="6">
-        <v>45141</v>
+        <v>45155</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
-        <v>45139</v>
+        <v>45121</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="E117" s="7">
-        <v>530</v>
+        <v>94</v>
       </c>
       <c r="F117" s="6">
-        <v>45135</v>
+        <v>45177</v>
       </c>
       <c r="G117" s="6">
-        <v>45139</v>
+        <v>45121</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E118" s="7">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="F118" s="6">
-        <v>45135</v>
+        <v>45226</v>
       </c>
       <c r="G118" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A119" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E119" s="7">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F119" s="6">
-        <v>45135</v>
+        <v>45145</v>
       </c>
       <c r="G119" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A120" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="E120" s="7">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F120" s="6">
-        <v>45135</v>
+        <v>45201</v>
       </c>
       <c r="G120" s="6">
-        <v>45141</v>
+        <v>45146</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="E121" s="7">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F121" s="6">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="G121" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <v>45141</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="E122" s="7">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F122" s="6">
-        <v>45135</v>
+        <v>45199</v>
       </c>
       <c r="G122" s="6">
         <v>45141</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E123" s="7">
-        <v>280</v>
+        <v>153</v>
       </c>
       <c r="F123" s="6">
-        <v>45192</v>
+        <v>45139</v>
       </c>
       <c r="G123" s="6">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -4927,59 +4951,59 @@
         <v>45139</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E124" s="7">
-        <v>64</v>
+        <v>530</v>
       </c>
       <c r="F124" s="6">
-        <v>45198</v>
+        <v>45135</v>
       </c>
       <c r="G124" s="6">
         <v>45139</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E125" s="7">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="F125" s="6">
-        <v>45198</v>
+        <v>45135</v>
       </c>
       <c r="G125" s="6">
-        <v>45134</v>
+        <v>45141</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A126" s="6">
-        <v>45126</v>
+        <v>45141</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>18</v>
@@ -4988,13 +5012,13 @@
         <v>19</v>
       </c>
       <c r="E126" s="7">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F126" s="6">
-        <v>45208</v>
+        <v>45135</v>
       </c>
       <c r="G126" s="6">
-        <v>45126</v>
+        <v>45141</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>44</v>
@@ -5002,166 +5026,166 @@
     </row>
     <row r="127" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A127" s="6">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>104</v>
+        <v>219</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="E127" s="7">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F127" s="6">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G127" s="6">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="E128" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F128" s="6">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G128" s="6">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="E129" s="7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F129" s="6">
-        <v>45124</v>
+        <v>45135</v>
       </c>
       <c r="G129" s="6">
-        <v>45124</v>
+        <v>45141</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
-        <v>45124</v>
+        <v>45140</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E130" s="7">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="F130" s="6">
-        <v>45124</v>
+        <v>45192</v>
       </c>
       <c r="G130" s="6">
-        <v>45124</v>
+        <v>45140</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>233</v>
+        <v>103</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E131" s="7">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="F131" s="6">
-        <v>45124</v>
+        <v>45198</v>
       </c>
       <c r="G131" s="6">
-        <v>45124</v>
+        <v>45139</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A132" s="6">
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E132" s="7">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="F132" s="6">
-        <v>45124</v>
+        <v>45198</v>
       </c>
       <c r="G132" s="6">
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A133" s="6">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C133" s="7" t="s">
         <v>18</v>
@@ -5170,16 +5194,16 @@
         <v>19</v>
       </c>
       <c r="E133" s="7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="F133" s="6">
-        <v>45124</v>
+        <v>45208</v>
       </c>
       <c r="G133" s="6">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5187,16 +5211,16 @@
         <v>45124</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="E134" s="7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F134" s="6">
         <v>45124</v>
@@ -5205,7 +5229,7 @@
         <v>45124</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>26</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5213,13 +5237,13 @@
         <v>45124</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E135" s="7">
         <v>27</v>
@@ -5231,7 +5255,7 @@
         <v>45124</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5239,16 +5263,16 @@
         <v>45124</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="E136" s="7">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F136" s="6">
         <v>45124</v>
@@ -5257,24 +5281,24 @@
         <v>45124</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <v>45124</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E137" s="7">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F137" s="6">
         <v>45124</v>
@@ -5283,7 +5307,7 @@
         <v>45124</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5291,16 +5315,16 @@
         <v>45124</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E138" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F138" s="6">
         <v>45124</v>
@@ -5309,7 +5333,7 @@
         <v>45124</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
@@ -5317,16 +5341,16 @@
         <v>45124</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="E139" s="7">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F139" s="6">
         <v>45124</v>
@@ -5335,7 +5359,7 @@
         <v>45124</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5343,16 +5367,16 @@
         <v>45124</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E140" s="7">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F140" s="6">
         <v>45124</v>
@@ -5361,7 +5385,7 @@
         <v>45124</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5369,16 +5393,16 @@
         <v>45124</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E141" s="7">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F141" s="6">
         <v>45124</v>
@@ -5387,7 +5411,7 @@
         <v>45124</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5395,16 +5419,16 @@
         <v>45124</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="E142" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F142" s="6">
         <v>45124</v>
@@ -5413,7 +5437,7 @@
         <v>45124</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5421,13 +5445,13 @@
         <v>45124</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E143" s="7">
         <v>21</v>
@@ -5439,7 +5463,7 @@
         <v>45124</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5447,16 +5471,16 @@
         <v>45124</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E144" s="7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F144" s="6">
         <v>45124</v>
@@ -5465,7 +5489,7 @@
         <v>45124</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5473,16 +5497,16 @@
         <v>45124</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="E145" s="7">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F145" s="6">
         <v>45124</v>
@@ -5491,7 +5515,7 @@
         <v>45124</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
@@ -5499,16 +5523,16 @@
         <v>45124</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="E146" s="7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F146" s="6">
         <v>45124</v>
@@ -5517,7 +5541,7 @@
         <v>45124</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5525,16 +5549,16 @@
         <v>45124</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E147" s="7">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F147" s="6">
         <v>45124</v>
@@ -5543,7 +5567,7 @@
         <v>45124</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5551,16 +5575,16 @@
         <v>45124</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="E148" s="7">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F148" s="6">
         <v>45124</v>
@@ -5569,7 +5593,7 @@
         <v>45124</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5577,16 +5601,16 @@
         <v>45124</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E149" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F149" s="6">
         <v>45124</v>
@@ -5595,7 +5619,7 @@
         <v>45124</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
@@ -5603,16 +5627,16 @@
         <v>45124</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="E150" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F150" s="6">
         <v>45124</v>
@@ -5621,15 +5645,15 @@
         <v>45124</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>18</v>
@@ -5638,13 +5662,13 @@
         <v>19</v>
       </c>
       <c r="E151" s="7">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="F151" s="6">
-        <v>45128</v>
+        <v>45124</v>
       </c>
       <c r="G151" s="6">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>44</v>
@@ -5652,842 +5676,842 @@
     </row>
     <row r="152" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
-        <v>45106</v>
+        <v>45124</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C152" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E152" s="7">
+        <v>19</v>
+      </c>
+      <c r="F152" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G152" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A153" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E153" s="7">
+        <v>25</v>
+      </c>
+      <c r="F153" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G153" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A154" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E154" s="7">
+        <v>14</v>
+      </c>
+      <c r="F154" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G154" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A155" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E155" s="7">
         <v>26</v>
       </c>
-      <c r="D152" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E152" s="7">
-        <v>188</v>
-      </c>
-      <c r="F152" s="6">
-        <v>45154</v>
-      </c>
-      <c r="G152" s="6">
-        <v>45106</v>
-      </c>
-      <c r="H152" s="7" t="s">
+      <c r="F155" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G155" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A156" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" s="7">
         <v>26</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A153" s="6">
-        <v>45106</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E153" s="7">
-        <v>120</v>
-      </c>
-      <c r="F153" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G153" s="6">
-        <v>45106</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A154" s="6">
-        <v>45106</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D154" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E154" s="7">
-        <v>59</v>
-      </c>
-      <c r="F154" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G154" s="6">
-        <v>45106</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A155" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E155" s="7">
-        <v>93</v>
-      </c>
-      <c r="F155" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G155" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A156" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D156" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E156" s="7">
-        <v>107</v>
-      </c>
-      <c r="F156" s="8">
-        <v>45169</v>
+      <c r="F156" s="6">
+        <v>45124</v>
       </c>
       <c r="G156" s="6">
-        <v>45104</v>
+        <v>45124</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>270</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E157" s="7">
+        <v>31</v>
+      </c>
+      <c r="F157" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G157" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A158" s="6">
+        <v>45112</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158" s="7">
+        <v>115</v>
+      </c>
+      <c r="F158" s="6">
+        <v>45128</v>
+      </c>
+      <c r="G158" s="6">
+        <v>45112</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A159" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" s="7">
+        <v>188</v>
+      </c>
+      <c r="F159" s="6">
+        <v>45154</v>
+      </c>
+      <c r="G159" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A160" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E160" s="7">
+        <v>120</v>
+      </c>
+      <c r="F160" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G160" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A161" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E161" s="7">
+        <v>59</v>
+      </c>
+      <c r="F161" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G161" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A162" s="6">
         <v>45104</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B162" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E162" s="7">
+        <v>93</v>
+      </c>
+      <c r="F162" s="6">
+        <v>45086</v>
+      </c>
+      <c r="G162" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A163" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="7">
+        <v>107</v>
+      </c>
+      <c r="F163" s="8">
+        <v>45169</v>
+      </c>
+      <c r="G163" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A164" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B164" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C157" s="7" t="s">
+      <c r="C164" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D164" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E164" s="7">
         <v>47</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F164" s="6">
         <v>45170</v>
       </c>
-      <c r="G157" s="6">
+      <c r="G164" s="6">
         <v>45104</v>
       </c>
-      <c r="H157" s="7" t="s">
+      <c r="H164" s="7" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A158" s="6">
+    <row r="165" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A165" s="6">
         <v>45104</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B165" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C165" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D165" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E165" s="7">
         <v>101</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F165" s="6">
         <v>45169</v>
       </c>
-      <c r="G158" s="6">
+      <c r="G165" s="6">
         <v>45104</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H165" s="7" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A159" s="6">
-        <v>45100</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E159" s="7">
-        <v>56</v>
-      </c>
-      <c r="F159" s="6">
-        <v>45158</v>
-      </c>
-      <c r="G159" s="6">
-        <v>45100</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A160" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E160" s="7">
-        <v>218</v>
-      </c>
-      <c r="F160" s="6">
-        <v>45152</v>
-      </c>
-      <c r="G160" s="6">
-        <v>45092</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A161" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E161" s="7">
-        <v>116</v>
-      </c>
-      <c r="F161" s="6">
-        <v>45069</v>
-      </c>
-      <c r="G161" s="6">
-        <v>45092</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A162" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E162" s="7">
-        <v>91</v>
-      </c>
-      <c r="F162" s="6">
-        <v>45143</v>
-      </c>
-      <c r="G162" s="6">
-        <v>45092</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A163" s="6">
-        <v>45091</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E163" s="7">
-        <v>173</v>
-      </c>
-      <c r="F163" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G163" s="6">
-        <v>45091</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A164" s="6">
-        <v>45085</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E164" s="7">
-        <v>58</v>
-      </c>
-      <c r="F164" s="6">
-        <v>45173</v>
-      </c>
-      <c r="G164" s="6">
-        <v>45085</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A165" s="6">
-        <v>45084</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E165" s="7">
-        <v>74</v>
-      </c>
-      <c r="F165" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G165" s="6">
-        <v>45084</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
-        <v>45078</v>
+        <v>45100</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>288</v>
+        <v>22</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E166" s="7">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="F166" s="6">
-        <v>45072</v>
+        <v>45158</v>
       </c>
       <c r="G166" s="6">
-        <v>45078</v>
+        <v>45100</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
-        <v>45076</v>
+        <v>45092</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E167" s="7">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="F167" s="6">
-        <v>45138</v>
+        <v>45152</v>
       </c>
       <c r="G167" s="6">
-        <v>45076</v>
+        <v>45092</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A168" s="6">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E168" s="7">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F168" s="6">
-        <v>45070</v>
+        <v>45069</v>
       </c>
       <c r="G168" s="6">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A169" s="6">
-        <v>45068</v>
+        <v>45092</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="E169" s="7">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F169" s="6">
-        <v>45104</v>
+        <v>45143</v>
       </c>
       <c r="G169" s="6">
-        <v>45068</v>
+        <v>45092</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A170" s="6">
-        <v>45064</v>
+        <v>45091</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>22</v>
+        <v>173</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="E170" s="7">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="F170" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G170" s="6">
+        <v>45091</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A171" s="6">
+        <v>45085</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E171" s="7">
+        <v>58</v>
+      </c>
+      <c r="F171" s="6">
+        <v>45173</v>
+      </c>
+      <c r="G171" s="6">
+        <v>45085</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A172" s="6">
+        <v>45084</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" s="7">
+        <v>74</v>
+      </c>
+      <c r="F172" s="6">
         <v>45107</v>
       </c>
-      <c r="G170" s="6">
-        <v>45064</v>
-      </c>
-      <c r="H170" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A171" s="6">
-        <v>45063</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E171" s="7">
-        <v>69</v>
-      </c>
-      <c r="F171" s="6">
-        <v>45114</v>
-      </c>
-      <c r="G171" s="6">
-        <v>45063</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A172" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B172" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C172" s="7" t="s">
+      <c r="G172" s="6">
+        <v>45084</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A173" s="6">
+        <v>45078</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E173" s="7">
+        <v>126</v>
+      </c>
+      <c r="F173" s="6">
+        <v>45072</v>
+      </c>
+      <c r="G173" s="6">
+        <v>45078</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A174" s="6">
+        <v>45076</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C174" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E172" s="7">
-        <v>235</v>
-      </c>
-      <c r="F172" s="6">
-        <v>45121</v>
-      </c>
-      <c r="G172" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A173" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D173" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E173" s="7">
-        <v>549</v>
-      </c>
-      <c r="F173" s="6">
-        <v>45104</v>
-      </c>
-      <c r="G173" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A174" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E174" s="7">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="F174" s="6">
         <v>45138</v>
       </c>
       <c r="G174" s="6">
-        <v>45062</v>
+        <v>45076</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A175" s="6">
-        <v>45061</v>
+        <v>45071</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E175" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F175" s="6">
-        <v>45016</v>
+        <v>45070</v>
       </c>
       <c r="G175" s="6">
-        <v>45061</v>
+        <v>45071</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A176" s="6">
-        <v>45056</v>
+        <v>45068</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="E176" s="7">
+        <v>80</v>
+      </c>
+      <c r="F176" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G176" s="6">
+        <v>45068</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A177" s="6">
+        <v>45064</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F176" s="6">
-        <v>45072</v>
-      </c>
-      <c r="G176" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A177" s="6">
-        <v>45056</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="E177" s="7">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F177" s="6">
         <v>45107</v>
       </c>
       <c r="G177" s="6">
-        <v>45056</v>
+        <v>45064</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A178" s="6">
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E178" s="7">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="F178" s="6">
-        <v>45139</v>
+        <v>45114</v>
       </c>
       <c r="G178" s="6">
-        <v>45056</v>
+        <v>45063</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A179" s="6">
-        <v>45054</v>
+        <v>45062</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E179" s="7">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="F179" s="6">
-        <v>45058</v>
+        <v>45121</v>
       </c>
       <c r="G179" s="6">
-        <v>45054</v>
+        <v>45062</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A180" s="6">
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E180" s="7">
-        <v>123</v>
+        <v>549</v>
       </c>
       <c r="F180" s="6">
-        <v>45107</v>
+        <v>45104</v>
       </c>
       <c r="G180" s="6">
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A181" s="6">
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="E181" s="7">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="F181" s="6">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="G181" s="6">
-        <v>45049</v>
+        <v>45062</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>14</v>
+        <v>300</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A182" s="6">
-        <v>45049</v>
+        <v>45061</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C182" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E182" s="7">
+        <v>86</v>
+      </c>
+      <c r="F182" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G182" s="6">
+        <v>45061</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A183" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="C183" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D183" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E182" s="7">
-        <v>4</v>
-      </c>
-      <c r="F182" s="6">
-        <v>45105</v>
-      </c>
-      <c r="G182" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A183" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="E183" s="7">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="F183" s="6">
-        <v>45105</v>
+        <v>45072</v>
       </c>
       <c r="G183" s="6">
-        <v>45049</v>
+        <v>45056</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A184" s="6">
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>18</v>
@@ -6496,13 +6520,13 @@
         <v>19</v>
       </c>
       <c r="E184" s="7">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="F184" s="6">
-        <v>45065</v>
+        <v>45107</v>
       </c>
       <c r="G184" s="6">
-        <v>45041</v>
+        <v>45056</v>
       </c>
       <c r="H184" s="7" t="s">
         <v>44</v>
@@ -6510,389 +6534,389 @@
     </row>
     <row r="185" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A185" s="6">
-        <v>45036</v>
+        <v>45056</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E185" s="7">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="F185" s="6">
-        <v>45120</v>
+        <v>45139</v>
       </c>
       <c r="G185" s="6">
-        <v>45036</v>
+        <v>45056</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>20</v>
+        <v>306</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A186" s="6">
-        <v>45035</v>
+        <v>45054</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="D186" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" s="7">
+        <v>272</v>
+      </c>
+      <c r="F186" s="6">
+        <v>45058</v>
+      </c>
+      <c r="G186" s="6">
+        <v>45054</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A187" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E186" s="7">
-        <v>62</v>
-      </c>
-      <c r="F186" s="6">
-        <v>45095</v>
-      </c>
-      <c r="G186" s="6">
-        <v>45035</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A187" s="6">
-        <v>45034</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="E187" s="7">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F187" s="6">
-        <v>45076</v>
+        <v>45107</v>
       </c>
       <c r="G187" s="6">
-        <v>45034</v>
+        <v>45049</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A188" s="6">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E188" s="7">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="F188" s="6">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="G188" s="6">
-        <v>45021</v>
+        <v>45049</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A189" s="6">
-        <v>45022</v>
+        <v>45049</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="E189" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F189" s="6">
-        <v>45079</v>
+        <v>45105</v>
       </c>
       <c r="G189" s="6">
-        <v>45022</v>
+        <v>45049</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A190" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E190" s="7">
+        <v>7</v>
+      </c>
+      <c r="F190" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G190" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A191" s="6">
+        <v>45041</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" s="7">
+        <v>175</v>
+      </c>
+      <c r="F191" s="6">
+        <v>45065</v>
+      </c>
+      <c r="G191" s="6">
+        <v>45041</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A192" s="6">
+        <v>45036</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E192" s="7">
+        <v>133</v>
+      </c>
+      <c r="F192" s="6">
+        <v>45120</v>
+      </c>
+      <c r="G192" s="6">
+        <v>45036</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A193" s="6">
+        <v>45035</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="7">
+        <v>62</v>
+      </c>
+      <c r="F193" s="6">
+        <v>45095</v>
+      </c>
+      <c r="G193" s="6">
+        <v>45035</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A194" s="6">
+        <v>45034</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E194" s="7">
+        <v>113</v>
+      </c>
+      <c r="F194" s="6">
+        <v>45076</v>
+      </c>
+      <c r="G194" s="6">
+        <v>45034</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A195" s="6">
         <v>45021</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E190" s="7">
-        <v>98</v>
-      </c>
-      <c r="F190" s="6">
+      <c r="B195" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E195" s="7">
+        <v>120</v>
+      </c>
+      <c r="F195" s="6">
         <v>45077</v>
       </c>
-      <c r="G190" s="6">
+      <c r="G195" s="6">
         <v>45021</v>
       </c>
-      <c r="H190" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A191" s="6">
-        <v>45021</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C191" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D191" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E191" s="7">
-        <v>100</v>
-      </c>
-      <c r="F191" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G191" s="6">
-        <v>45021</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A192" s="6">
-        <v>45020</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D192" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E192" s="7">
-        <v>84</v>
-      </c>
-      <c r="F192" s="6">
-        <v>45075</v>
-      </c>
-      <c r="G192" s="6">
-        <v>45020</v>
-      </c>
-      <c r="H192" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A193" s="6">
-        <v>45019</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E193" s="7">
-        <v>227</v>
-      </c>
-      <c r="F193" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G193" s="6">
-        <v>45019</v>
-      </c>
-      <c r="H193" s="7" t="s">
+      <c r="H195" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A194" s="6">
-        <v>45016</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E194" s="7">
-        <v>1047</v>
-      </c>
-      <c r="F194" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G194" s="6">
-        <v>45016</v>
-      </c>
-      <c r="H194" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A195" s="6">
-        <v>45007</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E195" s="7">
-        <v>54</v>
-      </c>
-      <c r="F195" s="6">
-        <v>45059</v>
-      </c>
-      <c r="G195" s="6">
-        <v>45007</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A196" s="6">
-        <v>45000</v>
+        <v>45022</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="E196" s="7">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F196" s="6">
+        <v>45079</v>
+      </c>
+      <c r="G196" s="6">
+        <v>45022</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A197" s="6">
+        <v>45021</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E197" s="7">
+        <v>98</v>
+      </c>
+      <c r="F197" s="6">
         <v>45077</v>
       </c>
-      <c r="G196" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A197" s="6">
-        <v>44999</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D197" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E197" s="7">
-        <v>105</v>
-      </c>
-      <c r="F197" s="6">
-        <v>45020</v>
-      </c>
       <c r="G197" s="6">
-        <v>44999</v>
+        <v>45021</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A198" s="6">
-        <v>45005</v>
+        <v>45021</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E198" s="7">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="F198" s="6">
-        <v>45066</v>
+        <v>45086</v>
       </c>
       <c r="G198" s="6">
-        <v>45005</v>
+        <v>45021</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A199" s="6">
-        <v>44993</v>
+        <v>45020</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E199" s="7">
-        <v>240</v>
+        <v>84</v>
       </c>
       <c r="F199" s="6">
-        <v>45044</v>
+        <v>45075</v>
       </c>
       <c r="G199" s="6">
-        <v>44993</v>
+        <v>45020</v>
       </c>
       <c r="H199" s="7" t="s">
         <v>24</v>
@@ -6900,10 +6924,10 @@
     </row>
     <row r="200" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A200" s="6">
-        <v>44988</v>
+        <v>45019</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C200" s="7" t="s">
         <v>49</v>
@@ -6912,13 +6936,13 @@
         <v>50</v>
       </c>
       <c r="E200" s="7">
-        <v>827</v>
+        <v>227</v>
       </c>
       <c r="F200" s="6">
-        <v>45047</v>
+        <v>45079</v>
       </c>
       <c r="G200" s="6">
-        <v>44988</v>
+        <v>45019</v>
       </c>
       <c r="H200" s="7" t="s">
         <v>51</v>
@@ -6926,322 +6950,322 @@
     </row>
     <row r="201" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A201" s="6">
-        <v>44987</v>
+        <v>45016</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>334</v>
+        <v>46</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E201" s="7">
-        <v>53</v>
+        <v>1047</v>
       </c>
       <c r="F201" s="6">
-        <v>45048</v>
+        <v>45079</v>
       </c>
       <c r="G201" s="6">
-        <v>44987</v>
+        <v>45016</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A202" s="6">
-        <v>44985</v>
+        <v>45007</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E202" s="7">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F202" s="6">
-        <v>45169</v>
+        <v>45059</v>
       </c>
       <c r="G202" s="6">
-        <v>44985</v>
+        <v>45007</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A203" s="6">
-        <v>44985</v>
+        <v>45000</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E203" s="7">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="F203" s="6">
         <v>45077</v>
       </c>
       <c r="G203" s="6">
-        <v>44985</v>
+        <v>45000</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A204" s="6">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E204" s="7">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="F204" s="6">
-        <v>44979</v>
+        <v>45020</v>
       </c>
       <c r="G204" s="6">
-        <v>44985</v>
+        <v>44999</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>338</v>
+        <v>86</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A205" s="6">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E205" s="7">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="F205" s="6">
-        <v>45169</v>
+        <v>45066</v>
       </c>
       <c r="G205" s="6">
-        <v>44985</v>
+        <v>45005</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A206" s="6">
-        <v>44984</v>
+        <v>44993</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E206" s="7">
-        <v>118</v>
+        <v>240</v>
       </c>
       <c r="F206" s="6">
-        <v>45016</v>
+        <v>45044</v>
       </c>
       <c r="G206" s="6">
-        <v>44984</v>
+        <v>44993</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A207" s="6">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E207" s="7">
-        <v>35</v>
+        <v>827</v>
       </c>
       <c r="F207" s="6">
-        <v>45169</v>
+        <v>45047</v>
       </c>
       <c r="G207" s="6">
-        <v>44984</v>
+        <v>44988</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A208" s="6">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="E208" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="F208" s="6">
-        <v>45077</v>
+        <v>45048</v>
       </c>
       <c r="G208" s="6">
-        <v>44984</v>
+        <v>44987</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>343</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A209" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E209" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F209" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G209" s="6">
+        <v>44985</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A210" s="6">
+        <v>44985</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E210" s="7">
+        <v>12</v>
+      </c>
+      <c r="F210" s="6">
         <v>45077</v>
       </c>
-      <c r="G209" s="6">
-        <v>44984</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A210" s="6">
-        <v>44984</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E210" s="7">
-        <v>19</v>
-      </c>
-      <c r="F210" s="6">
-        <v>45169</v>
-      </c>
       <c r="G210" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A211" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E211" s="7">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="F211" s="6">
-        <v>45016</v>
+        <v>44979</v>
       </c>
       <c r="G211" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>189</v>
+        <v>338</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A212" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E212" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F212" s="6">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G212" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A213" s="6">
         <v>44984</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>26</v>
@@ -7250,24 +7274,24 @@
         <v>55</v>
       </c>
       <c r="E213" s="7">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="F213" s="6">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G213" s="6">
         <v>44984</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A214" s="6">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>29</v>
@@ -7276,13 +7300,13 @@
         <v>13</v>
       </c>
       <c r="E214" s="7">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F214" s="6">
-        <v>45039</v>
+        <v>45169</v>
       </c>
       <c r="G214" s="6">
-        <v>44980</v>
+        <v>44984</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>30</v>
@@ -7290,10 +7314,10 @@
     </row>
     <row r="215" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A215" s="6">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>29</v>
@@ -7302,362 +7326,362 @@
         <v>13</v>
       </c>
       <c r="E215" s="7">
-        <v>40</v>
-      </c>
-      <c r="F215" s="8">
-        <v>44965</v>
+        <v>7</v>
+      </c>
+      <c r="F215" s="6">
+        <v>45077</v>
       </c>
       <c r="G215" s="6">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>193</v>
+        <v>343</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A216" s="6">
-        <v>44973</v>
+        <v>44984</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C216" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E216" s="7">
+        <v>4</v>
+      </c>
+      <c r="F216" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G216" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H216" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A217" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C217" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D217" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E216" s="7">
-        <v>186</v>
-      </c>
-      <c r="F216" s="6">
-        <v>44981</v>
-      </c>
-      <c r="G216" s="6">
-        <v>44973</v>
-      </c>
-      <c r="H216" s="7" t="s">
+      <c r="E217" s="7">
+        <v>19</v>
+      </c>
+      <c r="F217" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G217" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H217" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A217" s="6">
-        <v>44978</v>
-      </c>
-      <c r="B217" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E217" s="7">
-        <v>100</v>
-      </c>
-      <c r="F217" s="6">
-        <v>45032</v>
-      </c>
-      <c r="G217" s="6">
-        <v>44978</v>
-      </c>
-      <c r="H217" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A218" s="6">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>355</v>
+        <v>189</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E218" s="7">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F218" s="6">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G218" s="6">
-        <v>44972</v>
+        <v>44984</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A219" s="6">
-        <v>44965</v>
+        <v>44984</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E219" s="7">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F219" s="6">
-        <v>45065</v>
+        <v>44974</v>
       </c>
       <c r="G219" s="6">
-        <v>44966</v>
+        <v>44984</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A220" s="6">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E220" s="7">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="F220" s="6">
-        <v>45024</v>
+        <v>44974</v>
       </c>
       <c r="G220" s="6">
-        <v>44964</v>
+        <v>44984</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>44</v>
+        <v>349</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A221" s="6">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E221" s="7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F221" s="6">
-        <v>45017</v>
+        <v>45039</v>
       </c>
       <c r="G221" s="6">
-        <v>44964</v>
+        <v>44980</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A222" s="6">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E222" s="7">
-        <v>65</v>
-      </c>
-      <c r="F222" s="6">
-        <v>45013</v>
+        <v>40</v>
+      </c>
+      <c r="F222" s="8">
+        <v>44965</v>
       </c>
       <c r="G222" s="6">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>361</v>
+        <v>193</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A223" s="6">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>363</v>
+        <v>49</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E223" s="7">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="F223" s="6">
-        <v>45020</v>
+        <v>44981</v>
       </c>
       <c r="G223" s="6">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>364</v>
+        <v>51</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A224" s="6">
-        <v>44957</v>
+        <v>44978</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E224" s="7">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="F224" s="6">
-        <v>44956</v>
+        <v>45032</v>
       </c>
       <c r="G224" s="6">
-        <v>44957</v>
+        <v>44978</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>366</v>
+        <v>24</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A225" s="6">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>26</v>
+        <v>355</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E225" s="7">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F225" s="6">
-        <v>45016</v>
+        <v>44974</v>
       </c>
       <c r="G225" s="6">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>181</v>
+        <v>356</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A226" s="6">
-        <v>44959</v>
+        <v>44965</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>369</v>
+        <v>12</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E226" s="7">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="F226" s="6">
-        <v>45017</v>
+        <v>45065</v>
       </c>
       <c r="G226" s="6">
-        <v>44959</v>
+        <v>44966</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A227" s="6">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E227" s="7">
-        <v>9</v>
+        <v>121</v>
       </c>
       <c r="F227" s="6">
-        <v>45019</v>
+        <v>45024</v>
       </c>
       <c r="G227" s="6">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A228" s="6">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>373</v>
+        <v>22</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>374</v>
+        <v>23</v>
       </c>
       <c r="E228" s="7">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="F228" s="6">
-        <v>44972</v>
+        <v>45017</v>
       </c>
       <c r="G228" s="6">
-        <v>44959</v>
+        <v>44964</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A229" s="6">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>158</v>
+        <v>360</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>98</v>
@@ -7666,76 +7690,76 @@
         <v>99</v>
       </c>
       <c r="E229" s="7">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F229" s="6">
-        <v>44957</v>
+        <v>45013</v>
       </c>
       <c r="G229" s="6">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A230" s="6">
-        <v>44953</v>
+        <v>44964</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>22</v>
+        <v>363</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="E230" s="7">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="F230" s="6">
-        <v>44942</v>
+        <v>45020</v>
       </c>
       <c r="G230" s="6">
-        <v>44953</v>
+        <v>44964</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>24</v>
+        <v>364</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A231" s="6">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="E231" s="7">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F231" s="6">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G231" s="6">
-        <v>44946</v>
+        <v>44957</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A232" s="6">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>26</v>
@@ -7744,128 +7768,128 @@
         <v>27</v>
       </c>
       <c r="E232" s="7">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F232" s="6">
-        <v>44995</v>
+        <v>45016</v>
       </c>
       <c r="G232" s="6">
-        <v>44951</v>
+        <v>44957</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A233" s="6">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>189</v>
+        <v>369</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E233" s="7">
-        <v>374</v>
+        <v>158</v>
       </c>
       <c r="F233" s="6">
-        <v>45011</v>
+        <v>45017</v>
       </c>
       <c r="G233" s="6">
-        <v>44951</v>
+        <v>44959</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>190</v>
+        <v>370</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A234" s="6">
-        <v>44950</v>
+        <v>44959</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E234" s="7">
-        <v>125</v>
+        <v>9</v>
       </c>
       <c r="F234" s="6">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="G234" s="6">
-        <v>44950</v>
+        <v>44959</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A235" s="6">
-        <v>44945</v>
+        <v>44959</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>104</v>
+        <v>373</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>55</v>
+        <v>374</v>
       </c>
       <c r="E235" s="7">
-        <v>964</v>
+        <v>140</v>
       </c>
       <c r="F235" s="6">
-        <v>45016</v>
+        <v>44972</v>
       </c>
       <c r="G235" s="6">
-        <v>44945</v>
+        <v>44959</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A236" s="6">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>382</v>
+        <v>158</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="E236" s="7">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F236" s="6">
-        <v>45002</v>
+        <v>44957</v>
       </c>
       <c r="G236" s="6">
-        <v>44942</v>
+        <v>44960</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A237" s="6">
-        <v>44938</v>
+        <v>44953</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>22</v>
@@ -7874,13 +7898,13 @@
         <v>23</v>
       </c>
       <c r="E237" s="7">
-        <v>139</v>
+        <v>255</v>
       </c>
       <c r="F237" s="6">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="G237" s="6">
-        <v>44938</v>
+        <v>44953</v>
       </c>
       <c r="H237" s="7" t="s">
         <v>24</v>
@@ -7888,36 +7912,36 @@
     </row>
     <row r="238" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A238" s="6">
-        <v>44937</v>
+        <v>44946</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E238" s="7">
-        <v>801</v>
+        <v>110</v>
       </c>
       <c r="F238" s="6">
-        <v>45003</v>
+        <v>45016</v>
       </c>
       <c r="G238" s="6">
-        <v>44937</v>
+        <v>44946</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A239" s="6">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>26</v>
@@ -7929,90 +7953,272 @@
         <v>76</v>
       </c>
       <c r="F239" s="6">
-        <v>45281</v>
+        <v>44995</v>
       </c>
       <c r="G239" s="6">
-        <v>44936</v>
+        <v>44951</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A240" s="6">
+        <v>44951</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E240" s="7">
+        <v>374</v>
+      </c>
+      <c r="F240" s="6">
+        <v>45011</v>
+      </c>
+      <c r="G240" s="6">
+        <v>44951</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A241" s="6">
+        <v>44950</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E241" s="7">
+        <v>125</v>
+      </c>
+      <c r="F241" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G241" s="6">
+        <v>44950</v>
+      </c>
+      <c r="H241" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A242" s="6">
+        <v>44945</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E242" s="7">
+        <v>964</v>
+      </c>
+      <c r="F242" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G242" s="6">
+        <v>44945</v>
+      </c>
+      <c r="H242" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A243" s="6">
+        <v>44942</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E243" s="7">
+        <v>77</v>
+      </c>
+      <c r="F243" s="6">
+        <v>45002</v>
+      </c>
+      <c r="G243" s="6">
+        <v>44942</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A244" s="6">
+        <v>44938</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E244" s="7">
+        <v>139</v>
+      </c>
+      <c r="F244" s="6">
+        <v>44937</v>
+      </c>
+      <c r="G244" s="6">
+        <v>44938</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A245" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E245" s="7">
+        <v>801</v>
+      </c>
+      <c r="F245" s="6">
+        <v>45003</v>
+      </c>
+      <c r="G245" s="6">
+        <v>44937</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A246" s="6">
+        <v>44936</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E246" s="7">
+        <v>76</v>
+      </c>
+      <c r="F246" s="6">
+        <v>45281</v>
+      </c>
+      <c r="G246" s="6">
+        <v>44936</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A247" s="6">
         <v>44935</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B247" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C247" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D247" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E247" s="7">
         <v>85</v>
       </c>
-      <c r="F240" s="6">
+      <c r="F247" s="6">
         <v>44971</v>
       </c>
-      <c r="G240" s="6">
+      <c r="G247" s="6">
         <v>44935</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H247" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A241" s="6">
+    <row r="248" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A248" s="6">
         <v>44931</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B248" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C248" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="D248" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E248" s="7">
         <v>370</v>
       </c>
-      <c r="F241" s="6">
+      <c r="F248" s="6">
         <v>44957</v>
       </c>
-      <c r="G241" s="6">
+      <c r="G248" s="6">
         <v>44931</v>
       </c>
-      <c r="H241" s="7" t="s">
+      <c r="H248" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A242" s="6">
+    <row r="249" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A249" s="6">
         <v>44932</v>
       </c>
-      <c r="B242" s="7" t="s">
+      <c r="B249" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C249" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="D249" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E242" s="7">
+      <c r="E249" s="7">
         <v>20</v>
       </c>
-      <c r="F242" s="6">
+      <c r="F249" s="6">
         <v>44988</v>
       </c>
-      <c r="G242" s="6">
+      <c r="G249" s="6">
         <v>44932</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H249" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8022,6 +8228,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="01c2736d-8da8-4d13-83cd-86a6b9641723">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B95489E8B586E4FBA5FBB272EA6999A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be38a2e4ad89fdee7a84b40cf653977c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01c2736d-8da8-4d13-83cd-86a6b9641723" xmlns:ns3="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb31f235669b04b22f9e1f3a171cde4e" ns2:_="" ns3:_="">
     <xsd:import namespace="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
@@ -8204,27 +8430,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="01c2736d-8da8-4d13-83cd-86a6b9641723">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA01D299-CE8A-41DC-A31C-F59909535BF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8241,29 +8472,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/catherine_mckee_twc_texas_gov/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/catherine_mckee_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{194A6850-9937-42C7-B8EB-46F975970888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF7723E-C6A6-4B6B-8C6B-D0D8C4FB847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="423">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -1299,6 +1299,12 @@
   </si>
   <si>
     <t>Vroom-Sam Houston Parkway</t>
+  </si>
+  <si>
+    <t>Shearer's Foods LLC</t>
+  </si>
+  <si>
+    <t>Mattison Pathology, LLP dba Avero Diagnotics</t>
   </si>
 </sst>
 </file>
@@ -1729,26 +1735,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89BCF3A-B17F-44A2-A200-ED80B6FEE65F}">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.9296875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="3"/>
+    <col min="8" max="8" width="12" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1774,168 +1780,168 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
+        <v>45324</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="10">
+        <v>176</v>
+      </c>
+      <c r="F2" s="9">
+        <v>45382</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45324</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>45323</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10">
+        <v>103</v>
+      </c>
+      <c r="F3" s="9">
+        <v>45634</v>
+      </c>
+      <c r="G3" s="9">
+        <v>45323</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>45321</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E4" s="10">
         <v>321</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F4" s="9">
         <v>45381</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G4" s="9">
         <v>45321</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
-        <v>45316</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="10">
-        <v>153</v>
-      </c>
-      <c r="F3" s="9">
-        <v>45382</v>
-      </c>
-      <c r="G3" s="9">
-        <v>45316</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
-        <v>45316</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10">
-        <v>54</v>
-      </c>
-      <c r="F4" s="9">
-        <v>45374</v>
-      </c>
-      <c r="G4" s="9">
-        <v>45316</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45316</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E5" s="10">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="F5" s="9">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="G5" s="9">
         <v>45316</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="10">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F6" s="9">
-        <v>45375</v>
+        <v>45374</v>
       </c>
       <c r="G6" s="9">
+        <v>45316</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>45316</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10">
+        <v>283</v>
+      </c>
+      <c r="F7" s="9">
+        <v>45374</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45316</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>45315</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="9">
-        <v>45315</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="10">
-        <v>52</v>
-      </c>
-      <c r="F7" s="9">
-        <v>45383</v>
-      </c>
-      <c r="G7" s="9">
-        <v>45315</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
-        <v>45314</v>
-      </c>
       <c r="B8" s="10" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>29</v>
@@ -1944,102 +1950,102 @@
         <v>13</v>
       </c>
       <c r="E8" s="10">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="F8" s="9">
-        <v>45374</v>
+        <v>45375</v>
       </c>
       <c r="G8" s="9">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
+        <v>45315</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="10">
+        <v>52</v>
+      </c>
+      <c r="F9" s="9">
+        <v>45383</v>
+      </c>
+      <c r="G9" s="9">
+        <v>45315</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>45314</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="10">
+        <v>178</v>
+      </c>
+      <c r="F10" s="9">
+        <v>45374</v>
+      </c>
+      <c r="G10" s="9">
+        <v>45314</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
         <v>45313</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E11" s="10">
         <v>63</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F11" s="9">
         <v>45369</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G11" s="9">
         <v>45313</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="9">
+    <row r="12" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>45310</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="10">
-        <v>334</v>
-      </c>
-      <c r="F10" s="9">
-        <v>45305</v>
-      </c>
-      <c r="G10" s="9">
-        <v>45310</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
-        <v>45309</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="10">
-        <v>51</v>
-      </c>
-      <c r="F11" s="9">
-        <v>45324</v>
-      </c>
-      <c r="G11" s="9">
-        <v>45309</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="9">
-        <v>45308</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>18</v>
@@ -2048,501 +2054,501 @@
         <v>19</v>
       </c>
       <c r="E12" s="10">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="F12" s="9">
-        <v>45351</v>
+        <v>45305</v>
       </c>
       <c r="G12" s="9">
-        <v>45308</v>
+        <v>45310</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
+        <v>45309</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10">
+        <v>51</v>
+      </c>
+      <c r="F13" s="9">
+        <v>45324</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45309</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>45308</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="10">
+        <v>109</v>
+      </c>
+      <c r="F14" s="9">
+        <v>45351</v>
+      </c>
+      <c r="G14" s="9">
+        <v>45308</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>45307</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E15" s="10">
         <v>63</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F15" s="9">
         <v>45369</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G15" s="9">
         <v>45307</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="9">
-        <v>45303</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="10">
-        <v>44</v>
-      </c>
-      <c r="F14" s="9">
-        <v>45295</v>
-      </c>
-      <c r="G14" s="9">
-        <v>45303</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9">
-        <v>45303</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="10">
-        <v>44</v>
-      </c>
-      <c r="F15" s="9">
-        <v>45295</v>
-      </c>
-      <c r="G15" s="9">
-        <v>45303</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45303</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E16" s="10">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F16" s="9">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="G16" s="9">
         <v>45303</v>
       </c>
       <c r="H16" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45303</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="10">
+        <v>44</v>
+      </c>
+      <c r="F17" s="9">
+        <v>45295</v>
+      </c>
+      <c r="G17" s="9">
+        <v>45303</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>45303</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="10">
+        <v>92</v>
+      </c>
+      <c r="F18" s="9">
+        <v>45300</v>
+      </c>
+      <c r="G18" s="9">
+        <v>45303</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
+    <row r="19" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>45307</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B19" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E19" s="10">
         <v>63</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F19" s="9">
         <v>45369</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G19" s="9">
         <v>45307</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="9">
+    <row r="20" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>45300</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E20" s="10">
         <v>176</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F20" s="9">
         <v>45353</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G20" s="9">
         <v>45300</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="9">
+    <row r="21" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>45300</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E21" s="10">
         <v>71</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F21" s="9">
         <v>45339</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G21" s="9">
         <v>45300</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
+    <row r="22" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>45299</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="10">
-        <v>75</v>
-      </c>
-      <c r="F20" s="9">
-        <v>45266</v>
-      </c>
-      <c r="G20" s="9">
-        <v>45299</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
-        <v>45299</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="10">
-        <v>103</v>
-      </c>
-      <c r="F21" s="9">
-        <v>45302</v>
-      </c>
-      <c r="G21" s="9">
-        <v>45299</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="9">
-        <v>45296</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>104</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="10">
+        <v>75</v>
+      </c>
+      <c r="F22" s="9">
+        <v>45266</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45299</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45299</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="10">
+        <v>103</v>
+      </c>
+      <c r="F23" s="9">
+        <v>45302</v>
+      </c>
+      <c r="G23" s="9">
+        <v>45299</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>45296</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="10">
         <v>365</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F24" s="9">
         <v>45350</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G24" s="9">
         <v>45296</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="9">
+    <row r="25" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
         <v>45296</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E25" s="10">
         <v>60</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F25" s="9">
         <v>45337</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G25" s="9">
         <v>45296</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="9">
+    <row r="26" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>45295</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E26" s="10">
         <v>76</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F26" s="9">
         <v>45332</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G26" s="9">
         <v>45295</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="9">
+    <row r="27" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>45278</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="10">
-        <v>256</v>
-      </c>
-      <c r="F25" s="9">
-        <v>45275</v>
-      </c>
-      <c r="G25" s="9">
-        <v>45278</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="9">
-        <v>45271</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="10">
-        <v>12</v>
-      </c>
-      <c r="F26" s="9">
-        <v>45328</v>
-      </c>
-      <c r="G26" s="9">
-        <v>45271</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="9">
-        <v>45267</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>390</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>55</v>
       </c>
       <c r="E27" s="10">
+        <v>256</v>
+      </c>
+      <c r="F27" s="9">
+        <v>45275</v>
+      </c>
+      <c r="G27" s="9">
+        <v>45278</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>45271</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E28" s="10">
+        <v>12</v>
+      </c>
+      <c r="F28" s="9">
+        <v>45328</v>
+      </c>
+      <c r="G28" s="9">
+        <v>45271</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>45267</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="10">
         <v>75</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F29" s="9">
         <v>45266</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G29" s="9">
         <v>45267</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="9">
-        <v>45264</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="10">
-        <v>89</v>
-      </c>
-      <c r="F28" s="9">
-        <v>45324</v>
-      </c>
-      <c r="G28" s="9">
-        <v>45264</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="9">
-        <v>45264</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="10">
-        <v>10</v>
-      </c>
-      <c r="F29" s="9">
-        <v>45322</v>
-      </c>
-      <c r="G29" s="9">
-        <v>45264</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>45264</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="10">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="F30" s="9">
-        <v>45264</v>
+        <v>45324</v>
       </c>
       <c r="G30" s="9">
         <v>45264</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>45264</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E31" s="10">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F31" s="9">
         <v>45322</v>
@@ -2551,353 +2557,353 @@
         <v>45264</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>45264</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="10">
+        <v>50</v>
+      </c>
+      <c r="F32" s="9">
+        <v>45264</v>
+      </c>
+      <c r="G32" s="9">
+        <v>45264</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>45264</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="10">
+        <v>92</v>
+      </c>
+      <c r="F33" s="9">
+        <v>45322</v>
+      </c>
+      <c r="G33" s="9">
+        <v>45264</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="9">
+    <row r="34" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>45261</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E34" s="10">
         <v>577</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F34" s="9">
         <v>45317</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G34" s="9">
         <v>45261</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="9">
-        <v>45257</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="10">
-        <v>9</v>
-      </c>
-      <c r="F33" s="9">
-        <v>45252</v>
-      </c>
-      <c r="G33" s="9">
-        <v>45257</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A34" s="9">
-        <v>45257</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="10">
-        <v>64</v>
-      </c>
-      <c r="F34" s="9">
-        <v>45266</v>
-      </c>
-      <c r="G34" s="9">
-        <v>45257</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>45257</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E35" s="10">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="F35" s="9">
-        <v>45266</v>
+        <v>45252</v>
       </c>
       <c r="G35" s="9">
         <v>45257</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>45257</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E36" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="9">
-        <v>45268</v>
+        <v>45266</v>
       </c>
       <c r="G36" s="9">
         <v>45257</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>45257</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E37" s="10">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F37" s="9">
-        <v>45252</v>
+        <v>45266</v>
       </c>
       <c r="G37" s="9">
         <v>45257</v>
       </c>
       <c r="H37" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>45257</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="10">
+        <v>65</v>
+      </c>
+      <c r="F38" s="9">
+        <v>45268</v>
+      </c>
+      <c r="G38" s="9">
+        <v>45257</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>45257</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="9">
+      <c r="D39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="10">
+        <v>9</v>
+      </c>
+      <c r="F39" s="9">
+        <v>45252</v>
+      </c>
+      <c r="G39" s="9">
+        <v>45257</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>45243</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D40" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E40" s="10">
         <v>53</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F40" s="9">
         <v>45240</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G40" s="9">
         <v>45243</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="9">
+    <row r="41" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
         <v>45240</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E41" s="10">
         <v>150</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F41" s="9">
         <v>45238</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G41" s="9">
         <v>45240</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2</v>
-      </c>
-      <c r="F40" s="4">
-        <v>45291</v>
-      </c>
-      <c r="G40" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="5">
-        <v>2</v>
-      </c>
-      <c r="F41" s="4">
-        <v>45290</v>
-      </c>
-      <c r="G41" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>45238</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E42" s="5">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F42" s="4">
-        <v>45272</v>
+        <v>45291</v>
       </c>
       <c r="G42" s="4">
         <v>45238</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>45238</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E43" s="5">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="F43" s="4">
-        <v>45215</v>
+        <v>45290</v>
       </c>
       <c r="G43" s="4">
         <v>45238</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45238</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E44" s="5">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="F44" s="4">
-        <v>45265</v>
+        <v>45272</v>
       </c>
       <c r="G44" s="4">
         <v>45238</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>18</v>
@@ -2906,189 +2912,189 @@
         <v>19</v>
       </c>
       <c r="E45" s="5">
-        <v>363</v>
+        <v>66</v>
       </c>
       <c r="F45" s="4">
-        <v>44966</v>
+        <v>45215</v>
       </c>
       <c r="G45" s="4">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
+        <v>45238</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="5">
+        <v>110</v>
+      </c>
+      <c r="F46" s="4">
+        <v>45265</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45238</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>45236</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="5">
+        <v>363</v>
+      </c>
+      <c r="F47" s="4">
+        <v>44966</v>
+      </c>
+      <c r="G47" s="4">
+        <v>45236</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45236</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E48" s="5">
         <v>34</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F48" s="4">
         <v>44931</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G48" s="4">
         <v>45236</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="4">
-        <v>45230</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="5">
-        <v>20</v>
-      </c>
-      <c r="F47" s="4">
-        <v>45264</v>
-      </c>
-      <c r="G47" s="4">
-        <v>45230</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="4">
-        <v>45230</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E48" s="5">
-        <v>10</v>
-      </c>
-      <c r="F48" s="4">
-        <v>45264</v>
-      </c>
-      <c r="G48" s="4">
-        <v>45230</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45230</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E49" s="5">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F49" s="4">
-        <v>45290</v>
+        <v>45264</v>
       </c>
       <c r="G49" s="4">
         <v>45230</v>
       </c>
       <c r="H49" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45230</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="5">
+        <v>10</v>
+      </c>
+      <c r="F50" s="4">
+        <v>45264</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45230</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>45230</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="5">
+        <v>76</v>
+      </c>
+      <c r="F51" s="4">
+        <v>45290</v>
+      </c>
+      <c r="G51" s="4">
+        <v>45230</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A50" s="4">
-        <v>45225</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="5">
-        <v>5</v>
-      </c>
-      <c r="F50" s="4">
-        <v>45275</v>
-      </c>
-      <c r="G50" s="4">
-        <v>45225</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="4">
-        <v>45225</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="5">
-        <v>6</v>
-      </c>
-      <c r="F51" s="4">
-        <v>45275</v>
-      </c>
-      <c r="G51" s="4">
-        <v>45225</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45225</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E52" s="5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F52" s="4">
         <v>45275</v>
@@ -3097,24 +3103,24 @@
         <v>45225</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>45225</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E53" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F53" s="4">
         <v>45275</v>
@@ -3123,24 +3129,24 @@
         <v>45225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45225</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E54" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54" s="4">
         <v>45275</v>
@@ -3149,24 +3155,24 @@
         <v>45225</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45225</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="E55" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F55" s="4">
         <v>45275</v>
@@ -3175,21 +3181,21 @@
         <v>45225</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45225</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E56" s="5">
         <v>8</v>
@@ -3201,102 +3207,102 @@
         <v>45225</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45225</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="5">
         <v>10</v>
       </c>
-      <c r="E57" s="5">
-        <v>8</v>
-      </c>
       <c r="F57" s="4">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G57" s="4">
         <v>45225</v>
       </c>
       <c r="H57" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" s="5">
+        <v>8</v>
+      </c>
+      <c r="F58" s="4">
+        <v>45275</v>
+      </c>
+      <c r="G58" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59" s="5">
+        <v>8</v>
+      </c>
+      <c r="F59" s="4">
+        <v>45225</v>
+      </c>
+      <c r="G59" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H59" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A58" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="7">
-        <v>7</v>
-      </c>
-      <c r="F58" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G58" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A59" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="7">
-        <v>11</v>
-      </c>
-      <c r="F59" s="6">
-        <v>45225</v>
-      </c>
-      <c r="G59" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>45225</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E60" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F60" s="6">
         <v>45275</v>
@@ -3305,50 +3311,50 @@
         <v>45225</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>45225</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E61" s="7">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F61" s="6">
-        <v>45275</v>
+        <v>45225</v>
       </c>
       <c r="G61" s="6">
         <v>45225</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>45225</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E62" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F62" s="6">
         <v>45275</v>
@@ -3357,21 +3363,21 @@
         <v>45225</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45225</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E63" s="7">
         <v>6</v>
@@ -3383,154 +3389,154 @@
         <v>45225</v>
       </c>
       <c r="H63" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="7">
+        <v>7</v>
+      </c>
+      <c r="F64" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G64" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E65" s="7">
+        <v>6</v>
+      </c>
+      <c r="F65" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G65" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A64" s="6">
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <v>45224</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B66" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E66" s="7">
         <v>400</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F66" s="6">
         <v>45291</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G66" s="6">
         <v>45224</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H66" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A65" s="6">
+    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
         <v>45224</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D67" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E67" s="7">
         <v>778</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F67" s="6">
         <v>45291</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G67" s="6">
         <v>45224</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H67" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E66" s="7">
-        <v>6</v>
-      </c>
-      <c r="F66" s="6">
-        <v>45296</v>
-      </c>
-      <c r="G66" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A67" s="6">
-        <v>45222</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E67" s="7">
-        <v>1</v>
-      </c>
-      <c r="F67" s="6">
-        <v>45280</v>
-      </c>
-      <c r="G67" s="6">
-        <v>45222</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45222</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="E68" s="7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F68" s="6">
-        <v>45280</v>
+        <v>45296</v>
       </c>
       <c r="G68" s="6">
         <v>45222</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>45222</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E69" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F69" s="6">
         <v>45280</v>
@@ -3539,24 +3545,24 @@
         <v>45222</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45222</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E70" s="7">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="F70" s="6">
         <v>45280</v>
@@ -3565,76 +3571,76 @@
         <v>45222</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E71" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F71" s="6">
         <v>45280</v>
       </c>
       <c r="G71" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E72" s="7">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F72" s="6">
         <v>45280</v>
       </c>
       <c r="G72" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>45219</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E73" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F73" s="6">
         <v>45280</v>
@@ -3643,76 +3649,76 @@
         <v>45219</v>
       </c>
       <c r="H73" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>45219</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="7">
+        <v>18</v>
+      </c>
+      <c r="F74" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G74" s="6">
+        <v>45219</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>45219</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E75" s="7">
+        <v>20</v>
+      </c>
+      <c r="F75" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G75" s="6">
+        <v>45219</v>
+      </c>
+      <c r="H75" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="6">
-        <v>45218</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="7">
-        <v>6</v>
-      </c>
-      <c r="F74" s="6">
-        <v>45231</v>
-      </c>
-      <c r="G74" s="6">
-        <v>45218</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="6">
-        <v>45218</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E75" s="7">
-        <v>18</v>
-      </c>
-      <c r="F75" s="6">
-        <v>45231</v>
-      </c>
-      <c r="G75" s="6">
-        <v>45218</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>45218</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="E76" s="7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F76" s="6">
         <v>45231</v>
@@ -3721,24 +3727,24 @@
         <v>45218</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>45218</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E77" s="7">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F77" s="6">
         <v>45231</v>
@@ -3747,67 +3753,67 @@
         <v>45218</v>
       </c>
       <c r="H77" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>45218</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E78" s="7">
+        <v>15</v>
+      </c>
+      <c r="F78" s="6">
+        <v>45231</v>
+      </c>
+      <c r="G78" s="6">
+        <v>45218</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>45218</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="7">
+        <v>7</v>
+      </c>
+      <c r="F79" s="6">
+        <v>45231</v>
+      </c>
+      <c r="G79" s="6">
+        <v>45218</v>
+      </c>
+      <c r="H79" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A78" s="6">
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
         <v>45217</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B80" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="7">
-        <v>288</v>
-      </c>
-      <c r="F78" s="6">
-        <v>45291</v>
-      </c>
-      <c r="G78" s="6">
-        <v>45217</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="6">
-        <v>45211</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E79" s="7">
-        <v>122</v>
-      </c>
-      <c r="F79" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G79" s="6">
-        <v>45211</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A80" s="6">
-        <v>45209</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="C80" s="7" t="s">
         <v>26</v>
@@ -3816,206 +3822,206 @@
         <v>27</v>
       </c>
       <c r="E80" s="7">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="F80" s="6">
-        <v>45269</v>
+        <v>45291</v>
       </c>
       <c r="G80" s="6">
-        <v>45209</v>
+        <v>45217</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E81" s="7">
-        <v>351</v>
+        <v>122</v>
       </c>
       <c r="F81" s="6">
-        <v>45268</v>
+        <v>45275</v>
       </c>
       <c r="G81" s="6">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E82" s="7">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="F82" s="6">
-        <v>45257</v>
+        <v>45269</v>
       </c>
       <c r="G82" s="6">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E83" s="7">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="F83" s="6">
-        <v>45260</v>
+        <v>45268</v>
       </c>
       <c r="G83" s="6">
-        <v>45208</v>
+        <v>45209</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>45208</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="E84" s="7">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="F84" s="6">
-        <v>45197</v>
+        <v>45257</v>
       </c>
       <c r="G84" s="6">
         <v>45208</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>45208</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E85" s="7">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="F85" s="6">
-        <v>45172</v>
+        <v>45260</v>
       </c>
       <c r="G85" s="6">
         <v>45208</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45208</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="E86" s="7">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F86" s="6">
-        <v>45268</v>
+        <v>45197</v>
       </c>
       <c r="G86" s="6">
         <v>45208</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="E87" s="7">
-        <v>239</v>
+        <v>156</v>
       </c>
       <c r="F87" s="6">
-        <v>45226</v>
+        <v>45172</v>
       </c>
       <c r="G87" s="6">
-        <v>45205</v>
+        <v>45208</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>45203</v>
+        <v>45208</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="C88" s="7" t="s">
         <v>26</v>
@@ -4024,154 +4030,154 @@
         <v>27</v>
       </c>
       <c r="E88" s="7">
+        <v>38</v>
+      </c>
+      <c r="F88" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G88" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>45205</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="7">
+        <v>239</v>
+      </c>
+      <c r="F89" s="6">
+        <v>45226</v>
+      </c>
+      <c r="G89" s="6">
+        <v>45205</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>45203</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="7">
         <v>76</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F90" s="6">
         <v>45262</v>
       </c>
-      <c r="G88" s="6">
+      <c r="G90" s="6">
         <v>45203</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="6">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
         <v>45201</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E91" s="7">
         <v>558</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F91" s="6">
         <v>45261</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G91" s="6">
         <v>45201</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A90" s="6">
+    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
         <v>45190</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C92" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D92" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E92" s="7">
         <v>300</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F92" s="6">
         <v>45215</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G92" s="6">
         <v>45190</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="6">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
         <v>45188</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E93" s="7">
         <v>103</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F93" s="6">
         <v>45176</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G93" s="6">
         <v>45188</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" s="6">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
         <v>45188</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B94" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E92" s="7">
-        <v>104</v>
-      </c>
-      <c r="F92" s="6">
-        <v>45228</v>
-      </c>
-      <c r="G92" s="6">
-        <v>45188</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A93" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E93" s="7">
-        <v>163</v>
-      </c>
-      <c r="F93" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G93" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A94" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="C94" s="7" t="s">
         <v>49</v>
@@ -4180,33 +4186,33 @@
         <v>50</v>
       </c>
       <c r="E94" s="7">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="F94" s="6">
-        <v>45230</v>
+        <v>45228</v>
       </c>
       <c r="G94" s="6">
-        <v>45187</v>
+        <v>45188</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45187</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="E95" s="7">
-        <v>73</v>
+        <v>163</v>
       </c>
       <c r="F95" s="6">
         <v>45230</v>
@@ -4215,24 +4221,24 @@
         <v>45187</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45187</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="E96" s="7">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F96" s="6">
         <v>45230</v>
@@ -4241,24 +4247,24 @@
         <v>45187</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45187</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="D97" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E97" s="7">
         <v>73</v>
-      </c>
-      <c r="E97" s="7">
-        <v>87</v>
       </c>
       <c r="F97" s="6">
         <v>45230</v>
@@ -4267,24 +4273,24 @@
         <v>45187</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45187</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E98" s="7">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F98" s="6">
         <v>45230</v>
@@ -4293,24 +4299,24 @@
         <v>45187</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45187</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="E99" s="7">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="F99" s="6">
         <v>45230</v>
@@ -4319,327 +4325,327 @@
         <v>45187</v>
       </c>
       <c r="H99" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E100" s="7">
+        <v>116</v>
+      </c>
+      <c r="F100" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G100" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="7">
+        <v>97</v>
+      </c>
+      <c r="F101" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G101" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="6">
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
         <v>45181</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B102" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D102" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E102" s="7">
         <v>27</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F102" s="6">
         <v>45180</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G102" s="6">
         <v>45181</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H102" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="6">
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
         <v>45177</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E103" s="7">
         <v>31</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F103" s="6">
         <v>45236</v>
       </c>
-      <c r="G101" s="6">
+      <c r="G103" s="6">
         <v>45177</v>
       </c>
-      <c r="H101" s="7" t="s">
+      <c r="H103" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="6">
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
         <v>45176</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E104" s="7">
         <v>165</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F104" s="6">
         <v>45229</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G104" s="6">
         <v>45176</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A103" s="6">
+    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
         <v>45169</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D105" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E105" s="7">
         <v>92</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F105" s="6">
         <v>45230</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G105" s="6">
         <v>45169</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="6">
+    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
         <v>45167</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D106" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E106" s="7">
         <v>59</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F106" s="6">
         <v>45247</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G106" s="6">
         <v>45167</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H106" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A105" s="6">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
         <v>45167</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B107" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D107" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E107" s="7">
         <v>56</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F107" s="6">
         <v>45226</v>
       </c>
-      <c r="G105" s="6">
+      <c r="G107" s="6">
         <v>45167</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H107" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A106" s="6">
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
         <v>45163</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B108" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C108" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D108" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E108" s="7">
         <v>83</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F108" s="6">
         <v>45233</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G108" s="6">
         <v>45163</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H108" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A107" s="6">
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
         <v>45162</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B109" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C109" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D109" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E109" s="7">
         <v>15</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F109" s="6">
         <v>45225</v>
       </c>
-      <c r="G107" s="6">
+      <c r="G109" s="6">
         <v>45162</v>
       </c>
-      <c r="H107" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A108" s="6">
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
         <v>45161</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B110" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E110" s="7">
         <v>130</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F110" s="6">
         <v>45261</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G110" s="6">
         <v>45161</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A109" s="6">
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
         <v>45161</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B111" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E111" s="7">
         <v>167</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F111" s="6">
         <v>45220</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G111" s="6">
         <v>45161</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A110" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="7">
-        <v>163</v>
-      </c>
-      <c r="F110" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G110" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A111" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E111" s="7">
-        <v>32</v>
-      </c>
-      <c r="F111" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G111" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>45156</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>29</v>
@@ -4648,7 +4654,7 @@
         <v>13</v>
       </c>
       <c r="E112" s="7">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="F112" s="6">
         <v>45201</v>
@@ -4657,102 +4663,102 @@
         <v>45156</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>45156</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E113" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F113" s="6">
-        <v>45245</v>
+        <v>45201</v>
       </c>
       <c r="G113" s="6">
         <v>45156</v>
       </c>
       <c r="H113" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="7">
+        <v>3</v>
+      </c>
+      <c r="F114" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G114" s="6">
+        <v>45156</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" s="7">
+        <v>38</v>
+      </c>
+      <c r="F115" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G115" s="6">
+        <v>45156</v>
+      </c>
+      <c r="H115" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A114" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E114" s="7">
-        <v>10</v>
-      </c>
-      <c r="F114" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G114" s="6">
-        <v>45155</v>
-      </c>
-      <c r="H114" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A115" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E115" s="7">
-        <v>15</v>
-      </c>
-      <c r="F115" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G115" s="6">
-        <v>45155</v>
-      </c>
-      <c r="H115" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45155</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E116" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F116" s="6">
         <v>45156</v>
@@ -4761,119 +4767,119 @@
         <v>45155</v>
       </c>
       <c r="H116" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" s="7">
+        <v>15</v>
+      </c>
+      <c r="F117" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G117" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="7">
+        <v>16</v>
+      </c>
+      <c r="F118" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G118" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H118" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A117" s="6">
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
         <v>45121</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B119" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D119" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="E117" s="7">
-        <v>94</v>
-      </c>
-      <c r="F117" s="6">
-        <v>45177</v>
-      </c>
-      <c r="G117" s="6">
-        <v>45121</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A118" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" s="7">
-        <v>80</v>
-      </c>
-      <c r="F118" s="6">
-        <v>45226</v>
-      </c>
-      <c r="G118" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H118" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A119" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="E119" s="7">
         <v>94</v>
       </c>
       <c r="F119" s="6">
-        <v>45145</v>
+        <v>45177</v>
       </c>
       <c r="G119" s="6">
-        <v>45146</v>
+        <v>45121</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>45146</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E120" s="7">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F120" s="6">
-        <v>45201</v>
+        <v>45226</v>
       </c>
       <c r="G120" s="6">
         <v>45146</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>22</v>
@@ -4882,163 +4888,163 @@
         <v>23</v>
       </c>
       <c r="E121" s="7">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F121" s="6">
-        <v>45138</v>
+        <v>45145</v>
       </c>
       <c r="G121" s="6">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
+        <v>45146</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E122" s="7">
+        <v>85</v>
+      </c>
+      <c r="F122" s="6">
+        <v>45201</v>
+      </c>
+      <c r="G122" s="6">
+        <v>45146</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>45142</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="7">
+        <v>87</v>
+      </c>
+      <c r="F123" s="6">
+        <v>45138</v>
+      </c>
+      <c r="G123" s="6">
+        <v>45142</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
         <v>45141</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B124" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C124" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D124" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E124" s="7">
         <v>78</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F124" s="6">
         <v>45199</v>
       </c>
-      <c r="G122" s="6">
+      <c r="G124" s="6">
         <v>45141</v>
       </c>
-      <c r="H122" s="7" t="s">
+      <c r="H124" s="7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A123" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E123" s="7">
-        <v>153</v>
-      </c>
-      <c r="F123" s="6">
-        <v>45139</v>
-      </c>
-      <c r="G123" s="6">
-        <v>45141</v>
-      </c>
-      <c r="H123" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A124" s="6">
-        <v>45139</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E124" s="7">
-        <v>530</v>
-      </c>
-      <c r="F124" s="6">
-        <v>45135</v>
-      </c>
-      <c r="G124" s="6">
-        <v>45139</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>45141</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="E125" s="7">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="F125" s="6">
-        <v>45135</v>
+        <v>45139</v>
       </c>
       <c r="G125" s="6">
         <v>45141</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E126" s="7">
-        <v>84</v>
+        <v>530</v>
       </c>
       <c r="F126" s="6">
         <v>45135</v>
       </c>
       <c r="G126" s="6">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>45141</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>219</v>
+        <v>58</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>220</v>
+        <v>59</v>
       </c>
       <c r="E127" s="7">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F127" s="6">
         <v>45135</v>
@@ -5047,24 +5053,24 @@
         <v>45141</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>45141</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E128" s="7">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="F128" s="6">
         <v>45135</v>
@@ -5073,24 +5079,24 @@
         <v>45141</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>45141</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>99</v>
+        <v>220</v>
       </c>
       <c r="E129" s="7">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F129" s="6">
         <v>45135</v>
@@ -5099,145 +5105,145 @@
         <v>45141</v>
       </c>
       <c r="H129" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E130" s="7">
+        <v>25</v>
+      </c>
+      <c r="F130" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G130" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E131" s="7">
+        <v>17</v>
+      </c>
+      <c r="F131" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G131" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H131" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A130" s="6">
+    <row r="132" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
         <v>45140</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B132" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C132" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D132" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E132" s="7">
         <v>280</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F132" s="6">
         <v>45192</v>
       </c>
-      <c r="G130" s="6">
+      <c r="G132" s="6">
         <v>45140</v>
       </c>
-      <c r="H130" s="7" t="s">
+      <c r="H132" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A131" s="6">
+    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
         <v>45139</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B133" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="E131" s="7">
-        <v>64</v>
-      </c>
-      <c r="F131" s="6">
-        <v>45198</v>
-      </c>
-      <c r="G131" s="6">
-        <v>45139</v>
-      </c>
-      <c r="H131" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A132" s="6">
-        <v>45134</v>
-      </c>
-      <c r="B132" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E132" s="7">
-        <v>76</v>
-      </c>
-      <c r="F132" s="6">
-        <v>45198</v>
-      </c>
-      <c r="G132" s="6">
-        <v>45134</v>
-      </c>
-      <c r="H132" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A133" s="6">
-        <v>45126</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E133" s="7">
         <v>64</v>
       </c>
       <c r="F133" s="6">
-        <v>45208</v>
+        <v>45198</v>
       </c>
       <c r="G133" s="6">
+        <v>45139</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>45134</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" s="7">
+        <v>76</v>
+      </c>
+      <c r="F134" s="6">
+        <v>45198</v>
+      </c>
+      <c r="G134" s="6">
+        <v>45134</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
         <v>45126</v>
       </c>
-      <c r="H133" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A134" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E134" s="7">
-        <v>53</v>
-      </c>
-      <c r="F134" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G134" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A135" s="6">
-        <v>45124</v>
-      </c>
       <c r="B135" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C135" s="7" t="s">
         <v>18</v>
@@ -5246,33 +5252,33 @@
         <v>19</v>
       </c>
       <c r="E135" s="7">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F135" s="6">
-        <v>45124</v>
+        <v>45208</v>
       </c>
       <c r="G135" s="6">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>45124</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E136" s="7">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F136" s="6">
         <v>45124</v>
@@ -5281,24 +5287,24 @@
         <v>45124</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>45124</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E137" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F137" s="6">
         <v>45124</v>
@@ -5307,24 +5313,24 @@
         <v>45124</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>45124</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E138" s="7">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F138" s="6">
         <v>45124</v>
@@ -5333,24 +5339,24 @@
         <v>45124</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>45124</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D139" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E139" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F139" s="6">
         <v>45124</v>
@@ -5359,24 +5365,24 @@
         <v>45124</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>45124</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E140" s="7">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F140" s="6">
         <v>45124</v>
@@ -5385,24 +5391,24 @@
         <v>45124</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>45124</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E141" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F141" s="6">
         <v>45124</v>
@@ -5411,24 +5417,24 @@
         <v>45124</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>45124</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E142" s="7">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F142" s="6">
         <v>45124</v>
@@ -5437,24 +5443,24 @@
         <v>45124</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>45124</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="E143" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F143" s="6">
         <v>45124</v>
@@ -5463,24 +5469,24 @@
         <v>45124</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>45124</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E144" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F144" s="6">
         <v>45124</v>
@@ -5489,24 +5495,24 @@
         <v>45124</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>45124</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="E145" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F145" s="6">
         <v>45124</v>
@@ -5515,24 +5521,24 @@
         <v>45124</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>45124</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="E146" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F146" s="6">
         <v>45124</v>
@@ -5541,24 +5547,24 @@
         <v>45124</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>45124</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="E147" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F147" s="6">
         <v>45124</v>
@@ -5567,24 +5573,24 @@
         <v>45124</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>45124</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="E148" s="7">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F148" s="6">
         <v>45124</v>
@@ -5593,24 +5599,24 @@
         <v>45124</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>45124</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E149" s="7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F149" s="6">
         <v>45124</v>
@@ -5619,24 +5625,24 @@
         <v>45124</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>45124</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="E150" s="7">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F150" s="6">
         <v>45124</v>
@@ -5645,24 +5651,24 @@
         <v>45124</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>45124</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E151" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F151" s="6">
         <v>45124</v>
@@ -5671,24 +5677,24 @@
         <v>45124</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>45124</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="E152" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F152" s="6">
         <v>45124</v>
@@ -5697,24 +5703,24 @@
         <v>45124</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>45124</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E153" s="7">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F153" s="6">
         <v>45124</v>
@@ -5723,24 +5729,24 @@
         <v>45124</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45124</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>253</v>
+        <v>58</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="E154" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F154" s="6">
         <v>45124</v>
@@ -5749,24 +5755,24 @@
         <v>45124</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45124</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="E155" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F155" s="6">
         <v>45124</v>
@@ -5775,24 +5781,24 @@
         <v>45124</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45124</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="E156" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F156" s="6">
         <v>45124</v>
@@ -5801,24 +5807,24 @@
         <v>45124</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45124</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="E157" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F157" s="6">
         <v>45124</v>
@@ -5827,509 +5833,509 @@
         <v>45124</v>
       </c>
       <c r="H157" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E158" s="7">
+        <v>26</v>
+      </c>
+      <c r="F158" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G158" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A158" s="6">
+      <c r="D159" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E159" s="7">
+        <v>31</v>
+      </c>
+      <c r="F159" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G159" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
         <v>45112</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C158" s="7" t="s">
+      <c r="C160" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D160" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E160" s="7">
         <v>115</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F160" s="6">
         <v>45128</v>
       </c>
-      <c r="G158" s="6">
+      <c r="G160" s="6">
         <v>45112</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H160" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A159" s="6">
-        <v>45106</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E159" s="7">
-        <v>188</v>
-      </c>
-      <c r="F159" s="6">
-        <v>45154</v>
-      </c>
-      <c r="G159" s="6">
-        <v>45106</v>
-      </c>
-      <c r="H159" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A160" s="6">
-        <v>45106</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E160" s="7">
-        <v>120</v>
-      </c>
-      <c r="F160" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G160" s="6">
-        <v>45106</v>
-      </c>
-      <c r="H160" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>45106</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>263</v>
+        <v>26</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E161" s="7">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="F161" s="6">
-        <v>45107</v>
+        <v>45154</v>
       </c>
       <c r="G161" s="6">
         <v>45106</v>
       </c>
       <c r="H161" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" s="7">
+        <v>120</v>
+      </c>
+      <c r="F162" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G162" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E163" s="7">
+        <v>59</v>
+      </c>
+      <c r="F163" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G163" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H163" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A162" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E162" s="7">
-        <v>93</v>
-      </c>
-      <c r="F162" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G162" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A163" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E163" s="7">
-        <v>107</v>
-      </c>
-      <c r="F163" s="8">
-        <v>45169</v>
-      </c>
-      <c r="G163" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45104</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="E164" s="7">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="F164" s="6">
-        <v>45170</v>
+        <v>45086</v>
       </c>
       <c r="G164" s="6">
         <v>45104</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>45104</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E165" s="7">
-        <v>101</v>
-      </c>
-      <c r="F165" s="6">
+        <v>107</v>
+      </c>
+      <c r="F165" s="8">
         <v>45169</v>
       </c>
       <c r="G165" s="6">
         <v>45104</v>
       </c>
       <c r="H165" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E166" s="7">
+        <v>47</v>
+      </c>
+      <c r="F166" s="6">
+        <v>45170</v>
+      </c>
+      <c r="G166" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E167" s="7">
+        <v>101</v>
+      </c>
+      <c r="F167" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G167" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H167" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A166" s="6">
+    <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
         <v>45100</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B168" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C168" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D168" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E168" s="7">
         <v>56</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F168" s="6">
         <v>45158</v>
       </c>
-      <c r="G166" s="6">
+      <c r="G168" s="6">
         <v>45100</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A167" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E167" s="7">
-        <v>218</v>
-      </c>
-      <c r="F167" s="6">
-        <v>45152</v>
-      </c>
-      <c r="G167" s="6">
-        <v>45092</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A168" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E168" s="7">
-        <v>116</v>
-      </c>
-      <c r="F168" s="6">
-        <v>45069</v>
-      </c>
-      <c r="G168" s="6">
-        <v>45092</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>45092</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E169" s="7">
-        <v>91</v>
+        <v>218</v>
       </c>
       <c r="F169" s="6">
-        <v>45143</v>
+        <v>45152</v>
       </c>
       <c r="G169" s="6">
         <v>45092</v>
       </c>
       <c r="H169" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E170" s="7">
+        <v>116</v>
+      </c>
+      <c r="F170" s="6">
+        <v>45069</v>
+      </c>
+      <c r="G170" s="6">
+        <v>45092</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A170" s="6">
+      <c r="D171" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E171" s="7">
+        <v>91</v>
+      </c>
+      <c r="F171" s="6">
+        <v>45143</v>
+      </c>
+      <c r="G171" s="6">
+        <v>45092</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
         <v>45091</v>
       </c>
-      <c r="B170" s="7" t="s">
+      <c r="B172" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C170" s="7" t="s">
+      <c r="C172" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D172" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E172" s="7">
         <v>173</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F172" s="6">
         <v>45156</v>
       </c>
-      <c r="G170" s="6">
+      <c r="G172" s="6">
         <v>45091</v>
       </c>
-      <c r="H170" s="7" t="s">
+      <c r="H172" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A171" s="6">
+    <row r="173" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
         <v>45085</v>
       </c>
-      <c r="B171" s="7" t="s">
+      <c r="B173" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C171" s="7" t="s">
+      <c r="C173" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D173" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E173" s="7">
         <v>58</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F173" s="6">
         <v>45173</v>
       </c>
-      <c r="G171" s="6">
+      <c r="G173" s="6">
         <v>45085</v>
       </c>
-      <c r="H171" s="7" t="s">
+      <c r="H173" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A172" s="6">
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
         <v>45084</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E174" s="7">
         <v>74</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F174" s="6">
         <v>45107</v>
       </c>
-      <c r="G172" s="6">
+      <c r="G174" s="6">
         <v>45084</v>
       </c>
-      <c r="H172" s="7" t="s">
+      <c r="H174" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A173" s="6">
+    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
         <v>45078</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B175" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C175" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E175" s="7">
         <v>126</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F175" s="6">
         <v>45072</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G175" s="6">
         <v>45078</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H175" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A174" s="6">
+    <row r="176" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
         <v>45076</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C176" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D176" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E176" s="7">
         <v>137</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F176" s="6">
         <v>45138</v>
       </c>
-      <c r="G174" s="6">
+      <c r="G176" s="6">
         <v>45076</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H176" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A175" s="6">
+    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
         <v>45071</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E175" s="7">
-        <v>90</v>
-      </c>
-      <c r="F175" s="6">
-        <v>45070</v>
-      </c>
-      <c r="G175" s="6">
-        <v>45071</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A176" s="6">
-        <v>45068</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E176" s="7">
-        <v>80</v>
-      </c>
-      <c r="F176" s="6">
-        <v>45104</v>
-      </c>
-      <c r="G176" s="6">
-        <v>45068</v>
-      </c>
-      <c r="H176" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A177" s="6">
-        <v>45064</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>22</v>
@@ -6338,527 +6344,527 @@
         <v>23</v>
       </c>
       <c r="E177" s="7">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F177" s="6">
-        <v>45107</v>
+        <v>45070</v>
       </c>
       <c r="G177" s="6">
-        <v>45064</v>
+        <v>45071</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
+        <v>45068</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E178" s="7">
+        <v>80</v>
+      </c>
+      <c r="F178" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G178" s="6">
+        <v>45068</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>45064</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179" s="7">
+        <v>64</v>
+      </c>
+      <c r="F179" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G179" s="6">
+        <v>45064</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
         <v>45063</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D180" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E180" s="7">
         <v>69</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F180" s="6">
         <v>45114</v>
       </c>
-      <c r="G178" s="6">
+      <c r="G180" s="6">
         <v>45063</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A179" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D179" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E179" s="7">
-        <v>235</v>
-      </c>
-      <c r="F179" s="6">
-        <v>45121</v>
-      </c>
-      <c r="G179" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H179" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A180" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D180" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E180" s="7">
-        <v>549</v>
-      </c>
-      <c r="F180" s="6">
-        <v>45104</v>
-      </c>
-      <c r="G180" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>45062</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>299</v>
+        <v>49</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="E181" s="7">
-        <v>81</v>
+        <v>235</v>
       </c>
       <c r="F181" s="6">
-        <v>45138</v>
+        <v>45121</v>
       </c>
       <c r="G181" s="6">
         <v>45062</v>
       </c>
       <c r="H181" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E182" s="7">
+        <v>549</v>
+      </c>
+      <c r="F182" s="6">
+        <v>45104</v>
+      </c>
+      <c r="G182" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E183" s="7">
+        <v>81</v>
+      </c>
+      <c r="F183" s="6">
+        <v>45138</v>
+      </c>
+      <c r="G183" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H183" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A182" s="6">
+    <row r="184" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
         <v>45061</v>
       </c>
-      <c r="B182" s="7" t="s">
+      <c r="B184" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C182" s="7" t="s">
+      <c r="C184" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D184" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E182" s="7">
+      <c r="E184" s="7">
         <v>86</v>
       </c>
-      <c r="F182" s="6">
+      <c r="F184" s="6">
         <v>45016</v>
       </c>
-      <c r="G182" s="6">
+      <c r="G184" s="6">
         <v>45061</v>
       </c>
-      <c r="H182" s="7" t="s">
+      <c r="H184" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A183" s="6">
-        <v>45056</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C183" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D183" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E183" s="7">
-        <v>23</v>
-      </c>
-      <c r="F183" s="6">
-        <v>45072</v>
-      </c>
-      <c r="G183" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H183" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A184" s="6">
-        <v>45056</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E184" s="7">
-        <v>105</v>
-      </c>
-      <c r="F184" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G184" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H184" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>45056</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>305</v>
+        <v>26</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E185" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F185" s="6">
-        <v>45139</v>
+        <v>45072</v>
       </c>
       <c r="G185" s="6">
         <v>45056</v>
       </c>
       <c r="H185" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="7">
+        <v>105</v>
+      </c>
+      <c r="F186" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G186" s="6">
+        <v>45056</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="7">
+        <v>27</v>
+      </c>
+      <c r="F187" s="6">
+        <v>45139</v>
+      </c>
+      <c r="G187" s="6">
+        <v>45056</v>
+      </c>
+      <c r="H187" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A186" s="6">
+    <row r="188" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
         <v>45054</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B188" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C186" s="7" t="s">
+      <c r="C188" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D188" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E186" s="7">
+      <c r="E188" s="7">
         <v>272</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F188" s="6">
         <v>45058</v>
       </c>
-      <c r="G186" s="6">
+      <c r="G188" s="6">
         <v>45054</v>
       </c>
-      <c r="H186" s="7" t="s">
+      <c r="H188" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A187" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E187" s="7">
-        <v>123</v>
-      </c>
-      <c r="F187" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G187" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H187" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A188" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E188" s="7">
-        <v>29</v>
-      </c>
-      <c r="F188" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G188" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H188" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>45049</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>308</v>
+        <v>15</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E189" s="7">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="F189" s="6">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G189" s="6">
         <v>45049</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>45049</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>309</v>
+        <v>11</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E190" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="F190" s="6">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G190" s="6">
         <v>45049</v>
       </c>
       <c r="H190" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191" s="7">
+        <v>4</v>
+      </c>
+      <c r="F191" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G191" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E192" s="7">
+        <v>7</v>
+      </c>
+      <c r="F192" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G192" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H192" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A191" s="6">
+    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
         <v>45041</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B193" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C193" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D193" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E193" s="7">
         <v>175</v>
       </c>
-      <c r="F191" s="6">
+      <c r="F193" s="6">
         <v>45065</v>
       </c>
-      <c r="G191" s="6">
+      <c r="G193" s="6">
         <v>45041</v>
       </c>
-      <c r="H191" s="7" t="s">
+      <c r="H193" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A192" s="6">
+    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
         <v>45036</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B194" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C194" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D194" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E194" s="7">
         <v>133</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F194" s="6">
         <v>45120</v>
       </c>
-      <c r="G192" s="6">
+      <c r="G194" s="6">
         <v>45036</v>
       </c>
-      <c r="H192" s="7" t="s">
+      <c r="H194" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A193" s="6">
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
         <v>45035</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B195" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C195" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D195" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E195" s="7">
         <v>62</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F195" s="6">
         <v>45095</v>
       </c>
-      <c r="G193" s="6">
+      <c r="G195" s="6">
         <v>45035</v>
       </c>
-      <c r="H193" s="7" t="s">
+      <c r="H195" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A194" s="6">
+    <row r="196" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
         <v>45034</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C196" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D196" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E194" s="7">
+      <c r="E196" s="7">
         <v>113</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F196" s="6">
         <v>45076</v>
       </c>
-      <c r="G194" s="6">
+      <c r="G196" s="6">
         <v>45034</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="H196" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A195" s="6">
-        <v>45021</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E195" s="7">
-        <v>120</v>
-      </c>
-      <c r="F195" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G195" s="6">
-        <v>45021</v>
-      </c>
-      <c r="H195" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A196" s="6">
-        <v>45022</v>
-      </c>
-      <c r="B196" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D196" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E196" s="7">
-        <v>12</v>
-      </c>
-      <c r="F196" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G196" s="6">
-        <v>45022</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>45021</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>321</v>
+        <v>49</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E197" s="7">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F197" s="6">
         <v>45077</v>
@@ -6867,1315 +6873,1315 @@
         <v>45021</v>
       </c>
       <c r="H197" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>45022</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E198" s="7">
+        <v>12</v>
+      </c>
+      <c r="F198" s="6">
+        <v>45079</v>
+      </c>
+      <c r="G198" s="6">
+        <v>45022</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>45021</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" s="7">
+        <v>98</v>
+      </c>
+      <c r="F199" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G199" s="6">
+        <v>45021</v>
+      </c>
+      <c r="H199" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A198" s="6">
+    <row r="200" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
         <v>45021</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B200" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C200" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D200" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E200" s="7">
         <v>100</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F200" s="6">
         <v>45086</v>
       </c>
-      <c r="G198" s="6">
+      <c r="G200" s="6">
         <v>45021</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H200" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A199" s="6">
+    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
         <v>45020</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B201" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C201" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D201" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E201" s="7">
         <v>84</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F201" s="6">
         <v>45075</v>
       </c>
-      <c r="G199" s="6">
+      <c r="G201" s="6">
         <v>45020</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="H201" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A200" s="6">
+    <row r="202" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
         <v>45019</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B202" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C200" s="7" t="s">
+      <c r="C202" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D202" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E200" s="7">
+      <c r="E202" s="7">
         <v>227</v>
       </c>
-      <c r="F200" s="6">
+      <c r="F202" s="6">
         <v>45079</v>
       </c>
-      <c r="G200" s="6">
+      <c r="G202" s="6">
         <v>45019</v>
       </c>
-      <c r="H200" s="7" t="s">
+      <c r="H202" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A201" s="6">
+    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
         <v>45016</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B203" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C203" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E203" s="7">
         <v>1047</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F203" s="6">
         <v>45079</v>
       </c>
-      <c r="G201" s="6">
+      <c r="G203" s="6">
         <v>45016</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="H203" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A202" s="6">
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
         <v>45007</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B204" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C204" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D204" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E204" s="7">
         <v>54</v>
       </c>
-      <c r="F202" s="6">
+      <c r="F204" s="6">
         <v>45059</v>
       </c>
-      <c r="G202" s="6">
+      <c r="G204" s="6">
         <v>45007</v>
       </c>
-      <c r="H202" s="7" t="s">
+      <c r="H204" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A203" s="6">
+    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
         <v>45000</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B205" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C205" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D205" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E203" s="7">
+      <c r="E205" s="7">
         <v>81</v>
       </c>
-      <c r="F203" s="6">
+      <c r="F205" s="6">
         <v>45077</v>
       </c>
-      <c r="G203" s="6">
+      <c r="G205" s="6">
         <v>45000</v>
       </c>
-      <c r="H203" s="7" t="s">
+      <c r="H205" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A204" s="6">
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
         <v>44999</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B206" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C204" s="7" t="s">
+      <c r="C206" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D206" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E204" s="7">
+      <c r="E206" s="7">
         <v>105</v>
       </c>
-      <c r="F204" s="6">
+      <c r="F206" s="6">
         <v>45020</v>
       </c>
-      <c r="G204" s="6">
+      <c r="G206" s="6">
         <v>44999</v>
       </c>
-      <c r="H204" s="7" t="s">
+      <c r="H206" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A205" s="6">
+    <row r="207" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
         <v>45005</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B207" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C205" s="7" t="s">
+      <c r="C207" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D207" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E205" s="7">
+      <c r="E207" s="7">
         <v>152</v>
       </c>
-      <c r="F205" s="6">
+      <c r="F207" s="6">
         <v>45066</v>
       </c>
-      <c r="G205" s="6">
+      <c r="G207" s="6">
         <v>45005</v>
       </c>
-      <c r="H205" s="7" t="s">
+      <c r="H207" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A206" s="6">
+    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
         <v>44993</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B208" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C206" s="7" t="s">
+      <c r="C208" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D208" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E206" s="7">
+      <c r="E208" s="7">
         <v>240</v>
       </c>
-      <c r="F206" s="6">
+      <c r="F208" s="6">
         <v>45044</v>
       </c>
-      <c r="G206" s="6">
+      <c r="G208" s="6">
         <v>44993</v>
       </c>
-      <c r="H206" s="7" t="s">
+      <c r="H208" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A207" s="6">
+    <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
         <v>44988</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E207" s="7">
+      <c r="E209" s="7">
         <v>827</v>
       </c>
-      <c r="F207" s="6">
+      <c r="F209" s="6">
         <v>45047</v>
       </c>
-      <c r="G207" s="6">
+      <c r="G209" s="6">
         <v>44988</v>
       </c>
-      <c r="H207" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A208" s="6">
+    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
         <v>44987</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B210" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C210" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E208" s="7">
+      <c r="E210" s="7">
         <v>53</v>
       </c>
-      <c r="F208" s="6">
+      <c r="F210" s="6">
         <v>45048</v>
       </c>
-      <c r="G208" s="6">
+      <c r="G210" s="6">
         <v>44987</v>
       </c>
-      <c r="H208" s="7" t="s">
+      <c r="H210" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A209" s="6">
-        <v>44985</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D209" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E209" s="7">
-        <v>17</v>
-      </c>
-      <c r="F209" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G209" s="6">
-        <v>44985</v>
-      </c>
-      <c r="H209" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A210" s="6">
-        <v>44985</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="7">
-        <v>12</v>
-      </c>
-      <c r="F210" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G210" s="6">
-        <v>44985</v>
-      </c>
-      <c r="H210" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>44985</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E211" s="7">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="F211" s="6">
-        <v>44979</v>
+        <v>45169</v>
       </c>
       <c r="G211" s="6">
         <v>44985</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>44985</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E212" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F212" s="6">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G212" s="6">
         <v>44985</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E213" s="7">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="F213" s="6">
-        <v>45016</v>
+        <v>44979</v>
       </c>
       <c r="G213" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E214" s="7">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F214" s="6">
         <v>45169</v>
       </c>
       <c r="G214" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>44984</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E215" s="7">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="F215" s="6">
-        <v>45077</v>
+        <v>45016</v>
       </c>
       <c r="G215" s="6">
         <v>44984</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>44984</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E216" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F216" s="6">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G216" s="6">
         <v>44984</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>44984</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E217" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F217" s="6">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G217" s="6">
         <v>44984</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>44984</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
       <c r="D218" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E218" s="7">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F218" s="6">
-        <v>45016</v>
+        <v>45077</v>
       </c>
       <c r="G218" s="6">
         <v>44984</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>44984</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E219" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F219" s="6">
-        <v>44974</v>
+        <v>45169</v>
       </c>
       <c r="G219" s="6">
         <v>44984</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>44984</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="D220" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E220" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F220" s="6">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G220" s="6">
         <v>44984</v>
       </c>
       <c r="H220" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E221" s="7">
+        <v>10</v>
+      </c>
+      <c r="F221" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G221" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H221" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E222" s="7">
+        <v>10</v>
+      </c>
+      <c r="F222" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G222" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H222" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A221" s="6">
+    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
         <v>44980</v>
       </c>
-      <c r="B221" s="7" t="s">
+      <c r="B223" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C223" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D223" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E221" s="7">
+      <c r="E223" s="7">
         <v>120</v>
       </c>
-      <c r="F221" s="6">
+      <c r="F223" s="6">
         <v>45039</v>
       </c>
-      <c r="G221" s="6">
+      <c r="G223" s="6">
         <v>44980</v>
       </c>
-      <c r="H221" s="7" t="s">
+      <c r="H223" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A222" s="6">
+    <row r="224" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
         <v>44973</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B224" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C224" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D224" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E222" s="7">
+      <c r="E224" s="7">
         <v>40</v>
       </c>
-      <c r="F222" s="8">
+      <c r="F224" s="8">
         <v>44965</v>
       </c>
-      <c r="G222" s="6">
+      <c r="G224" s="6">
         <v>44973</v>
       </c>
-      <c r="H222" s="7" t="s">
+      <c r="H224" s="7" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A223" s="6">
+    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
         <v>44973</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B225" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C225" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D225" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E223" s="7">
+      <c r="E225" s="7">
         <v>186</v>
       </c>
-      <c r="F223" s="6">
+      <c r="F225" s="6">
         <v>44981</v>
       </c>
-      <c r="G223" s="6">
+      <c r="G225" s="6">
         <v>44973</v>
       </c>
-      <c r="H223" s="7" t="s">
+      <c r="H225" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A224" s="6">
+    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
         <v>44978</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B226" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C226" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="D226" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E224" s="7">
+      <c r="E226" s="7">
         <v>100</v>
       </c>
-      <c r="F224" s="6">
+      <c r="F226" s="6">
         <v>45032</v>
       </c>
-      <c r="G224" s="6">
+      <c r="G226" s="6">
         <v>44978</v>
       </c>
-      <c r="H224" s="7" t="s">
+      <c r="H226" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A225" s="6">
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
         <v>44972</v>
       </c>
-      <c r="B225" s="7" t="s">
+      <c r="B227" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C227" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D225" s="7" t="s">
+      <c r="D227" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E225" s="7">
+      <c r="E227" s="7">
         <v>64</v>
       </c>
-      <c r="F225" s="6">
+      <c r="F227" s="6">
         <v>44974</v>
       </c>
-      <c r="G225" s="6">
+      <c r="G227" s="6">
         <v>44972</v>
       </c>
-      <c r="H225" s="7" t="s">
+      <c r="H227" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A226" s="6">
+    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
         <v>44965</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B228" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C228" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D228" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E228" s="7">
         <v>92</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F228" s="6">
         <v>45065</v>
       </c>
-      <c r="G226" s="6">
+      <c r="G228" s="6">
         <v>44966</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H228" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A227" s="6">
-        <v>44964</v>
-      </c>
-      <c r="B227" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E227" s="7">
-        <v>121</v>
-      </c>
-      <c r="F227" s="6">
-        <v>45024</v>
-      </c>
-      <c r="G227" s="6">
-        <v>44964</v>
-      </c>
-      <c r="H227" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A228" s="6">
-        <v>44964</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E228" s="7">
-        <v>60</v>
-      </c>
-      <c r="F228" s="6">
-        <v>45017</v>
-      </c>
-      <c r="G228" s="6">
-        <v>44964</v>
-      </c>
-      <c r="H228" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>44964</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E229" s="7">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="F229" s="6">
-        <v>45013</v>
+        <v>45024</v>
       </c>
       <c r="G229" s="6">
         <v>44964</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>44964</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>363</v>
+        <v>22</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="E230" s="7">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F230" s="6">
-        <v>45020</v>
+        <v>45017</v>
       </c>
       <c r="G230" s="6">
         <v>44964</v>
       </c>
       <c r="H230" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <v>44964</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E231" s="7">
+        <v>65</v>
+      </c>
+      <c r="F231" s="6">
+        <v>45013</v>
+      </c>
+      <c r="G231" s="6">
+        <v>44964</v>
+      </c>
+      <c r="H231" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>44964</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E232" s="7">
+        <v>200</v>
+      </c>
+      <c r="F232" s="6">
+        <v>45020</v>
+      </c>
+      <c r="G232" s="6">
+        <v>44964</v>
+      </c>
+      <c r="H232" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A231" s="6">
+    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
         <v>44957</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B233" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C233" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D233" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E231" s="7">
+      <c r="E233" s="7">
         <v>83</v>
       </c>
-      <c r="F231" s="6">
+      <c r="F233" s="6">
         <v>44956</v>
       </c>
-      <c r="G231" s="6">
+      <c r="G233" s="6">
         <v>44957</v>
       </c>
-      <c r="H231" s="7" t="s">
+      <c r="H233" s="7" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A232" s="6">
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
         <v>44957</v>
       </c>
-      <c r="B232" s="7" t="s">
+      <c r="B234" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C234" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D234" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E232" s="7">
+      <c r="E234" s="7">
         <v>74</v>
       </c>
-      <c r="F232" s="6">
+      <c r="F234" s="6">
         <v>45016</v>
       </c>
-      <c r="G232" s="6">
+      <c r="G234" s="6">
         <v>44957</v>
       </c>
-      <c r="H232" s="7" t="s">
+      <c r="H234" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A233" s="6">
-        <v>44959</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E233" s="7">
-        <v>158</v>
-      </c>
-      <c r="F233" s="6">
-        <v>45017</v>
-      </c>
-      <c r="G233" s="6">
-        <v>44959</v>
-      </c>
-      <c r="H233" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A234" s="6">
-        <v>44959</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E234" s="7">
-        <v>9</v>
-      </c>
-      <c r="F234" s="6">
-        <v>45019</v>
-      </c>
-      <c r="G234" s="6">
-        <v>44959</v>
-      </c>
-      <c r="H234" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>44959</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>374</v>
+        <v>129</v>
       </c>
       <c r="E235" s="7">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F235" s="6">
-        <v>44972</v>
+        <v>45017</v>
       </c>
       <c r="G235" s="6">
         <v>44959</v>
       </c>
       <c r="H235" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>44959</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E236" s="7">
+        <v>9</v>
+      </c>
+      <c r="F236" s="6">
+        <v>45019</v>
+      </c>
+      <c r="G236" s="6">
+        <v>44959</v>
+      </c>
+      <c r="H236" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <v>44959</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E237" s="7">
+        <v>140</v>
+      </c>
+      <c r="F237" s="6">
+        <v>44972</v>
+      </c>
+      <c r="G237" s="6">
+        <v>44959</v>
+      </c>
+      <c r="H237" s="7" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A236" s="6">
+    <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
         <v>44957</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="B238" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C238" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D236" s="7" t="s">
+      <c r="D238" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E236" s="7">
+      <c r="E238" s="7">
         <v>90</v>
       </c>
-      <c r="F236" s="6">
+      <c r="F238" s="6">
         <v>44957</v>
       </c>
-      <c r="G236" s="6">
+      <c r="G238" s="6">
         <v>44960</v>
       </c>
-      <c r="H236" s="7" t="s">
+      <c r="H238" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A237" s="6">
+    <row r="239" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
         <v>44953</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B239" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C239" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="D239" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E237" s="7">
+      <c r="E239" s="7">
         <v>255</v>
       </c>
-      <c r="F237" s="6">
+      <c r="F239" s="6">
         <v>44942</v>
       </c>
-      <c r="G237" s="6">
+      <c r="G239" s="6">
         <v>44953</v>
       </c>
-      <c r="H237" s="7" t="s">
+      <c r="H239" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A238" s="6">
+    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
         <v>44946</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B240" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D240" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E240" s="7">
         <v>110</v>
       </c>
-      <c r="F238" s="6">
+      <c r="F240" s="6">
         <v>45016</v>
       </c>
-      <c r="G238" s="6">
+      <c r="G240" s="6">
         <v>44946</v>
       </c>
-      <c r="H238" s="7" t="s">
+      <c r="H240" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A239" s="6">
+    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
         <v>44951</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B241" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C241" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D241" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E241" s="7">
         <v>76</v>
       </c>
-      <c r="F239" s="6">
+      <c r="F241" s="6">
         <v>44995</v>
       </c>
-      <c r="G239" s="6">
+      <c r="G241" s="6">
         <v>44951</v>
-      </c>
-      <c r="H239" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A240" s="6">
-        <v>44951</v>
-      </c>
-      <c r="B240" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E240" s="7">
-        <v>374</v>
-      </c>
-      <c r="F240" s="6">
-        <v>45011</v>
-      </c>
-      <c r="G240" s="6">
-        <v>44951</v>
-      </c>
-      <c r="H240" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A241" s="6">
-        <v>44950</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E241" s="7">
-        <v>125</v>
-      </c>
-      <c r="F241" s="6">
-        <v>45016</v>
-      </c>
-      <c r="G241" s="6">
-        <v>44950</v>
       </c>
       <c r="H241" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>44945</v>
+        <v>44951</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="D242" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E242" s="7">
+        <v>374</v>
+      </c>
+      <c r="F242" s="6">
+        <v>45011</v>
+      </c>
+      <c r="G242" s="6">
+        <v>44951</v>
+      </c>
+      <c r="H242" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>44950</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E243" s="7">
+        <v>125</v>
+      </c>
+      <c r="F243" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G243" s="6">
+        <v>44950</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>44945</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D244" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E244" s="7">
         <v>964</v>
       </c>
-      <c r="F242" s="6">
+      <c r="F244" s="6">
         <v>45016</v>
       </c>
-      <c r="G242" s="6">
+      <c r="G244" s="6">
         <v>44945</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H244" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A243" s="6">
+    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
         <v>44942</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B245" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C245" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D243" s="7" t="s">
+      <c r="D245" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E243" s="7">
+      <c r="E245" s="7">
         <v>77</v>
       </c>
-      <c r="F243" s="6">
+      <c r="F245" s="6">
         <v>45002</v>
       </c>
-      <c r="G243" s="6">
+      <c r="G245" s="6">
         <v>44942</v>
       </c>
-      <c r="H243" s="7" t="s">
+      <c r="H245" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A244" s="6">
+    <row r="246" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
         <v>44938</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B246" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C246" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D244" s="7" t="s">
+      <c r="D246" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E244" s="7">
+      <c r="E246" s="7">
         <v>139</v>
       </c>
-      <c r="F244" s="6">
+      <c r="F246" s="6">
         <v>44937</v>
       </c>
-      <c r="G244" s="6">
+      <c r="G246" s="6">
         <v>44938</v>
       </c>
-      <c r="H244" s="7" t="s">
+      <c r="H246" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A245" s="6">
+    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
         <v>44937</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B247" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C247" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D247" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E247" s="7">
         <v>801</v>
       </c>
-      <c r="F245" s="6">
+      <c r="F247" s="6">
         <v>45003</v>
       </c>
-      <c r="G245" s="6">
+      <c r="G247" s="6">
         <v>44937</v>
       </c>
-      <c r="H245" s="7" t="s">
+      <c r="H247" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A246" s="6">
+    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
         <v>44936</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B248" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E246" s="7">
-        <v>76</v>
-      </c>
-      <c r="F246" s="6">
-        <v>45281</v>
-      </c>
-      <c r="G246" s="6">
-        <v>44936</v>
-      </c>
-      <c r="H246" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A247" s="6">
-        <v>44935</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D247" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E247" s="7">
-        <v>85</v>
-      </c>
-      <c r="F247" s="6">
-        <v>44971</v>
-      </c>
-      <c r="G247" s="6">
-        <v>44935</v>
-      </c>
-      <c r="H247" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A248" s="6">
-        <v>44931</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>26</v>
@@ -8184,41 +8190,93 @@
         <v>27</v>
       </c>
       <c r="E248" s="7">
+        <v>76</v>
+      </c>
+      <c r="F248" s="6">
+        <v>45281</v>
+      </c>
+      <c r="G248" s="6">
+        <v>44936</v>
+      </c>
+      <c r="H248" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <v>44935</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E249" s="7">
+        <v>85</v>
+      </c>
+      <c r="F249" s="6">
+        <v>44971</v>
+      </c>
+      <c r="G249" s="6">
+        <v>44935</v>
+      </c>
+      <c r="H249" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <v>44931</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D250" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E250" s="7">
         <v>370</v>
       </c>
-      <c r="F248" s="6">
+      <c r="F250" s="6">
         <v>44957</v>
       </c>
-      <c r="G248" s="6">
+      <c r="G250" s="6">
         <v>44931</v>
       </c>
-      <c r="H248" s="7" t="s">
+      <c r="H250" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A249" s="6">
+    <row r="251" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
         <v>44932</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B251" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C251" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D251" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E249" s="7">
+      <c r="E251" s="7">
         <v>20</v>
       </c>
-      <c r="F249" s="6">
+      <c r="F251" s="6">
         <v>44988</v>
       </c>
-      <c r="G249" s="6">
+      <c r="G251" s="6">
         <v>44932</v>
       </c>
-      <c r="H249" s="7" t="s">
+      <c r="H251" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8228,6 +8286,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="01c2736d-8da8-4d13-83cd-86a6b9641723">
@@ -8236,15 +8303,6 @@
     <TaxCatchAll xmlns="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8431,6 +8489,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -8443,14 +8509,6 @@
     <ds:schemaRef ds:uri="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/catherine_mckee_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/catherine_mckee_twc_texas_gov/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF7723E-C6A6-4B6B-8C6B-D0D8C4FB847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6E47C9-91FB-4936-A54D-CED818DFE576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="-28920" yWindow="5685" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="424">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -1305,6 +1305,9 @@
   </si>
   <si>
     <t>Mattison Pathology, LLP dba Avero Diagnotics</t>
+  </si>
+  <si>
+    <t>WFS Express, Inc. Kelley Field</t>
   </si>
 </sst>
 </file>
@@ -1735,26 +1738,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89BCF3A-B17F-44A2-A200-ED80B6FEE65F}">
-  <dimension ref="A1:H251"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1780,90 +1783,90 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
+        <v>45334</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10">
+        <v>65</v>
+      </c>
+      <c r="F2" s="9">
+        <v>45392</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45334</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="9">
         <v>45324</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E3" s="10">
         <v>176</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F3" s="9">
         <v>45382</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G3" s="9">
         <v>45324</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="4" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A4" s="9">
         <v>45323</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E4" s="10">
         <v>103</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F4" s="9">
         <v>45634</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G4" s="9">
         <v>45323</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="5" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="9">
         <v>45321</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="10">
-        <v>321</v>
-      </c>
-      <c r="F4" s="9">
-        <v>45381</v>
-      </c>
-      <c r="G4" s="9">
-        <v>45321</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>45316</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>414</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>18</v>
@@ -1872,59 +1875,59 @@
         <v>19</v>
       </c>
       <c r="E5" s="10">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="F5" s="9">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="G5" s="9">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
         <v>45316</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E6" s="10">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="F6" s="9">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="G6" s="9">
         <v>45316</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
         <v>45316</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="10">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="F7" s="9">
         <v>45374</v>
@@ -1936,12 +1939,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>29</v>
@@ -1950,238 +1953,238 @@
         <v>13</v>
       </c>
       <c r="E8" s="10">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="F8" s="9">
-        <v>45375</v>
+        <v>45374</v>
       </c>
       <c r="G8" s="9">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="9">
         <v>45315</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E9" s="10">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F9" s="9">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="G9" s="9">
         <v>45315</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="9">
+        <v>45315</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="10">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9">
+        <v>45383</v>
+      </c>
+      <c r="G10" s="9">
+        <v>45315</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="11" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
         <v>45314</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E11" s="10">
         <v>178</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F11" s="9">
         <v>45374</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G11" s="9">
         <v>45314</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H11" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="12" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="9">
         <v>45313</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>63</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>45369</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>45313</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="13" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="9">
         <v>45310</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>334</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>45305</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>45310</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="14" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="9">
         <v>45309</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>51</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>45324</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>45309</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="15" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="9">
         <v>45308</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>109</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>45351</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>45308</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="16" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="9">
         <v>45307</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <v>63</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>45369</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>45307</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>45303</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="10">
-        <v>44</v>
-      </c>
-      <c r="F16" s="9">
-        <v>45295</v>
-      </c>
-      <c r="G16" s="9">
-        <v>45303</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>45303</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E17" s="10">
         <v>44</v>
@@ -2193,379 +2196,379 @@
         <v>45303</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>45303</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E18" s="10">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F18" s="9">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="G18" s="9">
         <v>45303</v>
       </c>
       <c r="H18" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A19" s="9">
+        <v>45303</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="10">
+        <v>92</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45300</v>
+      </c>
+      <c r="G19" s="9">
+        <v>45303</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+    <row r="20" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A20" s="9">
         <v>45307</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>63</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>45369</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>45307</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>45300</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="10">
-        <v>176</v>
-      </c>
-      <c r="F20" s="9">
-        <v>45353</v>
-      </c>
-      <c r="G20" s="9">
-        <v>45300</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A21" s="9">
         <v>45300</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E21" s="10">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="F21" s="9">
-        <v>45339</v>
+        <v>45353</v>
       </c>
       <c r="G21" s="9">
         <v>45300</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="9">
+        <v>45300</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="10">
+        <v>71</v>
+      </c>
+      <c r="F22" s="9">
+        <v>45339</v>
+      </c>
+      <c r="G22" s="9">
+        <v>45300</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>45299</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="10">
-        <v>75</v>
-      </c>
-      <c r="F22" s="9">
-        <v>45266</v>
-      </c>
-      <c r="G22" s="9">
-        <v>45299</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A23" s="9">
         <v>45299</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E23" s="10">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F23" s="9">
-        <v>45302</v>
+        <v>45266</v>
       </c>
       <c r="G23" s="9">
         <v>45299</v>
       </c>
       <c r="H23" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="9">
+        <v>45299</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="10">
+        <v>103</v>
+      </c>
+      <c r="F24" s="9">
+        <v>45302</v>
+      </c>
+      <c r="G24" s="9">
+        <v>45299</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>45296</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="10">
-        <v>365</v>
-      </c>
-      <c r="F24" s="9">
-        <v>45350</v>
-      </c>
-      <c r="G24" s="9">
-        <v>45296</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="9">
         <v>45296</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E25" s="10">
-        <v>60</v>
+        <v>365</v>
       </c>
       <c r="F25" s="9">
-        <v>45337</v>
+        <v>45350</v>
       </c>
       <c r="G25" s="9">
         <v>45296</v>
       </c>
       <c r="H25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="9">
+        <v>45296</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="10">
+        <v>60</v>
+      </c>
+      <c r="F26" s="9">
+        <v>45337</v>
+      </c>
+      <c r="G26" s="9">
+        <v>45296</v>
+      </c>
+      <c r="H26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="27" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="9">
         <v>45295</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E27" s="10">
         <v>76</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F27" s="9">
         <v>45332</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G27" s="9">
         <v>45295</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H27" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+    <row r="28" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="9">
         <v>45278</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>256</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>45275</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>45278</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+    <row r="29" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="9">
         <v>45271</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>12</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>45328</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>45271</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="30" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="9">
         <v>45267</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>75</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>45266</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>45267</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>45264</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="10">
-        <v>89</v>
-      </c>
-      <c r="F30" s="9">
-        <v>45324</v>
-      </c>
-      <c r="G30" s="9">
-        <v>45264</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>45264</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="10">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F31" s="9">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="G31" s="9">
         <v>45264</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>45264</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>12</v>
@@ -2574,128 +2577,128 @@
         <v>13</v>
       </c>
       <c r="E32" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F32" s="9">
-        <v>45264</v>
+        <v>45322</v>
       </c>
       <c r="G32" s="9">
         <v>45264</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>45264</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E33" s="10">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F33" s="9">
-        <v>45322</v>
+        <v>45264</v>
       </c>
       <c r="G33" s="9">
         <v>45264</v>
       </c>
       <c r="H33" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="9">
+        <v>45264</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="10">
+        <v>92</v>
+      </c>
+      <c r="F34" s="9">
+        <v>45322</v>
+      </c>
+      <c r="G34" s="9">
+        <v>45264</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+    <row r="35" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="9">
         <v>45261</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>577</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F35" s="9">
         <v>45317</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G35" s="9">
         <v>45261</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>45257</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="10">
-        <v>9</v>
-      </c>
-      <c r="F35" s="9">
-        <v>45252</v>
-      </c>
-      <c r="G35" s="9">
-        <v>45257</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="9">
         <v>45257</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E36" s="10">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F36" s="9">
-        <v>45266</v>
+        <v>45252</v>
       </c>
       <c r="G36" s="9">
         <v>45257</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="9">
         <v>45257</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>29</v>
@@ -2704,7 +2707,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="10">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F37" s="9">
         <v>45266</v>
@@ -2716,64 +2719,64 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A38" s="9">
         <v>45257</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E38" s="10">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F38" s="9">
-        <v>45268</v>
+        <v>45266</v>
       </c>
       <c r="G38" s="9">
         <v>45257</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A39" s="9">
         <v>45257</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E39" s="10">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F39" s="9">
-        <v>45252</v>
+        <v>45268</v>
       </c>
       <c r="G39" s="9">
         <v>45257</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="9">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>26</v>
@@ -2782,76 +2785,76 @@
         <v>27</v>
       </c>
       <c r="E40" s="10">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F40" s="9">
-        <v>45240</v>
+        <v>45252</v>
       </c>
       <c r="G40" s="9">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="9">
+        <v>45243</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="10">
+        <v>53</v>
+      </c>
+      <c r="F41" s="9">
         <v>45240</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="G41" s="9">
+        <v>45243</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="9">
+        <v>45240</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>150</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F42" s="9">
         <v>45238</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G42" s="9">
         <v>45240</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="5">
-        <v>2</v>
-      </c>
-      <c r="F42" s="4">
-        <v>45291</v>
-      </c>
-      <c r="G42" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
         <v>45238</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>26</v>
@@ -2863,47 +2866,47 @@
         <v>2</v>
       </c>
       <c r="F43" s="4">
-        <v>45290</v>
+        <v>45291</v>
       </c>
       <c r="G43" s="4">
         <v>45238</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>45238</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E44" s="5">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F44" s="4">
-        <v>45272</v>
+        <v>45290</v>
       </c>
       <c r="G44" s="4">
         <v>45238</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>45238</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>18</v>
@@ -2912,128 +2915,128 @@
         <v>19</v>
       </c>
       <c r="E45" s="5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F45" s="4">
-        <v>45215</v>
+        <v>45272</v>
       </c>
       <c r="G45" s="4">
         <v>45238</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>45238</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E46" s="5">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F46" s="4">
-        <v>45265</v>
+        <v>45215</v>
       </c>
       <c r="G46" s="4">
         <v>45238</v>
       </c>
       <c r="H46" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A47" s="4">
+        <v>45238</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="5">
+        <v>110</v>
+      </c>
+      <c r="F47" s="4">
+        <v>45265</v>
+      </c>
+      <c r="G47" s="4">
+        <v>45238</v>
+      </c>
+      <c r="H47" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
-        <v>45236</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="5">
-        <v>363</v>
-      </c>
-      <c r="F47" s="4">
-        <v>44966</v>
-      </c>
-      <c r="G47" s="4">
-        <v>45236</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>45236</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E48" s="5">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="F48" s="4">
-        <v>44931</v>
+        <v>44966</v>
       </c>
       <c r="G48" s="4">
         <v>45236</v>
       </c>
       <c r="H48" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="4">
+        <v>45236</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>45230</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D49" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E49" s="5">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F49" s="4">
-        <v>45264</v>
+        <v>44931</v>
       </c>
       <c r="G49" s="4">
-        <v>45230</v>
+        <v>45236</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
         <v>45230</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>49</v>
@@ -3042,7 +3045,7 @@
         <v>50</v>
       </c>
       <c r="E50" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F50" s="4">
         <v>45264</v>
@@ -3054,73 +3057,73 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
         <v>45230</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E51" s="5">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F51" s="4">
-        <v>45290</v>
+        <v>45264</v>
       </c>
       <c r="G51" s="4">
         <v>45230</v>
       </c>
       <c r="H51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A52" s="4">
+        <v>45230</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E52" s="5">
+        <v>76</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45290</v>
+      </c>
+      <c r="G52" s="4">
+        <v>45230</v>
+      </c>
+      <c r="H52" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>45225</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="5">
-        <v>5</v>
-      </c>
-      <c r="F52" s="4">
-        <v>45275</v>
-      </c>
-      <c r="G52" s="4">
-        <v>45225</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
         <v>45225</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E53" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F53" s="4">
         <v>45275</v>
@@ -3129,24 +3132,24 @@
         <v>45225</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
         <v>45225</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F54" s="4">
         <v>45275</v>
@@ -3155,24 +3158,24 @@
         <v>45225</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
         <v>45225</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F55" s="4">
         <v>45275</v>
@@ -3181,24 +3184,24 @@
         <v>45225</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A56" s="4">
         <v>45225</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E56" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F56" s="4">
         <v>45275</v>
@@ -3207,24 +3210,24 @@
         <v>45225</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
         <v>45225</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E57" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F57" s="4">
         <v>45275</v>
@@ -3233,24 +3236,24 @@
         <v>45225</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
         <v>45225</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E58" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F58" s="4">
         <v>45275</v>
@@ -3259,128 +3262,128 @@
         <v>45225</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
         <v>45225</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E59" s="5">
         <v>8</v>
       </c>
       <c r="F59" s="4">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G59" s="4">
         <v>45225</v>
       </c>
       <c r="H59" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A60" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="5">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4">
+        <v>45225</v>
+      </c>
+      <c r="G60" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H60" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" s="7">
-        <v>7</v>
-      </c>
-      <c r="F60" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G60" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A61" s="6">
         <v>45225</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E61" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F61" s="6">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G61" s="6">
         <v>45225</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="6">
         <v>45225</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E62" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F62" s="6">
-        <v>45275</v>
+        <v>45225</v>
       </c>
       <c r="G62" s="6">
         <v>45225</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A63" s="6">
         <v>45225</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E63" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" s="6">
         <v>45275</v>
@@ -3389,24 +3392,24 @@
         <v>45225</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="6">
         <v>45225</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E64" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F64" s="6">
         <v>45275</v>
@@ -3415,24 +3418,24 @@
         <v>45225</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="6">
         <v>45225</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E65" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F65" s="6">
         <v>45275</v>
@@ -3441,41 +3444,41 @@
         <v>45225</v>
       </c>
       <c r="H65" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A66" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="7">
+        <v>6</v>
+      </c>
+      <c r="F66" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G66" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H66" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>45224</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E66" s="7">
-        <v>400</v>
-      </c>
-      <c r="F66" s="6">
-        <v>45291</v>
-      </c>
-      <c r="G66" s="6">
-        <v>45224</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A67" s="6">
         <v>45224</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="7" t="s">
         <v>22</v>
@@ -3484,7 +3487,7 @@
         <v>23</v>
       </c>
       <c r="E67" s="7">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="F67" s="6">
         <v>45291</v>
@@ -3496,73 +3499,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A68" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E68" s="7">
-        <v>6</v>
+        <v>778</v>
       </c>
       <c r="F68" s="6">
-        <v>45296</v>
+        <v>45291</v>
       </c>
       <c r="G68" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="6">
         <v>45222</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E69" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F69" s="6">
-        <v>45280</v>
+        <v>45296</v>
       </c>
       <c r="G69" s="6">
         <v>45222</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="6">
         <v>45222</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E70" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F70" s="6">
         <v>45280</v>
@@ -3571,24 +3574,24 @@
         <v>45222</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="6">
         <v>45222</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E71" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F71" s="6">
         <v>45280</v>
@@ -3597,15 +3600,15 @@
         <v>45222</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="6">
         <v>45222</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>115</v>
@@ -3614,7 +3617,7 @@
         <v>99</v>
       </c>
       <c r="E72" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F72" s="6">
         <v>45280</v>
@@ -3623,50 +3626,50 @@
         <v>45222</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E73" s="7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F73" s="6">
         <v>45280</v>
       </c>
       <c r="G73" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="6">
         <v>45219</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>112</v>
       </c>
       <c r="E74" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F74" s="6">
         <v>45280</v>
@@ -3675,24 +3678,24 @@
         <v>45219</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A75" s="6">
         <v>45219</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E75" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F75" s="6">
         <v>45280</v>
@@ -3701,50 +3704,50 @@
         <v>45219</v>
       </c>
       <c r="H75" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="6">
+        <v>45219</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="7">
+        <v>20</v>
+      </c>
+      <c r="F76" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G76" s="6">
+        <v>45219</v>
+      </c>
+      <c r="H76" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>45218</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E76" s="7">
-        <v>6</v>
-      </c>
-      <c r="F76" s="6">
-        <v>45231</v>
-      </c>
-      <c r="G76" s="6">
-        <v>45218</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A77" s="6">
         <v>45218</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="E77" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F77" s="6">
         <v>45231</v>
@@ -3753,24 +3756,24 @@
         <v>45218</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A78" s="6">
         <v>45218</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>129</v>
       </c>
       <c r="E78" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F78" s="6">
         <v>45231</v>
@@ -3779,24 +3782,24 @@
         <v>45218</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79" s="6">
         <v>45218</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E79" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F79" s="6">
         <v>45231</v>
@@ -3805,440 +3808,440 @@
         <v>45218</v>
       </c>
       <c r="H79" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="6">
+        <v>45218</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="7">
+        <v>7</v>
+      </c>
+      <c r="F80" s="6">
+        <v>45231</v>
+      </c>
+      <c r="G80" s="6">
+        <v>45218</v>
+      </c>
+      <c r="H80" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="6">
+    <row r="81" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="6">
         <v>45217</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B81" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C81" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>288</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F81" s="6">
         <v>45291</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G81" s="6">
         <v>45217</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H81" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
+    <row r="82" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="6">
         <v>45211</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B82" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>122</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>45275</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>45211</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>45209</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="7">
-        <v>136</v>
-      </c>
-      <c r="F82" s="6">
-        <v>45269</v>
-      </c>
-      <c r="G82" s="6">
-        <v>45209</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="6">
         <v>45209</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E83" s="7">
-        <v>351</v>
+        <v>136</v>
       </c>
       <c r="F83" s="6">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="G83" s="6">
         <v>45209</v>
       </c>
       <c r="H83" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="6">
+        <v>45209</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="7">
+        <v>351</v>
+      </c>
+      <c r="F84" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G84" s="6">
+        <v>45209</v>
+      </c>
+      <c r="H84" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>45208</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" s="7">
-        <v>113</v>
-      </c>
-      <c r="F84" s="6">
-        <v>45257</v>
-      </c>
-      <c r="G84" s="6">
-        <v>45208</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A85" s="6">
         <v>45208</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E85" s="7">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="F85" s="6">
-        <v>45260</v>
+        <v>45257</v>
       </c>
       <c r="G85" s="6">
         <v>45208</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A86" s="6">
         <v>45208</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="E86" s="7">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F86" s="6">
-        <v>45197</v>
+        <v>45260</v>
       </c>
       <c r="G86" s="6">
         <v>45208</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="6">
         <v>45208</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E87" s="7">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="F87" s="6">
-        <v>45172</v>
+        <v>45197</v>
       </c>
       <c r="G87" s="6">
         <v>45208</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A88" s="6">
         <v>45208</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E88" s="7">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="F88" s="6">
-        <v>45268</v>
+        <v>45172</v>
       </c>
       <c r="G88" s="6">
         <v>45208</v>
       </c>
       <c r="H88" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
+      <c r="D89" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="7">
+        <v>38</v>
+      </c>
+      <c r="F89" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G89" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A90" s="6">
         <v>45205</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B90" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C90" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D90" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E90" s="7">
         <v>239</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F90" s="6">
         <v>45226</v>
       </c>
-      <c r="G89" s="6">
+      <c r="G90" s="6">
         <v>45205</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H90" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
+    <row r="91" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A91" s="6">
         <v>45203</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="7">
-        <v>76</v>
-      </c>
-      <c r="F90" s="6">
-        <v>45262</v>
-      </c>
-      <c r="G90" s="6">
-        <v>45203</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
-        <v>45201</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="C91" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="7">
+        <v>76</v>
+      </c>
+      <c r="F91" s="6">
+        <v>45262</v>
+      </c>
+      <c r="G91" s="6">
+        <v>45203</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="6">
+        <v>45201</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E92" s="7">
         <v>558</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F92" s="6">
         <v>45261</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G92" s="6">
         <v>45201</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H92" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
+    <row r="93" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A93" s="6">
         <v>45190</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B93" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C93" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E93" s="7">
         <v>300</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F93" s="6">
         <v>45215</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G93" s="6">
         <v>45190</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
-        <v>45188</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="7">
-        <v>103</v>
-      </c>
-      <c r="F93" s="6">
-        <v>45176</v>
-      </c>
-      <c r="G93" s="6">
-        <v>45188</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="6">
         <v>45188</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E94" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F94" s="6">
-        <v>45228</v>
+        <v>45176</v>
       </c>
       <c r="G94" s="6">
         <v>45188</v>
       </c>
       <c r="H94" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E95" s="7">
+        <v>104</v>
+      </c>
+      <c r="F95" s="6">
+        <v>45228</v>
+      </c>
+      <c r="G95" s="6">
+        <v>45188</v>
+      </c>
+      <c r="H95" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E95" s="7">
-        <v>163</v>
-      </c>
-      <c r="F95" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G95" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A96" s="6">
         <v>45187</v>
       </c>
       <c r="B96" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="7">
         <v>163</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E96" s="7">
-        <v>71</v>
       </c>
       <c r="F96" s="6">
         <v>45230</v>
@@ -4247,15 +4250,15 @@
         <v>45187</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A97" s="6">
         <v>45187</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>49</v>
@@ -4264,7 +4267,7 @@
         <v>50</v>
       </c>
       <c r="E97" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F97" s="6">
         <v>45230</v>
@@ -4276,21 +4279,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A98" s="6">
         <v>45187</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="E98" s="7">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F98" s="6">
         <v>45230</v>
@@ -4299,21 +4302,21 @@
         <v>45187</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A99" s="6">
         <v>45187</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E99" s="7">
         <v>87</v>
@@ -4325,24 +4328,24 @@
         <v>45187</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A100" s="6">
         <v>45187</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="E100" s="7">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F100" s="6">
         <v>45230</v>
@@ -4351,24 +4354,24 @@
         <v>45187</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="6">
         <v>45187</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="E101" s="7">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F101" s="6">
         <v>45230</v>
@@ -4377,119 +4380,119 @@
         <v>45187</v>
       </c>
       <c r="H101" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A102" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="7">
+        <v>97</v>
+      </c>
+      <c r="F102" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G102" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H102" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
+    <row r="103" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A103" s="6">
         <v>45181</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B103" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C103" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D103" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E103" s="7">
         <v>27</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F103" s="6">
         <v>45180</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G103" s="6">
         <v>45181</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H103" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
+    <row r="104" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A104" s="6">
         <v>45177</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E104" s="7">
         <v>31</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F104" s="6">
         <v>45236</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G104" s="6">
         <v>45177</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="6">
+    <row r="105" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="6">
         <v>45176</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D105" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E105" s="7">
         <v>165</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F105" s="6">
         <v>45229</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G105" s="6">
         <v>45176</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="6">
+    <row r="106" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A106" s="6">
         <v>45169</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E105" s="7">
-        <v>92</v>
-      </c>
-      <c r="F105" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G105" s="6">
-        <v>45169</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
-        <v>45167</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>26</v>
@@ -4498,180 +4501,180 @@
         <v>27</v>
       </c>
       <c r="E106" s="7">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F106" s="6">
-        <v>45247</v>
+        <v>45230</v>
       </c>
       <c r="G106" s="6">
-        <v>45167</v>
+        <v>45169</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A107" s="6">
         <v>45167</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E107" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F107" s="6">
-        <v>45226</v>
+        <v>45247</v>
       </c>
       <c r="G107" s="6">
         <v>45167</v>
       </c>
       <c r="H107" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A108" s="6">
+        <v>45167</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="7">
+        <v>56</v>
+      </c>
+      <c r="F108" s="6">
+        <v>45226</v>
+      </c>
+      <c r="G108" s="6">
+        <v>45167</v>
+      </c>
+      <c r="H108" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
+    <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A109" s="6">
         <v>45163</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B109" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C109" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D109" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E109" s="7">
         <v>83</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F109" s="6">
         <v>45233</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G109" s="6">
         <v>45163</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
+    <row r="110" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A110" s="6">
         <v>45162</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B110" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E110" s="7">
         <v>15</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F110" s="6">
         <v>45225</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G110" s="6">
         <v>45162</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <v>45161</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E110" s="7">
-        <v>130</v>
-      </c>
-      <c r="F110" s="6">
-        <v>45261</v>
-      </c>
-      <c r="G110" s="6">
-        <v>45161</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A111" s="6">
         <v>45161</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E111" s="7">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F111" s="6">
-        <v>45220</v>
+        <v>45261</v>
       </c>
       <c r="G111" s="6">
         <v>45161</v>
       </c>
       <c r="H111" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A112" s="6">
+        <v>45161</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E112" s="7">
+        <v>167</v>
+      </c>
+      <c r="F112" s="6">
+        <v>45220</v>
+      </c>
+      <c r="G112" s="6">
+        <v>45161</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E112" s="7">
-        <v>163</v>
-      </c>
-      <c r="F112" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G112" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A113" s="6">
         <v>45156</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>29</v>
@@ -4680,7 +4683,7 @@
         <v>13</v>
       </c>
       <c r="E113" s="7">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F113" s="6">
         <v>45201</v>
@@ -4689,15 +4692,15 @@
         <v>45156</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A114" s="6">
         <v>45156</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>29</v>
@@ -4706,7 +4709,7 @@
         <v>13</v>
       </c>
       <c r="E114" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F114" s="6">
         <v>45201</v>
@@ -4715,76 +4718,76 @@
         <v>45156</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A115" s="6">
         <v>45156</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E115" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F115" s="6">
-        <v>45245</v>
+        <v>45201</v>
       </c>
       <c r="G115" s="6">
         <v>45156</v>
       </c>
       <c r="H115" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A116" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E116" s="7">
+        <v>38</v>
+      </c>
+      <c r="F116" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G116" s="6">
+        <v>45156</v>
+      </c>
+      <c r="H116" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E116" s="7">
-        <v>10</v>
-      </c>
-      <c r="F116" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G116" s="6">
-        <v>45155</v>
-      </c>
-      <c r="H116" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A117" s="6">
         <v>45155</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E117" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F117" s="6">
         <v>45156</v>
@@ -4793,24 +4796,24 @@
         <v>45155</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A118" s="6">
         <v>45155</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E118" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F118" s="6">
         <v>45156</v>
@@ -4819,105 +4822,105 @@
         <v>45155</v>
       </c>
       <c r="H118" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A119" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="7">
+        <v>16</v>
+      </c>
+      <c r="F119" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G119" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H119" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
+    <row r="120" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A120" s="6">
         <v>45121</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B120" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C120" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D120" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E120" s="7">
         <v>94</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F120" s="6">
         <v>45177</v>
       </c>
-      <c r="G119" s="6">
+      <c r="G120" s="6">
         <v>45121</v>
       </c>
-      <c r="H119" s="7" t="s">
+      <c r="H120" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E120" s="7">
-        <v>80</v>
-      </c>
-      <c r="F120" s="6">
-        <v>45226</v>
-      </c>
-      <c r="G120" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H120" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A121" s="6">
         <v>45146</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E121" s="7">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F121" s="6">
-        <v>45145</v>
+        <v>45226</v>
       </c>
       <c r="G121" s="6">
         <v>45146</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A122" s="6">
         <v>45146</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E122" s="7">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F122" s="6">
-        <v>45201</v>
+        <v>45145</v>
       </c>
       <c r="G122" s="6">
         <v>45146</v>
@@ -4926,151 +4929,151 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A123" s="6">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E123" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F123" s="6">
-        <v>45138</v>
+        <v>45201</v>
       </c>
       <c r="G123" s="6">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A124" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="E124" s="7">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F124" s="6">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="G124" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A125" s="6">
         <v>45141</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="E125" s="7">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="F125" s="6">
-        <v>45139</v>
+        <v>45199</v>
       </c>
       <c r="G125" s="6">
         <v>45141</v>
       </c>
       <c r="H125" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A126" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="7">
+        <v>153</v>
+      </c>
+      <c r="F126" s="6">
+        <v>45139</v>
+      </c>
+      <c r="G126" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H126" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
+    <row r="127" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="6">
         <v>45139</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B127" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C127" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D127" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E127" s="7">
         <v>530</v>
-      </c>
-      <c r="F126" s="6">
-        <v>45135</v>
-      </c>
-      <c r="G126" s="6">
-        <v>45139</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E127" s="7">
-        <v>4</v>
       </c>
       <c r="F127" s="6">
         <v>45135</v>
       </c>
       <c r="G127" s="6">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A128" s="6">
         <v>45141</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E128" s="7">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F128" s="6">
         <v>45135</v>
@@ -5079,24 +5082,24 @@
         <v>45141</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A129" s="6">
         <v>45141</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E129" s="7">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F129" s="6">
         <v>45135</v>
@@ -5105,24 +5108,24 @@
         <v>45141</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A130" s="6">
         <v>45141</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="E130" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F130" s="6">
         <v>45135</v>
@@ -5131,24 +5134,24 @@
         <v>45141</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A131" s="6">
         <v>45141</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E131" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F131" s="6">
         <v>45135</v>
@@ -5157,154 +5160,154 @@
         <v>45141</v>
       </c>
       <c r="H131" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A132" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E132" s="7">
+        <v>17</v>
+      </c>
+      <c r="F132" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G132" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H132" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="6">
+    <row r="133" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A133" s="6">
         <v>45140</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B133" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D133" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E133" s="7">
         <v>280</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F133" s="6">
         <v>45192</v>
       </c>
-      <c r="G132" s="6">
+      <c r="G133" s="6">
         <v>45140</v>
       </c>
-      <c r="H132" s="7" t="s">
+      <c r="H133" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A133" s="6">
+    <row r="134" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A134" s="6">
         <v>45139</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B134" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D134" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E134" s="7">
         <v>64</v>
-      </c>
-      <c r="F133" s="6">
-        <v>45198</v>
-      </c>
-      <c r="G133" s="6">
-        <v>45139</v>
-      </c>
-      <c r="H133" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="6">
-        <v>45134</v>
-      </c>
-      <c r="B134" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E134" s="7">
-        <v>76</v>
       </c>
       <c r="F134" s="6">
         <v>45198</v>
       </c>
       <c r="G134" s="6">
+        <v>45139</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A135" s="6">
         <v>45134</v>
       </c>
-      <c r="H134" s="7" t="s">
+      <c r="B135" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" s="7">
+        <v>76</v>
+      </c>
+      <c r="F135" s="6">
+        <v>45198</v>
+      </c>
+      <c r="G135" s="6">
+        <v>45134</v>
+      </c>
+      <c r="H135" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="6">
+    <row r="136" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A136" s="6">
         <v>45126</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B136" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C136" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D136" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E136" s="7">
         <v>64</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F136" s="6">
         <v>45208</v>
       </c>
-      <c r="G135" s="6">
+      <c r="G136" s="6">
         <v>45126</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="H136" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D136" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E136" s="7">
-        <v>53</v>
-      </c>
-      <c r="F136" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G136" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H136" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A137" s="6">
         <v>45124</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E137" s="7">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F137" s="6">
         <v>45124</v>
@@ -5313,24 +5316,24 @@
         <v>45124</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A138" s="6">
         <v>45124</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E138" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F138" s="6">
         <v>45124</v>
@@ -5339,15 +5342,15 @@
         <v>45124</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A139" s="6">
         <v>45124</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C139" s="7" t="s">
         <v>29</v>
@@ -5356,7 +5359,7 @@
         <v>13</v>
       </c>
       <c r="E139" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F139" s="6">
         <v>45124</v>
@@ -5365,24 +5368,24 @@
         <v>45124</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A140" s="6">
         <v>45124</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E140" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F140" s="6">
         <v>45124</v>
@@ -5391,24 +5394,24 @@
         <v>45124</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A141" s="6">
         <v>45124</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E141" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F141" s="6">
         <v>45124</v>
@@ -5417,24 +5420,24 @@
         <v>45124</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A142" s="6">
         <v>45124</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E142" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F142" s="6">
         <v>45124</v>
@@ -5443,24 +5446,24 @@
         <v>45124</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A143" s="6">
         <v>45124</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E143" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F143" s="6">
         <v>45124</v>
@@ -5469,24 +5472,24 @@
         <v>45124</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A144" s="6">
         <v>45124</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E144" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F144" s="6">
         <v>45124</v>
@@ -5495,24 +5498,24 @@
         <v>45124</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A145" s="6">
         <v>45124</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="E145" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F145" s="6">
         <v>45124</v>
@@ -5521,24 +5524,24 @@
         <v>45124</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A146" s="6">
         <v>45124</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="E146" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F146" s="6">
         <v>45124</v>
@@ -5547,24 +5550,24 @@
         <v>45124</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A147" s="6">
         <v>45124</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E147" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F147" s="6">
         <v>45124</v>
@@ -5573,21 +5576,21 @@
         <v>45124</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A148" s="6">
         <v>45124</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="E148" s="7">
         <v>31</v>
@@ -5599,24 +5602,24 @@
         <v>45124</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A149" s="6">
         <v>45124</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="E149" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F149" s="6">
         <v>45124</v>
@@ -5625,24 +5628,24 @@
         <v>45124</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A150" s="6">
         <v>45124</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E150" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F150" s="6">
         <v>45124</v>
@@ -5651,24 +5654,24 @@
         <v>45124</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A151" s="6">
         <v>45124</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E151" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F151" s="6">
         <v>45124</v>
@@ -5677,24 +5680,24 @@
         <v>45124</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A152" s="6">
         <v>45124</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E152" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F152" s="6">
         <v>45124</v>
@@ -5703,24 +5706,24 @@
         <v>45124</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A153" s="6">
         <v>45124</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E153" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F153" s="6">
         <v>45124</v>
@@ -5729,24 +5732,24 @@
         <v>45124</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A154" s="6">
         <v>45124</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E154" s="7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F154" s="6">
         <v>45124</v>
@@ -5755,24 +5758,24 @@
         <v>45124</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A155" s="6">
         <v>45124</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E155" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F155" s="6">
         <v>45124</v>
@@ -5781,24 +5784,24 @@
         <v>45124</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A156" s="6">
         <v>45124</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="E156" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F156" s="6">
         <v>45124</v>
@@ -5807,24 +5810,24 @@
         <v>45124</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A157" s="6">
         <v>45124</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="E157" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F157" s="6">
         <v>45124</v>
@@ -5833,21 +5836,21 @@
         <v>45124</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A158" s="6">
         <v>45124</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E158" s="7">
         <v>26</v>
@@ -5859,24 +5862,24 @@
         <v>45124</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A159" s="6">
         <v>45124</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E159" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F159" s="6">
         <v>45124</v>
@@ -5885,275 +5888,275 @@
         <v>45124</v>
       </c>
       <c r="H159" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A160" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="6">
+      <c r="D160" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E160" s="7">
+        <v>31</v>
+      </c>
+      <c r="F160" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G160" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A161" s="6">
         <v>45112</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B161" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C160" s="7" t="s">
+      <c r="C161" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D161" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E161" s="7">
         <v>115</v>
       </c>
-      <c r="F160" s="6">
+      <c r="F161" s="6">
         <v>45128</v>
       </c>
-      <c r="G160" s="6">
+      <c r="G161" s="6">
         <v>45112</v>
       </c>
-      <c r="H160" s="7" t="s">
+      <c r="H161" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="6">
-        <v>45106</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E161" s="7">
-        <v>188</v>
-      </c>
-      <c r="F161" s="6">
-        <v>45154</v>
-      </c>
-      <c r="G161" s="6">
-        <v>45106</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A162" s="6">
         <v>45106</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E162" s="7">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="F162" s="6">
-        <v>45169</v>
+        <v>45154</v>
       </c>
       <c r="G162" s="6">
         <v>45106</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A163" s="6">
         <v>45106</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E163" s="7">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F163" s="6">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="G163" s="6">
         <v>45106</v>
       </c>
       <c r="H163" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A164" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D164" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E164" s="7">
+        <v>59</v>
+      </c>
+      <c r="F164" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G164" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H164" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A164" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B164" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E164" s="7">
-        <v>93</v>
-      </c>
-      <c r="F164" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G164" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A165" s="6">
         <v>45104</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E165" s="7">
-        <v>107</v>
-      </c>
-      <c r="F165" s="8">
-        <v>45169</v>
+        <v>93</v>
+      </c>
+      <c r="F165" s="6">
+        <v>45086</v>
       </c>
       <c r="G165" s="6">
         <v>45104</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A166" s="6">
         <v>45104</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E166" s="7">
-        <v>47</v>
-      </c>
-      <c r="F166" s="6">
-        <v>45170</v>
+        <v>107</v>
+      </c>
+      <c r="F166" s="8">
+        <v>45169</v>
       </c>
       <c r="G166" s="6">
         <v>45104</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A167" s="6">
         <v>45104</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E167" s="7">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F167" s="6">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="G167" s="6">
         <v>45104</v>
       </c>
       <c r="H167" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A168" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E168" s="7">
+        <v>101</v>
+      </c>
+      <c r="F168" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G168" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H168" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A168" s="6">
+    <row r="169" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A169" s="6">
         <v>45100</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B169" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C168" s="7" t="s">
+      <c r="C169" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D169" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E169" s="7">
         <v>56</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F169" s="6">
         <v>45158</v>
       </c>
-      <c r="G168" s="6">
+      <c r="G169" s="6">
         <v>45100</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D169" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E169" s="7">
-        <v>218</v>
-      </c>
-      <c r="F169" s="6">
-        <v>45152</v>
-      </c>
-      <c r="G169" s="6">
-        <v>45092</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A170" s="6">
         <v>45092</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C170" s="7" t="s">
         <v>35</v>
@@ -6162,10 +6165,10 @@
         <v>36</v>
       </c>
       <c r="E170" s="7">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="F170" s="6">
-        <v>45069</v>
+        <v>45152</v>
       </c>
       <c r="G170" s="6">
         <v>45092</v>
@@ -6174,506 +6177,506 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A171" s="6">
         <v>45092</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="D171" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E171" s="7">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F171" s="6">
-        <v>45143</v>
+        <v>45069</v>
       </c>
       <c r="G171" s="6">
         <v>45092</v>
       </c>
       <c r="H171" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A172" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C172" s="7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="6">
+      <c r="D172" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E172" s="7">
+        <v>91</v>
+      </c>
+      <c r="F172" s="6">
+        <v>45143</v>
+      </c>
+      <c r="G172" s="6">
+        <v>45092</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A173" s="6">
         <v>45091</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B173" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C172" s="7" t="s">
+      <c r="C173" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D173" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E173" s="7">
         <v>173</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F173" s="6">
         <v>45156</v>
       </c>
-      <c r="G172" s="6">
+      <c r="G173" s="6">
         <v>45091</v>
       </c>
-      <c r="H172" s="7" t="s">
+      <c r="H173" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="6">
+    <row r="174" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A174" s="6">
         <v>45085</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E174" s="7">
         <v>58</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F174" s="6">
         <v>45173</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G174" s="6">
         <v>45085</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H174" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="6">
+    <row r="175" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A175" s="6">
         <v>45084</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B175" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C175" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E175" s="7">
         <v>74</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F175" s="6">
         <v>45107</v>
       </c>
-      <c r="G174" s="6">
+      <c r="G175" s="6">
         <v>45084</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H175" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="6">
+    <row r="176" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A176" s="6">
         <v>45078</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C176" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D176" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E176" s="7">
         <v>126</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F176" s="6">
         <v>45072</v>
       </c>
-      <c r="G175" s="6">
+      <c r="G176" s="6">
         <v>45078</v>
       </c>
-      <c r="H175" s="7" t="s">
+      <c r="H176" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A176" s="6">
+    <row r="177" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A177" s="6">
         <v>45076</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C177" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D177" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E177" s="7">
         <v>137</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F177" s="6">
         <v>45138</v>
       </c>
-      <c r="G176" s="6">
+      <c r="G177" s="6">
         <v>45076</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H177" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="6">
+    <row r="178" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A178" s="6">
         <v>45071</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B178" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C178" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D178" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E178" s="7">
         <v>90</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F178" s="6">
         <v>45070</v>
       </c>
-      <c r="G177" s="6">
+      <c r="G178" s="6">
         <v>45071</v>
       </c>
-      <c r="H177" s="7" t="s">
+      <c r="H178" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="6">
+    <row r="179" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A179" s="6">
         <v>45068</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B179" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C179" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D179" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E179" s="7">
         <v>80</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F179" s="6">
         <v>45104</v>
       </c>
-      <c r="G178" s="6">
+      <c r="G179" s="6">
         <v>45068</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H179" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="6">
+    <row r="180" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A180" s="6">
         <v>45064</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D180" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E180" s="7">
         <v>64</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F180" s="6">
         <v>45107</v>
       </c>
-      <c r="G179" s="6">
+      <c r="G180" s="6">
         <v>45064</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A180" s="6">
+    <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A181" s="6">
         <v>45063</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B181" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E181" s="7">
         <v>69</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F181" s="6">
         <v>45114</v>
       </c>
-      <c r="G180" s="6">
+      <c r="G181" s="6">
         <v>45063</v>
       </c>
-      <c r="H180" s="7" t="s">
+      <c r="H181" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A181" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E181" s="7">
-        <v>235</v>
-      </c>
-      <c r="F181" s="6">
-        <v>45121</v>
-      </c>
-      <c r="G181" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A182" s="6">
         <v>45062</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>142</v>
+        <v>297</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E182" s="7">
-        <v>549</v>
+        <v>235</v>
       </c>
       <c r="F182" s="6">
-        <v>45104</v>
+        <v>45121</v>
       </c>
       <c r="G182" s="6">
         <v>45062</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A183" s="6">
         <v>45062</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E183" s="7">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="F183" s="6">
-        <v>45138</v>
+        <v>45104</v>
       </c>
       <c r="G183" s="6">
         <v>45062</v>
       </c>
       <c r="H183" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A184" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E184" s="7">
+        <v>81</v>
+      </c>
+      <c r="F184" s="6">
+        <v>45138</v>
+      </c>
+      <c r="G184" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H184" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="6">
+    <row r="185" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A185" s="6">
         <v>45061</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B185" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C184" s="7" t="s">
+      <c r="C185" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D185" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E184" s="7">
+      <c r="E185" s="7">
         <v>86</v>
       </c>
-      <c r="F184" s="6">
+      <c r="F185" s="6">
         <v>45016</v>
       </c>
-      <c r="G184" s="6">
+      <c r="G185" s="6">
         <v>45061</v>
       </c>
-      <c r="H184" s="7" t="s">
+      <c r="H185" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="6">
-        <v>45056</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E185" s="7">
-        <v>23</v>
-      </c>
-      <c r="F185" s="6">
-        <v>45072</v>
-      </c>
-      <c r="G185" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A186" s="6">
         <v>45056</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E186" s="7">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F186" s="6">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G186" s="6">
         <v>45056</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A187" s="6">
         <v>45056</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E187" s="7">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="F187" s="6">
-        <v>45139</v>
+        <v>45107</v>
       </c>
       <c r="G187" s="6">
         <v>45056</v>
       </c>
       <c r="H187" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A188" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E188" s="7">
+        <v>27</v>
+      </c>
+      <c r="F188" s="6">
+        <v>45139</v>
+      </c>
+      <c r="G188" s="6">
+        <v>45056</v>
+      </c>
+      <c r="H188" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A188" s="6">
+    <row r="189" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A189" s="6">
         <v>45054</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B189" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C188" s="7" t="s">
+      <c r="C189" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D189" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E188" s="7">
+      <c r="E189" s="7">
         <v>272</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F189" s="6">
         <v>45058</v>
       </c>
-      <c r="G188" s="6">
+      <c r="G189" s="6">
         <v>45054</v>
       </c>
-      <c r="H188" s="7" t="s">
+      <c r="H189" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E189" s="7">
-        <v>123</v>
-      </c>
-      <c r="F189" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G189" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A190" s="6">
         <v>45049</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C190" s="7" t="s">
         <v>12</v>
@@ -6682,7 +6685,7 @@
         <v>13</v>
       </c>
       <c r="E190" s="7">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F190" s="6">
         <v>45107</v>
@@ -6691,50 +6694,50 @@
         <v>45049</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A191" s="6">
         <v>45049</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E191" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F191" s="6">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G191" s="6">
         <v>45049</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A192" s="6">
         <v>45049</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E192" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F192" s="6">
         <v>45105</v>
@@ -6743,41 +6746,41 @@
         <v>45049</v>
       </c>
       <c r="H192" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A193" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="7">
+        <v>7</v>
+      </c>
+      <c r="F193" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G193" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H193" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A193" s="6">
+    <row r="194" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A194" s="6">
         <v>45041</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B194" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="C193" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D193" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E193" s="7">
-        <v>175</v>
-      </c>
-      <c r="F193" s="6">
-        <v>45065</v>
-      </c>
-      <c r="G193" s="6">
-        <v>45041</v>
-      </c>
-      <c r="H193" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="6">
-        <v>45036</v>
-      </c>
-      <c r="B194" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>18</v>
@@ -6786,258 +6789,258 @@
         <v>19</v>
       </c>
       <c r="E194" s="7">
+        <v>175</v>
+      </c>
+      <c r="F194" s="6">
+        <v>45065</v>
+      </c>
+      <c r="G194" s="6">
+        <v>45041</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A195" s="6">
+        <v>45036</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E195" s="7">
         <v>133</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F195" s="6">
         <v>45120</v>
       </c>
-      <c r="G194" s="6">
+      <c r="G195" s="6">
         <v>45036</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="H195" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="6">
+    <row r="196" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A196" s="6">
         <v>45035</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C196" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D196" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E195" s="7">
+      <c r="E196" s="7">
         <v>62</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F196" s="6">
         <v>45095</v>
       </c>
-      <c r="G195" s="6">
+      <c r="G196" s="6">
         <v>45035</v>
       </c>
-      <c r="H195" s="7" t="s">
+      <c r="H196" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
+    <row r="197" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A197" s="6">
         <v>45034</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B197" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C197" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D197" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E197" s="7">
         <v>113</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F197" s="6">
         <v>45076</v>
       </c>
-      <c r="G196" s="6">
+      <c r="G197" s="6">
         <v>45034</v>
       </c>
-      <c r="H196" s="7" t="s">
+      <c r="H197" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A197" s="6">
+    <row r="198" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A198" s="6">
         <v>45021</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B198" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C198" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D198" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E198" s="7">
         <v>120</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F198" s="6">
         <v>45077</v>
       </c>
-      <c r="G197" s="6">
+      <c r="G198" s="6">
         <v>45021</v>
       </c>
-      <c r="H197" s="7" t="s">
+      <c r="H198" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A198" s="6">
+    <row r="199" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A199" s="6">
         <v>45022</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B199" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C199" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D199" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E199" s="7">
         <v>12</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F199" s="6">
         <v>45079</v>
       </c>
-      <c r="G198" s="6">
+      <c r="G199" s="6">
         <v>45022</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H199" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A199" s="6">
-        <v>45021</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D199" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E199" s="7">
-        <v>98</v>
-      </c>
-      <c r="F199" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G199" s="6">
-        <v>45021</v>
-      </c>
-      <c r="H199" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A200" s="6">
         <v>45021</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E200" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F200" s="6">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G200" s="6">
         <v>45021</v>
       </c>
       <c r="H200" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A201" s="6">
+        <v>45021</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E201" s="7">
+        <v>100</v>
+      </c>
+      <c r="F201" s="6">
+        <v>45086</v>
+      </c>
+      <c r="G201" s="6">
+        <v>45021</v>
+      </c>
+      <c r="H201" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="6">
+    <row r="202" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A202" s="6">
         <v>45020</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B202" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C202" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D202" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E202" s="7">
         <v>84</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F202" s="6">
         <v>45075</v>
       </c>
-      <c r="G201" s="6">
+      <c r="G202" s="6">
         <v>45020</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="H202" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A202" s="6">
+    <row r="203" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A203" s="6">
         <v>45019</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B203" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C203" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E203" s="7">
         <v>227</v>
-      </c>
-      <c r="F202" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G202" s="6">
-        <v>45019</v>
-      </c>
-      <c r="H202" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="6">
-        <v>45016</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E203" s="7">
-        <v>1047</v>
       </c>
       <c r="F203" s="6">
         <v>45079</v>
       </c>
       <c r="G203" s="6">
+        <v>45019</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A204" s="6">
         <v>45016</v>
       </c>
-      <c r="H203" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="6">
-        <v>45007</v>
-      </c>
       <c r="B204" s="7" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>18</v>
@@ -7046,50 +7049,50 @@
         <v>19</v>
       </c>
       <c r="E204" s="7">
-        <v>54</v>
+        <v>1047</v>
       </c>
       <c r="F204" s="6">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G204" s="6">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H204" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A205" s="6">
+        <v>45007</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" s="7">
+        <v>54</v>
+      </c>
+      <c r="F205" s="6">
+        <v>45059</v>
+      </c>
+      <c r="G205" s="6">
+        <v>45007</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A206" s="6">
         <v>45000</v>
       </c>
-      <c r="B205" s="7" t="s">
+      <c r="B206" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E205" s="7">
-        <v>81</v>
-      </c>
-      <c r="F205" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G205" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H205" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="6">
-        <v>44999</v>
-      </c>
-      <c r="B206" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>35</v>
@@ -7098,206 +7101,206 @@
         <v>36</v>
       </c>
       <c r="E206" s="7">
+        <v>81</v>
+      </c>
+      <c r="F206" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G206" s="6">
+        <v>45000</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A207" s="6">
+        <v>44999</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E207" s="7">
         <v>105</v>
       </c>
-      <c r="F206" s="6">
+      <c r="F207" s="6">
         <v>45020</v>
       </c>
-      <c r="G206" s="6">
+      <c r="G207" s="6">
         <v>44999</v>
       </c>
-      <c r="H206" s="7" t="s">
+      <c r="H207" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A207" s="6">
+    <row r="208" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A208" s="6">
         <v>45005</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B208" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C207" s="7" t="s">
+      <c r="C208" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D208" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E207" s="7">
+      <c r="E208" s="7">
         <v>152</v>
       </c>
-      <c r="F207" s="6">
+      <c r="F208" s="6">
         <v>45066</v>
       </c>
-      <c r="G207" s="6">
+      <c r="G208" s="6">
         <v>45005</v>
       </c>
-      <c r="H207" s="7" t="s">
+      <c r="H208" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="6">
+    <row r="209" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A209" s="6">
         <v>44993</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E208" s="7">
+      <c r="E209" s="7">
         <v>240</v>
       </c>
-      <c r="F208" s="6">
+      <c r="F209" s="6">
         <v>45044</v>
       </c>
-      <c r="G208" s="6">
+      <c r="G209" s="6">
         <v>44993</v>
       </c>
-      <c r="H208" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A209" s="6">
+    <row r="210" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A210" s="6">
         <v>44988</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B210" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C210" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E209" s="7">
+      <c r="E210" s="7">
         <v>827</v>
       </c>
-      <c r="F209" s="6">
+      <c r="F210" s="6">
         <v>45047</v>
       </c>
-      <c r="G209" s="6">
+      <c r="G210" s="6">
         <v>44988</v>
       </c>
-      <c r="H209" s="7" t="s">
+      <c r="H210" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="6">
+    <row r="211" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A211" s="6">
         <v>44987</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B211" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C211" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E210" s="7">
+      <c r="E211" s="7">
         <v>53</v>
       </c>
-      <c r="F210" s="6">
+      <c r="F211" s="6">
         <v>45048</v>
       </c>
-      <c r="G210" s="6">
+      <c r="G211" s="6">
         <v>44987</v>
       </c>
-      <c r="H210" s="7" t="s">
+      <c r="H211" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A211" s="6">
-        <v>44985</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D211" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E211" s="7">
-        <v>17</v>
-      </c>
-      <c r="F211" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G211" s="6">
-        <v>44985</v>
-      </c>
-      <c r="H211" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A212" s="6">
         <v>44985</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E212" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F212" s="6">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G212" s="6">
         <v>44985</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A213" s="6">
         <v>44985</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E213" s="7">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F213" s="6">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G213" s="6">
         <v>44985</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A214" s="6">
         <v>44985</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>26</v>
@@ -7306,76 +7309,76 @@
         <v>27</v>
       </c>
       <c r="E214" s="7">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F214" s="6">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G214" s="6">
         <v>44985</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A215" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E215" s="7">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F215" s="6">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G215" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A216" s="6">
         <v>44984</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E216" s="7">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F216" s="6">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G216" s="6">
         <v>44984</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A217" s="6">
         <v>44984</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C217" s="7" t="s">
         <v>29</v>
@@ -7384,33 +7387,33 @@
         <v>13</v>
       </c>
       <c r="E217" s="7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F217" s="6">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G217" s="6">
         <v>44984</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A218" s="6">
         <v>44984</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E218" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F218" s="6">
         <v>45077</v>
@@ -7419,67 +7422,67 @@
         <v>44984</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A219" s="6">
         <v>44984</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E219" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F219" s="6">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G219" s="6">
         <v>44984</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A220" s="6">
         <v>44984</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E220" s="7">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F220" s="6">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G220" s="6">
         <v>44984</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A221" s="6">
         <v>44984</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>189</v>
@@ -7488,27 +7491,27 @@
         <v>55</v>
       </c>
       <c r="E221" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F221" s="6">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G221" s="6">
         <v>44984</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A222" s="6">
         <v>44984</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="D222" s="7" t="s">
         <v>55</v>
@@ -7523,41 +7526,41 @@
         <v>44984</v>
       </c>
       <c r="H222" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A223" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E223" s="7">
+        <v>10</v>
+      </c>
+      <c r="F223" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G223" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H223" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A223" s="6">
+    <row r="224" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A224" s="6">
         <v>44980</v>
       </c>
-      <c r="B223" s="7" t="s">
+      <c r="B224" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E223" s="7">
-        <v>120</v>
-      </c>
-      <c r="F223" s="6">
-        <v>45039</v>
-      </c>
-      <c r="G223" s="6">
-        <v>44980</v>
-      </c>
-      <c r="H223" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A224" s="6">
-        <v>44973</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="C224" s="7" t="s">
         <v>29</v>
@@ -7566,258 +7569,258 @@
         <v>13</v>
       </c>
       <c r="E224" s="7">
-        <v>40</v>
-      </c>
-      <c r="F224" s="8">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F224" s="6">
+        <v>45039</v>
       </c>
       <c r="G224" s="6">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A225" s="6">
         <v>44973</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E225" s="7">
-        <v>186</v>
-      </c>
-      <c r="F225" s="6">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F225" s="8">
+        <v>44965</v>
       </c>
       <c r="G225" s="6">
         <v>44973</v>
       </c>
       <c r="H225" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A226" s="6">
+        <v>44973</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E226" s="7">
+        <v>186</v>
+      </c>
+      <c r="F226" s="6">
+        <v>44981</v>
+      </c>
+      <c r="G226" s="6">
+        <v>44973</v>
+      </c>
+      <c r="H226" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="6">
+    <row r="227" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A227" s="6">
         <v>44978</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B227" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C227" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D227" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E227" s="7">
         <v>100</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F227" s="6">
         <v>45032</v>
       </c>
-      <c r="G226" s="6">
+      <c r="G227" s="6">
         <v>44978</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H227" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="6">
+    <row r="228" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A228" s="6">
         <v>44972</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B228" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C228" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="D228" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E228" s="7">
         <v>64</v>
       </c>
-      <c r="F227" s="6">
+      <c r="F228" s="6">
         <v>44974</v>
       </c>
-      <c r="G227" s="6">
+      <c r="G228" s="6">
         <v>44972</v>
       </c>
-      <c r="H227" s="7" t="s">
+      <c r="H228" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="6">
+    <row r="229" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A229" s="6">
         <v>44965</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B229" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C229" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D229" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E228" s="7">
+      <c r="E229" s="7">
         <v>92</v>
       </c>
-      <c r="F228" s="6">
+      <c r="F229" s="6">
         <v>45065</v>
       </c>
-      <c r="G228" s="6">
+      <c r="G229" s="6">
         <v>44966</v>
       </c>
-      <c r="H228" s="7" t="s">
+      <c r="H229" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A229" s="6">
-        <v>44964</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D229" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E229" s="7">
-        <v>121</v>
-      </c>
-      <c r="F229" s="6">
-        <v>45024</v>
-      </c>
-      <c r="G229" s="6">
-        <v>44964</v>
-      </c>
-      <c r="H229" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A230" s="6">
         <v>44964</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E230" s="7">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F230" s="6">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G230" s="6">
         <v>44964</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A231" s="6">
         <v>44964</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E231" s="7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F231" s="6">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G231" s="6">
         <v>44964</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A232" s="6">
         <v>44964</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E232" s="7">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F232" s="6">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G232" s="6">
         <v>44964</v>
       </c>
       <c r="H232" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A233" s="6">
+        <v>44964</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E233" s="7">
+        <v>200</v>
+      </c>
+      <c r="F233" s="6">
+        <v>45020</v>
+      </c>
+      <c r="G233" s="6">
+        <v>44964</v>
+      </c>
+      <c r="H233" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="6">
-        <v>44957</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D233" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E233" s="7">
-        <v>83</v>
-      </c>
-      <c r="F233" s="6">
-        <v>44956</v>
-      </c>
-      <c r="G233" s="6">
-        <v>44957</v>
-      </c>
-      <c r="H233" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A234" s="6">
         <v>44957</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>26</v>
@@ -7826,258 +7829,258 @@
         <v>27</v>
       </c>
       <c r="E234" s="7">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F234" s="6">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G234" s="6">
         <v>44957</v>
       </c>
       <c r="H234" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A235" s="6">
+        <v>44957</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E235" s="7">
+        <v>74</v>
+      </c>
+      <c r="F235" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G235" s="6">
+        <v>44957</v>
+      </c>
+      <c r="H235" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="6">
-        <v>44959</v>
-      </c>
-      <c r="B235" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C235" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E235" s="7">
-        <v>158</v>
-      </c>
-      <c r="F235" s="6">
-        <v>45017</v>
-      </c>
-      <c r="G235" s="6">
-        <v>44959</v>
-      </c>
-      <c r="H235" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A236" s="6">
         <v>44959</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E236" s="7">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F236" s="6">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G236" s="6">
         <v>44959</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A237" s="6">
         <v>44959</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>373</v>
+        <v>9</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="E237" s="7">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F237" s="6">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G237" s="6">
         <v>44959</v>
       </c>
       <c r="H237" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A238" s="6">
+        <v>44959</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D238" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E238" s="7">
+        <v>140</v>
+      </c>
+      <c r="F238" s="6">
+        <v>44972</v>
+      </c>
+      <c r="G238" s="6">
+        <v>44959</v>
+      </c>
+      <c r="H238" s="7" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A238" s="6">
+    <row r="239" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A239" s="6">
         <v>44957</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B239" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C239" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D239" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E238" s="7">
+      <c r="E239" s="7">
         <v>90</v>
       </c>
-      <c r="F238" s="6">
+      <c r="F239" s="6">
         <v>44957</v>
       </c>
-      <c r="G238" s="6">
+      <c r="G239" s="6">
         <v>44960</v>
       </c>
-      <c r="H238" s="7" t="s">
+      <c r="H239" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A239" s="6">
+    <row r="240" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A240" s="6">
         <v>44953</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B240" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D240" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E240" s="7">
         <v>255</v>
       </c>
-      <c r="F239" s="6">
+      <c r="F240" s="6">
         <v>44942</v>
       </c>
-      <c r="G239" s="6">
+      <c r="G240" s="6">
         <v>44953</v>
       </c>
-      <c r="H239" s="7" t="s">
+      <c r="H240" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A240" s="6">
+    <row r="241" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A241" s="6">
         <v>44946</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B241" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C241" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D241" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E241" s="7">
         <v>110</v>
       </c>
-      <c r="F240" s="6">
+      <c r="F241" s="6">
         <v>45016</v>
       </c>
-      <c r="G240" s="6">
+      <c r="G241" s="6">
         <v>44946</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H241" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="6">
-        <v>44951</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D241" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E241" s="7">
-        <v>76</v>
-      </c>
-      <c r="F241" s="6">
-        <v>44995</v>
-      </c>
-      <c r="G241" s="6">
-        <v>44951</v>
-      </c>
-      <c r="H241" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A242" s="6">
         <v>44951</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E242" s="7">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="F242" s="6">
-        <v>45011</v>
+        <v>44995</v>
       </c>
       <c r="G242" s="6">
         <v>44951</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A243" s="6">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E243" s="7">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F243" s="6">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G243" s="6">
+        <v>44951</v>
+      </c>
+      <c r="H243" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A244" s="6">
         <v>44950</v>
       </c>
-      <c r="H243" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="6">
-        <v>44945</v>
-      </c>
       <c r="B244" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>104</v>
@@ -8086,76 +8089,76 @@
         <v>55</v>
       </c>
       <c r="E244" s="7">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F244" s="6">
         <v>45016</v>
       </c>
       <c r="G244" s="6">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H244" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A245" s="6">
+        <v>44945</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E245" s="7">
+        <v>964</v>
+      </c>
+      <c r="F245" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G245" s="6">
+        <v>44945</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A246" s="6">
         <v>44942</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B246" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C246" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D246" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E246" s="7">
         <v>77</v>
       </c>
-      <c r="F245" s="6">
+      <c r="F246" s="6">
         <v>45002</v>
       </c>
-      <c r="G245" s="6">
+      <c r="G246" s="6">
         <v>44942</v>
       </c>
-      <c r="H245" s="7" t="s">
+      <c r="H246" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A246" s="6">
+    <row r="247" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A247" s="6">
         <v>44938</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B247" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E246" s="7">
-        <v>139</v>
-      </c>
-      <c r="F246" s="6">
-        <v>44937</v>
-      </c>
-      <c r="G246" s="6">
-        <v>44938</v>
-      </c>
-      <c r="H246" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A247" s="6">
-        <v>44937</v>
-      </c>
-      <c r="B247" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="C247" s="7" t="s">
         <v>22</v>
@@ -8164,102 +8167,102 @@
         <v>23</v>
       </c>
       <c r="E247" s="7">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F247" s="6">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G247" s="6">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H247" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A248" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D248" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E248" s="7">
+        <v>801</v>
+      </c>
+      <c r="F248" s="6">
+        <v>45003</v>
+      </c>
+      <c r="G248" s="6">
+        <v>44937</v>
+      </c>
+      <c r="H248" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A249" s="6">
         <v>44936</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B249" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C249" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D248" s="7" t="s">
+      <c r="D249" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E248" s="7">
+      <c r="E249" s="7">
         <v>76</v>
       </c>
-      <c r="F248" s="6">
+      <c r="F249" s="6">
         <v>45281</v>
       </c>
-      <c r="G248" s="6">
+      <c r="G249" s="6">
         <v>44936</v>
       </c>
-      <c r="H248" s="7" t="s">
+      <c r="H249" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A249" s="6">
+    <row r="250" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A250" s="6">
         <v>44935</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B250" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C250" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D250" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E249" s="7">
+      <c r="E250" s="7">
         <v>85</v>
       </c>
-      <c r="F249" s="6">
+      <c r="F250" s="6">
         <v>44971</v>
       </c>
-      <c r="G249" s="6">
+      <c r="G250" s="6">
         <v>44935</v>
       </c>
-      <c r="H249" s="7" t="s">
+      <c r="H250" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A250" s="6">
+    <row r="251" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+      <c r="A251" s="6">
         <v>44931</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B251" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="C250" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D250" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E250" s="7">
-        <v>370</v>
-      </c>
-      <c r="F250" s="6">
-        <v>44957</v>
-      </c>
-      <c r="G250" s="6">
-        <v>44931</v>
-      </c>
-      <c r="H250" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A251" s="6">
-        <v>44932</v>
-      </c>
-      <c r="B251" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>26</v>
@@ -8268,15 +8271,41 @@
         <v>27</v>
       </c>
       <c r="E251" s="7">
+        <v>370</v>
+      </c>
+      <c r="F251" s="6">
+        <v>44957</v>
+      </c>
+      <c r="G251" s="6">
+        <v>44931</v>
+      </c>
+      <c r="H251" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A252" s="6">
+        <v>44932</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D252" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E252" s="7">
         <v>20</v>
       </c>
-      <c r="F251" s="6">
+      <c r="F252" s="6">
         <v>44988</v>
       </c>
-      <c r="G251" s="6">
+      <c r="G252" s="6">
         <v>44932</v>
       </c>
-      <c r="H251" s="7" t="s">
+      <c r="H252" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8286,15 +8315,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="01c2736d-8da8-4d13-83cd-86a6b9641723">
@@ -8303,6 +8323,15 @@
     <TaxCatchAll xmlns="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8489,14 +8518,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -8509,6 +8530,14 @@
     <ds:schemaRef ds:uri="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/catherine_mckee_twc_texas_gov/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/matthew_mazer_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6E47C9-91FB-4936-A54D-CED818DFE576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{7B6E47C9-91FB-4936-A54D-CED818DFE576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67D4109-2131-441F-92B6-541EBB88F88D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5685" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="2385" yWindow="4695" windowWidth="38700" windowHeight="15345" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="425">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -1308,6 +1308,9 @@
   </si>
   <si>
     <t>WFS Express, Inc. Kelley Field</t>
+  </si>
+  <si>
+    <t>NexTier Completion Solutions Inc. - San Angelo II</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1423,6 +1426,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1738,26 +1744,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89BCF3A-B17F-44A2-A200-ED80B6FEE65F}">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="3"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1783,116 +1789,116 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
+        <v>45337</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="10">
+        <v>104</v>
+      </c>
+      <c r="F2" s="9">
+        <v>45399</v>
+      </c>
+      <c r="G2" s="9">
+        <v>45337</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>45334</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E3" s="10">
         <v>65</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F3" s="9">
         <v>45392</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G3" s="9">
         <v>45334</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9">
+    <row r="4" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>45324</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E4" s="10">
         <v>176</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F4" s="9">
         <v>45382</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G4" s="9">
         <v>45324</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A4" s="9">
+    <row r="5" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>45323</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E5" s="10">
         <v>103</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F5" s="9">
         <v>45634</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G5" s="9">
         <v>45323</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H5" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="9">
+    <row r="6" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>45321</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10">
-        <v>321</v>
-      </c>
-      <c r="F5" s="9">
-        <v>45381</v>
-      </c>
-      <c r="G5" s="9">
-        <v>45321</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="9">
-        <v>45316</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>414</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>18</v>
@@ -1901,59 +1907,59 @@
         <v>19</v>
       </c>
       <c r="E6" s="10">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="F6" s="9">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="G6" s="9">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45316</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="F7" s="9">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="G7" s="9">
         <v>45316</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45316</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="10">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="F8" s="9">
         <v>45374</v>
@@ -1965,12 +1971,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>29</v>
@@ -1979,238 +1985,238 @@
         <v>13</v>
       </c>
       <c r="E9" s="10">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="F9" s="9">
-        <v>45375</v>
+        <v>45374</v>
       </c>
       <c r="G9" s="9">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45315</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E10" s="10">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F10" s="9">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="G10" s="9">
         <v>45315</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45315</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="10">
+        <v>52</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45383</v>
+      </c>
+      <c r="G11" s="9">
+        <v>45315</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="9">
+    <row r="12" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>45314</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>178</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>45374</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>45314</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="9">
+    <row r="13" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
         <v>45313</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E13" s="10">
         <v>63</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F13" s="9">
         <v>45369</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G13" s="9">
         <v>45313</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="9">
+    <row r="14" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>45310</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E14" s="10">
         <v>334</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>45305</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G14" s="9">
         <v>45310</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="9">
+    <row r="15" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>45309</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E15" s="10">
         <v>51</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F15" s="9">
         <v>45324</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G15" s="9">
         <v>45309</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9">
+    <row r="16" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>45308</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E16" s="10">
         <v>109</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F16" s="9">
         <v>45351</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G16" s="9">
         <v>45308</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="9">
+    <row r="17" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>45307</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>63</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F17" s="9">
         <v>45369</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="9">
         <v>45307</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H17" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="9">
-        <v>45303</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="10">
-        <v>44</v>
-      </c>
-      <c r="F17" s="9">
-        <v>45295</v>
-      </c>
-      <c r="G17" s="9">
-        <v>45303</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45303</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E18" s="10">
         <v>44</v>
@@ -2222,379 +2228,379 @@
         <v>45303</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45303</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E19" s="10">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F19" s="9">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="G19" s="9">
         <v>45303</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>45303</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="10">
+        <v>92</v>
+      </c>
+      <c r="F20" s="9">
+        <v>45300</v>
+      </c>
+      <c r="G20" s="9">
+        <v>45303</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A20" s="9">
+    <row r="21" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>45307</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>63</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>45369</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>45307</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A21" s="9">
-        <v>45300</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="10">
-        <v>176</v>
-      </c>
-      <c r="F21" s="9">
-        <v>45353</v>
-      </c>
-      <c r="G21" s="9">
-        <v>45300</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45300</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E22" s="10">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="F22" s="9">
-        <v>45339</v>
+        <v>45353</v>
       </c>
       <c r="G22" s="9">
         <v>45300</v>
       </c>
       <c r="H22" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>45300</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="10">
+        <v>71</v>
+      </c>
+      <c r="F23" s="9">
+        <v>45339</v>
+      </c>
+      <c r="G23" s="9">
+        <v>45300</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A23" s="9">
-        <v>45299</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="10">
-        <v>75</v>
-      </c>
-      <c r="F23" s="9">
-        <v>45266</v>
-      </c>
-      <c r="G23" s="9">
-        <v>45299</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45299</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E24" s="10">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F24" s="9">
-        <v>45302</v>
+        <v>45266</v>
       </c>
       <c r="G24" s="9">
         <v>45299</v>
       </c>
       <c r="H24" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>45299</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="10">
+        <v>103</v>
+      </c>
+      <c r="F25" s="9">
+        <v>45302</v>
+      </c>
+      <c r="G25" s="9">
+        <v>45299</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="9">
-        <v>45296</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="10">
-        <v>365</v>
-      </c>
-      <c r="F25" s="9">
-        <v>45350</v>
-      </c>
-      <c r="G25" s="9">
-        <v>45296</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45296</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E26" s="10">
-        <v>60</v>
+        <v>365</v>
       </c>
       <c r="F26" s="9">
-        <v>45337</v>
+        <v>45350</v>
       </c>
       <c r="G26" s="9">
         <v>45296</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45296</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="10">
+        <v>60</v>
+      </c>
+      <c r="F27" s="9">
+        <v>45337</v>
+      </c>
+      <c r="G27" s="9">
+        <v>45296</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="9">
+    <row r="28" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>45295</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>76</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>45332</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>45295</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="9">
+    <row r="29" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>45278</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B29" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>256</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>45275</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>45278</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="29" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A29" s="9">
+    <row r="30" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>45271</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D30" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E30" s="10">
         <v>12</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F30" s="9">
         <v>45328</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G30" s="9">
         <v>45271</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="9">
+    <row r="31" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>45267</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B31" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>75</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F31" s="9">
         <v>45266</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G31" s="9">
         <v>45267</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="31" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="9">
-        <v>45264</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="10">
-        <v>89</v>
-      </c>
-      <c r="F31" s="9">
-        <v>45324</v>
-      </c>
-      <c r="G31" s="9">
-        <v>45264</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45264</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="10">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F32" s="9">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="G32" s="9">
         <v>45264</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>45264</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>12</v>
@@ -2603,128 +2609,128 @@
         <v>13</v>
       </c>
       <c r="E33" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F33" s="9">
-        <v>45264</v>
+        <v>45322</v>
       </c>
       <c r="G33" s="9">
         <v>45264</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>45264</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E34" s="10">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F34" s="9">
-        <v>45322</v>
+        <v>45264</v>
       </c>
       <c r="G34" s="9">
         <v>45264</v>
       </c>
       <c r="H34" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>45264</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="10">
+        <v>92</v>
+      </c>
+      <c r="F35" s="9">
+        <v>45322</v>
+      </c>
+      <c r="G35" s="9">
+        <v>45264</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="9">
+    <row r="36" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>45261</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E36" s="10">
         <v>577</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F36" s="9">
         <v>45317</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G36" s="9">
         <v>45261</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="9">
-        <v>45257</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="10">
-        <v>9</v>
-      </c>
-      <c r="F36" s="9">
-        <v>45252</v>
-      </c>
-      <c r="G36" s="9">
-        <v>45257</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>45257</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E37" s="10">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F37" s="9">
-        <v>45266</v>
+        <v>45252</v>
       </c>
       <c r="G37" s="9">
         <v>45257</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>45257</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>29</v>
@@ -2733,7 +2739,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="10">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F38" s="9">
         <v>45266</v>
@@ -2745,64 +2751,64 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:8" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>45257</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E39" s="10">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F39" s="9">
-        <v>45268</v>
+        <v>45266</v>
       </c>
       <c r="G39" s="9">
         <v>45257</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>45257</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E40" s="10">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F40" s="9">
-        <v>45252</v>
+        <v>45268</v>
       </c>
       <c r="G40" s="9">
         <v>45257</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>26</v>
@@ -2811,76 +2817,76 @@
         <v>27</v>
       </c>
       <c r="E41" s="10">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F41" s="9">
-        <v>45240</v>
+        <v>45252</v>
       </c>
       <c r="G41" s="9">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:8" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
+        <v>45243</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="10">
+        <v>53</v>
+      </c>
+      <c r="F42" s="9">
         <v>45240</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="G42" s="9">
+        <v>45243</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>45240</v>
+      </c>
+      <c r="B43" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>150</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F43" s="9">
         <v>45238</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G43" s="9">
         <v>45240</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H43" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="5">
-        <v>2</v>
-      </c>
-      <c r="F43" s="4">
-        <v>45291</v>
-      </c>
-      <c r="G43" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>45238</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>26</v>
@@ -2892,47 +2898,47 @@
         <v>2</v>
       </c>
       <c r="F44" s="4">
-        <v>45290</v>
+        <v>45291</v>
       </c>
       <c r="G44" s="4">
         <v>45238</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>45238</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E45" s="5">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>45272</v>
+        <v>45290</v>
       </c>
       <c r="G45" s="4">
         <v>45238</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>45238</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>18</v>
@@ -2941,128 +2947,128 @@
         <v>19</v>
       </c>
       <c r="E46" s="5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F46" s="4">
-        <v>45215</v>
+        <v>45272</v>
       </c>
       <c r="G46" s="4">
         <v>45238</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>45238</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E47" s="5">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F47" s="4">
-        <v>45265</v>
+        <v>45215</v>
       </c>
       <c r="G47" s="4">
         <v>45238</v>
       </c>
       <c r="H47" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45238</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="5">
+        <v>110</v>
+      </c>
+      <c r="F48" s="4">
+        <v>45265</v>
+      </c>
+      <c r="G48" s="4">
+        <v>45238</v>
+      </c>
+      <c r="H48" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="4">
-        <v>45236</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="5">
-        <v>363</v>
-      </c>
-      <c r="F48" s="4">
-        <v>44966</v>
-      </c>
-      <c r="G48" s="4">
-        <v>45236</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>45236</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E49" s="5">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="F49" s="4">
-        <v>44931</v>
+        <v>44966</v>
       </c>
       <c r="G49" s="4">
         <v>45236</v>
       </c>
       <c r="H49" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45236</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="4">
-        <v>45230</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D50" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E50" s="5">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F50" s="4">
-        <v>45264</v>
+        <v>44931</v>
       </c>
       <c r="G50" s="4">
-        <v>45230</v>
+        <v>45236</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>45230</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>49</v>
@@ -3071,7 +3077,7 @@
         <v>50</v>
       </c>
       <c r="E51" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F51" s="4">
         <v>45264</v>
@@ -3083,73 +3089,73 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>45230</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E52" s="5">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F52" s="4">
-        <v>45290</v>
+        <v>45264</v>
       </c>
       <c r="G52" s="4">
         <v>45230</v>
       </c>
       <c r="H52" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45230</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" s="5">
+        <v>76</v>
+      </c>
+      <c r="F53" s="4">
+        <v>45290</v>
+      </c>
+      <c r="G53" s="4">
+        <v>45230</v>
+      </c>
+      <c r="H53" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A53" s="4">
-        <v>45225</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="5">
-        <v>5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>45275</v>
-      </c>
-      <c r="G53" s="4">
-        <v>45225</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>45225</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E54" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F54" s="4">
         <v>45275</v>
@@ -3158,24 +3164,24 @@
         <v>45225</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>45225</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F55" s="4">
         <v>45275</v>
@@ -3184,24 +3190,24 @@
         <v>45225</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45225</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F56" s="4">
         <v>45275</v>
@@ -3210,24 +3216,24 @@
         <v>45225</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>45225</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E57" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F57" s="4">
         <v>45275</v>
@@ -3236,24 +3242,24 @@
         <v>45225</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>45225</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E58" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F58" s="4">
         <v>45275</v>
@@ -3262,24 +3268,24 @@
         <v>45225</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>45225</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E59" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F59" s="4">
         <v>45275</v>
@@ -3288,128 +3294,128 @@
         <v>45225</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>45225</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E60" s="5">
         <v>8</v>
       </c>
       <c r="F60" s="4">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G60" s="4">
         <v>45225</v>
       </c>
       <c r="H60" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="5">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4">
+        <v>45225</v>
+      </c>
+      <c r="G61" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H61" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E61" s="7">
-        <v>7</v>
-      </c>
-      <c r="F61" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G61" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>45225</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E62" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F62" s="6">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G62" s="6">
         <v>45225</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>45225</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E63" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F63" s="6">
-        <v>45275</v>
+        <v>45225</v>
       </c>
       <c r="G63" s="6">
         <v>45225</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>45225</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E64" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" s="6">
         <v>45275</v>
@@ -3418,24 +3424,24 @@
         <v>45225</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>45225</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E65" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" s="6">
         <v>45275</v>
@@ -3444,24 +3450,24 @@
         <v>45225</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>45225</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E66" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F66" s="6">
         <v>45275</v>
@@ -3470,41 +3476,41 @@
         <v>45225</v>
       </c>
       <c r="H66" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="7">
+        <v>6</v>
+      </c>
+      <c r="F67" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G67" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H67" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A67" s="6">
-        <v>45224</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="7">
-        <v>400</v>
-      </c>
-      <c r="F67" s="6">
-        <v>45291</v>
-      </c>
-      <c r="G67" s="6">
-        <v>45224</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>45224</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="7" t="s">
         <v>22</v>
@@ -3513,7 +3519,7 @@
         <v>23</v>
       </c>
       <c r="E68" s="7">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="F68" s="6">
         <v>45291</v>
@@ -3525,73 +3531,73 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E69" s="7">
-        <v>6</v>
+        <v>778</v>
       </c>
       <c r="F69" s="6">
-        <v>45296</v>
+        <v>45291</v>
       </c>
       <c r="G69" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>45222</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E70" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F70" s="6">
-        <v>45280</v>
+        <v>45296</v>
       </c>
       <c r="G70" s="6">
         <v>45222</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>45222</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E71" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F71" s="6">
         <v>45280</v>
@@ -3600,24 +3606,24 @@
         <v>45222</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>45222</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E72" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F72" s="6">
         <v>45280</v>
@@ -3626,15 +3632,15 @@
         <v>45222</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>45222</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>115</v>
@@ -3643,7 +3649,7 @@
         <v>99</v>
       </c>
       <c r="E73" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F73" s="6">
         <v>45280</v>
@@ -3652,50 +3658,50 @@
         <v>45222</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E74" s="7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F74" s="6">
         <v>45280</v>
       </c>
       <c r="G74" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>45219</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D75" s="7" t="s">
         <v>112</v>
       </c>
       <c r="E75" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F75" s="6">
         <v>45280</v>
@@ -3704,24 +3710,24 @@
         <v>45219</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>45219</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E76" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F76" s="6">
         <v>45280</v>
@@ -3730,50 +3736,50 @@
         <v>45219</v>
       </c>
       <c r="H76" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>45219</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="7">
+        <v>20</v>
+      </c>
+      <c r="F77" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G77" s="6">
+        <v>45219</v>
+      </c>
+      <c r="H77" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="6">
-        <v>45218</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E77" s="7">
-        <v>6</v>
-      </c>
-      <c r="F77" s="6">
-        <v>45231</v>
-      </c>
-      <c r="G77" s="6">
-        <v>45218</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>45218</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="E78" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F78" s="6">
         <v>45231</v>
@@ -3782,24 +3788,24 @@
         <v>45218</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>45218</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D79" s="7" t="s">
         <v>129</v>
       </c>
       <c r="E79" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F79" s="6">
         <v>45231</v>
@@ -3808,24 +3814,24 @@
         <v>45218</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>45218</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E80" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F80" s="6">
         <v>45231</v>
@@ -3834,440 +3840,440 @@
         <v>45218</v>
       </c>
       <c r="H80" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>45218</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E81" s="7">
+        <v>7</v>
+      </c>
+      <c r="F81" s="6">
+        <v>45231</v>
+      </c>
+      <c r="G81" s="6">
+        <v>45218</v>
+      </c>
+      <c r="H81" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A81" s="6">
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
         <v>45217</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B82" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C82" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>288</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F82" s="6">
         <v>45291</v>
       </c>
-      <c r="G81" s="6">
+      <c r="G82" s="6">
         <v>45217</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H82" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A82" s="6">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
         <v>45211</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>122</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F83" s="6">
         <v>45275</v>
       </c>
-      <c r="G82" s="6">
+      <c r="G83" s="6">
         <v>45211</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="6">
-        <v>45209</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="7">
-        <v>136</v>
-      </c>
-      <c r="F83" s="6">
-        <v>45269</v>
-      </c>
-      <c r="G83" s="6">
-        <v>45209</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>45209</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E84" s="7">
-        <v>351</v>
+        <v>136</v>
       </c>
       <c r="F84" s="6">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="G84" s="6">
         <v>45209</v>
       </c>
       <c r="H84" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>45209</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="7">
+        <v>351</v>
+      </c>
+      <c r="F85" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G85" s="6">
+        <v>45209</v>
+      </c>
+      <c r="H85" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A85" s="6">
-        <v>45208</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E85" s="7">
-        <v>113</v>
-      </c>
-      <c r="F85" s="6">
-        <v>45257</v>
-      </c>
-      <c r="G85" s="6">
-        <v>45208</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45208</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E86" s="7">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="F86" s="6">
-        <v>45260</v>
+        <v>45257</v>
       </c>
       <c r="G86" s="6">
         <v>45208</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>45208</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="E87" s="7">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F87" s="6">
-        <v>45197</v>
+        <v>45260</v>
       </c>
       <c r="G87" s="6">
         <v>45208</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>45208</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E88" s="7">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="F88" s="6">
-        <v>45172</v>
+        <v>45197</v>
       </c>
       <c r="G88" s="6">
         <v>45208</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>45208</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E89" s="7">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="F89" s="6">
-        <v>45268</v>
+        <v>45172</v>
       </c>
       <c r="G89" s="6">
         <v>45208</v>
       </c>
       <c r="H89" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A90" s="6">
+      <c r="D90" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="7">
+        <v>38</v>
+      </c>
+      <c r="F90" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G90" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
         <v>45205</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B91" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C91" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D91" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E91" s="7">
         <v>239</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F91" s="6">
         <v>45226</v>
       </c>
-      <c r="G90" s="6">
+      <c r="G91" s="6">
         <v>45205</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H91" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="6">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
         <v>45203</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B92" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" s="7">
-        <v>76</v>
-      </c>
-      <c r="F91" s="6">
-        <v>45262</v>
-      </c>
-      <c r="G91" s="6">
-        <v>45203</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" s="6">
-        <v>45201</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D92" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E92" s="7">
+        <v>76</v>
+      </c>
+      <c r="F92" s="6">
+        <v>45262</v>
+      </c>
+      <c r="G92" s="6">
+        <v>45203</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>45201</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E93" s="7">
         <v>558</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F93" s="6">
         <v>45261</v>
       </c>
-      <c r="G92" s="6">
+      <c r="G93" s="6">
         <v>45201</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H93" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A93" s="6">
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
         <v>45190</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B94" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C94" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D94" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E94" s="7">
         <v>300</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F94" s="6">
         <v>45215</v>
       </c>
-      <c r="G93" s="6">
+      <c r="G94" s="6">
         <v>45190</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H94" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A94" s="6">
-        <v>45188</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E94" s="7">
-        <v>103</v>
-      </c>
-      <c r="F94" s="6">
-        <v>45176</v>
-      </c>
-      <c r="G94" s="6">
-        <v>45188</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>45188</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E95" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F95" s="6">
-        <v>45228</v>
+        <v>45176</v>
       </c>
       <c r="G95" s="6">
         <v>45188</v>
       </c>
       <c r="H95" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" s="7">
+        <v>104</v>
+      </c>
+      <c r="F96" s="6">
+        <v>45228</v>
+      </c>
+      <c r="G96" s="6">
+        <v>45188</v>
+      </c>
+      <c r="H96" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A96" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E96" s="7">
-        <v>163</v>
-      </c>
-      <c r="F96" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G96" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H96" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>45187</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="7">
         <v>163</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E97" s="7">
-        <v>71</v>
       </c>
       <c r="F97" s="6">
         <v>45230</v>
@@ -4276,15 +4282,15 @@
         <v>45187</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>45187</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>49</v>
@@ -4293,7 +4299,7 @@
         <v>50</v>
       </c>
       <c r="E98" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F98" s="6">
         <v>45230</v>
@@ -4305,21 +4311,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>45187</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="E99" s="7">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F99" s="6">
         <v>45230</v>
@@ -4328,21 +4334,21 @@
         <v>45187</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>45187</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E100" s="7">
         <v>87</v>
@@ -4354,24 +4360,24 @@
         <v>45187</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>45187</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="E101" s="7">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F101" s="6">
         <v>45230</v>
@@ -4380,24 +4386,24 @@
         <v>45187</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>45187</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="E102" s="7">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F102" s="6">
         <v>45230</v>
@@ -4406,119 +4412,119 @@
         <v>45187</v>
       </c>
       <c r="H102" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" s="7">
+        <v>97</v>
+      </c>
+      <c r="F103" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G103" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H103" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A103" s="6">
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
         <v>45181</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B104" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C104" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D104" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E104" s="7">
         <v>27</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F104" s="6">
         <v>45180</v>
       </c>
-      <c r="G103" s="6">
+      <c r="G104" s="6">
         <v>45181</v>
       </c>
-      <c r="H103" s="7" t="s">
+      <c r="H104" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="6">
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
         <v>45177</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B105" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D105" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E105" s="7">
         <v>31</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F105" s="6">
         <v>45236</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G105" s="6">
         <v>45177</v>
       </c>
-      <c r="H104" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A105" s="6">
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
         <v>45176</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B106" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D106" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E106" s="7">
         <v>165</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F106" s="6">
         <v>45229</v>
       </c>
-      <c r="G105" s="6">
+      <c r="G106" s="6">
         <v>45176</v>
       </c>
-      <c r="H105" s="7" t="s">
+      <c r="H106" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A106" s="6">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
         <v>45169</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B107" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E106" s="7">
-        <v>92</v>
-      </c>
-      <c r="F106" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G106" s="6">
-        <v>45169</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A107" s="6">
-        <v>45167</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>26</v>
@@ -4527,180 +4533,180 @@
         <v>27</v>
       </c>
       <c r="E107" s="7">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F107" s="6">
-        <v>45247</v>
+        <v>45230</v>
       </c>
       <c r="G107" s="6">
-        <v>45167</v>
+        <v>45169</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>45167</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E108" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F108" s="6">
-        <v>45226</v>
+        <v>45247</v>
       </c>
       <c r="G108" s="6">
         <v>45167</v>
       </c>
       <c r="H108" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>45167</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109" s="7">
+        <v>56</v>
+      </c>
+      <c r="F109" s="6">
+        <v>45226</v>
+      </c>
+      <c r="G109" s="6">
+        <v>45167</v>
+      </c>
+      <c r="H109" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A109" s="6">
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
         <v>45163</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B110" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E110" s="7">
         <v>83</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F110" s="6">
         <v>45233</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G110" s="6">
         <v>45163</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A110" s="6">
+    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
         <v>45162</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B111" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C111" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D111" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E111" s="7">
         <v>15</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F111" s="6">
         <v>45225</v>
       </c>
-      <c r="G110" s="6">
+      <c r="G111" s="6">
         <v>45162</v>
       </c>
-      <c r="H110" s="7" t="s">
+      <c r="H111" s="7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A111" s="6">
-        <v>45161</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" s="7">
-        <v>130</v>
-      </c>
-      <c r="F111" s="6">
-        <v>45261</v>
-      </c>
-      <c r="G111" s="6">
-        <v>45161</v>
-      </c>
-      <c r="H111" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>45161</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E112" s="7">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F112" s="6">
-        <v>45220</v>
+        <v>45261</v>
       </c>
       <c r="G112" s="6">
         <v>45161</v>
       </c>
       <c r="H112" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>45161</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" s="7">
+        <v>167</v>
+      </c>
+      <c r="F113" s="6">
+        <v>45220</v>
+      </c>
+      <c r="G113" s="6">
+        <v>45161</v>
+      </c>
+      <c r="H113" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A113" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="7">
-        <v>163</v>
-      </c>
-      <c r="F113" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G113" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H113" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>45156</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>29</v>
@@ -4709,7 +4715,7 @@
         <v>13</v>
       </c>
       <c r="E114" s="7">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F114" s="6">
         <v>45201</v>
@@ -4718,15 +4724,15 @@
         <v>45156</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>45156</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>29</v>
@@ -4735,7 +4741,7 @@
         <v>13</v>
       </c>
       <c r="E115" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F115" s="6">
         <v>45201</v>
@@ -4744,76 +4750,76 @@
         <v>45156</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45156</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E116" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F116" s="6">
-        <v>45245</v>
+        <v>45201</v>
       </c>
       <c r="G116" s="6">
         <v>45156</v>
       </c>
       <c r="H116" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>45156</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="7">
+        <v>38</v>
+      </c>
+      <c r="F117" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G117" s="6">
+        <v>45156</v>
+      </c>
+      <c r="H117" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A117" s="6">
-        <v>45155</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E117" s="7">
-        <v>10</v>
-      </c>
-      <c r="F117" s="6">
-        <v>45156</v>
-      </c>
-      <c r="G117" s="6">
-        <v>45155</v>
-      </c>
-      <c r="H117" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45155</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E118" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F118" s="6">
         <v>45156</v>
@@ -4822,24 +4828,24 @@
         <v>45155</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>45155</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E119" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F119" s="6">
         <v>45156</v>
@@ -4848,105 +4854,105 @@
         <v>45155</v>
       </c>
       <c r="H119" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="7">
+        <v>16</v>
+      </c>
+      <c r="F120" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G120" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H120" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A120" s="6">
+    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
         <v>45121</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D121" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E121" s="7">
         <v>94</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F121" s="6">
         <v>45177</v>
       </c>
-      <c r="G120" s="6">
+      <c r="G121" s="6">
         <v>45121</v>
       </c>
-      <c r="H120" s="7" t="s">
+      <c r="H121" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A121" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E121" s="7">
-        <v>80</v>
-      </c>
-      <c r="F121" s="6">
-        <v>45226</v>
-      </c>
-      <c r="G121" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H121" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>45146</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E122" s="7">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F122" s="6">
-        <v>45145</v>
+        <v>45226</v>
       </c>
       <c r="G122" s="6">
         <v>45146</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>45146</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E123" s="7">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F123" s="6">
-        <v>45201</v>
+        <v>45145</v>
       </c>
       <c r="G123" s="6">
         <v>45146</v>
@@ -4955,151 +4961,151 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E124" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F124" s="6">
-        <v>45138</v>
+        <v>45201</v>
       </c>
       <c r="G124" s="6">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="E125" s="7">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F125" s="6">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="G125" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>45141</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="E126" s="7">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="F126" s="6">
-        <v>45139</v>
+        <v>45199</v>
       </c>
       <c r="G126" s="6">
         <v>45141</v>
       </c>
       <c r="H126" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="7">
+        <v>153</v>
+      </c>
+      <c r="F127" s="6">
+        <v>45139</v>
+      </c>
+      <c r="G127" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H127" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A127" s="6">
+    <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
         <v>45139</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B128" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C128" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D128" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E128" s="7">
         <v>530</v>
-      </c>
-      <c r="F127" s="6">
-        <v>45135</v>
-      </c>
-      <c r="G127" s="6">
-        <v>45139</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A128" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E128" s="7">
-        <v>4</v>
       </c>
       <c r="F128" s="6">
         <v>45135</v>
       </c>
       <c r="G128" s="6">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>45141</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E129" s="7">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F129" s="6">
         <v>45135</v>
@@ -5108,24 +5114,24 @@
         <v>45141</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>45141</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E130" s="7">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F130" s="6">
         <v>45135</v>
@@ -5134,24 +5140,24 @@
         <v>45141</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>45141</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C131" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="E131" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F131" s="6">
         <v>45135</v>
@@ -5160,24 +5166,24 @@
         <v>45141</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>45141</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E132" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F132" s="6">
         <v>45135</v>
@@ -5186,154 +5192,154 @@
         <v>45141</v>
       </c>
       <c r="H132" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E133" s="7">
+        <v>17</v>
+      </c>
+      <c r="F133" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G133" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H133" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A133" s="6">
+    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
         <v>45140</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B134" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C133" s="7" t="s">
+      <c r="C134" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D134" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E134" s="7">
         <v>280</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F134" s="6">
         <v>45192</v>
       </c>
-      <c r="G133" s="6">
+      <c r="G134" s="6">
         <v>45140</v>
       </c>
-      <c r="H133" s="7" t="s">
+      <c r="H134" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A134" s="6">
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
         <v>45139</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B135" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C135" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D135" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E135" s="7">
         <v>64</v>
-      </c>
-      <c r="F134" s="6">
-        <v>45198</v>
-      </c>
-      <c r="G134" s="6">
-        <v>45139</v>
-      </c>
-      <c r="H134" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A135" s="6">
-        <v>45134</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E135" s="7">
-        <v>76</v>
       </c>
       <c r="F135" s="6">
         <v>45198</v>
       </c>
       <c r="G135" s="6">
+        <v>45139</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
         <v>45134</v>
       </c>
-      <c r="H135" s="7" t="s">
+      <c r="B136" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" s="7">
+        <v>76</v>
+      </c>
+      <c r="F136" s="6">
+        <v>45198</v>
+      </c>
+      <c r="G136" s="6">
+        <v>45134</v>
+      </c>
+      <c r="H136" s="7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A136" s="6">
+    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
         <v>45126</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B137" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D137" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E137" s="7">
         <v>64</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F137" s="6">
         <v>45208</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G137" s="6">
         <v>45126</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H137" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A137" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E137" s="7">
-        <v>53</v>
-      </c>
-      <c r="F137" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G137" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>45124</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E138" s="7">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F138" s="6">
         <v>45124</v>
@@ -5342,24 +5348,24 @@
         <v>45124</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>45124</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E139" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F139" s="6">
         <v>45124</v>
@@ -5368,15 +5374,15 @@
         <v>45124</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>45124</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C140" s="7" t="s">
         <v>29</v>
@@ -5385,7 +5391,7 @@
         <v>13</v>
       </c>
       <c r="E140" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F140" s="6">
         <v>45124</v>
@@ -5394,24 +5400,24 @@
         <v>45124</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>45124</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E141" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F141" s="6">
         <v>45124</v>
@@ -5420,24 +5426,24 @@
         <v>45124</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>45124</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E142" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F142" s="6">
         <v>45124</v>
@@ -5446,24 +5452,24 @@
         <v>45124</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>45124</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E143" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F143" s="6">
         <v>45124</v>
@@ -5472,24 +5478,24 @@
         <v>45124</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>45124</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E144" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F144" s="6">
         <v>45124</v>
@@ -5498,24 +5504,24 @@
         <v>45124</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>45124</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D145" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E145" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F145" s="6">
         <v>45124</v>
@@ -5524,24 +5530,24 @@
         <v>45124</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>45124</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="E146" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F146" s="6">
         <v>45124</v>
@@ -5550,24 +5556,24 @@
         <v>45124</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>45124</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="E147" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F147" s="6">
         <v>45124</v>
@@ -5576,24 +5582,24 @@
         <v>45124</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>45124</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E148" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F148" s="6">
         <v>45124</v>
@@ -5602,21 +5608,21 @@
         <v>45124</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>45124</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="E149" s="7">
         <v>31</v>
@@ -5628,24 +5634,24 @@
         <v>45124</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>45124</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="E150" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F150" s="6">
         <v>45124</v>
@@ -5654,24 +5660,24 @@
         <v>45124</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>45124</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E151" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F151" s="6">
         <v>45124</v>
@@ -5680,24 +5686,24 @@
         <v>45124</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>45124</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E152" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F152" s="6">
         <v>45124</v>
@@ -5706,24 +5712,24 @@
         <v>45124</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>45124</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C153" s="7" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E153" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F153" s="6">
         <v>45124</v>
@@ -5732,24 +5738,24 @@
         <v>45124</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45124</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E154" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F154" s="6">
         <v>45124</v>
@@ -5758,24 +5764,24 @@
         <v>45124</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45124</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E155" s="7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F155" s="6">
         <v>45124</v>
@@ -5784,24 +5790,24 @@
         <v>45124</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45124</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E156" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F156" s="6">
         <v>45124</v>
@@ -5810,24 +5816,24 @@
         <v>45124</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45124</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="E157" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F157" s="6">
         <v>45124</v>
@@ -5836,24 +5842,24 @@
         <v>45124</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>45124</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="E158" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F158" s="6">
         <v>45124</v>
@@ -5862,21 +5868,21 @@
         <v>45124</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>45124</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E159" s="7">
         <v>26</v>
@@ -5888,24 +5894,24 @@
         <v>45124</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>45124</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E160" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F160" s="6">
         <v>45124</v>
@@ -5914,275 +5920,275 @@
         <v>45124</v>
       </c>
       <c r="H160" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>45124</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C161" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A161" s="6">
+      <c r="D161" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E161" s="7">
+        <v>31</v>
+      </c>
+      <c r="F161" s="6">
+        <v>45124</v>
+      </c>
+      <c r="G161" s="6">
+        <v>45124</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
         <v>45112</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C161" s="7" t="s">
+      <c r="C162" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D162" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E162" s="7">
         <v>115</v>
       </c>
-      <c r="F161" s="6">
+      <c r="F162" s="6">
         <v>45128</v>
       </c>
-      <c r="G161" s="6">
+      <c r="G162" s="6">
         <v>45112</v>
       </c>
-      <c r="H161" s="7" t="s">
+      <c r="H162" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A162" s="6">
-        <v>45106</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E162" s="7">
-        <v>188</v>
-      </c>
-      <c r="F162" s="6">
-        <v>45154</v>
-      </c>
-      <c r="G162" s="6">
-        <v>45106</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>45106</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E163" s="7">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="F163" s="6">
-        <v>45169</v>
+        <v>45154</v>
       </c>
       <c r="G163" s="6">
         <v>45106</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45106</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E164" s="7">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F164" s="6">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="G164" s="6">
         <v>45106</v>
       </c>
       <c r="H164" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E165" s="7">
+        <v>59</v>
+      </c>
+      <c r="F165" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G165" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H165" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A165" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E165" s="7">
-        <v>93</v>
-      </c>
-      <c r="F165" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G165" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>45104</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E166" s="7">
-        <v>107</v>
-      </c>
-      <c r="F166" s="8">
-        <v>45169</v>
+        <v>93</v>
+      </c>
+      <c r="F166" s="6">
+        <v>45086</v>
       </c>
       <c r="G166" s="6">
         <v>45104</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>45104</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E167" s="7">
-        <v>47</v>
-      </c>
-      <c r="F167" s="6">
-        <v>45170</v>
+        <v>107</v>
+      </c>
+      <c r="F167" s="8">
+        <v>45169</v>
       </c>
       <c r="G167" s="6">
         <v>45104</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>45104</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E168" s="7">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F168" s="6">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="G168" s="6">
         <v>45104</v>
       </c>
       <c r="H168" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E169" s="7">
+        <v>101</v>
+      </c>
+      <c r="F169" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G169" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H169" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A169" s="6">
+    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
         <v>45100</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B170" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C170" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D170" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E170" s="7">
         <v>56</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F170" s="6">
         <v>45158</v>
       </c>
-      <c r="G169" s="6">
+      <c r="G170" s="6">
         <v>45100</v>
-      </c>
-      <c r="H169" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A170" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B170" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E170" s="7">
-        <v>218</v>
-      </c>
-      <c r="F170" s="6">
-        <v>45152</v>
-      </c>
-      <c r="G170" s="6">
-        <v>45092</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>45092</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>35</v>
@@ -6191,10 +6197,10 @@
         <v>36</v>
       </c>
       <c r="E171" s="7">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="F171" s="6">
-        <v>45069</v>
+        <v>45152</v>
       </c>
       <c r="G171" s="6">
         <v>45092</v>
@@ -6203,506 +6209,506 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>45092</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="D172" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E172" s="7">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F172" s="6">
-        <v>45143</v>
+        <v>45069</v>
       </c>
       <c r="G172" s="6">
         <v>45092</v>
       </c>
       <c r="H172" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A173" s="6">
+      <c r="D173" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E173" s="7">
+        <v>91</v>
+      </c>
+      <c r="F173" s="6">
+        <v>45143</v>
+      </c>
+      <c r="G173" s="6">
+        <v>45092</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
         <v>45091</v>
       </c>
-      <c r="B173" s="7" t="s">
+      <c r="B174" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C173" s="7" t="s">
+      <c r="C174" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D174" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E174" s="7">
         <v>173</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F174" s="6">
         <v>45156</v>
       </c>
-      <c r="G173" s="6">
+      <c r="G174" s="6">
         <v>45091</v>
       </c>
-      <c r="H173" s="7" t="s">
+      <c r="H174" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A174" s="6">
+    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
         <v>45085</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B175" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C175" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D175" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E175" s="7">
         <v>58</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F175" s="6">
         <v>45173</v>
       </c>
-      <c r="G174" s="6">
+      <c r="G175" s="6">
         <v>45085</v>
       </c>
-      <c r="H174" s="7" t="s">
+      <c r="H175" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A175" s="6">
+    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
         <v>45084</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B176" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C175" s="7" t="s">
+      <c r="C176" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D175" s="7" t="s">
+      <c r="D176" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E176" s="7">
         <v>74</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F176" s="6">
         <v>45107</v>
       </c>
-      <c r="G175" s="6">
+      <c r="G176" s="6">
         <v>45084</v>
       </c>
-      <c r="H175" s="7" t="s">
+      <c r="H176" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A176" s="6">
+    <row r="177" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
         <v>45078</v>
       </c>
-      <c r="B176" s="7" t="s">
+      <c r="B177" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C177" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D177" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E177" s="7">
         <v>126</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F177" s="6">
         <v>45072</v>
       </c>
-      <c r="G176" s="6">
+      <c r="G177" s="6">
         <v>45078</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H177" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A177" s="6">
+    <row r="178" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
         <v>45076</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B178" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C178" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D178" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E178" s="7">
         <v>137</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F178" s="6">
         <v>45138</v>
       </c>
-      <c r="G177" s="6">
+      <c r="G178" s="6">
         <v>45076</v>
       </c>
-      <c r="H177" s="7" t="s">
+      <c r="H178" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A178" s="6">
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
         <v>45071</v>
       </c>
-      <c r="B178" s="7" t="s">
+      <c r="B179" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C179" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D179" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E179" s="7">
         <v>90</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F179" s="6">
         <v>45070</v>
       </c>
-      <c r="G178" s="6">
+      <c r="G179" s="6">
         <v>45071</v>
       </c>
-      <c r="H178" s="7" t="s">
+      <c r="H179" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A179" s="6">
+    <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
         <v>45068</v>
       </c>
-      <c r="B179" s="7" t="s">
+      <c r="B180" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C179" s="7" t="s">
+      <c r="C180" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D180" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E180" s="7">
         <v>80</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F180" s="6">
         <v>45104</v>
       </c>
-      <c r="G179" s="6">
+      <c r="G180" s="6">
         <v>45068</v>
       </c>
-      <c r="H179" s="7" t="s">
+      <c r="H180" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A180" s="6">
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
         <v>45064</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B181" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="C181" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D181" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E181" s="7">
         <v>64</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F181" s="6">
         <v>45107</v>
       </c>
-      <c r="G180" s="6">
+      <c r="G181" s="6">
         <v>45064</v>
       </c>
-      <c r="H180" s="7" t="s">
+      <c r="H181" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A181" s="6">
+    <row r="182" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
         <v>45063</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B182" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C182" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D182" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E182" s="7">
         <v>69</v>
       </c>
-      <c r="F181" s="6">
+      <c r="F182" s="6">
         <v>45114</v>
       </c>
-      <c r="G181" s="6">
+      <c r="G182" s="6">
         <v>45063</v>
       </c>
-      <c r="H181" s="7" t="s">
+      <c r="H182" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A182" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C182" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E182" s="7">
-        <v>235</v>
-      </c>
-      <c r="F182" s="6">
-        <v>45121</v>
-      </c>
-      <c r="G182" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H182" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>45062</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>142</v>
+        <v>297</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E183" s="7">
-        <v>549</v>
+        <v>235</v>
       </c>
       <c r="F183" s="6">
-        <v>45104</v>
+        <v>45121</v>
       </c>
       <c r="G183" s="6">
         <v>45062</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>45062</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E184" s="7">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="F184" s="6">
-        <v>45138</v>
+        <v>45104</v>
       </c>
       <c r="G184" s="6">
         <v>45062</v>
       </c>
       <c r="H184" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E185" s="7">
+        <v>81</v>
+      </c>
+      <c r="F185" s="6">
+        <v>45138</v>
+      </c>
+      <c r="G185" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H185" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A185" s="6">
+    <row r="186" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
         <v>45061</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C186" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D186" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E186" s="7">
         <v>86</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F186" s="6">
         <v>45016</v>
       </c>
-      <c r="G185" s="6">
+      <c r="G186" s="6">
         <v>45061</v>
       </c>
-      <c r="H185" s="7" t="s">
+      <c r="H186" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A186" s="6">
-        <v>45056</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E186" s="7">
-        <v>23</v>
-      </c>
-      <c r="F186" s="6">
-        <v>45072</v>
-      </c>
-      <c r="G186" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H186" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>45056</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E187" s="7">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F187" s="6">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G187" s="6">
         <v>45056</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>45056</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E188" s="7">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="F188" s="6">
-        <v>45139</v>
+        <v>45107</v>
       </c>
       <c r="G188" s="6">
         <v>45056</v>
       </c>
       <c r="H188" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E189" s="7">
+        <v>27</v>
+      </c>
+      <c r="F189" s="6">
+        <v>45139</v>
+      </c>
+      <c r="G189" s="6">
+        <v>45056</v>
+      </c>
+      <c r="H189" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A189" s="6">
+    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
         <v>45054</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B190" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C190" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D190" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E190" s="7">
         <v>272</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F190" s="6">
         <v>45058</v>
       </c>
-      <c r="G189" s="6">
+      <c r="G190" s="6">
         <v>45054</v>
       </c>
-      <c r="H189" s="7" t="s">
+      <c r="H190" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A190" s="6">
-        <v>45049</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D190" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E190" s="7">
-        <v>123</v>
-      </c>
-      <c r="F190" s="6">
-        <v>45107</v>
-      </c>
-      <c r="G190" s="6">
-        <v>45049</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>45049</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C191" s="7" t="s">
         <v>12</v>
@@ -6711,7 +6717,7 @@
         <v>13</v>
       </c>
       <c r="E191" s="7">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F191" s="6">
         <v>45107</v>
@@ -6720,50 +6726,50 @@
         <v>45049</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>45049</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E192" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F192" s="6">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G192" s="6">
         <v>45049</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>45049</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E193" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F193" s="6">
         <v>45105</v>
@@ -6772,41 +6778,41 @@
         <v>45049</v>
       </c>
       <c r="H193" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E194" s="7">
+        <v>7</v>
+      </c>
+      <c r="F194" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G194" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H194" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A194" s="6">
+    <row r="195" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
         <v>45041</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B195" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D194" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E194" s="7">
-        <v>175</v>
-      </c>
-      <c r="F194" s="6">
-        <v>45065</v>
-      </c>
-      <c r="G194" s="6">
-        <v>45041</v>
-      </c>
-      <c r="H194" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A195" s="6">
-        <v>45036</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="C195" s="7" t="s">
         <v>18</v>
@@ -6815,258 +6821,258 @@
         <v>19</v>
       </c>
       <c r="E195" s="7">
+        <v>175</v>
+      </c>
+      <c r="F195" s="6">
+        <v>45065</v>
+      </c>
+      <c r="G195" s="6">
+        <v>45041</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>45036</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E196" s="7">
         <v>133</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F196" s="6">
         <v>45120</v>
       </c>
-      <c r="G195" s="6">
+      <c r="G196" s="6">
         <v>45036</v>
       </c>
-      <c r="H195" s="7" t="s">
+      <c r="H196" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A196" s="6">
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
         <v>45035</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B197" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C197" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D197" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E197" s="7">
         <v>62</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F197" s="6">
         <v>45095</v>
       </c>
-      <c r="G196" s="6">
+      <c r="G197" s="6">
         <v>45035</v>
       </c>
-      <c r="H196" s="7" t="s">
+      <c r="H197" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A197" s="6">
+    <row r="198" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
         <v>45034</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B198" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C198" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D198" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E198" s="7">
         <v>113</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F198" s="6">
         <v>45076</v>
       </c>
-      <c r="G197" s="6">
+      <c r="G198" s="6">
         <v>45034</v>
       </c>
-      <c r="H197" s="7" t="s">
+      <c r="H198" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A198" s="6">
+    <row r="199" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
         <v>45021</v>
       </c>
-      <c r="B198" s="7" t="s">
+      <c r="B199" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C198" s="7" t="s">
+      <c r="C199" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D199" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E198" s="7">
+      <c r="E199" s="7">
         <v>120</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F199" s="6">
         <v>45077</v>
       </c>
-      <c r="G198" s="6">
+      <c r="G199" s="6">
         <v>45021</v>
       </c>
-      <c r="H198" s="7" t="s">
+      <c r="H199" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A199" s="6">
+    <row r="200" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
         <v>45022</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B200" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="C199" s="7" t="s">
+      <c r="C200" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D200" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E199" s="7">
+      <c r="E200" s="7">
         <v>12</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F200" s="6">
         <v>45079</v>
       </c>
-      <c r="G199" s="6">
+      <c r="G200" s="6">
         <v>45022</v>
       </c>
-      <c r="H199" s="7" t="s">
+      <c r="H200" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A200" s="6">
-        <v>45021</v>
-      </c>
-      <c r="B200" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="D200" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E200" s="7">
-        <v>98</v>
-      </c>
-      <c r="F200" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G200" s="6">
-        <v>45021</v>
-      </c>
-      <c r="H200" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>45021</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E201" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F201" s="6">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G201" s="6">
         <v>45021</v>
       </c>
       <c r="H201" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>45021</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E202" s="7">
+        <v>100</v>
+      </c>
+      <c r="F202" s="6">
+        <v>45086</v>
+      </c>
+      <c r="G202" s="6">
+        <v>45021</v>
+      </c>
+      <c r="H202" s="7" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A202" s="6">
+    <row r="203" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
         <v>45020</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B203" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="C202" s="7" t="s">
+      <c r="C203" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D203" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E202" s="7">
+      <c r="E203" s="7">
         <v>84</v>
       </c>
-      <c r="F202" s="6">
+      <c r="F203" s="6">
         <v>45075</v>
       </c>
-      <c r="G202" s="6">
+      <c r="G203" s="6">
         <v>45020</v>
       </c>
-      <c r="H202" s="7" t="s">
+      <c r="H203" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A203" s="6">
+    <row r="204" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
         <v>45019</v>
       </c>
-      <c r="B203" s="7" t="s">
+      <c r="B204" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C204" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D204" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E203" s="7">
+      <c r="E204" s="7">
         <v>227</v>
-      </c>
-      <c r="F203" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G203" s="6">
-        <v>45019</v>
-      </c>
-      <c r="H203" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A204" s="6">
-        <v>45016</v>
-      </c>
-      <c r="B204" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C204" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D204" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E204" s="7">
-        <v>1047</v>
       </c>
       <c r="F204" s="6">
         <v>45079</v>
       </c>
       <c r="G204" s="6">
+        <v>45019</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
         <v>45016</v>
       </c>
-      <c r="H204" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A205" s="6">
-        <v>45007</v>
-      </c>
       <c r="B205" s="7" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>18</v>
@@ -7075,50 +7081,50 @@
         <v>19</v>
       </c>
       <c r="E205" s="7">
-        <v>54</v>
+        <v>1047</v>
       </c>
       <c r="F205" s="6">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G205" s="6">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H205" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
+        <v>45007</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E206" s="7">
+        <v>54</v>
+      </c>
+      <c r="F206" s="6">
+        <v>45059</v>
+      </c>
+      <c r="G206" s="6">
+        <v>45007</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
         <v>45000</v>
       </c>
-      <c r="B206" s="7" t="s">
+      <c r="B207" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C206" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D206" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E206" s="7">
-        <v>81</v>
-      </c>
-      <c r="F206" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G206" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H206" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A207" s="6">
-        <v>44999</v>
-      </c>
-      <c r="B207" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>35</v>
@@ -7127,206 +7133,206 @@
         <v>36</v>
       </c>
       <c r="E207" s="7">
+        <v>81</v>
+      </c>
+      <c r="F207" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G207" s="6">
+        <v>45000</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>44999</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E208" s="7">
         <v>105</v>
       </c>
-      <c r="F207" s="6">
+      <c r="F208" s="6">
         <v>45020</v>
       </c>
-      <c r="G207" s="6">
+      <c r="G208" s="6">
         <v>44999</v>
       </c>
-      <c r="H207" s="7" t="s">
+      <c r="H208" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A208" s="6">
+    <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
         <v>45005</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B209" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C208" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D209" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E208" s="7">
+      <c r="E209" s="7">
         <v>152</v>
       </c>
-      <c r="F208" s="6">
+      <c r="F209" s="6">
         <v>45066</v>
       </c>
-      <c r="G208" s="6">
+      <c r="G209" s="6">
         <v>45005</v>
       </c>
-      <c r="H208" s="7" t="s">
+      <c r="H209" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A209" s="6">
+    <row r="210" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
         <v>44993</v>
       </c>
-      <c r="B209" s="7" t="s">
+      <c r="B210" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C210" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D210" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E209" s="7">
+      <c r="E210" s="7">
         <v>240</v>
       </c>
-      <c r="F209" s="6">
+      <c r="F210" s="6">
         <v>45044</v>
       </c>
-      <c r="G209" s="6">
+      <c r="G210" s="6">
         <v>44993</v>
       </c>
-      <c r="H209" s="7" t="s">
+      <c r="H210" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A210" s="6">
+    <row r="211" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
         <v>44988</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B211" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C211" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D211" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E210" s="7">
+      <c r="E211" s="7">
         <v>827</v>
       </c>
-      <c r="F210" s="6">
+      <c r="F211" s="6">
         <v>45047</v>
       </c>
-      <c r="G210" s="6">
+      <c r="G211" s="6">
         <v>44988</v>
       </c>
-      <c r="H210" s="7" t="s">
+      <c r="H211" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A211" s="6">
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
         <v>44987</v>
       </c>
-      <c r="B211" s="7" t="s">
+      <c r="B212" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C212" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D212" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E211" s="7">
+      <c r="E212" s="7">
         <v>53</v>
       </c>
-      <c r="F211" s="6">
+      <c r="F212" s="6">
         <v>45048</v>
       </c>
-      <c r="G211" s="6">
+      <c r="G212" s="6">
         <v>44987</v>
       </c>
-      <c r="H211" s="7" t="s">
+      <c r="H212" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A212" s="6">
-        <v>44985</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E212" s="7">
-        <v>17</v>
-      </c>
-      <c r="F212" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G212" s="6">
-        <v>44985</v>
-      </c>
-      <c r="H212" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>44985</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D213" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E213" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F213" s="6">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G213" s="6">
         <v>44985</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>44985</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E214" s="7">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F214" s="6">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G214" s="6">
         <v>44985</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>44985</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>26</v>
@@ -7335,76 +7341,76 @@
         <v>27</v>
       </c>
       <c r="E215" s="7">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F215" s="6">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G215" s="6">
         <v>44985</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C216" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E216" s="7">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F216" s="6">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G216" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>44984</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E217" s="7">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F217" s="6">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G217" s="6">
         <v>44984</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>44984</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C218" s="7" t="s">
         <v>29</v>
@@ -7413,33 +7419,33 @@
         <v>13</v>
       </c>
       <c r="E218" s="7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F218" s="6">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G218" s="6">
         <v>44984</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>44984</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E219" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F219" s="6">
         <v>45077</v>
@@ -7448,67 +7454,67 @@
         <v>44984</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>44984</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E220" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F220" s="6">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G220" s="6">
         <v>44984</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>44984</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E221" s="7">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F221" s="6">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G221" s="6">
         <v>44984</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>44984</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C222" s="7" t="s">
         <v>189</v>
@@ -7517,27 +7523,27 @@
         <v>55</v>
       </c>
       <c r="E222" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F222" s="6">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G222" s="6">
         <v>44984</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>44984</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="D223" s="7" t="s">
         <v>55</v>
@@ -7552,41 +7558,41 @@
         <v>44984</v>
       </c>
       <c r="H223" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E224" s="7">
+        <v>10</v>
+      </c>
+      <c r="F224" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G224" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H224" s="7" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A224" s="6">
+    <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
         <v>44980</v>
       </c>
-      <c r="B224" s="7" t="s">
+      <c r="B225" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E224" s="7">
-        <v>120</v>
-      </c>
-      <c r="F224" s="6">
-        <v>45039</v>
-      </c>
-      <c r="G224" s="6">
-        <v>44980</v>
-      </c>
-      <c r="H224" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A225" s="6">
-        <v>44973</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="C225" s="7" t="s">
         <v>29</v>
@@ -7595,258 +7601,258 @@
         <v>13</v>
       </c>
       <c r="E225" s="7">
-        <v>40</v>
-      </c>
-      <c r="F225" s="8">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F225" s="6">
+        <v>45039</v>
       </c>
       <c r="G225" s="6">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>44973</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E226" s="7">
-        <v>186</v>
-      </c>
-      <c r="F226" s="6">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F226" s="8">
+        <v>44965</v>
       </c>
       <c r="G226" s="6">
         <v>44973</v>
       </c>
       <c r="H226" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>44973</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D227" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E227" s="7">
+        <v>186</v>
+      </c>
+      <c r="F227" s="6">
+        <v>44981</v>
+      </c>
+      <c r="G227" s="6">
+        <v>44973</v>
+      </c>
+      <c r="H227" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A227" s="6">
+    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
         <v>44978</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B228" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C228" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="D228" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E228" s="7">
         <v>100</v>
       </c>
-      <c r="F227" s="6">
+      <c r="F228" s="6">
         <v>45032</v>
       </c>
-      <c r="G227" s="6">
+      <c r="G228" s="6">
         <v>44978</v>
       </c>
-      <c r="H227" s="7" t="s">
+      <c r="H228" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A228" s="6">
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
         <v>44972</v>
       </c>
-      <c r="B228" s="7" t="s">
+      <c r="B229" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C229" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D229" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E228" s="7">
+      <c r="E229" s="7">
         <v>64</v>
       </c>
-      <c r="F228" s="6">
+      <c r="F229" s="6">
         <v>44974</v>
       </c>
-      <c r="G228" s="6">
+      <c r="G229" s="6">
         <v>44972</v>
       </c>
-      <c r="H228" s="7" t="s">
+      <c r="H229" s="7" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A229" s="6">
+    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
         <v>44965</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B230" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C230" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="D230" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E229" s="7">
+      <c r="E230" s="7">
         <v>92</v>
       </c>
-      <c r="F229" s="6">
+      <c r="F230" s="6">
         <v>45065</v>
       </c>
-      <c r="G229" s="6">
+      <c r="G230" s="6">
         <v>44966</v>
       </c>
-      <c r="H229" s="7" t="s">
+      <c r="H230" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A230" s="6">
-        <v>44964</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E230" s="7">
-        <v>121</v>
-      </c>
-      <c r="F230" s="6">
-        <v>45024</v>
-      </c>
-      <c r="G230" s="6">
-        <v>44964</v>
-      </c>
-      <c r="H230" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>44964</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E231" s="7">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F231" s="6">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G231" s="6">
         <v>44964</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>44964</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E232" s="7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F232" s="6">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G232" s="6">
         <v>44964</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>44964</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E233" s="7">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F233" s="6">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G233" s="6">
         <v>44964</v>
       </c>
       <c r="H233" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>44964</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="D234" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E234" s="7">
+        <v>200</v>
+      </c>
+      <c r="F234" s="6">
+        <v>45020</v>
+      </c>
+      <c r="G234" s="6">
+        <v>44964</v>
+      </c>
+      <c r="H234" s="7" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A234" s="6">
-        <v>44957</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E234" s="7">
-        <v>83</v>
-      </c>
-      <c r="F234" s="6">
-        <v>44956</v>
-      </c>
-      <c r="G234" s="6">
-        <v>44957</v>
-      </c>
-      <c r="H234" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>44957</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C235" s="7" t="s">
         <v>26</v>
@@ -7855,258 +7861,258 @@
         <v>27</v>
       </c>
       <c r="E235" s="7">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F235" s="6">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G235" s="6">
         <v>44957</v>
       </c>
       <c r="H235" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>44957</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E236" s="7">
+        <v>74</v>
+      </c>
+      <c r="F236" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G236" s="6">
+        <v>44957</v>
+      </c>
+      <c r="H236" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A236" s="6">
-        <v>44959</v>
-      </c>
-      <c r="B236" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C236" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D236" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E236" s="7">
-        <v>158</v>
-      </c>
-      <c r="F236" s="6">
-        <v>45017</v>
-      </c>
-      <c r="G236" s="6">
-        <v>44959</v>
-      </c>
-      <c r="H236" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>44959</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E237" s="7">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F237" s="6">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G237" s="6">
         <v>44959</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>44959</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>373</v>
+        <v>9</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="E238" s="7">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F238" s="6">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G238" s="6">
         <v>44959</v>
       </c>
       <c r="H238" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>44959</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E239" s="7">
+        <v>140</v>
+      </c>
+      <c r="F239" s="6">
+        <v>44972</v>
+      </c>
+      <c r="G239" s="6">
+        <v>44959</v>
+      </c>
+      <c r="H239" s="7" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A239" s="6">
+    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
         <v>44957</v>
       </c>
-      <c r="B239" s="7" t="s">
+      <c r="B240" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D240" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E239" s="7">
+      <c r="E240" s="7">
         <v>90</v>
       </c>
-      <c r="F239" s="6">
+      <c r="F240" s="6">
         <v>44957</v>
       </c>
-      <c r="G239" s="6">
+      <c r="G240" s="6">
         <v>44960</v>
       </c>
-      <c r="H239" s="7" t="s">
+      <c r="H240" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A240" s="6">
+    <row r="241" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
         <v>44953</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B241" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C241" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D241" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E240" s="7">
+      <c r="E241" s="7">
         <v>255</v>
       </c>
-      <c r="F240" s="6">
+      <c r="F241" s="6">
         <v>44942</v>
       </c>
-      <c r="G240" s="6">
+      <c r="G241" s="6">
         <v>44953</v>
       </c>
-      <c r="H240" s="7" t="s">
+      <c r="H241" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A241" s="6">
+    <row r="242" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
         <v>44946</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B242" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C242" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="D242" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E241" s="7">
+      <c r="E242" s="7">
         <v>110</v>
       </c>
-      <c r="F241" s="6">
+      <c r="F242" s="6">
         <v>45016</v>
       </c>
-      <c r="G241" s="6">
+      <c r="G242" s="6">
         <v>44946</v>
       </c>
-      <c r="H241" s="7" t="s">
+      <c r="H242" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A242" s="6">
-        <v>44951</v>
-      </c>
-      <c r="B242" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E242" s="7">
-        <v>76</v>
-      </c>
-      <c r="F242" s="6">
-        <v>44995</v>
-      </c>
-      <c r="G242" s="6">
-        <v>44951</v>
-      </c>
-      <c r="H242" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>44951</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E243" s="7">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="F243" s="6">
-        <v>45011</v>
+        <v>44995</v>
       </c>
       <c r="G243" s="6">
         <v>44951</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="D244" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E244" s="7">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F244" s="6">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G244" s="6">
+        <v>44951</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
         <v>44950</v>
       </c>
-      <c r="H244" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A245" s="6">
-        <v>44945</v>
-      </c>
       <c r="B245" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C245" s="7" t="s">
         <v>104</v>
@@ -8115,76 +8121,76 @@
         <v>55</v>
       </c>
       <c r="E245" s="7">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F245" s="6">
         <v>45016</v>
       </c>
       <c r="G245" s="6">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H245" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
+        <v>44945</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D246" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E246" s="7">
+        <v>964</v>
+      </c>
+      <c r="F246" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G246" s="6">
+        <v>44945</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
         <v>44942</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B247" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C247" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D246" s="7" t="s">
+      <c r="D247" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E246" s="7">
+      <c r="E247" s="7">
         <v>77</v>
       </c>
-      <c r="F246" s="6">
+      <c r="F247" s="6">
         <v>45002</v>
       </c>
-      <c r="G246" s="6">
+      <c r="G247" s="6">
         <v>44942</v>
       </c>
-      <c r="H246" s="7" t="s">
+      <c r="H247" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A247" s="6">
+    <row r="248" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
         <v>44938</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B248" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D247" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E247" s="7">
-        <v>139</v>
-      </c>
-      <c r="F247" s="6">
-        <v>44937</v>
-      </c>
-      <c r="G247" s="6">
-        <v>44938</v>
-      </c>
-      <c r="H247" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A248" s="6">
-        <v>44937</v>
-      </c>
-      <c r="B248" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="C248" s="7" t="s">
         <v>22</v>
@@ -8193,102 +8199,102 @@
         <v>23</v>
       </c>
       <c r="E248" s="7">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F248" s="6">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G248" s="6">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H248" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E249" s="7">
+        <v>801</v>
+      </c>
+      <c r="F249" s="6">
+        <v>45003</v>
+      </c>
+      <c r="G249" s="6">
+        <v>44937</v>
+      </c>
+      <c r="H249" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
         <v>44936</v>
       </c>
-      <c r="B249" s="7" t="s">
+      <c r="B250" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C250" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D250" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E249" s="7">
+      <c r="E250" s="7">
         <v>76</v>
       </c>
-      <c r="F249" s="6">
+      <c r="F250" s="6">
         <v>45281</v>
       </c>
-      <c r="G249" s="6">
+      <c r="G250" s="6">
         <v>44936</v>
       </c>
-      <c r="H249" s="7" t="s">
+      <c r="H250" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A250" s="6">
+    <row r="251" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A251" s="6">
         <v>44935</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B251" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="C251" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D250" s="7" t="s">
+      <c r="D251" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E250" s="7">
+      <c r="E251" s="7">
         <v>85</v>
       </c>
-      <c r="F250" s="6">
+      <c r="F251" s="6">
         <v>44971</v>
       </c>
-      <c r="G250" s="6">
+      <c r="G251" s="6">
         <v>44935</v>
       </c>
-      <c r="H250" s="7" t="s">
+      <c r="H251" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="57" x14ac:dyDescent="0.45">
-      <c r="A251" s="6">
+    <row r="252" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A252" s="6">
         <v>44931</v>
       </c>
-      <c r="B251" s="7" t="s">
+      <c r="B252" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="C251" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D251" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E251" s="7">
-        <v>370</v>
-      </c>
-      <c r="F251" s="6">
-        <v>44957</v>
-      </c>
-      <c r="G251" s="6">
-        <v>44931</v>
-      </c>
-      <c r="H251" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A252" s="6">
-        <v>44932</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="C252" s="7" t="s">
         <v>26</v>
@@ -8297,15 +8303,41 @@
         <v>27</v>
       </c>
       <c r="E252" s="7">
+        <v>370</v>
+      </c>
+      <c r="F252" s="6">
+        <v>44957</v>
+      </c>
+      <c r="G252" s="6">
+        <v>44931</v>
+      </c>
+      <c r="H252" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A253" s="6">
+        <v>44932</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D253" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E253" s="7">
         <v>20</v>
       </c>
-      <c r="F252" s="6">
+      <c r="F253" s="6">
         <v>44988</v>
       </c>
-      <c r="G252" s="6">
+      <c r="G253" s="6">
         <v>44932</v>
       </c>
-      <c r="H252" s="7" t="s">
+      <c r="H253" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8315,26 +8347,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="01c2736d-8da8-4d13-83cd-86a6b9641723">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B95489E8B586E4FBA5FBB272EA6999A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be38a2e4ad89fdee7a84b40cf653977c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01c2736d-8da8-4d13-83cd-86a6b9641723" xmlns:ns3="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb31f235669b04b22f9e1f3a171cde4e" ns2:_="" ns3:_="">
     <xsd:import namespace="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
@@ -8517,32 +8529,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="01c2736d-8da8-4d13-83cd-86a6b9641723">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA01D299-CE8A-41DC-A31C-F59909535BF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8559,4 +8566,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/matthew_mazer_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{7B6E47C9-91FB-4936-A54D-CED818DFE576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD87E52-AA93-4AB8-9619-B7E9D48B0C2A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{7B6E47C9-91FB-4936-A54D-CED818DFE576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE52012A-EF72-4E6F-8A5B-A317168918EB}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="5250" windowWidth="38700" windowHeight="15345" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="5205" yWindow="2595" windowWidth="20160" windowHeight="15345" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="446">
   <si>
     <t>NOTICE_DATE</t>
   </si>
@@ -1371,13 +1371,16 @@
   </si>
   <si>
     <t>Stanley Black and Decker</t>
+  </si>
+  <si>
+    <t>Kroger Delivery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1397,6 +1400,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1455,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1489,6 +1497,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1804,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89BCF3A-B17F-44A2-A200-ED80B6FEE65F}">
-  <dimension ref="A1:H268"/>
+  <dimension ref="A1:H269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,290 +1863,290 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>45365</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>441</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="10">
-        <v>109</v>
-      </c>
-      <c r="F2" s="9">
-        <v>45428</v>
-      </c>
-      <c r="G2" s="9">
-        <v>45365</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>45377</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="13">
+        <v>52</v>
+      </c>
+      <c r="F2" s="12">
+        <v>45437</v>
+      </c>
+      <c r="G2" s="12">
+        <v>45377</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45365</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>211</v>
+        <v>442</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="F3" s="9">
-        <v>45422</v>
+        <v>45428</v>
       </c>
       <c r="G3" s="9">
         <v>45365</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>45365</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="10">
+        <v>127</v>
+      </c>
+      <c r="F4" s="9">
+        <v>45422</v>
+      </c>
+      <c r="G4" s="9">
+        <v>45365</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>45362</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="10">
-        <v>133</v>
-      </c>
-      <c r="F4" s="9">
-        <v>45423</v>
-      </c>
-      <c r="G4" s="9">
-        <v>45362</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="F5" s="9">
-        <v>45359</v>
+        <v>45423</v>
       </c>
       <c r="G5" s="9">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6" s="10">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F6" s="9">
-        <v>45412</v>
+        <v>45359</v>
       </c>
       <c r="G6" s="9">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45357</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E7" s="10">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="F7" s="9">
-        <v>45357</v>
+        <v>45412</v>
       </c>
       <c r="G7" s="9">
         <v>45357</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
+        <v>45357</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E8" s="10">
+        <v>70</v>
+      </c>
+      <c r="F8" s="9">
+        <v>45357</v>
+      </c>
+      <c r="G8" s="9">
+        <v>45357</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
         <v>45355</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E9" s="10">
         <v>29</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F9" s="9">
         <v>45412</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G9" s="9">
         <v>45355</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>45351</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10">
-        <v>9</v>
-      </c>
-      <c r="F9" s="9">
-        <v>45359</v>
-      </c>
-      <c r="G9" s="9">
-        <v>45351</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45351</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E10" s="10">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="F10" s="9">
-        <v>45412</v>
+        <v>45359</v>
       </c>
       <c r="G10" s="9">
         <v>45351</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>45351</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10">
+        <v>111</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45412</v>
+      </c>
+      <c r="G11" s="9">
+        <v>45351</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="12" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>45349</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>64</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F12" s="9">
         <v>45413</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G12" s="9">
         <v>45349</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>45348</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="10">
-        <v>38</v>
-      </c>
-      <c r="F12" s="9">
-        <v>45404</v>
-      </c>
-      <c r="G12" s="9">
-        <v>45348</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -2140,33 +2154,33 @@
         <v>45348</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E13" s="10">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F13" s="9">
-        <v>45362</v>
+        <v>45404</v>
       </c>
       <c r="G13" s="9">
         <v>45348</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>18</v>
@@ -2175,206 +2189,206 @@
         <v>19</v>
       </c>
       <c r="E14" s="10">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F14" s="9">
-        <v>45404</v>
+        <v>45362</v>
       </c>
       <c r="G14" s="9">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>428</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" s="10">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F15" s="9">
-        <v>45343</v>
+        <v>45404</v>
       </c>
       <c r="G15" s="9">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45344</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="E16" s="10">
-        <v>435</v>
+        <v>59</v>
       </c>
       <c r="F16" s="9">
-        <v>45411</v>
+        <v>45343</v>
       </c>
       <c r="G16" s="9">
         <v>45344</v>
       </c>
       <c r="H16" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>45344</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="10">
+        <v>435</v>
+      </c>
+      <c r="F17" s="9">
+        <v>45411</v>
+      </c>
+      <c r="G17" s="9">
+        <v>45344</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="18" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
         <v>45337</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E18" s="10">
         <v>104</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F18" s="9">
         <v>45399</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G18" s="9">
         <v>45337</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>45334</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="10">
-        <v>65</v>
-      </c>
-      <c r="F18" s="9">
-        <v>45392</v>
-      </c>
-      <c r="G18" s="9">
-        <v>45334</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
+        <v>45334</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="10">
+        <v>65</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45392</v>
+      </c>
+      <c r="G19" s="9">
+        <v>45334</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>45324</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E20" s="10">
         <v>176</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>45382</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G20" s="9">
         <v>45324</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="21" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>45323</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B21" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>103</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F21" s="9">
         <v>45634</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>45323</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>45321</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="10">
-        <v>321</v>
-      </c>
-      <c r="F21" s="9">
-        <v>45381</v>
-      </c>
-      <c r="G21" s="9">
-        <v>45321</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>18</v>
@@ -2383,59 +2397,59 @@
         <v>19</v>
       </c>
       <c r="E22" s="10">
-        <v>153</v>
+        <v>321</v>
       </c>
       <c r="F22" s="9">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="G22" s="9">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45316</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E23" s="10">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="F23" s="9">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="G23" s="9">
         <v>45316</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45316</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="10">
-        <v>283</v>
+        <v>54</v>
       </c>
       <c r="F24" s="9">
         <v>45374</v>
@@ -2447,12 +2461,12 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>29</v>
@@ -2461,224 +2475,224 @@
         <v>13</v>
       </c>
       <c r="E25" s="10">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="F25" s="9">
-        <v>45375</v>
+        <v>45374</v>
       </c>
       <c r="G25" s="9">
-        <v>45315</v>
+        <v>45316</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45315</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>299</v>
+        <v>29</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="E26" s="10">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F26" s="9">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="G26" s="9">
         <v>45315</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>45315</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="10">
+        <v>52</v>
+      </c>
+      <c r="F27" s="9">
+        <v>45383</v>
+      </c>
+      <c r="G27" s="9">
+        <v>45315</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+    <row r="28" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>45314</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E28" s="10">
         <v>178</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F28" s="9">
         <v>45374</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G28" s="9">
         <v>45314</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>45313</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="10">
-        <v>63</v>
-      </c>
-      <c r="F28" s="9">
-        <v>45369</v>
-      </c>
-      <c r="G28" s="9">
-        <v>45313</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E29" s="10">
-        <v>334</v>
+        <v>63</v>
       </c>
       <c r="F29" s="9">
-        <v>45305</v>
+        <v>45369</v>
       </c>
       <c r="G29" s="9">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E30" s="10">
-        <v>51</v>
+        <v>334</v>
       </c>
       <c r="F30" s="9">
-        <v>45324</v>
+        <v>45305</v>
       </c>
       <c r="G30" s="9">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
+        <v>45309</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="10">
+        <v>51</v>
+      </c>
+      <c r="F31" s="9">
+        <v>45324</v>
+      </c>
+      <c r="G31" s="9">
+        <v>45309</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>45308</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B32" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E32" s="10">
         <v>109</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F32" s="9">
         <v>45351</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G32" s="9">
         <v>45308</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+    <row r="33" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
         <v>45307</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>63</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <v>45369</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G33" s="9">
         <v>45307</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H33" s="10" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
-        <v>45303</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="10">
-        <v>44</v>
-      </c>
-      <c r="F33" s="9">
-        <v>45295</v>
-      </c>
-      <c r="G33" s="9">
-        <v>45303</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2686,13 +2700,13 @@
         <v>45303</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="E34" s="10">
         <v>44</v>
@@ -2704,371 +2718,371 @@
         <v>45303</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>45303</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="E35" s="10">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F35" s="9">
-        <v>45300</v>
+        <v>45295</v>
       </c>
       <c r="G35" s="9">
         <v>45303</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
+        <v>45303</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="10">
+        <v>92</v>
+      </c>
+      <c r="F36" s="9">
+        <v>45300</v>
+      </c>
+      <c r="G36" s="9">
+        <v>45303</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
         <v>45307</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B37" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>63</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F37" s="9">
         <v>45369</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G37" s="9">
         <v>45307</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H37" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>45300</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="10">
-        <v>176</v>
-      </c>
-      <c r="F37" s="9">
-        <v>45353</v>
-      </c>
-      <c r="G37" s="9">
-        <v>45300</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>45300</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E38" s="10">
-        <v>71</v>
+        <v>176</v>
       </c>
       <c r="F38" s="9">
-        <v>45339</v>
+        <v>45353</v>
       </c>
       <c r="G38" s="9">
         <v>45300</v>
       </c>
       <c r="H38" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>45300</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="10">
+        <v>71</v>
+      </c>
+      <c r="F39" s="9">
+        <v>45339</v>
+      </c>
+      <c r="G39" s="9">
+        <v>45300</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>45299</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>390</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" s="10">
-        <v>75</v>
-      </c>
-      <c r="F39" s="9">
-        <v>45266</v>
-      </c>
-      <c r="G39" s="9">
-        <v>45299</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>45299</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="E40" s="10">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="F40" s="9">
-        <v>45302</v>
+        <v>45266</v>
       </c>
       <c r="G40" s="9">
         <v>45299</v>
       </c>
       <c r="H40" s="10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>45299</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="10">
+        <v>103</v>
+      </c>
+      <c r="F41" s="9">
+        <v>45302</v>
+      </c>
+      <c r="G41" s="9">
+        <v>45299</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>45296</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="10">
-        <v>365</v>
-      </c>
-      <c r="F41" s="9">
-        <v>45350</v>
-      </c>
-      <c r="G41" s="9">
-        <v>45296</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>45296</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E42" s="10">
-        <v>60</v>
+        <v>365</v>
       </c>
       <c r="F42" s="9">
-        <v>45337</v>
+        <v>45350</v>
       </c>
       <c r="G42" s="9">
         <v>45296</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
+        <v>45296</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="10">
+        <v>60</v>
+      </c>
+      <c r="F43" s="9">
+        <v>45337</v>
+      </c>
+      <c r="G43" s="9">
+        <v>45296</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>45295</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B44" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E44" s="10">
         <v>76</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F44" s="9">
         <v>45332</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G44" s="9">
         <v>45295</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
         <v>45278</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B45" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>256</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F45" s="9">
         <v>45275</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G45" s="9">
         <v>45278</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>45271</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D46" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E46" s="10">
         <v>12</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F46" s="9">
         <v>45328</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G46" s="9">
         <v>45271</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>45267</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B47" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>75</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F47" s="9">
         <v>45266</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G47" s="9">
         <v>45267</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
-        <v>45264</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="10">
-        <v>89</v>
-      </c>
-      <c r="F47" s="9">
-        <v>45324</v>
-      </c>
-      <c r="G47" s="9">
-        <v>45264</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>45264</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="10">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="F48" s="9">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="G48" s="9">
         <v>45264</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3076,7 +3090,7 @@
         <v>45264</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>12</v>
@@ -3085,120 +3099,120 @@
         <v>13</v>
       </c>
       <c r="E49" s="10">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F49" s="9">
-        <v>45264</v>
+        <v>45322</v>
       </c>
       <c r="G49" s="9">
         <v>45264</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>45264</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E50" s="10">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="F50" s="9">
-        <v>45322</v>
+        <v>45264</v>
       </c>
       <c r="G50" s="9">
         <v>45264</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E51" s="10">
-        <v>577</v>
+        <v>92</v>
       </c>
       <c r="F51" s="9">
-        <v>45317</v>
+        <v>45322</v>
       </c>
       <c r="G51" s="9">
-        <v>45261</v>
+        <v>45264</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
-        <v>45257</v>
+        <v>45261</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E52" s="10">
-        <v>9</v>
+        <v>577</v>
       </c>
       <c r="F52" s="9">
-        <v>45252</v>
+        <v>45317</v>
       </c>
       <c r="G52" s="9">
-        <v>45257</v>
+        <v>45261</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>45257</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E53" s="10">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="F53" s="9">
-        <v>45266</v>
+        <v>45252</v>
       </c>
       <c r="G53" s="9">
         <v>45257</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3206,7 +3220,7 @@
         <v>45257</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>29</v>
@@ -3215,7 +3229,7 @@
         <v>13</v>
       </c>
       <c r="E54" s="10">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="F54" s="9">
         <v>45266</v>
@@ -3232,59 +3246,59 @@
         <v>45257</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E55" s="10">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F55" s="9">
-        <v>45268</v>
+        <v>45266</v>
       </c>
       <c r="G55" s="9">
         <v>45257</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>45257</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E56" s="10">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="F56" s="9">
-        <v>45252</v>
+        <v>45268</v>
       </c>
       <c r="G56" s="9">
         <v>45257</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>26</v>
@@ -3293,13 +3307,13 @@
         <v>27</v>
       </c>
       <c r="E57" s="10">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="F57" s="9">
-        <v>45240</v>
+        <v>45252</v>
       </c>
       <c r="G57" s="9">
-        <v>45243</v>
+        <v>45257</v>
       </c>
       <c r="H57" s="10" t="s">
         <v>26</v>
@@ -3307,54 +3321,54 @@
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
+        <v>45243</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="10">
+        <v>53</v>
+      </c>
+      <c r="F58" s="9">
         <v>45240</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="G58" s="9">
+        <v>45243</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>45240</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D59" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>150</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F59" s="9">
         <v>45238</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G59" s="9">
         <v>45240</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H59" s="10" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
-        <v>45238</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="5">
-        <v>2</v>
-      </c>
-      <c r="F59" s="4">
-        <v>45291</v>
-      </c>
-      <c r="G59" s="4">
-        <v>45238</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3362,7 +3376,7 @@
         <v>45238</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>26</v>
@@ -3374,13 +3388,13 @@
         <v>2</v>
       </c>
       <c r="F60" s="4">
-        <v>45290</v>
+        <v>45291</v>
       </c>
       <c r="G60" s="4">
         <v>45238</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3388,25 +3402,25 @@
         <v>45238</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E61" s="5">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="F61" s="4">
-        <v>45272</v>
+        <v>45290</v>
       </c>
       <c r="G61" s="4">
         <v>45238</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3414,7 +3428,7 @@
         <v>45238</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>18</v>
@@ -3423,68 +3437,68 @@
         <v>19</v>
       </c>
       <c r="E62" s="5">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="4">
-        <v>45215</v>
+        <v>45272</v>
       </c>
       <c r="G62" s="4">
         <v>45238</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>45238</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E63" s="5">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="F63" s="4">
-        <v>45265</v>
+        <v>45215</v>
       </c>
       <c r="G63" s="4">
         <v>45238</v>
       </c>
       <c r="H63" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>45238</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="5">
+        <v>110</v>
+      </c>
+      <c r="F64" s="4">
+        <v>45265</v>
+      </c>
+      <c r="G64" s="4">
+        <v>45238</v>
+      </c>
+      <c r="H64" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>45236</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" s="5">
-        <v>363</v>
-      </c>
-      <c r="F64" s="4">
-        <v>44966</v>
-      </c>
-      <c r="G64" s="4">
-        <v>45236</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3492,59 +3506,59 @@
         <v>45236</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E65" s="5">
-        <v>34</v>
+        <v>363</v>
       </c>
       <c r="F65" s="4">
-        <v>44931</v>
+        <v>44966</v>
       </c>
       <c r="G65" s="4">
         <v>45236</v>
       </c>
       <c r="H65" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>45236</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>45230</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="D66" s="5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E66" s="5">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F66" s="4">
-        <v>45264</v>
+        <v>44931</v>
       </c>
       <c r="G66" s="4">
-        <v>45230</v>
+        <v>45236</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>45230</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>49</v>
@@ -3553,7 +3567,7 @@
         <v>50</v>
       </c>
       <c r="E67" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F67" s="4">
         <v>45264</v>
@@ -3565,56 +3579,56 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>45230</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E68" s="5">
-        <v>76</v>
+        <v>10</v>
       </c>
       <c r="F68" s="4">
-        <v>45290</v>
+        <v>45264</v>
       </c>
       <c r="G68" s="4">
         <v>45230</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E69" s="5">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="F69" s="4">
-        <v>45275</v>
+        <v>45290</v>
       </c>
       <c r="G69" s="4">
-        <v>45225</v>
+        <v>45230</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3622,16 +3636,16 @@
         <v>45225</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E70" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F70" s="4">
         <v>45275</v>
@@ -3640,7 +3654,7 @@
         <v>45225</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3648,16 +3662,16 @@
         <v>45225</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E71" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F71" s="4">
         <v>45275</v>
@@ -3666,7 +3680,7 @@
         <v>45225</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3674,16 +3688,16 @@
         <v>45225</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E72" s="5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F72" s="4">
         <v>45275</v>
@@ -3692,7 +3706,7 @@
         <v>45225</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3700,16 +3714,16 @@
         <v>45225</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E73" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F73" s="4">
         <v>45275</v>
@@ -3718,7 +3732,7 @@
         <v>45225</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3726,16 +3740,16 @@
         <v>45225</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E74" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F74" s="4">
         <v>45275</v>
@@ -3744,7 +3758,7 @@
         <v>45225</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3752,16 +3766,16 @@
         <v>45225</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E75" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F75" s="4">
         <v>45275</v>
@@ -3770,7 +3784,7 @@
         <v>45225</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3778,51 +3792,51 @@
         <v>45225</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="E76" s="5">
         <v>8</v>
       </c>
       <c r="F76" s="4">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G76" s="4">
         <v>45225</v>
       </c>
       <c r="H76" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>45225</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="5">
+        <v>8</v>
+      </c>
+      <c r="F77" s="4">
+        <v>45225</v>
+      </c>
+      <c r="G77" s="4">
+        <v>45225</v>
+      </c>
+      <c r="H77" s="5" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>45225</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E77" s="7">
-        <v>7</v>
-      </c>
-      <c r="F77" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G77" s="6">
-        <v>45225</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3830,25 +3844,25 @@
         <v>45225</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="E78" s="7">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F78" s="6">
-        <v>45225</v>
+        <v>45275</v>
       </c>
       <c r="G78" s="6">
         <v>45225</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3856,25 +3870,25 @@
         <v>45225</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E79" s="7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F79" s="6">
-        <v>45275</v>
+        <v>45225</v>
       </c>
       <c r="G79" s="6">
         <v>45225</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3882,16 +3896,16 @@
         <v>45225</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="E80" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F80" s="6">
         <v>45275</v>
@@ -3900,7 +3914,7 @@
         <v>45225</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3908,16 +3922,16 @@
         <v>45225</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="E81" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F81" s="6">
         <v>45275</v>
@@ -3926,7 +3940,7 @@
         <v>45225</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3934,16 +3948,16 @@
         <v>45225</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E82" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F82" s="6">
         <v>45275</v>
@@ -3952,33 +3966,33 @@
         <v>45225</v>
       </c>
       <c r="H82" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>45225</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E83" s="7">
+        <v>6</v>
+      </c>
+      <c r="F83" s="6">
+        <v>45275</v>
+      </c>
+      <c r="G83" s="6">
+        <v>45225</v>
+      </c>
+      <c r="H83" s="7" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>45224</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E83" s="7">
-        <v>400</v>
-      </c>
-      <c r="F83" s="6">
-        <v>45291</v>
-      </c>
-      <c r="G83" s="6">
-        <v>45224</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -3986,7 +4000,7 @@
         <v>45224</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>22</v>
@@ -3995,7 +4009,7 @@
         <v>23</v>
       </c>
       <c r="E84" s="7">
-        <v>778</v>
+        <v>400</v>
       </c>
       <c r="F84" s="6">
         <v>45291</v>
@@ -4007,56 +4021,56 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E85" s="7">
-        <v>6</v>
+        <v>778</v>
       </c>
       <c r="F85" s="6">
-        <v>45296</v>
+        <v>45291</v>
       </c>
       <c r="G85" s="6">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>45222</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E86" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F86" s="6">
-        <v>45280</v>
+        <v>45296</v>
       </c>
       <c r="G86" s="6">
         <v>45222</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4064,16 +4078,16 @@
         <v>45222</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E87" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F87" s="6">
         <v>45280</v>
@@ -4082,7 +4096,7 @@
         <v>45222</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4090,16 +4104,16 @@
         <v>45222</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E88" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F88" s="6">
         <v>45280</v>
@@ -4108,7 +4122,7 @@
         <v>45222</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4116,7 +4130,7 @@
         <v>45222</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>115</v>
@@ -4125,7 +4139,7 @@
         <v>99</v>
       </c>
       <c r="E89" s="7">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="F89" s="6">
         <v>45280</v>
@@ -4134,33 +4148,33 @@
         <v>45222</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E90" s="7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F90" s="6">
         <v>45280</v>
       </c>
       <c r="G90" s="6">
-        <v>45219</v>
+        <v>45222</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4168,16 +4182,16 @@
         <v>45219</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D91" s="7" t="s">
         <v>112</v>
       </c>
       <c r="E91" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F91" s="6">
         <v>45280</v>
@@ -4186,7 +4200,7 @@
         <v>45219</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4194,16 +4208,16 @@
         <v>45219</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E92" s="7">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F92" s="6">
         <v>45280</v>
@@ -4212,33 +4226,33 @@
         <v>45219</v>
       </c>
       <c r="H92" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>45219</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="7">
+        <v>20</v>
+      </c>
+      <c r="F93" s="6">
+        <v>45280</v>
+      </c>
+      <c r="G93" s="6">
+        <v>45219</v>
+      </c>
+      <c r="H93" s="7" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
-        <v>45218</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E93" s="7">
-        <v>6</v>
-      </c>
-      <c r="F93" s="6">
-        <v>45231</v>
-      </c>
-      <c r="G93" s="6">
-        <v>45218</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4246,16 +4260,16 @@
         <v>45218</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="E94" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F94" s="6">
         <v>45231</v>
@@ -4264,7 +4278,7 @@
         <v>45218</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4272,16 +4286,16 @@
         <v>45218</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>129</v>
       </c>
       <c r="E95" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F95" s="6">
         <v>45231</v>
@@ -4290,24 +4304,24 @@
         <v>45218</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>45218</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="E96" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F96" s="6">
         <v>45231</v>
@@ -4316,85 +4330,85 @@
         <v>45218</v>
       </c>
       <c r="H96" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>45218</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E97" s="7">
+        <v>7</v>
+      </c>
+      <c r="F97" s="6">
+        <v>45231</v>
+      </c>
+      <c r="G97" s="6">
+        <v>45218</v>
+      </c>
+      <c r="H97" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
         <v>45217</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B98" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C98" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D98" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E98" s="7">
         <v>288</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F98" s="6">
         <v>45291</v>
       </c>
-      <c r="G97" s="6">
+      <c r="G98" s="6">
         <v>45217</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H98" s="7" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
-        <v>45211</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="7">
-        <v>122</v>
-      </c>
-      <c r="F98" s="6">
-        <v>45275</v>
-      </c>
-      <c r="G98" s="6">
-        <v>45211</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E99" s="7">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F99" s="6">
-        <v>45269</v>
+        <v>45275</v>
       </c>
       <c r="G99" s="6">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>141</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4402,51 +4416,51 @@
         <v>45209</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E100" s="7">
-        <v>351</v>
+        <v>136</v>
       </c>
       <c r="F100" s="6">
-        <v>45268</v>
+        <v>45269</v>
       </c>
       <c r="G100" s="6">
         <v>45209</v>
       </c>
       <c r="H100" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>45209</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="7">
+        <v>351</v>
+      </c>
+      <c r="F101" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G101" s="6">
+        <v>45209</v>
+      </c>
+      <c r="H101" s="7" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
-        <v>45208</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E101" s="7">
-        <v>113</v>
-      </c>
-      <c r="F101" s="6">
-        <v>45257</v>
-      </c>
-      <c r="G101" s="6">
-        <v>45208</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4454,51 +4468,51 @@
         <v>45208</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E102" s="7">
-        <v>268</v>
+        <v>113</v>
       </c>
       <c r="F102" s="6">
-        <v>45260</v>
+        <v>45257</v>
       </c>
       <c r="G102" s="6">
         <v>45208</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>45208</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="E103" s="7">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="F103" s="6">
-        <v>45197</v>
+        <v>45260</v>
       </c>
       <c r="G103" s="6">
         <v>45208</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4506,233 +4520,233 @@
         <v>45208</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E104" s="7">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="F104" s="6">
-        <v>45172</v>
+        <v>45197</v>
       </c>
       <c r="G104" s="6">
         <v>45208</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>45208</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E105" s="7">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="F105" s="6">
-        <v>45268</v>
+        <v>45172</v>
       </c>
       <c r="G105" s="6">
         <v>45208</v>
       </c>
       <c r="H105" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>45208</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="6">
+      <c r="D106" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E106" s="7">
+        <v>38</v>
+      </c>
+      <c r="F106" s="6">
+        <v>45268</v>
+      </c>
+      <c r="G106" s="6">
+        <v>45208</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
         <v>45205</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B107" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C107" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D107" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E107" s="7">
         <v>239</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F107" s="6">
         <v>45226</v>
       </c>
-      <c r="G106" s="6">
+      <c r="G107" s="6">
         <v>45205</v>
       </c>
-      <c r="H106" s="7" t="s">
+      <c r="H107" s="7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="6">
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
         <v>45203</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B108" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E107" s="7">
-        <v>76</v>
-      </c>
-      <c r="F107" s="6">
-        <v>45262</v>
-      </c>
-      <c r="G107" s="6">
-        <v>45203</v>
-      </c>
-      <c r="H107" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="6">
-        <v>45201</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D108" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="7">
+        <v>76</v>
+      </c>
+      <c r="F108" s="6">
+        <v>45262</v>
+      </c>
+      <c r="G108" s="6">
+        <v>45203</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>45201</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E109" s="7">
         <v>558</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F109" s="6">
         <v>45261</v>
       </c>
-      <c r="G108" s="6">
+      <c r="G109" s="6">
         <v>45201</v>
       </c>
-      <c r="H108" s="7" t="s">
+      <c r="H109" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="6">
+    <row r="110" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
         <v>45190</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B110" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C110" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D110" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E110" s="7">
         <v>300</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F110" s="6">
         <v>45215</v>
       </c>
-      <c r="G109" s="6">
+      <c r="G110" s="6">
         <v>45190</v>
       </c>
-      <c r="H109" s="7" t="s">
+      <c r="H110" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="6">
-        <v>45188</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E110" s="7">
-        <v>103</v>
-      </c>
-      <c r="F110" s="6">
-        <v>45176</v>
-      </c>
-      <c r="G110" s="6">
-        <v>45188</v>
-      </c>
-      <c r="H110" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>45188</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E111" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F111" s="6">
-        <v>45228</v>
+        <v>45176</v>
       </c>
       <c r="G111" s="6">
         <v>45188</v>
       </c>
       <c r="H111" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>45188</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="7">
+        <v>104</v>
+      </c>
+      <c r="F112" s="6">
+        <v>45228</v>
+      </c>
+      <c r="G112" s="6">
+        <v>45188</v>
+      </c>
+      <c r="H112" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="6">
-        <v>45187</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D112" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E112" s="7">
-        <v>163</v>
-      </c>
-      <c r="F112" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G112" s="6">
-        <v>45187</v>
-      </c>
-      <c r="H112" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4740,16 +4754,16 @@
         <v>45187</v>
       </c>
       <c r="B113" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" s="7">
         <v>163</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E113" s="7">
-        <v>71</v>
       </c>
       <c r="F113" s="6">
         <v>45230</v>
@@ -4758,7 +4772,7 @@
         <v>45187</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -4766,7 +4780,7 @@
         <v>45187</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>49</v>
@@ -4775,7 +4789,7 @@
         <v>50</v>
       </c>
       <c r="E114" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F114" s="6">
         <v>45230</v>
@@ -4792,16 +4806,16 @@
         <v>45187</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="E115" s="7">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F115" s="6">
         <v>45230</v>
@@ -4810,21 +4824,21 @@
         <v>45187</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>45187</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="E116" s="7">
         <v>87</v>
@@ -4836,7 +4850,7 @@
         <v>45187</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4844,16 +4858,16 @@
         <v>45187</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="E117" s="7">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="F117" s="6">
         <v>45230</v>
@@ -4862,24 +4876,24 @@
         <v>45187</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>45187</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="E118" s="7">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="F118" s="6">
         <v>45230</v>
@@ -4888,119 +4902,119 @@
         <v>45187</v>
       </c>
       <c r="H118" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>45187</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E119" s="7">
+        <v>97</v>
+      </c>
+      <c r="F119" s="6">
+        <v>45230</v>
+      </c>
+      <c r="G119" s="6">
+        <v>45187</v>
+      </c>
+      <c r="H119" s="7" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="6">
-        <v>45181</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E119" s="7">
-        <v>27</v>
-      </c>
-      <c r="F119" s="6">
-        <v>45180</v>
-      </c>
-      <c r="G119" s="6">
-        <v>45181</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E120" s="7">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F120" s="6">
-        <v>45236</v>
+        <v>45180</v>
       </c>
       <c r="G120" s="6">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
+        <v>45177</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E121" s="7">
+        <v>31</v>
+      </c>
+      <c r="F121" s="6">
+        <v>45236</v>
+      </c>
+      <c r="G121" s="6">
+        <v>45177</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
         <v>45176</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B122" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C122" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D122" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E122" s="7">
         <v>165</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F122" s="6">
         <v>45229</v>
       </c>
-      <c r="G121" s="6">
+      <c r="G122" s="6">
         <v>45176</v>
       </c>
-      <c r="H121" s="7" t="s">
+      <c r="H122" s="7" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A122" s="6">
-        <v>45169</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="7">
-        <v>92</v>
-      </c>
-      <c r="F122" s="6">
-        <v>45230</v>
-      </c>
-      <c r="G122" s="6">
-        <v>45169</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>45167</v>
+        <v>45169</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>26</v>
@@ -5009,16 +5023,16 @@
         <v>27</v>
       </c>
       <c r="E123" s="7">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="F123" s="6">
-        <v>45247</v>
+        <v>45230</v>
       </c>
       <c r="G123" s="6">
-        <v>45167</v>
+        <v>45169</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5026,103 +5040,103 @@
         <v>45167</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E124" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F124" s="6">
-        <v>45226</v>
+        <v>45247</v>
       </c>
       <c r="G124" s="6">
         <v>45167</v>
       </c>
       <c r="H124" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>45167</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" s="7">
+        <v>56</v>
+      </c>
+      <c r="F125" s="6">
+        <v>45226</v>
+      </c>
+      <c r="G125" s="6">
+        <v>45167</v>
+      </c>
+      <c r="H125" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="6">
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
         <v>45163</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B126" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C126" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D126" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E126" s="7">
         <v>83</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F126" s="6">
         <v>45233</v>
       </c>
-      <c r="G125" s="6">
+      <c r="G126" s="6">
         <v>45163</v>
       </c>
-      <c r="H125" s="7" t="s">
+      <c r="H126" s="7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="6">
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
         <v>45162</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B127" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C127" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D127" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E127" s="7">
         <v>15</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F127" s="6">
         <v>45225</v>
       </c>
-      <c r="G126" s="6">
+      <c r="G127" s="6">
         <v>45162</v>
       </c>
-      <c r="H126" s="7" t="s">
+      <c r="H127" s="7" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="6">
-        <v>45161</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" s="7">
-        <v>130</v>
-      </c>
-      <c r="F127" s="6">
-        <v>45261</v>
-      </c>
-      <c r="G127" s="6">
-        <v>45161</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5130,51 +5144,51 @@
         <v>45161</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E128" s="7">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="F128" s="6">
-        <v>45220</v>
+        <v>45261</v>
       </c>
       <c r="G128" s="6">
         <v>45161</v>
       </c>
       <c r="H128" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>45161</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="7">
+        <v>167</v>
+      </c>
+      <c r="F129" s="6">
+        <v>45220</v>
+      </c>
+      <c r="G129" s="6">
+        <v>45161</v>
+      </c>
+      <c r="H129" s="7" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="6">
-        <v>45156</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="7">
-        <v>163</v>
-      </c>
-      <c r="F129" s="6">
-        <v>45201</v>
-      </c>
-      <c r="G129" s="6">
-        <v>45156</v>
-      </c>
-      <c r="H129" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5182,7 +5196,7 @@
         <v>45156</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>29</v>
@@ -5191,7 +5205,7 @@
         <v>13</v>
       </c>
       <c r="E130" s="7">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="F130" s="6">
         <v>45201</v>
@@ -5200,7 +5214,7 @@
         <v>45156</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5208,7 +5222,7 @@
         <v>45156</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C131" s="7" t="s">
         <v>29</v>
@@ -5217,7 +5231,7 @@
         <v>13</v>
       </c>
       <c r="E131" s="7">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="F131" s="6">
         <v>45201</v>
@@ -5226,59 +5240,59 @@
         <v>45156</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>45156</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E132" s="7">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="F132" s="6">
-        <v>45245</v>
+        <v>45201</v>
       </c>
       <c r="G132" s="6">
         <v>45156</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E133" s="7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F133" s="6">
+        <v>45245</v>
+      </c>
+      <c r="G133" s="6">
         <v>45156</v>
       </c>
-      <c r="G133" s="6">
-        <v>45155</v>
-      </c>
       <c r="H133" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5286,16 +5300,16 @@
         <v>45155</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E134" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F134" s="6">
         <v>45156</v>
@@ -5304,7 +5318,7 @@
         <v>45155</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5312,16 +5326,16 @@
         <v>45155</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C135" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E135" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F135" s="6">
         <v>45156</v>
@@ -5330,59 +5344,59 @@
         <v>45155</v>
       </c>
       <c r="H135" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>45155</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="7">
+        <v>16</v>
+      </c>
+      <c r="F136" s="6">
+        <v>45156</v>
+      </c>
+      <c r="G136" s="6">
+        <v>45155</v>
+      </c>
+      <c r="H136" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="6">
+    <row r="137" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
         <v>45121</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B137" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C137" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D137" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E137" s="7">
         <v>94</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F137" s="6">
         <v>45177</v>
       </c>
-      <c r="G136" s="6">
+      <c r="G137" s="6">
         <v>45121</v>
       </c>
-      <c r="H136" s="7" t="s">
+      <c r="H137" s="7" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="6">
-        <v>45146</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E137" s="7">
-        <v>80</v>
-      </c>
-      <c r="F137" s="6">
-        <v>45226</v>
-      </c>
-      <c r="G137" s="6">
-        <v>45146</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5390,45 +5404,45 @@
         <v>45146</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E138" s="7">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F138" s="6">
-        <v>45145</v>
+        <v>45226</v>
       </c>
       <c r="G138" s="6">
         <v>45146</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>45146</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E139" s="7">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="F139" s="6">
-        <v>45201</v>
+        <v>45145</v>
       </c>
       <c r="G139" s="6">
         <v>45146</v>
@@ -5437,151 +5451,151 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E140" s="7">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F140" s="6">
-        <v>45138</v>
+        <v>45201</v>
       </c>
       <c r="G140" s="6">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
       <c r="E141" s="7">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F141" s="6">
-        <v>45199</v>
+        <v>45138</v>
       </c>
       <c r="G141" s="6">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>45141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="E142" s="7">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="F142" s="6">
-        <v>45139</v>
+        <v>45199</v>
       </c>
       <c r="G142" s="6">
         <v>45141</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>14</v>
+        <v>213</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="7">
+        <v>153</v>
+      </c>
+      <c r="F143" s="6">
         <v>45139</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="G143" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>45139</v>
+      </c>
+      <c r="B144" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C144" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D144" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E144" s="7">
         <v>530</v>
-      </c>
-      <c r="F143" s="6">
-        <v>45135</v>
-      </c>
-      <c r="G143" s="6">
-        <v>45139</v>
-      </c>
-      <c r="H143" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A144" s="6">
-        <v>45141</v>
-      </c>
-      <c r="B144" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C144" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D144" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E144" s="7">
-        <v>4</v>
       </c>
       <c r="F144" s="6">
         <v>45135</v>
       </c>
       <c r="G144" s="6">
-        <v>45141</v>
+        <v>45139</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>45141</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E145" s="7">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="F145" s="6">
         <v>45135</v>
@@ -5590,7 +5604,7 @@
         <v>45141</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5598,16 +5612,16 @@
         <v>45141</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="E146" s="7">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="F146" s="6">
         <v>45135</v>
@@ -5616,7 +5630,7 @@
         <v>45141</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5624,16 +5638,16 @@
         <v>45141</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="E147" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F147" s="6">
         <v>45135</v>
@@ -5642,7 +5656,7 @@
         <v>45141</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5650,16 +5664,16 @@
         <v>45141</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E148" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F148" s="6">
         <v>45135</v>
@@ -5668,154 +5682,154 @@
         <v>45141</v>
       </c>
       <c r="H148" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>45141</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E149" s="7">
+        <v>17</v>
+      </c>
+      <c r="F149" s="6">
+        <v>45135</v>
+      </c>
+      <c r="G149" s="6">
+        <v>45141</v>
+      </c>
+      <c r="H149" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A149" s="6">
+    <row r="150" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
         <v>45140</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B150" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C150" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D150" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E149" s="7">
+      <c r="E150" s="7">
         <v>280</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F150" s="6">
         <v>45192</v>
       </c>
-      <c r="G149" s="6">
+      <c r="G150" s="6">
         <v>45140</v>
       </c>
-      <c r="H149" s="7" t="s">
+      <c r="H150" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="6">
+    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
         <v>45139</v>
       </c>
-      <c r="B150" s="7" t="s">
+      <c r="B151" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C151" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D151" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E151" s="7">
         <v>64</v>
-      </c>
-      <c r="F150" s="6">
-        <v>45198</v>
-      </c>
-      <c r="G150" s="6">
-        <v>45139</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="6">
-        <v>45134</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D151" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E151" s="7">
-        <v>76</v>
       </c>
       <c r="F151" s="6">
         <v>45198</v>
       </c>
       <c r="G151" s="6">
-        <v>45134</v>
+        <v>45139</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
+        <v>45134</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E152" s="7">
+        <v>76</v>
+      </c>
+      <c r="F152" s="6">
+        <v>45198</v>
+      </c>
+      <c r="G152" s="6">
+        <v>45134</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
         <v>45126</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B153" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="C152" s="7" t="s">
+      <c r="C153" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D153" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E153" s="7">
         <v>64</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F153" s="6">
         <v>45208</v>
       </c>
-      <c r="G152" s="6">
+      <c r="G153" s="6">
         <v>45126</v>
       </c>
-      <c r="H152" s="7" t="s">
+      <c r="H153" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A153" s="6">
-        <v>45124</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D153" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E153" s="7">
-        <v>53</v>
-      </c>
-      <c r="F153" s="6">
-        <v>45124</v>
-      </c>
-      <c r="G153" s="6">
-        <v>45124</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>45124</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E154" s="7">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F154" s="6">
         <v>45124</v>
@@ -5824,24 +5838,24 @@
         <v>45124</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>45124</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E155" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F155" s="6">
         <v>45124</v>
@@ -5850,15 +5864,15 @@
         <v>45124</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>45124</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>29</v>
@@ -5867,7 +5881,7 @@
         <v>13</v>
       </c>
       <c r="E156" s="7">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F156" s="6">
         <v>45124</v>
@@ -5876,24 +5890,24 @@
         <v>45124</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>45124</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E157" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F157" s="6">
         <v>45124</v>
@@ -5902,24 +5916,24 @@
         <v>45124</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>45124</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E158" s="7">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F158" s="6">
         <v>45124</v>
@@ -5928,24 +5942,24 @@
         <v>45124</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>45124</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E159" s="7">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F159" s="6">
         <v>45124</v>
@@ -5954,24 +5968,24 @@
         <v>45124</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>45124</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C160" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E160" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F160" s="6">
         <v>45124</v>
@@ -5980,24 +5994,24 @@
         <v>45124</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>45124</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E161" s="7">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F161" s="6">
         <v>45124</v>
@@ -6006,7 +6020,7 @@
         <v>45124</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6014,16 +6028,16 @@
         <v>45124</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>166</v>
+        <v>26</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>153</v>
+        <v>27</v>
       </c>
       <c r="E162" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F162" s="6">
         <v>45124</v>
@@ -6032,24 +6046,24 @@
         <v>45124</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>45124</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="E163" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F163" s="6">
         <v>45124</v>
@@ -6058,24 +6072,24 @@
         <v>45124</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>45124</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E164" s="7">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F164" s="6">
         <v>45124</v>
@@ -6084,21 +6098,21 @@
         <v>45124</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>45124</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>211</v>
+        <v>107</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="E165" s="7">
         <v>31</v>
@@ -6110,24 +6124,24 @@
         <v>45124</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>45124</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="E166" s="7">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F166" s="6">
         <v>45124</v>
@@ -6136,24 +6150,24 @@
         <v>45124</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>45124</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E167" s="7">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F167" s="6">
         <v>45124</v>
@@ -6162,24 +6176,24 @@
         <v>45124</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>45124</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E168" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F168" s="6">
         <v>45124</v>
@@ -6188,24 +6202,24 @@
         <v>45124</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>45124</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="E169" s="7">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F169" s="6">
         <v>45124</v>
@@ -6214,24 +6228,24 @@
         <v>45124</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>45124</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="E170" s="7">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F170" s="6">
         <v>45124</v>
@@ -6240,24 +6254,24 @@
         <v>45124</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>45124</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E171" s="7">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F171" s="6">
         <v>45124</v>
@@ -6266,24 +6280,24 @@
         <v>45124</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>45124</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E172" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F172" s="6">
         <v>45124</v>
@@ -6292,24 +6306,24 @@
         <v>45124</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>45124</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>253</v>
+        <v>49</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="E173" s="7">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F173" s="6">
         <v>45124</v>
@@ -6318,24 +6332,24 @@
         <v>45124</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>45124</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="E174" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F174" s="6">
         <v>45124</v>
@@ -6344,21 +6358,21 @@
         <v>45124</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>45124</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="E175" s="7">
         <v>26</v>
@@ -6370,24 +6384,24 @@
         <v>45124</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>45124</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E176" s="7">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F176" s="6">
         <v>45124</v>
@@ -6396,264 +6410,264 @@
         <v>45124</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="E177" s="7">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="F177" s="6">
-        <v>45128</v>
+        <v>45124</v>
       </c>
       <c r="G177" s="6">
-        <v>45112</v>
+        <v>45124</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>45106</v>
+        <v>45112</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E178" s="7">
-        <v>188</v>
+        <v>115</v>
       </c>
       <c r="F178" s="6">
-        <v>45154</v>
+        <v>45128</v>
       </c>
       <c r="G178" s="6">
-        <v>45106</v>
+        <v>45112</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>45106</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E179" s="7">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="F179" s="6">
-        <v>45169</v>
+        <v>45154</v>
       </c>
       <c r="G179" s="6">
         <v>45106</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>45106</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>263</v>
+        <v>54</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E180" s="7">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="F180" s="6">
-        <v>45107</v>
+        <v>45169</v>
       </c>
       <c r="G180" s="6">
         <v>45106</v>
       </c>
       <c r="H180" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>45106</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E181" s="7">
+        <v>59</v>
+      </c>
+      <c r="F181" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G181" s="6">
+        <v>45106</v>
+      </c>
+      <c r="H181" s="7" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181" s="6">
-        <v>45104</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D181" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E181" s="7">
-        <v>93</v>
-      </c>
-      <c r="F181" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G181" s="6">
-        <v>45104</v>
-      </c>
-      <c r="H181" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>45104</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E182" s="7">
-        <v>107</v>
-      </c>
-      <c r="F182" s="8">
-        <v>45169</v>
+        <v>93</v>
+      </c>
+      <c r="F182" s="6">
+        <v>45086</v>
       </c>
       <c r="G182" s="6">
         <v>45104</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>45104</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>18</v>
+        <v>269</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E183" s="7">
-        <v>47</v>
-      </c>
-      <c r="F183" s="6">
-        <v>45170</v>
+        <v>107</v>
+      </c>
+      <c r="F183" s="8">
+        <v>45169</v>
       </c>
       <c r="G183" s="6">
         <v>45104</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>45104</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>274</v>
+        <v>18</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="E184" s="7">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F184" s="6">
-        <v>45169</v>
+        <v>45170</v>
       </c>
       <c r="G184" s="6">
         <v>45104</v>
       </c>
       <c r="H184" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>45104</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E185" s="7">
+        <v>101</v>
+      </c>
+      <c r="F185" s="6">
+        <v>45169</v>
+      </c>
+      <c r="G185" s="6">
+        <v>45104</v>
+      </c>
+      <c r="H185" s="7" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="6">
+    <row r="186" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
         <v>45100</v>
       </c>
-      <c r="B185" s="7" t="s">
+      <c r="B186" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="C185" s="7" t="s">
+      <c r="C186" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D186" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E185" s="7">
+      <c r="E186" s="7">
         <v>56</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F186" s="6">
         <v>45158</v>
       </c>
-      <c r="G185" s="6">
+      <c r="G186" s="6">
         <v>45100</v>
-      </c>
-      <c r="H185" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="6">
-        <v>45092</v>
-      </c>
-      <c r="B186" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E186" s="7">
-        <v>218</v>
-      </c>
-      <c r="F186" s="6">
-        <v>45152</v>
-      </c>
-      <c r="G186" s="6">
-        <v>45092</v>
       </c>
       <c r="H186" s="7" t="s">
         <v>24</v>
@@ -6664,7 +6678,7 @@
         <v>45092</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C187" s="7" t="s">
         <v>35</v>
@@ -6673,10 +6687,10 @@
         <v>36</v>
       </c>
       <c r="E187" s="7">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="F187" s="6">
-        <v>45069</v>
+        <v>45152</v>
       </c>
       <c r="G187" s="6">
         <v>45092</v>
@@ -6685,394 +6699,394 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>45092</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>36</v>
       </c>
       <c r="E188" s="7">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F188" s="6">
-        <v>45143</v>
+        <v>45069</v>
       </c>
       <c r="G188" s="6">
         <v>45092</v>
       </c>
       <c r="H188" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>45092</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C189" s="7" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="6">
+      <c r="D189" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E189" s="7">
+        <v>91</v>
+      </c>
+      <c r="F189" s="6">
+        <v>45143</v>
+      </c>
+      <c r="G189" s="6">
+        <v>45092</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
         <v>45091</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B190" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C189" s="7" t="s">
+      <c r="C190" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D190" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E189" s="7">
+      <c r="E190" s="7">
         <v>173</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F190" s="6">
         <v>45156</v>
       </c>
-      <c r="G189" s="6">
+      <c r="G190" s="6">
         <v>45091</v>
       </c>
-      <c r="H189" s="7" t="s">
+      <c r="H190" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A190" s="6">
+    <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
         <v>45085</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B191" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C190" s="7" t="s">
+      <c r="C191" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D191" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="E190" s="7">
+      <c r="E191" s="7">
         <v>58</v>
       </c>
-      <c r="F190" s="6">
+      <c r="F191" s="6">
         <v>45173</v>
       </c>
-      <c r="G190" s="6">
+      <c r="G191" s="6">
         <v>45085</v>
       </c>
-      <c r="H190" s="7" t="s">
+      <c r="H191" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="6">
+    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
         <v>45084</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B192" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C191" s="7" t="s">
+      <c r="C192" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D192" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E191" s="7">
+      <c r="E192" s="7">
         <v>74</v>
       </c>
-      <c r="F191" s="6">
+      <c r="F192" s="6">
         <v>45107</v>
       </c>
-      <c r="G191" s="6">
+      <c r="G192" s="6">
         <v>45084</v>
       </c>
-      <c r="H191" s="7" t="s">
+      <c r="H192" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A192" s="6">
+    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
         <v>45078</v>
       </c>
-      <c r="B192" s="7" t="s">
+      <c r="B193" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C193" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D193" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E192" s="7">
+      <c r="E193" s="7">
         <v>126</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F193" s="6">
         <v>45072</v>
       </c>
-      <c r="G192" s="6">
+      <c r="G193" s="6">
         <v>45078</v>
       </c>
-      <c r="H192" s="7" t="s">
+      <c r="H193" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="6">
+    <row r="194" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
         <v>45076</v>
       </c>
-      <c r="B193" s="7" t="s">
+      <c r="B194" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C193" s="7" t="s">
+      <c r="C194" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D194" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E193" s="7">
+      <c r="E194" s="7">
         <v>137</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F194" s="6">
         <v>45138</v>
       </c>
-      <c r="G193" s="6">
+      <c r="G194" s="6">
         <v>45076</v>
       </c>
-      <c r="H193" s="7" t="s">
+      <c r="H194" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="6">
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
         <v>45071</v>
       </c>
-      <c r="B194" s="7" t="s">
+      <c r="B195" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C194" s="7" t="s">
+      <c r="C195" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D195" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E194" s="7">
+      <c r="E195" s="7">
         <v>90</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F195" s="6">
         <v>45070</v>
       </c>
-      <c r="G194" s="6">
+      <c r="G195" s="6">
         <v>45071</v>
       </c>
-      <c r="H194" s="7" t="s">
+      <c r="H195" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="6">
+    <row r="196" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
         <v>45068</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C196" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D196" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E195" s="7">
+      <c r="E196" s="7">
         <v>80</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F196" s="6">
         <v>45104</v>
       </c>
-      <c r="G195" s="6">
+      <c r="G196" s="6">
         <v>45068</v>
       </c>
-      <c r="H195" s="7" t="s">
+      <c r="H196" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="6">
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
         <v>45064</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B197" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="C196" s="7" t="s">
+      <c r="C197" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D197" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E196" s="7">
+      <c r="E197" s="7">
         <v>64</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F197" s="6">
         <v>45107</v>
       </c>
-      <c r="G196" s="6">
+      <c r="G197" s="6">
         <v>45064</v>
       </c>
-      <c r="H196" s="7" t="s">
+      <c r="H197" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A197" s="6">
+    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
         <v>45063</v>
       </c>
-      <c r="B197" s="7" t="s">
+      <c r="B198" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="C197" s="7" t="s">
+      <c r="C198" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D198" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E197" s="7">
+      <c r="E198" s="7">
         <v>69</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F198" s="6">
         <v>45114</v>
       </c>
-      <c r="G197" s="6">
+      <c r="G198" s="6">
         <v>45063</v>
       </c>
-      <c r="H197" s="7" t="s">
+      <c r="H198" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A198" s="6">
-        <v>45062</v>
-      </c>
-      <c r="B198" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C198" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D198" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E198" s="7">
-        <v>235</v>
-      </c>
-      <c r="F198" s="6">
-        <v>45121</v>
-      </c>
-      <c r="G198" s="6">
-        <v>45062</v>
-      </c>
-      <c r="H198" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>45062</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>142</v>
+        <v>297</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E199" s="7">
-        <v>549</v>
+        <v>235</v>
       </c>
       <c r="F199" s="6">
-        <v>45104</v>
+        <v>45121</v>
       </c>
       <c r="G199" s="6">
         <v>45062</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>45062</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>298</v>
+        <v>142</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="E200" s="7">
-        <v>81</v>
+        <v>549</v>
       </c>
       <c r="F200" s="6">
-        <v>45138</v>
+        <v>45104</v>
       </c>
       <c r="G200" s="6">
         <v>45062</v>
       </c>
       <c r="H200" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>45062</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E201" s="7">
+        <v>81</v>
+      </c>
+      <c r="F201" s="6">
+        <v>45138</v>
+      </c>
+      <c r="G201" s="6">
+        <v>45062</v>
+      </c>
+      <c r="H201" s="7" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A201" s="6">
+    <row r="202" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
         <v>45061</v>
       </c>
-      <c r="B201" s="7" t="s">
+      <c r="B202" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C202" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D202" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E201" s="7">
+      <c r="E202" s="7">
         <v>86</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F202" s="6">
         <v>45016</v>
       </c>
-      <c r="G201" s="6">
+      <c r="G202" s="6">
         <v>45061</v>
       </c>
-      <c r="H201" s="7" t="s">
+      <c r="H202" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A202" s="6">
-        <v>45056</v>
-      </c>
-      <c r="B202" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E202" s="7">
-        <v>23</v>
-      </c>
-      <c r="F202" s="6">
-        <v>45072</v>
-      </c>
-      <c r="G202" s="6">
-        <v>45056</v>
-      </c>
-      <c r="H202" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -7080,103 +7094,103 @@
         <v>45056</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E203" s="7">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="F203" s="6">
-        <v>45107</v>
+        <v>45072</v>
       </c>
       <c r="G203" s="6">
         <v>45056</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>45056</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E204" s="7">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="F204" s="6">
-        <v>45139</v>
+        <v>45107</v>
       </c>
       <c r="G204" s="6">
         <v>45056</v>
       </c>
       <c r="H204" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>45056</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="7">
+        <v>27</v>
+      </c>
+      <c r="F205" s="6">
+        <v>45139</v>
+      </c>
+      <c r="G205" s="6">
+        <v>45056</v>
+      </c>
+      <c r="H205" s="7" t="s">
         <v>306</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A205" s="6">
-        <v>45054</v>
-      </c>
-      <c r="B205" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C205" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E205" s="7">
-        <v>272</v>
-      </c>
-      <c r="F205" s="6">
-        <v>45058</v>
-      </c>
-      <c r="G205" s="6">
-        <v>45054</v>
-      </c>
-      <c r="H205" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E206" s="7">
-        <v>123</v>
+        <v>272</v>
       </c>
       <c r="F206" s="6">
-        <v>45107</v>
+        <v>45058</v>
       </c>
       <c r="G206" s="6">
-        <v>45049</v>
+        <v>45054</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7184,7 +7198,7 @@
         <v>45049</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>12</v>
@@ -7193,7 +7207,7 @@
         <v>13</v>
       </c>
       <c r="E207" s="7">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F207" s="6">
         <v>45107</v>
@@ -7202,7 +7216,7 @@
         <v>45049</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7210,25 +7224,25 @@
         <v>45049</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E208" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F208" s="6">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="G208" s="6">
         <v>45049</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>179</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7236,16 +7250,16 @@
         <v>45049</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E209" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F209" s="6">
         <v>45105</v>
@@ -7254,41 +7268,41 @@
         <v>45049</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>30</v>
+        <v>179</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
+        <v>45049</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" s="7">
+        <v>7</v>
+      </c>
+      <c r="F210" s="6">
+        <v>45105</v>
+      </c>
+      <c r="G210" s="6">
+        <v>45049</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
         <v>45041</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B211" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E210" s="7">
-        <v>175</v>
-      </c>
-      <c r="F210" s="6">
-        <v>45065</v>
-      </c>
-      <c r="G210" s="6">
-        <v>45041</v>
-      </c>
-      <c r="H210" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="6">
-        <v>45036</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>18</v>
@@ -7297,258 +7311,258 @@
         <v>19</v>
       </c>
       <c r="E211" s="7">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="F211" s="6">
-        <v>45120</v>
+        <v>45065</v>
       </c>
       <c r="G211" s="6">
-        <v>45036</v>
+        <v>45041</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
+        <v>45036</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E212" s="7">
+        <v>133</v>
+      </c>
+      <c r="F212" s="6">
+        <v>45120</v>
+      </c>
+      <c r="G212" s="6">
+        <v>45036</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
         <v>45035</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B213" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C213" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D213" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E212" s="7">
+      <c r="E213" s="7">
         <v>62</v>
       </c>
-      <c r="F212" s="6">
+      <c r="F213" s="6">
         <v>45095</v>
       </c>
-      <c r="G212" s="6">
+      <c r="G213" s="6">
         <v>45035</v>
       </c>
-      <c r="H212" s="7" t="s">
+      <c r="H213" s="7" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A213" s="6">
+    <row r="214" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
         <v>45034</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B214" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C214" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D214" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E213" s="7">
+      <c r="E214" s="7">
         <v>113</v>
       </c>
-      <c r="F213" s="6">
+      <c r="F214" s="6">
         <v>45076</v>
       </c>
-      <c r="G213" s="6">
+      <c r="G214" s="6">
         <v>45034</v>
       </c>
-      <c r="H213" s="7" t="s">
+      <c r="H214" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A214" s="6">
+    <row r="215" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
         <v>45021</v>
       </c>
-      <c r="B214" s="7" t="s">
+      <c r="B215" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C215" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D215" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E214" s="7">
+      <c r="E215" s="7">
         <v>120</v>
       </c>
-      <c r="F214" s="6">
+      <c r="F215" s="6">
         <v>45077</v>
       </c>
-      <c r="G214" s="6">
+      <c r="G215" s="6">
         <v>45021</v>
       </c>
-      <c r="H214" s="7" t="s">
+      <c r="H215" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A215" s="6">
-        <v>45022</v>
-      </c>
-      <c r="B215" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E215" s="7">
-        <v>12</v>
-      </c>
-      <c r="F215" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G215" s="6">
-        <v>45022</v>
-      </c>
-      <c r="H215" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>10</v>
+        <v>220</v>
       </c>
       <c r="E216" s="7">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="F216" s="6">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="G216" s="6">
-        <v>45021</v>
+        <v>45022</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>45021</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E217" s="7">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F217" s="6">
-        <v>45086</v>
+        <v>45077</v>
       </c>
       <c r="G217" s="6">
         <v>45021</v>
       </c>
       <c r="H217" s="7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>45021</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E218" s="7">
+        <v>100</v>
+      </c>
+      <c r="F218" s="6">
+        <v>45086</v>
+      </c>
+      <c r="G218" s="6">
+        <v>45021</v>
+      </c>
+      <c r="H218" s="7" t="s">
         <v>324</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A218" s="6">
-        <v>45020</v>
-      </c>
-      <c r="B218" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E218" s="7">
-        <v>84</v>
-      </c>
-      <c r="F218" s="6">
-        <v>45075</v>
-      </c>
-      <c r="G218" s="6">
-        <v>45020</v>
-      </c>
-      <c r="H218" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
+        <v>45020</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D219" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E219" s="7">
+        <v>84</v>
+      </c>
+      <c r="F219" s="6">
+        <v>45075</v>
+      </c>
+      <c r="G219" s="6">
+        <v>45020</v>
+      </c>
+      <c r="H219" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
         <v>45019</v>
       </c>
-      <c r="B219" s="7" t="s">
+      <c r="B220" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C220" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="D220" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E219" s="7">
+      <c r="E220" s="7">
         <v>227</v>
-      </c>
-      <c r="F219" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G219" s="6">
-        <v>45019</v>
-      </c>
-      <c r="H219" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="6">
-        <v>45016</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E220" s="7">
-        <v>1047</v>
       </c>
       <c r="F220" s="6">
         <v>45079</v>
       </c>
       <c r="G220" s="6">
-        <v>45016</v>
+        <v>45019</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
       <c r="C221" s="7" t="s">
         <v>18</v>
@@ -7557,50 +7571,50 @@
         <v>19</v>
       </c>
       <c r="E221" s="7">
-        <v>54</v>
+        <v>1047</v>
       </c>
       <c r="F221" s="6">
-        <v>45059</v>
+        <v>45079</v>
       </c>
       <c r="G221" s="6">
-        <v>45007</v>
+        <v>45016</v>
       </c>
       <c r="H221" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
+        <v>45007</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E222" s="7">
+        <v>54</v>
+      </c>
+      <c r="F222" s="6">
+        <v>45059</v>
+      </c>
+      <c r="G222" s="6">
+        <v>45007</v>
+      </c>
+      <c r="H222" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
         <v>45000</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B223" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E222" s="7">
-        <v>81</v>
-      </c>
-      <c r="F222" s="6">
-        <v>45077</v>
-      </c>
-      <c r="G222" s="6">
-        <v>45000</v>
-      </c>
-      <c r="H222" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="6">
-        <v>44999</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="C223" s="7" t="s">
         <v>35</v>
@@ -7609,146 +7623,146 @@
         <v>36</v>
       </c>
       <c r="E223" s="7">
+        <v>81</v>
+      </c>
+      <c r="F223" s="6">
+        <v>45077</v>
+      </c>
+      <c r="G223" s="6">
+        <v>45000</v>
+      </c>
+      <c r="H223" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>44999</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E224" s="7">
         <v>105</v>
       </c>
-      <c r="F223" s="6">
+      <c r="F224" s="6">
         <v>45020</v>
       </c>
-      <c r="G223" s="6">
+      <c r="G224" s="6">
         <v>44999</v>
       </c>
-      <c r="H223" s="7" t="s">
+      <c r="H224" s="7" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A224" s="6">
-        <v>45005</v>
-      </c>
-      <c r="B224" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="C224" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E224" s="7">
-        <v>152</v>
-      </c>
-      <c r="F224" s="6">
-        <v>45066</v>
-      </c>
-      <c r="G224" s="6">
-        <v>45005</v>
-      </c>
-      <c r="H224" s="7" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E225" s="7">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="F225" s="6">
-        <v>45044</v>
+        <v>45066</v>
       </c>
       <c r="G225" s="6">
-        <v>44993</v>
+        <v>45005</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>24</v>
+        <v>331</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
+        <v>44993</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E226" s="7">
+        <v>240</v>
+      </c>
+      <c r="F226" s="6">
+        <v>45044</v>
+      </c>
+      <c r="G226" s="6">
+        <v>44993</v>
+      </c>
+      <c r="H226" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
         <v>44988</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B227" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C227" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D227" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E226" s="7">
+      <c r="E227" s="7">
         <v>827</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F227" s="6">
         <v>45047</v>
       </c>
-      <c r="G226" s="6">
+      <c r="G227" s="6">
         <v>44988</v>
       </c>
-      <c r="H226" s="7" t="s">
+      <c r="H227" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="6">
+    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
         <v>44987</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B228" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C228" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="D228" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E227" s="7">
+      <c r="E228" s="7">
         <v>53</v>
       </c>
-      <c r="F227" s="6">
+      <c r="F228" s="6">
         <v>45048</v>
       </c>
-      <c r="G227" s="6">
+      <c r="G228" s="6">
         <v>44987</v>
       </c>
-      <c r="H227" s="7" t="s">
+      <c r="H228" s="7" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A228" s="6">
-        <v>44985</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D228" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E228" s="7">
-        <v>17</v>
-      </c>
-      <c r="F228" s="6">
-        <v>45169</v>
-      </c>
-      <c r="G228" s="6">
-        <v>44985</v>
-      </c>
-      <c r="H228" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7756,25 +7770,25 @@
         <v>44985</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E229" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F229" s="6">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G229" s="6">
         <v>44985</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7782,25 +7796,25 @@
         <v>44985</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E230" s="7">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="F230" s="6">
-        <v>44979</v>
+        <v>45077</v>
       </c>
       <c r="G230" s="6">
         <v>44985</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>338</v>
+        <v>44</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7808,7 +7822,7 @@
         <v>44985</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C231" s="7" t="s">
         <v>26</v>
@@ -7817,76 +7831,76 @@
         <v>27</v>
       </c>
       <c r="E231" s="7">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="F231" s="6">
-        <v>45169</v>
+        <v>44979</v>
       </c>
       <c r="G231" s="6">
         <v>44985</v>
       </c>
       <c r="H231" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C232" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E232" s="7">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="F232" s="6">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G232" s="6">
-        <v>44984</v>
+        <v>44985</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>44984</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E233" s="7">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="F233" s="6">
-        <v>45169</v>
+        <v>45016</v>
       </c>
       <c r="G233" s="6">
         <v>44984</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>44984</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C234" s="7" t="s">
         <v>29</v>
@@ -7895,16 +7909,16 @@
         <v>13</v>
       </c>
       <c r="E234" s="7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="F234" s="6">
-        <v>45077</v>
+        <v>45169</v>
       </c>
       <c r="G234" s="6">
         <v>44984</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>343</v>
+        <v>30</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7912,16 +7926,16 @@
         <v>44984</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="E235" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F235" s="6">
         <v>45077</v>
@@ -7930,7 +7944,7 @@
         <v>44984</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>105</v>
+        <v>343</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7938,25 +7952,25 @@
         <v>44984</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E236" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="F236" s="6">
-        <v>45169</v>
+        <v>45077</v>
       </c>
       <c r="G236" s="6">
         <v>44984</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7964,25 +7978,25 @@
         <v>44984</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>189</v>
+        <v>49</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E237" s="7">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F237" s="6">
-        <v>45016</v>
+        <v>45169</v>
       </c>
       <c r="G237" s="6">
         <v>44984</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>189</v>
+        <v>51</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -7990,7 +8004,7 @@
         <v>44984</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C238" s="7" t="s">
         <v>189</v>
@@ -7999,16 +8013,16 @@
         <v>55</v>
       </c>
       <c r="E238" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F238" s="6">
-        <v>44974</v>
+        <v>45016</v>
       </c>
       <c r="G238" s="6">
         <v>44984</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -8016,10 +8030,10 @@
         <v>44984</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="D239" s="7" t="s">
         <v>55</v>
@@ -8034,41 +8048,41 @@
         <v>44984</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>349</v>
+        <v>44</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
+        <v>44984</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D240" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E240" s="7">
+        <v>10</v>
+      </c>
+      <c r="F240" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G240" s="6">
+        <v>44984</v>
+      </c>
+      <c r="H240" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
         <v>44980</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="B241" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="C240" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E240" s="7">
-        <v>120</v>
-      </c>
-      <c r="F240" s="6">
-        <v>45039</v>
-      </c>
-      <c r="G240" s="6">
-        <v>44980</v>
-      </c>
-      <c r="H240" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A241" s="6">
-        <v>44973</v>
-      </c>
-      <c r="B241" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>29</v>
@@ -8077,250 +8091,250 @@
         <v>13</v>
       </c>
       <c r="E241" s="7">
-        <v>40</v>
-      </c>
-      <c r="F241" s="8">
-        <v>44965</v>
+        <v>120</v>
+      </c>
+      <c r="F241" s="6">
+        <v>45039</v>
       </c>
       <c r="G241" s="6">
-        <v>44973</v>
+        <v>44980</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>44973</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="E242" s="7">
-        <v>186</v>
-      </c>
-      <c r="F242" s="6">
-        <v>44981</v>
+        <v>40</v>
+      </c>
+      <c r="F242" s="8">
+        <v>44965</v>
       </c>
       <c r="G242" s="6">
         <v>44973</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E243" s="7">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="F243" s="6">
-        <v>45032</v>
+        <v>44981</v>
       </c>
       <c r="G243" s="6">
-        <v>44978</v>
+        <v>44973</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>355</v>
+        <v>22</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E244" s="7">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="F244" s="6">
-        <v>44974</v>
+        <v>45032</v>
       </c>
       <c r="G244" s="6">
-        <v>44972</v>
+        <v>44978</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>356</v>
+        <v>24</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
+        <v>44972</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E245" s="7">
+        <v>64</v>
+      </c>
+      <c r="F245" s="6">
+        <v>44974</v>
+      </c>
+      <c r="G245" s="6">
+        <v>44972</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
         <v>44965</v>
       </c>
-      <c r="B245" s="7" t="s">
+      <c r="B246" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C246" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D246" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E245" s="7">
+      <c r="E246" s="7">
         <v>92</v>
       </c>
-      <c r="F245" s="6">
+      <c r="F246" s="6">
         <v>45065</v>
       </c>
-      <c r="G245" s="6">
+      <c r="G246" s="6">
         <v>44966</v>
       </c>
-      <c r="H245" s="7" t="s">
+      <c r="H246" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A246" s="6">
-        <v>44964</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E246" s="7">
-        <v>121</v>
-      </c>
-      <c r="F246" s="6">
-        <v>45024</v>
-      </c>
-      <c r="G246" s="6">
-        <v>44964</v>
-      </c>
-      <c r="H246" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>44964</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E247" s="7">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="F247" s="6">
-        <v>45017</v>
+        <v>45024</v>
       </c>
       <c r="G247" s="6">
         <v>44964</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>44964</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E248" s="7">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F248" s="6">
-        <v>45013</v>
+        <v>45017</v>
       </c>
       <c r="G248" s="6">
         <v>44964</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>44964</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="E249" s="7">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="F249" s="6">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="G249" s="6">
         <v>44964</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>26</v>
+        <v>363</v>
       </c>
       <c r="D250" s="7" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="E250" s="7">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="F250" s="6">
-        <v>44956</v>
+        <v>45020</v>
       </c>
       <c r="G250" s="6">
-        <v>44957</v>
+        <v>44964</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8328,7 +8342,7 @@
         <v>44957</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C251" s="7" t="s">
         <v>26</v>
@@ -8337,42 +8351,42 @@
         <v>27</v>
       </c>
       <c r="E251" s="7">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F251" s="6">
-        <v>45016</v>
+        <v>44956</v>
       </c>
       <c r="G251" s="6">
         <v>44957</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>181</v>
+        <v>366</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>369</v>
+        <v>26</v>
       </c>
       <c r="D252" s="7" t="s">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="E252" s="7">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F252" s="6">
-        <v>45017</v>
+        <v>45016</v>
       </c>
       <c r="G252" s="6">
-        <v>44959</v>
+        <v>44957</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>370</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -8380,215 +8394,215 @@
         <v>44959</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E253" s="7">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="F253" s="6">
-        <v>45019</v>
+        <v>45017</v>
       </c>
       <c r="G253" s="6">
         <v>44959</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>44959</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>373</v>
+        <v>9</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>374</v>
+        <v>10</v>
       </c>
       <c r="E254" s="7">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="F254" s="6">
-        <v>44972</v>
+        <v>45019</v>
       </c>
       <c r="G254" s="6">
         <v>44959</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>44957</v>
+        <v>44959</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>158</v>
+        <v>372</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>98</v>
+        <v>373</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>99</v>
+        <v>374</v>
       </c>
       <c r="E255" s="7">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F255" s="6">
-        <v>44957</v>
+        <v>44972</v>
       </c>
       <c r="G255" s="6">
-        <v>44960</v>
+        <v>44959</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>100</v>
+        <v>375</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>44953</v>
+        <v>44957</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>376</v>
+        <v>158</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="D256" s="7" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E256" s="7">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="F256" s="6">
-        <v>44942</v>
+        <v>44957</v>
       </c>
       <c r="G256" s="6">
-        <v>44953</v>
+        <v>44960</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
+        <v>44953</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E257" s="7">
+        <v>255</v>
+      </c>
+      <c r="F257" s="6">
+        <v>44942</v>
+      </c>
+      <c r="G257" s="6">
+        <v>44953</v>
+      </c>
+      <c r="H257" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258" s="6">
         <v>44946</v>
       </c>
-      <c r="B257" s="7" t="s">
+      <c r="B258" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="C257" s="7" t="s">
+      <c r="C258" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D257" s="7" t="s">
+      <c r="D258" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="E257" s="7">
+      <c r="E258" s="7">
         <v>110</v>
       </c>
-      <c r="F257" s="6">
+      <c r="F258" s="6">
         <v>45016</v>
       </c>
-      <c r="G257" s="6">
+      <c r="G258" s="6">
         <v>44946</v>
       </c>
-      <c r="H257" s="7" t="s">
+      <c r="H258" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="6">
-        <v>44951</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D258" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E258" s="7">
-        <v>76</v>
-      </c>
-      <c r="F258" s="6">
-        <v>44995</v>
-      </c>
-      <c r="G258" s="6">
-        <v>44951</v>
-      </c>
-      <c r="H258" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>44951</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="E259" s="7">
-        <v>374</v>
+        <v>76</v>
       </c>
       <c r="F259" s="6">
-        <v>45011</v>
+        <v>44995</v>
       </c>
       <c r="G259" s="6">
         <v>44951</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>190</v>
+        <v>39</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="D260" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E260" s="7">
-        <v>125</v>
+        <v>374</v>
       </c>
       <c r="F260" s="6">
-        <v>45016</v>
+        <v>45011</v>
       </c>
       <c r="G260" s="6">
-        <v>44950</v>
+        <v>44951</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>39</v>
+        <v>190</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>104</v>
@@ -8597,76 +8611,76 @@
         <v>55</v>
       </c>
       <c r="E261" s="7">
-        <v>964</v>
+        <v>125</v>
       </c>
       <c r="F261" s="6">
         <v>45016</v>
       </c>
       <c r="G261" s="6">
-        <v>44945</v>
+        <v>44950</v>
       </c>
       <c r="H261" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
+        <v>44945</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D262" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E262" s="7">
+        <v>964</v>
+      </c>
+      <c r="F262" s="6">
+        <v>45016</v>
+      </c>
+      <c r="G262" s="6">
+        <v>44945</v>
+      </c>
+      <c r="H262" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="6">
         <v>44942</v>
       </c>
-      <c r="B262" s="7" t="s">
+      <c r="B263" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="C263" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D262" s="7" t="s">
+      <c r="D263" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E262" s="7">
+      <c r="E263" s="7">
         <v>77</v>
       </c>
-      <c r="F262" s="6">
+      <c r="F263" s="6">
         <v>45002</v>
       </c>
-      <c r="G262" s="6">
+      <c r="G263" s="6">
         <v>44942</v>
       </c>
-      <c r="H262" s="7" t="s">
+      <c r="H263" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A263" s="6">
+    <row r="264" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" s="6">
         <v>44938</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B264" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="C263" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D263" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E263" s="7">
-        <v>139</v>
-      </c>
-      <c r="F263" s="6">
-        <v>44937</v>
-      </c>
-      <c r="G263" s="6">
-        <v>44938</v>
-      </c>
-      <c r="H263" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A264" s="6">
-        <v>44937</v>
-      </c>
-      <c r="B264" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="C264" s="7" t="s">
         <v>22</v>
@@ -8675,13 +8689,13 @@
         <v>23</v>
       </c>
       <c r="E264" s="7">
-        <v>801</v>
+        <v>139</v>
       </c>
       <c r="F264" s="6">
-        <v>45003</v>
+        <v>44937</v>
       </c>
       <c r="G264" s="6">
-        <v>44937</v>
+        <v>44938</v>
       </c>
       <c r="H264" s="7" t="s">
         <v>24</v>
@@ -8689,88 +8703,88 @@
     </row>
     <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
+        <v>44937</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E265" s="7">
+        <v>801</v>
+      </c>
+      <c r="F265" s="6">
+        <v>45003</v>
+      </c>
+      <c r="G265" s="6">
+        <v>44937</v>
+      </c>
+      <c r="H265" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A266" s="6">
         <v>44936</v>
       </c>
-      <c r="B265" s="7" t="s">
+      <c r="B266" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C265" s="7" t="s">
+      <c r="C266" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D265" s="7" t="s">
+      <c r="D266" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E265" s="7">
+      <c r="E266" s="7">
         <v>76</v>
       </c>
-      <c r="F265" s="6">
+      <c r="F266" s="6">
         <v>45281</v>
       </c>
-      <c r="G265" s="6">
+      <c r="G266" s="6">
         <v>44936</v>
       </c>
-      <c r="H265" s="7" t="s">
+      <c r="H266" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="6">
+    <row r="267" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A267" s="6">
         <v>44935</v>
       </c>
-      <c r="B266" s="7" t="s">
+      <c r="B267" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="C266" s="7" t="s">
+      <c r="C267" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D266" s="7" t="s">
+      <c r="D267" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E266" s="7">
+      <c r="E267" s="7">
         <v>85</v>
       </c>
-      <c r="F266" s="6">
+      <c r="F267" s="6">
         <v>44971</v>
       </c>
-      <c r="G266" s="6">
+      <c r="G267" s="6">
         <v>44935</v>
       </c>
-      <c r="H266" s="7" t="s">
+      <c r="H267" s="7" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A267" s="6">
-        <v>44931</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D267" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E267" s="7">
-        <v>370</v>
-      </c>
-      <c r="F267" s="6">
-        <v>44957</v>
-      </c>
-      <c r="G267" s="6">
-        <v>44931</v>
-      </c>
-      <c r="H267" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>44932</v>
+        <v>44931</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>26</v>
@@ -8779,15 +8793,41 @@
         <v>27</v>
       </c>
       <c r="E268" s="7">
+        <v>370</v>
+      </c>
+      <c r="F268" s="6">
+        <v>44957</v>
+      </c>
+      <c r="G268" s="6">
+        <v>44931</v>
+      </c>
+      <c r="H268" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A269" s="6">
+        <v>44932</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E269" s="7">
         <v>20</v>
       </c>
-      <c r="F268" s="6">
+      <c r="F269" s="6">
         <v>44988</v>
       </c>
-      <c r="G268" s="6">
+      <c r="G269" s="6">
         <v>44932</v>
       </c>
-      <c r="H268" s="7" t="s">
+      <c r="H269" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8797,6 +8837,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="01c2736d-8da8-4d13-83cd-86a6b9641723">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007B95489E8B586E4FBA5FBB272EA6999A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be38a2e4ad89fdee7a84b40cf653977c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01c2736d-8da8-4d13-83cd-86a6b9641723" xmlns:ns3="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb31f235669b04b22f9e1f3a171cde4e" ns2:_="" ns3:_="">
     <xsd:import namespace="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
@@ -8979,27 +9039,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="01c2736d-8da8-4d13-83cd-86a6b9641723">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA01D299-CE8A-41DC-A31C-F59909535BF7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9016,29 +9081,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01c2736d-8da8-4d13-83cd-86a6b9641723"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="4eb1ecbf-8e12-41fa-b577-5f4aa3424baa"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fischsa1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC4A415-E9AB-49B4-8191-E4EFF0CEBC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03F2F273-AD45-4386-83A9-0D1BBA796A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="300" windowWidth="24375" windowHeight="13920" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1418,9 +1418,6 @@
     <t>Westlake Royal Building Products</t>
   </si>
   <si>
-    <t>ED4 Technologies</t>
-  </si>
-  <si>
     <t>TATA Consultancy Services Limited 2024(Austin)</t>
   </si>
   <si>
@@ -1461,6 +1458,9 @@
   </si>
   <si>
     <t>Baylor Scott &amp; White Institute for Rehabilitation-Home Health</t>
+  </si>
+  <si>
+    <t>E4D Technologies</t>
   </si>
 </sst>
 </file>
@@ -1908,24 +1908,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89BCF3A-B17F-44A2-A200-ED80B6FEE65F}">
   <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,12 +1951,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>45419</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>22</v>
@@ -1977,15 +1977,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>45415</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>13</v>
@@ -2000,15 +2000,15 @@
         <v>45415</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>45414</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>104</v>
@@ -2029,12 +2029,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>45414</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>189</v>
@@ -2055,12 +2055,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>45414</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>173</v>
@@ -2081,12 +2081,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>45414</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>26</v>
@@ -2107,12 +2107,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>45414</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>26</v>
@@ -2133,12 +2133,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>45414</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>98</v>
@@ -2159,12 +2159,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>45414</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>98</v>
@@ -2185,12 +2185,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>45414</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>98</v>
@@ -2208,15 +2208,15 @@
         <v>45414</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>45414</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>35</v>
@@ -2237,12 +2237,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>45414</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>104</v>
@@ -2263,7 +2263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>45414</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>45412</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>45407</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="17" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>45405</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>45405</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>45399</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>45398</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="21" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>45386</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>45385</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>45379</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>45378</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>45377</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>45365</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="27" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>45365</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="28" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>45362</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>45359</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>45357</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>45357</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>45355</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>45351</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>45351</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>45349</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>45348</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>45348</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>45345</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="39" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>45344</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>45344</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="41" spans="1:8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>45337</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>45334</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>45324</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>45323</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>45321</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>45316</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>45316</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>45316</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>45315</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>45315</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>45314</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>45313</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>45310</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>45309</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>45308</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>45307</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>45303</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>45303</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>45303</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>45307</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>45300</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>45300</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>45299</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>45299</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>45296</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>45296</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>45295</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>45278</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>45271</v>
       </c>
@@ -3719,7 +3719,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>45267</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>45264</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>45264</v>
       </c>
@@ -3797,7 +3797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>45264</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>45264</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>45261</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>45257</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>45257</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>45257</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>45257</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>45257</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>45243</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>45240</v>
       </c>
@@ -4057,7 +4057,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>45238</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>45238</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>45238</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>45238</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>45238</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>45236</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>45236</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>45230</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>45230</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>45230</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>45225</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>45225</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>45225</v>
       </c>
@@ -4395,7 +4395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>45225</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>45225</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>45225</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>45225</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>45225</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
         <v>45225</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
         <v>45225</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A103" s="6">
         <v>45225</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="6">
         <v>45225</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A105" s="6">
         <v>45225</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A106" s="6">
         <v>45225</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A107" s="6">
         <v>45224</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A108" s="6">
         <v>45224</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>45222</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>45222</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>45222</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>45222</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>45222</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>45219</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="6">
         <v>45219</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="6">
         <v>45219</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="6">
         <v>45218</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="6">
         <v>45218</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="6">
         <v>45218</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="6">
         <v>45218</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="6">
         <v>45217</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>45211</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>45209</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>45209</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>45208</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A126" s="6">
         <v>45208</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A127" s="6">
         <v>45208</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="6">
         <v>45208</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="6">
         <v>45208</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="6">
         <v>45205</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="6">
         <v>45203</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6">
         <v>45201</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="6">
         <v>45190</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="6">
         <v>45188</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
         <v>45188</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
         <v>45187</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
         <v>45187</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="6">
         <v>45187</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="6">
         <v>45187</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="6">
         <v>45187</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="6">
         <v>45187</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="6">
         <v>45187</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="6">
         <v>45181</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="6">
         <v>45177</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="6">
         <v>45176</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="6">
         <v>45169</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="6">
         <v>45167</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="6">
         <v>45167</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="6">
         <v>45163</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="6">
         <v>45162</v>
       </c>
@@ -5825,7 +5825,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="6">
         <v>45161</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="6">
         <v>45161</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="6">
         <v>45156</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="6">
         <v>45156</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="6">
         <v>45156</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="6">
         <v>45156</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="6">
         <v>45155</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="6">
         <v>45155</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A159" s="6">
         <v>45155</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="6">
         <v>45121</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="6">
         <v>45146</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A162" s="6">
         <v>45146</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A163" s="6">
         <v>45146</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="6">
         <v>45142</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="6">
         <v>45141</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A166" s="6">
         <v>45141</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="6">
         <v>45139</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="6">
         <v>45141</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="6">
         <v>45141</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="6">
         <v>45141</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="6">
         <v>45141</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="6">
         <v>45141</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="6">
         <v>45140</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="6">
         <v>45139</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="6">
         <v>45134</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="6">
         <v>45126</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="6">
         <v>45124</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="6">
         <v>45124</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="6">
         <v>45124</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A180" s="6">
         <v>45124</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="6">
         <v>45124</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A182" s="6">
         <v>45124</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="6">
         <v>45124</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="6">
         <v>45124</v>
       </c>
@@ -6709,7 +6709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="6">
         <v>45124</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="6">
         <v>45124</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="6">
         <v>45124</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="6">
         <v>45124</v>
       </c>
@@ -6813,7 +6813,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A189" s="6">
         <v>45124</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="6">
         <v>45124</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A191" s="6">
         <v>45124</v>
       </c>
@@ -6891,7 +6891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A192" s="6">
         <v>45124</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A193" s="6">
         <v>45124</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="6">
         <v>45124</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" s="6">
         <v>45124</v>
       </c>
@@ -6995,7 +6995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A196" s="6">
         <v>45124</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="6">
         <v>45124</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A198" s="6">
         <v>45124</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="6">
         <v>45124</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="6">
         <v>45124</v>
       </c>
@@ -7125,7 +7125,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="6">
         <v>45112</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="6">
         <v>45106</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A203" s="6">
         <v>45106</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A204" s="6">
         <v>45106</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A205" s="6">
         <v>45104</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A206" s="6">
         <v>45104</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A207" s="6">
         <v>45104</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" s="6">
         <v>45104</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209" s="6">
         <v>45100</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="6">
         <v>45092</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="6">
         <v>45092</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A212" s="6">
         <v>45092</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="6">
         <v>45091</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="6">
         <v>45085</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A215" s="6">
         <v>45084</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" s="6">
         <v>45078</v>
       </c>
@@ -7541,7 +7541,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A217" s="6">
         <v>45076</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="6">
         <v>45071</v>
       </c>
@@ -7593,7 +7593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A219" s="6">
         <v>45068</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="6">
         <v>45064</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A221" s="6">
         <v>45063</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A222" s="6">
         <v>45062</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="6">
         <v>45062</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A224" s="6">
         <v>45062</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A225" s="6">
         <v>45061</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="6">
         <v>45056</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A227" s="6">
         <v>45056</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="6">
         <v>45056</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="6">
         <v>45054</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="6">
         <v>45049</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A231" s="6">
         <v>45049</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" s="6">
         <v>45049</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A233" s="6">
         <v>45049</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="6">
         <v>45041</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="6">
         <v>45036</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="6">
         <v>45035</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A237" s="6">
         <v>45034</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A238" s="6">
         <v>45021</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A239" s="6">
         <v>45022</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A240" s="6">
         <v>45021</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A241" s="6">
         <v>45021</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A242" s="6">
         <v>45020</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" s="6">
         <v>45019</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="6">
         <v>45016</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" s="6">
         <v>45007</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="6">
         <v>45000</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="6">
         <v>44999</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="6">
         <v>45005</v>
       </c>
@@ -8373,7 +8373,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" s="6">
         <v>44993</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A250" s="6">
         <v>44988</v>
       </c>
@@ -8425,7 +8425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="6">
         <v>44987</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="6">
         <v>44985</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A253" s="6">
         <v>44985</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A254" s="6">
         <v>44985</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="6">
         <v>44985</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A256" s="6">
         <v>44984</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A257" s="6">
         <v>44984</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A258" s="6">
         <v>44984</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A259" s="6">
         <v>44984</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A260" s="6">
         <v>44984</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A261" s="6">
         <v>44984</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="6">
         <v>44984</v>
       </c>
@@ -8737,7 +8737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="6">
         <v>44984</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="6">
         <v>44980</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A265" s="6">
         <v>44973</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A266" s="6">
         <v>44973</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="6">
         <v>44978</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="6">
         <v>44972</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A269" s="6">
         <v>44965</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A270" s="6">
         <v>44964</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A271" s="6">
         <v>44964</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A272" s="6">
         <v>44964</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="6">
         <v>44964</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="6">
         <v>44957</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="6">
         <v>44957</v>
       </c>
@@ -9075,7 +9075,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A276" s="6">
         <v>44959</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A277" s="6">
         <v>44959</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A278" s="6">
         <v>44959</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A279" s="6">
         <v>44957</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A280" s="6">
         <v>44953</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A281" s="6">
         <v>44946</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="6">
         <v>44951</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A283" s="6">
         <v>44951</v>
       </c>
@@ -9283,7 +9283,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="6">
         <v>44950</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="6">
         <v>44945</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="6">
         <v>44942</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="6">
         <v>44938</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A288" s="6">
         <v>44937</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A289" s="6">
         <v>44936</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A290" s="6">
         <v>44935</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A291" s="6">
         <v>44931</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A292" s="6">
         <v>44932</v>
       </c>
@@ -9532,6 +9532,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100760F384C01253B4483988CA2B4DC3D8B" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e781775903b6f2e8a0f8f13392d01a10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ce3e1e77-612f-4718-9ceb-df3297d2d278" xmlns:ns4="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a85738aeea969ee50223f146368d3efc" ns3:_="" ns4:_="">
     <xsd:import namespace="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
@@ -9764,14 +9772,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
   <ds:schemaRefs>
@@ -9781,6 +9781,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A89718-E9C9-461A-931E-28E5AC1A6D2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9797,21 +9814,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fischsa1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A7C24F8-40CC-438A-9E79-C3B65A0BD9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F5ABF1-CF8E-48BA-8DD2-CF251309B85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30735" yWindow="1890" windowWidth="21600" windowHeight="11295" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="31020" yWindow="3045" windowWidth="24480" windowHeight="11985" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11412,12 +11412,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11654,17 +11653,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11689,18 +11698,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/matthew_mazer_twc_texas_gov/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fischsa1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E1F07F16-2BBC-47D7-BE8D-89E4853242E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1EC6AB6-EBBC-4741-96EC-D715980A8D1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90C01352-C4AE-4970-AAF5-9A0CB40F3B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="5070" windowWidth="33510" windowHeight="14370" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="795" yWindow="1230" windowWidth="25335" windowHeight="13650" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12953,15 +12953,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100760F384C01253B4483988CA2B4DC3D8B" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e781775903b6f2e8a0f8f13392d01a10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ce3e1e77-612f-4718-9ceb-df3297d2d278" xmlns:ns4="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a85738aeea969ee50223f146368d3efc" ns3:_="" ns4:_="">
     <xsd:import namespace="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
@@ -13194,6 +13185,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13203,14 +13203,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A89718-E9C9-461A-931E-28E5AC1A6D2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13229,19 +13221,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fischsa1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3445E17-1432-449C-8177-95622FC890EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6487711-0501-40DD-BD4F-9051AF11847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="525" windowWidth="27480" windowHeight="14895" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13360,15 +13360,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100760F384C01253B4483988CA2B4DC3D8B" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e781775903b6f2e8a0f8f13392d01a10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ce3e1e77-612f-4718-9ceb-df3297d2d278" xmlns:ns4="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a85738aeea969ee50223f146368d3efc" ns3:_="" ns4:_="">
     <xsd:import namespace="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
@@ -13601,6 +13592,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -13610,14 +13610,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A89718-E9C9-461A-931E-28E5AC1A6D2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13632,6 +13624,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fischsa1\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6487711-0501-40DD-BD4F-9051AF11847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D024E6FB-0C99-424B-8095-F46CAE9B198F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
@@ -13360,6 +13360,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100760F384C01253B4483988CA2B4DC3D8B" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e781775903b6f2e8a0f8f13392d01a10">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ce3e1e77-612f-4718-9ceb-df3297d2d278" xmlns:ns4="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a85738aeea969ee50223f146368d3efc" ns3:_="" ns4:_="">
     <xsd:import namespace="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
@@ -13592,24 +13609,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A89718-E9C9-461A-931E-28E5AC1A6D2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13626,29 +13651,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/warn-scraper/cache/tx/2024-twc.xlsx
+++ b/data/warn-scraper/cache/tx/2024-twc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fischsa1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://twcgov-my.sharepoint.com/personal/matthew_mazer_twc_texas_gov/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFDFDF0-932C-4438-98C5-C204A4729E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="0" windowWidth="29040" windowHeight="15720" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
+    <workbookView xWindow="345" yWindow="5670" windowWidth="22590" windowHeight="14820" xr2:uid="{CC0F113C-9C5A-4BBC-B60D-64D0378D5568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2545,20 +2545,20 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>45621</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>45621</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>45621</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>45615</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>45615</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>45615</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>45615</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>45615</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>45615</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>45615</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>45615</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>45615</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>45615</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>45615</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>45615</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>45615</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>45614</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>45614</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>45614</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>45608</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>45608</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>45608</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>45608</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>45601</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>45601</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>45595</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>45594</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>45594</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>45594</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>45589</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>45588</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>45588</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>45587</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>45581</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
         <v>45581</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>45581</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>45575</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>45575</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>45558</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>45558</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>45554</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>45551</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>45547</v>
       </c>
@@ -3702,7 +3702,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>45546</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>45545</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>45541</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>45539</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>45539</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>45534</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>45532</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>45531</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>45525</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <v>45518</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <v>45516</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <v>45516</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <v>45516</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>45516</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>45516</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>45516</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>45516</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>45516</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>45516</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>45516</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>45516</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
         <v>45516</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>45516</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="9">
         <v>45512</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>45512</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>45512</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>45512</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="9">
         <v>45512</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="9">
         <v>45512</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="9">
         <v>45512</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="9">
         <v>45512</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
         <v>45512</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
         <v>45512</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="9">
         <v>45512</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
         <v>45512</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="9">
         <v>45511</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
         <v>45511</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <v>45511</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
         <v>45511</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
         <v>45511</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
         <v>45510</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
         <v>45509</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>45509</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
         <v>45509</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>45505</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>45505</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>45502</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>45499</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="14">
         <v>45499</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>45498</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="14">
         <v>45498</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="14">
         <v>45496</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="14">
         <v>45496</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="14">
         <v>45491</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="14">
         <v>45491</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A100" s="14">
         <v>45491</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="14">
         <v>45491</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="14">
         <v>45490</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="14">
         <v>45490</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="14">
         <v>45490</v>
       </c>
@@ -5262,7 +5262,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="9">
         <v>45478</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="9">
         <v>45478</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>45476</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="9">
         <v>45473</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>45473</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>45473</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>45473</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="9">
         <v>45470</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A113" s="9">
         <v>45468</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="9">
         <v>45467</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="9">
         <v>45463</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="9">
         <v>45460</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
         <v>45457</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
         <v>45457</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
         <v>45456</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
         <v>45455</v>
       </c>
@@ -5678,7 +5678,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
         <v>45454</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
         <v>45453</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
         <v>45447</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
         <v>45447</v>
       </c>
@@ -5782,7 +5782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
         <v>45447</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
         <v>45447</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>45447</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
         <v>45447</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>45447</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>45447</v>
       </c>
@@ -5938,7 +5938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>45447</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
         <v>45447</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="9">
         <v>45447</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
         <v>45447</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
         <v>45447</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="9">
         <v>45447</v>
       </c>
@@ -6094,7 +6094,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="9">
         <v>45447</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
         <v>45447</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
         <v>45447</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
         <v>45447</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
         <v>45447</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="9">
         <v>45447</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="9">
         <v>45447</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="9">
         <v>45447</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="9">
         <v>45447</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="9">
         <v>45447</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>45447</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="9">
         <v>45447</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>45447</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>45447</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>45447</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="9">
         <v>45447</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="9">
         <v>45447</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="9">
         <v>45446</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="9">
         <v>45446</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A156" s="9">
         <v>45446</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A157" s="9">
         <v>45446</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
         <v>45446</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
         <v>45446</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
         <v>45446</v>
       </c>
@@ -6718,7 +6718,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
         <v>45443</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A162" s="9">
         <v>45442</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
         <v>45435</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="9">
         <v>45433</v>
       </c>
@@ -6822,7 +6822,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
         <v>45432</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="9">
         <v>45429</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>45427</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A168" s="9">
         <v>45426</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>45419</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>45415</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>45414</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="9">
         <v>45414</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="9">
         <v>45414</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="9">
         <v>45414</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="9">
         <v>45414</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="9">
         <v>45414</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="9">
         <v>45414</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
         <v>45414</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" s="9">
         <v>45414</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="9">
         <v>45414</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A181" s="9">
         <v>45414</v>
       </c>
@@ -7264,7 +7264,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="9">
         <v>45412</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="9">
         <v>45407</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="9">
         <v>45405</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="9">
         <v>45405</v>
       </c>
@@ -7368,7 +7368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="9">
         <v>45399</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="9">
         <v>45398</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="9">
         <v>45386</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="9">
         <v>45385</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="9">
         <v>45379</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" s="9">
         <v>45378</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>45377</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A193" s="9">
         <v>45365</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="9">
         <v>45365</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="9">
         <v>45362</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="9">
         <v>45359</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="9">
         <v>45357</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A198" s="9">
         <v>45357</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="9">
         <v>45355</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="9">
         <v>45351</v>
       </c>
@@ -7758,7 +7758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="9">
         <v>45351</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
         <v>45349</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="9">
         <v>45348</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="9">
         <v>45348</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="9">
         <v>45345</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="9">
         <v>45344</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="9">
         <v>45344</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" s="9">
         <v>45337</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="9">
         <v>45334</v>
       </c>
@@ -7992,7 +7992,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="9">
         <v>45324</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" s="9">
         <v>45323</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="9">
         <v>45321</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="9">
         <v>45316</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="9">
         <v>45316</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
         <v>45316</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
         <v>45315</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="9">
         <v>45315</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
         <v>45314</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="9">
         <v>45313</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="9">
         <v>45310</v>
       </c>
@@ -8278,7 +8278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="9">
         <v>45309</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="9">
         <v>45308</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="9">
         <v>45307</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="9">
         <v>45303</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="9">
         <v>45303</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="9">
         <v>45303</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="9">
         <v>45307</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="9">
         <v>45300</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
         <v>45300</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A230" s="9">
         <v>45299</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A231" s="9">
         <v>45299</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="9">
         <v>45296</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="9">
         <v>45296</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="9">
         <v>45295</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="9">
         <v>45278</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A236" s="9">
         <v>45271</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
         <v>45267</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="9">
         <v>45264</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="9">
         <v>45264</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
         <v>45264</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="9">
         <v>45264</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="9">
         <v>45261</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="9">
         <v>45257</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" s="9">
         <v>45257</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="9">
         <v>45257</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
         <v>45257</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="9">
         <v>45257</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="9">
         <v>45243</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="9">
         <v>45240</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>45238</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>45238</v>
       </c>
@@ -9084,7 +9084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>45238</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>45238</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>45238</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>45236</v>
       </c>
@@ -9188,7 +9188,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>45236</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>45230</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
         <v>45230</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
         <v>45230</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
         <v>45225</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
         <v>45225</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
         <v>45225</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
         <v>45225</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
         <v>45225</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
         <v>45225</v>
       </c>
@@ -9448,7 +9448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
         <v>45225</v>
       </c>
@@ -9474,7 +9474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
         <v>45225</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>45225</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>45225</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>45225</v>
       </c>
@@ -9578,7 +9578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>45225</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>45225</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>45225</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>45224</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>45224</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>45222</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>45222</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>45222</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>45222</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>45222</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>45219</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>45219</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>45219</v>
       </c>
@@ -9916,7 +9916,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>45218</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>45218</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>45218</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>45218</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>45217</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>45211</v>
       </c>
@@ -10072,7 +10072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>45209</v>
       </c>
@@ -10098,7 +10098,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
         <v>45209</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
         <v>45208</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
         <v>45208</v>
       </c>
@@ -10176,7 +10176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
         <v>45208</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
         <v>45208</v>
       </c>
@@ -10228,7 +10228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
         <v>45208</v>
       </c>
@@ -10254,7 +10254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
         <v>45205</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
         <v>45203</v>
       </c>
@@ -10306,7 +10306,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
         <v>45201</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
         <v>45190</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
         <v>45188</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
         <v>45188</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
         <v>45187</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
         <v>45187</v>
       </c>
@@ -10462,7 +10462,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
         <v>45187</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
         <v>45187</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
         <v>45187</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
         <v>45187</v>
       </c>
@@ -10566,7 +10566,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
         <v>45187</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
         <v>45181</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
         <v>45177</v>
       </c>
@@ -10644,7 +10644,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
         <v>45176</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
         <v>45169</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>45167</v>
       </c>
@@ -10722,7 +10722,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>45167</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>45163</v>
       </c>
@@ -10774,7 +10774,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>45162</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>45161</v>
       </c>
@@ -10826,7 +10826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>45161</v>
       </c>
@@ -10852,7 +10852,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>45156</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>45156</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>45156</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>45156</v>
       </c>
@@ -10956,7 +10956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>45155</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>45155</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>45155</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>45121</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>45146</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>45146</v>
       </c>
@@ -11112,7 +11112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>45146</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>45142</v>
       </c>
@@ -11164,7 +11164,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>45141</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>45141</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>45139</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>45141</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>45141</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
         <v>45141</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
         <v>45141</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
         <v>45141</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
         <v>45140</v>
       </c>
@@ -11398,7 +11398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
         <v>45139</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
         <v>45134</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
         <v>45126</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
         <v>45124</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
         <v>45124</v>
       </c>
@@ -11528,7 +11528,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
         <v>45124</v>
       </c>
@@ -11554,7 +11554,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
         <v>45124</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
         <v>45124</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
         <v>45124</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
         <v>45124</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
         <v>45124</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
         <v>45124</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
         <v>45124</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
         <v>45124</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
         <v>45124</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
         <v>45124</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
         <v>45124</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
         <v>45124</v>
       </c>
@@ -11866,7 +11866,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
         <v>45124</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
         <v>45124</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
         <v>45124</v>
       </c>
@@ -11944,7 +11944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
         <v>45124</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
         <v>45124</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
         <v>45124</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
         <v>45124</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
         <v>45124</v>
       </c>
@@ -12074,7 +12074,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
         <v>45124</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
         <v>45112</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
         <v>45106</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
         <v>45106</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
         <v>45106</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
         <v>45104</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
         <v>45104</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
         <v>45104</v>
       </c>
@@ -12282,7 +12282,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
         <v>45104</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
         <v>45100</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
         <v>45092</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
         <v>45092</v>
       </c>
@@ -12386,7 +12386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
         <v>45092</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
         <v>45091</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
         <v>45085</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
         <v>45084</v>
       </c>
@@ -12490,7 +12490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
         <v>45078</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
         <v>45076</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
         <v>45071</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
         <v>45068</v>
       </c>
@@ -12594,7 +12594,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
         <v>45064</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
         <v>45063</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
         <v>45062</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
         <v>45062</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
         <v>45062</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
         <v>45061</v>
       </c>
@@ -12750,7 +12750,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
         <v>45056</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
         <v>45056</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
         <v>45056</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
         <v>45054</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
         <v>45049</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
         <v>45049</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
         <v>45049</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
         <v>45049</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
         <v>45041</v>
       </c>
@@ -12984,7 +12984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
         <v>45036</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
         <v>45035</v>
       </c>
@@ -13036,7 +13036,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
         <v>45034</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
         <v>45021</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
         <v>45022</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
         <v>45021</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
         <v>45021</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
         <v>45020</v>
       </c>
@@ -13192,7 +13192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
         <v>45019</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
         <v>45016</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
         <v>45007</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
         <v>45000</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
         <v>44999</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
         <v>45005</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
         <v>44993</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
         <v>44988</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
         <v>44987</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
         <v>44985</v>
       </c>
@@ -13452,7 +13452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
         <v>44985</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
         <v>44985</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
         <v>44985</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
         <v>44984</v>
       </c>
@@ -13556,7 +13556,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
         <v>44984</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
         <v>44984</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
         <v>44984</v>
       </c>
@@ -13634,7 +13634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
         <v>44984</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
         <v>44984</v>
       </c>
@@ -13686,7 +13686,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
         <v>44984</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
         <v>44984</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
         <v>44980</v>
       </c>
@@ -13764,7 +13764,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
         <v>44973</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
         <v>44973</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
         <v>44978</v>
       </c>
@@ -13842,7 +13842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
         <v>44972</v>
       </c>
@@ -13868,7 +13868,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
         <v>44965</v>
       </c>
@@ -13894,7 +13894,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
         <v>44964</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
         <v>44964</v>
       </c>
@@ -13946,7 +13946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
         <v>44964</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
         <v>44964</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
         <v>44957</v>
       </c>
@@ -14024,7 +14024,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
         <v>44957</v>
       </c>
@@ -14050,7 +14050,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
         <v>44959</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
         <v>44959</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
         <v>44959</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
         <v>44957</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
         <v>44953</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
         <v>44946</v>
       </c>
@@ -14206,7 +14206,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
         <v>44951</v>
       </c>
@@ -14232,7 +14232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
         <v>44951</v>
       </c>
@@ -14258,7 +14258,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
         <v>44950</v>
       </c>
@@ -14284,7 +14284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
         <v>44945</v>
       </c>
@@ -14310,7 +14310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
         <v>44942</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
         <v>44938</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
         <v>44937</v>
       </c>
@@ -14388,7 +14388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
         <v>44936</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
         <v>44935</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
         <v>44931</v>
       </c>
@@ -14466,7 +14466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
         <v>44932</v>
       </c>
@@ -14498,12 +14498,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14740,17 +14739,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="ce3e1e77-612f-4718-9ceb-df3297d2d278" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14775,18 +14784,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00D69F0-B654-4293-92B7-492D2BCB0A17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{455A232C-25F7-488B-8D79-C31426AAB4D3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="b8fe95b9-2ed9-4e91-9b6a-eada56f00b82"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ce3e1e77-612f-4718-9ceb-df3297d2d278"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>